--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7482832</v>
+        <v>7482867</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,73 +20920,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K230">
+        <v>5.25</v>
+      </c>
+      <c r="L230">
+        <v>3.75</v>
+      </c>
+      <c r="M230">
+        <v>1.65</v>
+      </c>
+      <c r="N230">
+        <v>9</v>
+      </c>
+      <c r="O230">
+        <v>4.5</v>
+      </c>
+      <c r="P230">
         <v>1.363</v>
       </c>
-      <c r="L230">
-        <v>5</v>
-      </c>
-      <c r="M230">
-        <v>7.5</v>
-      </c>
-      <c r="N230">
-        <v>1.444</v>
-      </c>
-      <c r="O230">
-        <v>4</v>
-      </c>
-      <c r="P230">
-        <v>8</v>
-      </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S230">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z230">
+        <v>0.4875</v>
+      </c>
+      <c r="AA230">
         <v>-0.5</v>
       </c>
-      <c r="AA230">
-        <v>0.375</v>
-      </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231" t="s">
+        <v>47</v>
+      </c>
+      <c r="K231">
+        <v>3.6</v>
+      </c>
+      <c r="L231">
+        <v>3.3</v>
+      </c>
+      <c r="M231">
+        <v>2.05</v>
+      </c>
+      <c r="N231">
+        <v>2.6</v>
+      </c>
+      <c r="O231">
+        <v>3.25</v>
+      </c>
+      <c r="P231">
+        <v>2.75</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>1.8</v>
+      </c>
+      <c r="S231">
+        <v>2</v>
+      </c>
+      <c r="T231">
+        <v>2.5</v>
+      </c>
+      <c r="U231">
+        <v>1.975</v>
+      </c>
+      <c r="V231">
+        <v>1.825</v>
+      </c>
+      <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>1.75</v>
+      </c>
+      <c r="Z231">
+        <v>-1</v>
+      </c>
+      <c r="AA231">
         <v>1</v>
       </c>
-      <c r="I231">
-        <v>1</v>
-      </c>
-      <c r="J231" t="s">
-        <v>46</v>
-      </c>
-      <c r="K231">
-        <v>1.5</v>
-      </c>
-      <c r="L231">
-        <v>4.333</v>
-      </c>
-      <c r="M231">
-        <v>5.75</v>
-      </c>
-      <c r="N231">
-        <v>1.533</v>
-      </c>
-      <c r="O231">
-        <v>4.2</v>
-      </c>
-      <c r="P231">
-        <v>5.5</v>
-      </c>
-      <c r="Q231">
-        <v>-1</v>
-      </c>
-      <c r="R231">
-        <v>1.925</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
-      <c r="U231">
-        <v>1.8</v>
-      </c>
-      <c r="V231">
-        <v>2</v>
-      </c>
-      <c r="W231">
-        <v>-1</v>
-      </c>
-      <c r="X231">
-        <v>3.2</v>
-      </c>
-      <c r="Y231">
-        <v>-1</v>
-      </c>
-      <c r="Z231">
-        <v>-1</v>
-      </c>
-      <c r="AA231">
-        <v>0.875</v>
-      </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K232">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L232">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M232">
+        <v>7.5</v>
+      </c>
+      <c r="N232">
+        <v>1.444</v>
+      </c>
+      <c r="O232">
+        <v>4</v>
+      </c>
+      <c r="P232">
+        <v>8</v>
+      </c>
+      <c r="Q232">
+        <v>-1.25</v>
+      </c>
+      <c r="R232">
         <v>2.05</v>
       </c>
-      <c r="N232">
-        <v>2.6</v>
-      </c>
-      <c r="O232">
-        <v>3.25</v>
-      </c>
-      <c r="P232">
-        <v>2.75</v>
-      </c>
-      <c r="Q232">
-        <v>0</v>
-      </c>
-      <c r="R232">
-        <v>1.8</v>
-      </c>
       <c r="S232">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC232">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7482867</v>
+        <v>7483306</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K233">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L233">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="N233">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="O233">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P233">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="Q233">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R233">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V233">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y233">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
+        <v>0.875</v>
+      </c>
+      <c r="AB233">
         <v>-0.5</v>
       </c>
-      <c r="AB233">
-        <v>0.825</v>
-      </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L235">
         <v>3.5</v>
       </c>
       <c r="M235">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N235">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O235">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q235">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
         <v>2.5</v>
       </c>
       <c r="U235">
+        <v>1.85</v>
+      </c>
+      <c r="V235">
         <v>1.95</v>
       </c>
-      <c r="V235">
-        <v>1.85</v>
-      </c>
       <c r="W235">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
         <v>0.95</v>
-      </c>
-      <c r="AC235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L236">
         <v>3.5</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N236">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O236">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P236">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R236">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S236">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T236">
         <v>2.5</v>
       </c>
       <c r="U236">
+        <v>1.95</v>
+      </c>
+      <c r="V236">
         <v>1.85</v>
       </c>
-      <c r="V236">
-        <v>1.95</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA236">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,73 +21632,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M238">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N238">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W238">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,40 +21721,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M239">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N239">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O239">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P239">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
         <v>1.8</v>
@@ -21763,34 +21763,34 @@
         <v>2</v>
       </c>
       <c r="T239">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y239">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,73 +21810,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
+        <v>4.2</v>
+      </c>
+      <c r="N240">
+        <v>2.4</v>
+      </c>
+      <c r="O240">
         <v>3.1</v>
       </c>
-      <c r="N240">
-        <v>2.1</v>
-      </c>
-      <c r="O240">
-        <v>3.4</v>
-      </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q240">
         <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T240">
         <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X240">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA240">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,55 +21899,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
         <v>1</v>
-      </c>
-      <c r="I241">
-        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>47</v>
       </c>
       <c r="K241">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L241">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M241">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N241">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O241">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T241">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21956,19 +21956,19 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="242" spans="1:29">

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,73 +20920,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
         <v>1</v>
       </c>
-      <c r="I230">
-        <v>2</v>
-      </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K230">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L230">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M230">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N230">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O230">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P230">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q230">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S230">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB230">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7483188</v>
+        <v>7483306</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K231">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L231">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M231">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N231">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O231">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P231">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R231">
+        <v>1.925</v>
+      </c>
+      <c r="S231">
+        <v>1.875</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
         <v>1.8</v>
       </c>
-      <c r="S231">
-        <v>2</v>
-      </c>
-      <c r="T231">
-        <v>2.5</v>
-      </c>
-      <c r="U231">
-        <v>1.975</v>
-      </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y231">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L232">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M232">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N232">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P232">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q232">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S232">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB232">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7483306</v>
+        <v>7482867</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K233">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L233">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M233">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N233">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O233">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P233">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q233">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V233">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA233">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB233">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC233">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,55 +21632,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
         <v>1</v>
-      </c>
-      <c r="I238">
-        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>47</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M238">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N238">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O238">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P238">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -21689,19 +21689,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB238">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,73 +21721,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H239">
         <v>2</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M239">
+        <v>4.2</v>
+      </c>
+      <c r="N239">
+        <v>2.4</v>
+      </c>
+      <c r="O239">
         <v>3.1</v>
       </c>
-      <c r="N239">
-        <v>2.1</v>
-      </c>
-      <c r="O239">
-        <v>3.4</v>
-      </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q239">
         <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X239">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA239">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,73 +21810,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K240">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L240">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N240">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O240">
+        <v>3.4</v>
+      </c>
+      <c r="P240">
         <v>3.1</v>
-      </c>
-      <c r="P240">
-        <v>2.75</v>
       </c>
       <c r="Q240">
         <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S240">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T240">
         <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W240">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB240">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528857</v>
+        <v>7528858</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,55 +21899,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>47</v>
       </c>
       <c r="K241">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M241">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N241">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O241">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T241">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21956,19 +21956,19 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7483247</v>
+        <v>7483189</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,76 +20564,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K226">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M226">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N226">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O226">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P226">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q226">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V226">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y226">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC226">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,76 +20653,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227">
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L227">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N227">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O227">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P227">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q227">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R227">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L230">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N230">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O230">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P230">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7483306</v>
+        <v>7482867</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H231">
         <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L231">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M231">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N231">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O231">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P231">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q231">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R231">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA231">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC231">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7483188</v>
+        <v>7483306</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K232">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L232">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N232">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O232">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P232">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R232">
+        <v>1.925</v>
+      </c>
+      <c r="S232">
+        <v>1.875</v>
+      </c>
+      <c r="T232">
+        <v>2.25</v>
+      </c>
+      <c r="U232">
         <v>1.8</v>
       </c>
-      <c r="S232">
-        <v>2</v>
-      </c>
-      <c r="T232">
-        <v>2.5</v>
-      </c>
-      <c r="U232">
-        <v>1.975</v>
-      </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y232">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC232">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,73 +21187,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233">
         <v>1</v>
       </c>
-      <c r="I233">
-        <v>2</v>
-      </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K233">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L233">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M233">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N233">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O233">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q233">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R233">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T233">
         <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V233">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB233">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L235">
         <v>3.5</v>
       </c>
       <c r="M235">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N235">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O235">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P235">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R235">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T235">
         <v>2.5</v>
       </c>
       <c r="U235">
+        <v>1.95</v>
+      </c>
+      <c r="V235">
         <v>1.85</v>
       </c>
-      <c r="V235">
-        <v>1.95</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L236">
         <v>3.5</v>
       </c>
       <c r="M236">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N236">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O236">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P236">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q236">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S236">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T236">
         <v>2.5</v>
       </c>
       <c r="U236">
+        <v>1.85</v>
+      </c>
+      <c r="V236">
         <v>1.95</v>
       </c>
-      <c r="V236">
-        <v>1.85</v>
-      </c>
       <c r="W236">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.95</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N238">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O238">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q238">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
+        <v>2.05</v>
+      </c>
+      <c r="S238">
+        <v>1.75</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
         <v>1.8</v>
       </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>3</v>
-      </c>
-      <c r="U238">
-        <v>1.975</v>
-      </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,73 +21721,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G239" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L239">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M239">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O239">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P239">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V239">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z239">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,40 +21810,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M240">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N240">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O240">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R240">
         <v>1.8</v>
@@ -21852,34 +21852,34 @@
         <v>2</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U240">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,73 +21899,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241">
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K241">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L241">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M241">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N241">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O241">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T241">
         <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y241">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC241">
         <v>-1</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7483189</v>
+        <v>7483281</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,61 +20564,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>46</v>
       </c>
       <c r="K226">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M226">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N226">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O226">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P226">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y226">
         <v>-1</v>
@@ -20627,13 +20627,13 @@
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7483247</v>
+        <v>7483189</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,76 +20653,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227">
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K227">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="L227">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M227">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N227">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O227">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P227">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q227">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R227">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S227">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y227">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,76 +20742,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K228">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L228">
+        <v>3.2</v>
+      </c>
+      <c r="M228">
+        <v>2.25</v>
+      </c>
+      <c r="N228">
+        <v>3.5</v>
+      </c>
+      <c r="O228">
         <v>3.25</v>
       </c>
-      <c r="M228">
-        <v>4.2</v>
-      </c>
-      <c r="N228">
-        <v>1.909</v>
-      </c>
-      <c r="O228">
-        <v>3.5</v>
-      </c>
       <c r="P228">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
+        <v>1.025</v>
+      </c>
+      <c r="AB228">
+        <v>-1</v>
+      </c>
+      <c r="AC228">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB228">
-        <v>-1</v>
-      </c>
-      <c r="AC228">
-        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K230">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L230">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M230">
+        <v>7.5</v>
+      </c>
+      <c r="N230">
+        <v>1.444</v>
+      </c>
+      <c r="O230">
+        <v>4</v>
+      </c>
+      <c r="P230">
+        <v>8</v>
+      </c>
+      <c r="Q230">
+        <v>-1.25</v>
+      </c>
+      <c r="R230">
         <v>2.05</v>
       </c>
-      <c r="N230">
-        <v>2.6</v>
-      </c>
-      <c r="O230">
-        <v>3.25</v>
-      </c>
-      <c r="P230">
-        <v>2.75</v>
-      </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>1.8</v>
-      </c>
       <c r="S230">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>47</v>
+      </c>
+      <c r="K232">
+        <v>3.6</v>
+      </c>
+      <c r="L232">
+        <v>3.3</v>
+      </c>
+      <c r="M232">
+        <v>2.05</v>
+      </c>
+      <c r="N232">
+        <v>2.6</v>
+      </c>
+      <c r="O232">
+        <v>3.25</v>
+      </c>
+      <c r="P232">
+        <v>2.75</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>1.8</v>
+      </c>
+      <c r="S232">
+        <v>2</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>1.975</v>
+      </c>
+      <c r="V232">
+        <v>1.825</v>
+      </c>
+      <c r="W232">
+        <v>-1</v>
+      </c>
+      <c r="X232">
+        <v>-1</v>
+      </c>
+      <c r="Y232">
+        <v>1.75</v>
+      </c>
+      <c r="Z232">
+        <v>-1</v>
+      </c>
+      <c r="AA232">
         <v>1</v>
       </c>
-      <c r="I232">
-        <v>1</v>
-      </c>
-      <c r="J232" t="s">
-        <v>46</v>
-      </c>
-      <c r="K232">
-        <v>1.5</v>
-      </c>
-      <c r="L232">
-        <v>4.333</v>
-      </c>
-      <c r="M232">
-        <v>5.75</v>
-      </c>
-      <c r="N232">
-        <v>1.533</v>
-      </c>
-      <c r="O232">
-        <v>4.2</v>
-      </c>
-      <c r="P232">
-        <v>5.5</v>
-      </c>
-      <c r="Q232">
-        <v>-1</v>
-      </c>
-      <c r="R232">
-        <v>1.925</v>
-      </c>
-      <c r="S232">
-        <v>1.875</v>
-      </c>
-      <c r="T232">
-        <v>2.25</v>
-      </c>
-      <c r="U232">
-        <v>1.8</v>
-      </c>
-      <c r="V232">
-        <v>2</v>
-      </c>
-      <c r="W232">
-        <v>-1</v>
-      </c>
-      <c r="X232">
-        <v>3.2</v>
-      </c>
-      <c r="Y232">
-        <v>-1</v>
-      </c>
-      <c r="Z232">
-        <v>-1</v>
-      </c>
-      <c r="AA232">
-        <v>0.875</v>
-      </c>
       <c r="AB232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K233">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L233">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N233">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P233">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q233">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W233">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>0.875</v>
+      </c>
+      <c r="AB233">
         <v>-0.5</v>
       </c>
-      <c r="AA233">
-        <v>0.375</v>
-      </c>
-      <c r="AB233">
-        <v>0.95</v>
-      </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L235">
         <v>3.5</v>
       </c>
       <c r="M235">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N235">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O235">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q235">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
         <v>2.5</v>
       </c>
       <c r="U235">
+        <v>1.85</v>
+      </c>
+      <c r="V235">
         <v>1.95</v>
       </c>
-      <c r="V235">
-        <v>1.85</v>
-      </c>
       <c r="W235">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
         <v>0.95</v>
-      </c>
-      <c r="AC235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L236">
         <v>3.5</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N236">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O236">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P236">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R236">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S236">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T236">
         <v>2.5</v>
       </c>
       <c r="U236">
+        <v>1.95</v>
+      </c>
+      <c r="V236">
         <v>1.85</v>
       </c>
-      <c r="V236">
-        <v>1.95</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA236">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M238">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N238">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P238">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB238">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N240">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O240">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P240">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q240">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
+        <v>2.05</v>
+      </c>
+      <c r="S240">
+        <v>1.75</v>
+      </c>
+      <c r="T240">
+        <v>2.25</v>
+      </c>
+      <c r="U240">
         <v>1.8</v>
       </c>
-      <c r="S240">
-        <v>2</v>
-      </c>
-      <c r="T240">
-        <v>3</v>
-      </c>
-      <c r="U240">
-        <v>1.975</v>
-      </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA240">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC240">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,61 +20564,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G226" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>46</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L226">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M226">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N226">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O226">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P226">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y226">
         <v>-1</v>
@@ -20627,13 +20627,13 @@
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC226">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,76 +20653,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227">
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L227">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N227">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O227">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P227">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q227">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R227">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,76 +20742,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K228">
+        <v>1.909</v>
+      </c>
+      <c r="L228">
         <v>3.25</v>
       </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
       <c r="M228">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N228">
+        <v>1.909</v>
+      </c>
+      <c r="O228">
         <v>3.5</v>
       </c>
-      <c r="O228">
-        <v>3.25</v>
-      </c>
       <c r="P228">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K230">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L230">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M230">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N230">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O230">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P230">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
+        <v>-1</v>
+      </c>
+      <c r="AA230">
+        <v>0.875</v>
+      </c>
+      <c r="AB230">
         <v>-0.5</v>
       </c>
-      <c r="AA230">
-        <v>0.375</v>
-      </c>
-      <c r="AB230">
-        <v>0.95</v>
-      </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,13 +21009,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>2</v>
@@ -21024,41 +21024,41 @@
         <v>47</v>
       </c>
       <c r="K231">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L231">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M231">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N231">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O231">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P231">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q231">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
+        <v>1.975</v>
+      </c>
+      <c r="V231">
         <v>1.825</v>
       </c>
-      <c r="V231">
-        <v>1.975</v>
-      </c>
       <c r="W231">
         <v>-1</v>
       </c>
@@ -21066,19 +21066,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z231">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
         <v>0.825</v>
-      </c>
-      <c r="AC231">
-        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K232">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L232">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M232">
+        <v>7.5</v>
+      </c>
+      <c r="N232">
+        <v>1.444</v>
+      </c>
+      <c r="O232">
+        <v>4</v>
+      </c>
+      <c r="P232">
+        <v>8</v>
+      </c>
+      <c r="Q232">
+        <v>-1.25</v>
+      </c>
+      <c r="R232">
         <v>2.05</v>
       </c>
-      <c r="N232">
-        <v>2.6</v>
-      </c>
-      <c r="O232">
-        <v>3.25</v>
-      </c>
-      <c r="P232">
-        <v>2.75</v>
-      </c>
-      <c r="Q232">
-        <v>0</v>
-      </c>
-      <c r="R232">
-        <v>1.8</v>
-      </c>
       <c r="S232">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC232">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7483306</v>
+        <v>7482867</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H233">
         <v>1</v>
       </c>
       <c r="I233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K233">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L233">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M233">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N233">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O233">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P233">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q233">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V233">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA233">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB233">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC233">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G235" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L235">
         <v>3.5</v>
       </c>
       <c r="M235">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N235">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O235">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P235">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R235">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S235">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T235">
         <v>2.5</v>
       </c>
       <c r="U235">
+        <v>1.95</v>
+      </c>
+      <c r="V235">
         <v>1.85</v>
       </c>
-      <c r="V235">
-        <v>1.95</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA235">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L236">
         <v>3.5</v>
       </c>
       <c r="M236">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N236">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O236">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P236">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q236">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S236">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T236">
         <v>2.5</v>
       </c>
       <c r="U236">
+        <v>1.85</v>
+      </c>
+      <c r="V236">
         <v>1.95</v>
       </c>
-      <c r="V236">
-        <v>1.85</v>
-      </c>
       <c r="W236">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.95</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238">
         <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N238">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O238">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P238">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q238">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
+        <v>2.05</v>
+      </c>
+      <c r="S238">
+        <v>1.75</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
         <v>1.8</v>
       </c>
-      <c r="S238">
-        <v>2</v>
-      </c>
-      <c r="T238">
-        <v>3</v>
-      </c>
-      <c r="U238">
-        <v>1.975</v>
-      </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,73 +21721,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L239">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M239">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N239">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O239">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P239">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y239">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB239">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G240" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240">
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L240">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M240">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N240">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O240">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P240">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R240">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S240">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U240">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V240">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W240">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X240">
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z240">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB240">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,73 +21899,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241">
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K241">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L241">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M241">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N241">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T241">
         <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB241">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7483189</v>
+        <v>7483281</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,61 +20564,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>46</v>
       </c>
       <c r="K226">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M226">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N226">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O226">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P226">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V226">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y226">
         <v>-1</v>
@@ -20627,13 +20627,13 @@
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,61 +20742,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>46</v>
       </c>
       <c r="K228">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L228">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M228">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N228">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O228">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P228">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R228">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S228">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V228">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y228">
         <v>-1</v>
@@ -20805,13 +20805,13 @@
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC228">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K230">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L230">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M230">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N230">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O230">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P230">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q230">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T230">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X230">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB230">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7483188</v>
+        <v>7483306</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K231">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L231">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M231">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N231">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O231">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P231">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R231">
+        <v>1.925</v>
+      </c>
+      <c r="S231">
+        <v>1.875</v>
+      </c>
+      <c r="T231">
+        <v>2.25</v>
+      </c>
+      <c r="U231">
         <v>1.8</v>
       </c>
-      <c r="S231">
-        <v>2</v>
-      </c>
-      <c r="T231">
-        <v>2.5</v>
-      </c>
-      <c r="U231">
-        <v>1.975</v>
-      </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y231">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L232">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M232">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N232">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P232">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q232">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S232">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W232">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB232">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L235">
         <v>3.5</v>
       </c>
       <c r="M235">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N235">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O235">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q235">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T235">
         <v>2.5</v>
       </c>
       <c r="U235">
+        <v>1.85</v>
+      </c>
+      <c r="V235">
         <v>1.95</v>
       </c>
-      <c r="V235">
-        <v>1.85</v>
-      </c>
       <c r="W235">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
         <v>0.95</v>
-      </c>
-      <c r="AC235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L236">
         <v>3.5</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N236">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O236">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P236">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R236">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S236">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T236">
         <v>2.5</v>
       </c>
       <c r="U236">
+        <v>1.95</v>
+      </c>
+      <c r="V236">
         <v>1.85</v>
       </c>
-      <c r="V236">
-        <v>1.95</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA236">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,73 +21632,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N238">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O238">
+        <v>3.4</v>
+      </c>
+      <c r="P238">
         <v>3.1</v>
-      </c>
-      <c r="P238">
-        <v>2.75</v>
       </c>
       <c r="Q238">
         <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB238">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,73 +21721,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239">
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M239">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O239">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,73 +21899,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241">
         <v>1</v>
       </c>
-      <c r="I241">
-        <v>2</v>
-      </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K241">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L241">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M241">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N241">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O241">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T241">
         <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC241">
         <v>-1</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231" t="s">
+        <v>47</v>
+      </c>
+      <c r="K231">
+        <v>3.6</v>
+      </c>
+      <c r="L231">
+        <v>3.3</v>
+      </c>
+      <c r="M231">
+        <v>2.05</v>
+      </c>
+      <c r="N231">
+        <v>2.6</v>
+      </c>
+      <c r="O231">
+        <v>3.25</v>
+      </c>
+      <c r="P231">
+        <v>2.75</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>1.8</v>
+      </c>
+      <c r="S231">
+        <v>2</v>
+      </c>
+      <c r="T231">
+        <v>2.5</v>
+      </c>
+      <c r="U231">
+        <v>1.975</v>
+      </c>
+      <c r="V231">
+        <v>1.825</v>
+      </c>
+      <c r="W231">
+        <v>-1</v>
+      </c>
+      <c r="X231">
+        <v>-1</v>
+      </c>
+      <c r="Y231">
+        <v>1.75</v>
+      </c>
+      <c r="Z231">
+        <v>-1</v>
+      </c>
+      <c r="AA231">
         <v>1</v>
       </c>
-      <c r="I231">
-        <v>1</v>
-      </c>
-      <c r="J231" t="s">
-        <v>46</v>
-      </c>
-      <c r="K231">
-        <v>1.5</v>
-      </c>
-      <c r="L231">
-        <v>4.333</v>
-      </c>
-      <c r="M231">
-        <v>5.75</v>
-      </c>
-      <c r="N231">
-        <v>1.533</v>
-      </c>
-      <c r="O231">
-        <v>4.2</v>
-      </c>
-      <c r="P231">
-        <v>5.5</v>
-      </c>
-      <c r="Q231">
-        <v>-1</v>
-      </c>
-      <c r="R231">
-        <v>1.925</v>
-      </c>
-      <c r="S231">
-        <v>1.875</v>
-      </c>
-      <c r="T231">
-        <v>2.25</v>
-      </c>
-      <c r="U231">
-        <v>1.8</v>
-      </c>
-      <c r="V231">
-        <v>2</v>
-      </c>
-      <c r="W231">
-        <v>-1</v>
-      </c>
-      <c r="X231">
-        <v>3.2</v>
-      </c>
-      <c r="Y231">
-        <v>-1</v>
-      </c>
-      <c r="Z231">
-        <v>-1</v>
-      </c>
-      <c r="AA231">
-        <v>0.875</v>
-      </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7483188</v>
+        <v>7483306</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K232">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L232">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M232">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N232">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O232">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P232">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R232">
+        <v>1.925</v>
+      </c>
+      <c r="S232">
+        <v>1.875</v>
+      </c>
+      <c r="T232">
+        <v>2.25</v>
+      </c>
+      <c r="U232">
         <v>1.8</v>
       </c>
-      <c r="S232">
-        <v>2</v>
-      </c>
-      <c r="T232">
-        <v>2.5</v>
-      </c>
-      <c r="U232">
-        <v>1.975</v>
-      </c>
       <c r="V232">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y232">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC232">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,73 +21632,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M238">
+        <v>4.2</v>
+      </c>
+      <c r="N238">
+        <v>2.4</v>
+      </c>
+      <c r="O238">
         <v>3.1</v>
       </c>
-      <c r="N238">
-        <v>2.1</v>
-      </c>
-      <c r="O238">
-        <v>3.4</v>
-      </c>
       <c r="P238">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q238">
         <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S238">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V238">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X238">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA238">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,73 +21721,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L239">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M239">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N239">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O239">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P239">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q239">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S239">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y239">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA239">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB239">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,73 +21899,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K241">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L241">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M241">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N241">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O241">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T241">
         <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z241">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB241">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7483247</v>
+        <v>7483189</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,76 +20653,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227">
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K227">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="L227">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M227">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N227">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O227">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P227">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q227">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R227">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S227">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W227">
         <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y227">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC227">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,76 +20742,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228">
         <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K228">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L228">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M228">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N228">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O228">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P228">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q228">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R228">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S228">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V228">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB228">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L230">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M230">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N230">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O230">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P230">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,13 +21009,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>2</v>
@@ -21024,41 +21024,41 @@
         <v>47</v>
       </c>
       <c r="K231">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L231">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M231">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N231">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O231">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P231">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R231">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
+        <v>1.825</v>
+      </c>
+      <c r="V231">
         <v>1.975</v>
       </c>
-      <c r="V231">
-        <v>1.825</v>
-      </c>
       <c r="W231">
         <v>-1</v>
       </c>
@@ -21066,19 +21066,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA231">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC231">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,73 +21187,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233">
         <v>1</v>
       </c>
-      <c r="I233">
-        <v>2</v>
-      </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K233">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L233">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M233">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N233">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O233">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P233">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q233">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R233">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T233">
         <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V233">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA233">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB233">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC233">
         <v>-1</v>
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,73 +21632,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L238">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M238">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N238">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W238">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z238">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB238">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,73 +21899,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241">
         <v>1</v>
       </c>
-      <c r="I241">
-        <v>2</v>
-      </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K241">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L241">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M241">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N241">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O241">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T241">
         <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC241">
         <v>-1</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,76 +20653,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K227">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L227">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M227">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N227">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O227">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q227">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V227">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W227">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X227">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,76 +20831,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K229">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L229">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M229">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N229">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P229">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q229">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W229">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC229">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K230">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L230">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M230">
+        <v>7.5</v>
+      </c>
+      <c r="N230">
+        <v>1.444</v>
+      </c>
+      <c r="O230">
+        <v>4</v>
+      </c>
+      <c r="P230">
+        <v>8</v>
+      </c>
+      <c r="Q230">
+        <v>-1.25</v>
+      </c>
+      <c r="R230">
         <v>2.05</v>
       </c>
-      <c r="N230">
-        <v>2.6</v>
-      </c>
-      <c r="O230">
-        <v>3.25</v>
-      </c>
-      <c r="P230">
-        <v>2.75</v>
-      </c>
-      <c r="Q230">
-        <v>0</v>
-      </c>
-      <c r="R230">
-        <v>1.8</v>
-      </c>
       <c r="S230">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,13 +21009,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>2</v>
@@ -21024,41 +21024,41 @@
         <v>47</v>
       </c>
       <c r="K231">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L231">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M231">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N231">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O231">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P231">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q231">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
+        <v>1.975</v>
+      </c>
+      <c r="V231">
         <v>1.825</v>
       </c>
-      <c r="V231">
-        <v>1.975</v>
-      </c>
       <c r="W231">
         <v>-1</v>
       </c>
@@ -21066,19 +21066,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z231">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
         <v>0.825</v>
-      </c>
-      <c r="AC231">
-        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7483306</v>
+        <v>7482867</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,76 +21098,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H232">
         <v>1</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K232">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L232">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M232">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N232">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O232">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P232">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R232">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T232">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA232">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB232">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC232">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K233">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L233">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M233">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N233">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O233">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P233">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q233">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S233">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W233">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>0.875</v>
+      </c>
+      <c r="AB233">
         <v>-0.5</v>
       </c>
-      <c r="AA233">
-        <v>0.375</v>
-      </c>
-      <c r="AB233">
-        <v>0.95</v>
-      </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,55 +21632,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
         <v>1</v>
-      </c>
-      <c r="I238">
-        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>47</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M238">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N238">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O238">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P238">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S238">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T238">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -21689,19 +21689,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB238">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,73 +21721,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H239">
         <v>2</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L239">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M239">
+        <v>4.2</v>
+      </c>
+      <c r="N239">
+        <v>2.4</v>
+      </c>
+      <c r="O239">
         <v>3.1</v>
       </c>
-      <c r="N239">
-        <v>2.1</v>
-      </c>
-      <c r="O239">
-        <v>3.4</v>
-      </c>
       <c r="P239">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q239">
         <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S239">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X239">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA239">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,40 +21810,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G240" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K240">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N240">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O240">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P240">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q240">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
         <v>1.8</v>
@@ -21852,34 +21852,34 @@
         <v>2</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W240">
         <v>-1</v>
       </c>
       <c r="X240">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y240">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA240">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,73 +21899,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K241">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L241">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M241">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N241">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O241">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P241">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S241">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T241">
         <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z241">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB241">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC241">
         <v>-1</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -20552,7 +20552,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20564,61 +20564,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G226" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>46</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L226">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M226">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N226">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O226">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P226">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
         <v>2.5</v>
       </c>
       <c r="U226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y226">
         <v>-1</v>
@@ -20627,13 +20627,13 @@
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC226">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20641,7 +20641,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7483081</v>
+        <v>7483247</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20653,76 +20653,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G227" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K227">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L227">
+        <v>3.2</v>
+      </c>
+      <c r="M227">
+        <v>2.25</v>
+      </c>
+      <c r="N227">
+        <v>3.5</v>
+      </c>
+      <c r="O227">
         <v>3.25</v>
       </c>
-      <c r="M227">
-        <v>2.55</v>
-      </c>
-      <c r="N227">
-        <v>3</v>
-      </c>
-      <c r="O227">
-        <v>3.3</v>
-      </c>
       <c r="P227">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q227">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R227">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S227">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T227">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z227">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,76 +20742,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>0</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K228">
+        <v>1.909</v>
+      </c>
+      <c r="L228">
         <v>3.25</v>
       </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
       <c r="M228">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N228">
+        <v>1.909</v>
+      </c>
+      <c r="O228">
         <v>3.5</v>
       </c>
-      <c r="O228">
-        <v>3.25</v>
-      </c>
       <c r="P228">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q228">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S228">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
         <v>-1</v>
       </c>
       <c r="AA228">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,76 +20831,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K229">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L229">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M229">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N229">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O229">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q229">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X229">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA229">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G230" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K230">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L230">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M230">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N230">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O230">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P230">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R230">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W230">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y230">
         <v>-1</v>
       </c>
       <c r="Z230">
+        <v>-1</v>
+      </c>
+      <c r="AA230">
+        <v>0.875</v>
+      </c>
+      <c r="AB230">
         <v>-0.5</v>
       </c>
-      <c r="AA230">
-        <v>0.375</v>
-      </c>
-      <c r="AB230">
-        <v>0.95</v>
-      </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,13 +21009,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>2</v>
@@ -21024,41 +21024,41 @@
         <v>47</v>
       </c>
       <c r="K231">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L231">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M231">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N231">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O231">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P231">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R231">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S231">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
+        <v>1.825</v>
+      </c>
+      <c r="V231">
         <v>1.975</v>
       </c>
-      <c r="V231">
-        <v>1.825</v>
-      </c>
       <c r="W231">
         <v>-1</v>
       </c>
@@ -21066,19 +21066,19 @@
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA231">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC231">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21086,7 +21086,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21098,73 +21098,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232">
         <v>1</v>
       </c>
-      <c r="I232">
-        <v>2</v>
-      </c>
       <c r="J232" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K232">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L232">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M232">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N232">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O232">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P232">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q232">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R232">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S232">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA232">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB232">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC232">
         <v>-1</v>
@@ -21175,7 +21175,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21187,76 +21187,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233" t="s">
+        <v>47</v>
+      </c>
+      <c r="K233">
+        <v>3.6</v>
+      </c>
+      <c r="L233">
+        <v>3.3</v>
+      </c>
+      <c r="M233">
+        <v>2.05</v>
+      </c>
+      <c r="N233">
+        <v>2.6</v>
+      </c>
+      <c r="O233">
+        <v>3.25</v>
+      </c>
+      <c r="P233">
+        <v>2.75</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>1.8</v>
+      </c>
+      <c r="S233">
+        <v>2</v>
+      </c>
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>1.975</v>
+      </c>
+      <c r="V233">
+        <v>1.825</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>-1</v>
+      </c>
+      <c r="Y233">
+        <v>1.75</v>
+      </c>
+      <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
         <v>1</v>
       </c>
-      <c r="I233">
-        <v>1</v>
-      </c>
-      <c r="J233" t="s">
-        <v>46</v>
-      </c>
-      <c r="K233">
-        <v>1.5</v>
-      </c>
-      <c r="L233">
-        <v>4.333</v>
-      </c>
-      <c r="M233">
-        <v>5.75</v>
-      </c>
-      <c r="N233">
-        <v>1.533</v>
-      </c>
-      <c r="O233">
-        <v>4.2</v>
-      </c>
-      <c r="P233">
-        <v>5.5</v>
-      </c>
-      <c r="Q233">
-        <v>-1</v>
-      </c>
-      <c r="R233">
-        <v>1.925</v>
-      </c>
-      <c r="S233">
-        <v>1.875</v>
-      </c>
-      <c r="T233">
-        <v>2.25</v>
-      </c>
-      <c r="U233">
-        <v>1.8</v>
-      </c>
-      <c r="V233">
-        <v>2</v>
-      </c>
-      <c r="W233">
-        <v>-1</v>
-      </c>
-      <c r="X233">
-        <v>3.2</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>-1</v>
-      </c>
-      <c r="AA233">
-        <v>0.875</v>
-      </c>
       <c r="AB233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,73 +21721,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G239" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K239">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L239">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M239">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O239">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P239">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S239">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
         <v>2.25</v>
       </c>
       <c r="U239">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V239">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z239">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB239">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC239">
         <v>-1</v>
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,73 +21810,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L240">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M240">
+        <v>4.2</v>
+      </c>
+      <c r="N240">
+        <v>2.4</v>
+      </c>
+      <c r="O240">
         <v>3.1</v>
       </c>
-      <c r="N240">
-        <v>2.1</v>
-      </c>
-      <c r="O240">
-        <v>3.4</v>
-      </c>
       <c r="P240">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q240">
         <v>-0.25</v>
       </c>
       <c r="R240">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S240">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T240">
         <v>2.25</v>
       </c>
       <c r="U240">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X240">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA240">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,73 +21899,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I241">
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K241">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L241">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M241">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N241">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O241">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P241">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R241">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T241">
         <v>2.25</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y241">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA241">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB241">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC241">
         <v>-1</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P130">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L131">
+        <v>3.2</v>
+      </c>
+      <c r="M131">
+        <v>2.25</v>
+      </c>
+      <c r="N131">
+        <v>3.5</v>
+      </c>
+      <c r="O131">
         <v>3.25</v>
       </c>
-      <c r="M131">
-        <v>4.2</v>
-      </c>
-      <c r="N131">
-        <v>1.909</v>
-      </c>
-      <c r="O131">
-        <v>3.5</v>
-      </c>
       <c r="P131">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
+        <v>1.025</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K132">
+        <v>1.909</v>
+      </c>
+      <c r="L132">
         <v>3.25</v>
       </c>
-      <c r="L132">
-        <v>3.2</v>
-      </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N132">
+        <v>1.909</v>
+      </c>
+      <c r="O132">
         <v>3.5</v>
       </c>
-      <c r="O132">
-        <v>3.25</v>
-      </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12376,13 +12376,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -12391,41 +12391,41 @@
         <v>46</v>
       </c>
       <c r="K134">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N134">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P134">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
@@ -12433,19 +12433,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,73 +12465,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
         <v>1</v>
       </c>
-      <c r="I135">
-        <v>2</v>
-      </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M135">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N135">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O135">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q135">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M136">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.875</v>
+      </c>
+      <c r="AB136">
         <v>-0.5</v>
       </c>
-      <c r="AA136">
-        <v>0.375</v>
-      </c>
-      <c r="AB136">
-        <v>0.95</v>
-      </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>46</v>
+      </c>
+      <c r="K137">
+        <v>3.6</v>
+      </c>
+      <c r="L137">
+        <v>3.3</v>
+      </c>
+      <c r="M137">
+        <v>2.05</v>
+      </c>
+      <c r="N137">
+        <v>2.6</v>
+      </c>
+      <c r="O137">
+        <v>3.25</v>
+      </c>
+      <c r="P137">
+        <v>2.75</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.8</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
+        <v>1.825</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>1.75</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137" t="s">
-        <v>47</v>
-      </c>
-      <c r="K137">
-        <v>1.5</v>
-      </c>
-      <c r="L137">
-        <v>4.333</v>
-      </c>
-      <c r="M137">
-        <v>5.75</v>
-      </c>
-      <c r="N137">
-        <v>1.533</v>
-      </c>
-      <c r="O137">
-        <v>4.2</v>
-      </c>
-      <c r="P137">
-        <v>5.5</v>
-      </c>
-      <c r="Q137">
-        <v>-1</v>
-      </c>
-      <c r="R137">
-        <v>1.925</v>
-      </c>
-      <c r="S137">
-        <v>1.875</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.8</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>3.2</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
-      </c>
-      <c r="AA137">
-        <v>0.875</v>
-      </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,40 +13177,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
         <v>1.8</v>
@@ -13219,34 +13219,34 @@
         <v>2</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,40 +13355,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
         <v>1.8</v>
@@ -13397,34 +13397,34 @@
         <v>2</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N130">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483247</v>
+        <v>7483081</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
+        <v>2.75</v>
+      </c>
+      <c r="L131">
         <v>3.25</v>
       </c>
-      <c r="L131">
-        <v>3.2</v>
-      </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,76 +12287,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M133">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P133">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M135">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.875</v>
+      </c>
+      <c r="AB135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.375</v>
-      </c>
-      <c r="AB135">
-        <v>0.95</v>
-      </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>46</v>
+      </c>
+      <c r="K136">
+        <v>3.6</v>
+      </c>
+      <c r="L136">
+        <v>3.3</v>
+      </c>
+      <c r="M136">
+        <v>2.05</v>
+      </c>
+      <c r="N136">
+        <v>2.6</v>
+      </c>
+      <c r="O136">
+        <v>3.25</v>
+      </c>
+      <c r="P136">
+        <v>2.75</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2.5</v>
+      </c>
+      <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
+        <v>1.825</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>1.75</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="J136" t="s">
-        <v>47</v>
-      </c>
-      <c r="K136">
-        <v>1.5</v>
-      </c>
-      <c r="L136">
-        <v>4.333</v>
-      </c>
-      <c r="M136">
-        <v>5.75</v>
-      </c>
-      <c r="N136">
-        <v>1.533</v>
-      </c>
-      <c r="O136">
-        <v>4.2</v>
-      </c>
-      <c r="P136">
-        <v>5.5</v>
-      </c>
-      <c r="Q136">
-        <v>-1</v>
-      </c>
-      <c r="R136">
-        <v>1.925</v>
-      </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
-      <c r="U136">
-        <v>1.8</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>3.2</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>0.875</v>
-      </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M137">
+        <v>7.5</v>
+      </c>
+      <c r="N137">
+        <v>1.444</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>8</v>
+      </c>
+      <c r="Q137">
+        <v>-1.25</v>
+      </c>
+      <c r="R137">
         <v>2.05</v>
       </c>
-      <c r="N137">
-        <v>2.6</v>
-      </c>
-      <c r="O137">
-        <v>3.25</v>
-      </c>
-      <c r="P137">
-        <v>2.75</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>1.8</v>
-      </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="V139">
-        <v>1.95</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.95</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,73 +13088,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K142">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,55 +13266,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
-      </c>
-      <c r="I144">
-        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>46</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13323,19 +13323,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>1.75</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
         <v>1.8</v>
       </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.975</v>
-      </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13619,7 +13619,7 @@
         <v>28</v>
       </c>
       <c r="E148" s="2">
-        <v>45352.625</v>
+        <v>45353.625</v>
       </c>
       <c r="F148" t="s">
         <v>31</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>SD Aucas</t>
+  </si>
+  <si>
+    <t>Imbabura</t>
   </si>
   <si>
     <t>H</t>
@@ -519,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2">
         <v>1.4</v>
@@ -729,7 +732,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1.333</v>
@@ -818,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
         <v>2.375</v>
@@ -907,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>1.727</v>
@@ -996,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>1.65</v>
@@ -1174,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>3.1</v>
@@ -1263,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>1.909</v>
@@ -1352,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>1.533</v>
@@ -1441,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>2.625</v>
@@ -1530,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>1.25</v>
@@ -1619,7 +1622,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1708,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -1797,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>4.75</v>
@@ -1886,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>3.8</v>
@@ -1975,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <v>1.363</v>
@@ -2064,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>1.533</v>
@@ -2153,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2242,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>2.15</v>
@@ -2331,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>3.5</v>
@@ -2420,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22">
         <v>2.6</v>
@@ -2509,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>1.85</v>
@@ -2598,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2687,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>1.833</v>
@@ -2776,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>2.875</v>
@@ -2865,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>1.571</v>
@@ -2954,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3043,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>1.75</v>
@@ -3132,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>3.8</v>
@@ -3221,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>1.833</v>
@@ -3310,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>1.333</v>
@@ -3399,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
         <v>1.4</v>
@@ -3488,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>3.5</v>
@@ -3577,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>2.3</v>
@@ -3666,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>1.8</v>
@@ -3755,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>2.5</v>
@@ -3844,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
         <v>2.5</v>
@@ -3933,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <v>1.25</v>
@@ -4022,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40">
         <v>1.727</v>
@@ -4111,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>3.1</v>
@@ -4200,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>1.666</v>
@@ -4289,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>2.05</v>
@@ -4378,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4467,7 +4470,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4556,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4645,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2.55</v>
@@ -4734,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>1.615</v>
@@ -4823,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>2.75</v>
@@ -4912,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.45</v>
@@ -5001,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>1.533</v>
@@ -5090,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>2.8</v>
@@ -5179,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K53">
         <v>2.8</v>
@@ -5268,7 +5271,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5357,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>1.666</v>
@@ -5446,7 +5449,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>3.75</v>
@@ -5535,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5624,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5713,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.5</v>
@@ -5802,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>1.8</v>
@@ -5891,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>2.1</v>
@@ -5980,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>2.5</v>
@@ -6069,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>1.8</v>
@@ -6158,7 +6161,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>4</v>
@@ -6247,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>1.444</v>
@@ -6336,7 +6339,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
         <v>2.625</v>
@@ -6425,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.375</v>
@@ -6514,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2.9</v>
@@ -6603,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K69">
         <v>2.3</v>
@@ -6692,7 +6695,7 @@
         <v>4</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
         <v>1.8</v>
@@ -6781,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>1.25</v>
@@ -6870,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>2.1</v>
@@ -6959,7 +6962,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>2.2</v>
@@ -7048,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74">
         <v>1.333</v>
@@ -7137,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>1.444</v>
@@ -7226,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>1.666</v>
@@ -7315,7 +7318,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
         <v>3.1</v>
@@ -7404,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.8</v>
@@ -7493,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>1.65</v>
@@ -7582,7 +7585,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>2.625</v>
@@ -7671,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>2.6</v>
@@ -7760,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.625</v>
@@ -7849,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>1.666</v>
@@ -7938,7 +7941,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>2.4</v>
@@ -8027,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>1.6</v>
@@ -8116,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>2.8</v>
@@ -8205,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8294,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>1.6</v>
@@ -8383,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.375</v>
@@ -8472,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K90">
         <v>1.666</v>
@@ -8561,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K91">
         <v>1.444</v>
@@ -8650,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8739,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>1.833</v>
@@ -8828,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.166</v>
@@ -8917,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>3</v>
@@ -9006,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>1.8</v>
@@ -9095,7 +9098,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K97">
         <v>2.8</v>
@@ -9184,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>2.55</v>
@@ -9273,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9362,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>1.285</v>
@@ -9451,7 +9454,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101">
         <v>3.2</v>
@@ -9540,7 +9543,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>4.5</v>
@@ -9629,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103">
         <v>1.909</v>
@@ -9718,7 +9721,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K104">
         <v>1.7</v>
@@ -9807,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>1.8</v>
@@ -9896,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>1.4</v>
@@ -9985,7 +9988,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>2.2</v>
@@ -10074,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>1.6</v>
@@ -10163,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>1.75</v>
@@ -10252,7 +10255,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
         <v>3.1</v>
@@ -10341,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
         <v>1.4</v>
@@ -10430,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
         <v>1.615</v>
@@ -10519,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K113">
         <v>2.3</v>
@@ -10608,7 +10611,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>2.75</v>
@@ -10697,7 +10700,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
         <v>3.6</v>
@@ -10786,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>2.3</v>
@@ -10875,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
         <v>2.8</v>
@@ -10964,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
         <v>2.75</v>
@@ -11053,7 +11056,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>1.75</v>
@@ -11142,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.5</v>
@@ -11231,7 +11234,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.75</v>
@@ -11320,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>1.727</v>
@@ -11409,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>1.333</v>
@@ -11498,7 +11501,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K124">
         <v>3.2</v>
@@ -11587,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K125">
         <v>3.2</v>
@@ -11676,7 +11679,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K126">
         <v>1.4</v>
@@ -11765,7 +11768,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>4</v>
@@ -11854,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>2.15</v>
@@ -11943,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K129">
         <v>1.727</v>
@@ -12032,7 +12035,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>3.25</v>
@@ -12121,7 +12124,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>2.75</v>
@@ -12210,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K132">
         <v>1.909</v>
@@ -12299,7 +12302,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>1.4</v>
@@ -12388,7 +12391,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K134">
         <v>5.25</v>
@@ -12453,7 +12456,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12468,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>47</v>
       </c>
       <c r="K135">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L135">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="N135">
-        <v>1.533</v>
+        <v>2.6</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12545,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483188</v>
+        <v>7483306</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12557,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M136">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N136">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R136">
+        <v>1.925</v>
+      </c>
+      <c r="S136">
+        <v>1.875</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
         <v>1.8</v>
       </c>
-      <c r="S136">
-        <v>2</v>
-      </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.975</v>
-      </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12655,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K137">
         <v>1.363</v>
@@ -12744,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -12809,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12824,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12913,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>46</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13011,7 +13014,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K141">
         <v>1.25</v>
@@ -13100,7 +13103,7 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142">
         <v>2.2</v>
@@ -13165,7 +13168,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,40 +13180,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>47</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N143">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
         <v>1.8</v>
@@ -13219,34 +13222,34 @@
         <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13257,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,40 +13269,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
         <v>1.8</v>
@@ -13308,34 +13311,34 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13367,7 +13370,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K145">
         <v>1.75</v>
@@ -13456,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13545,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
         <v>2.2</v>
@@ -13610,72 +13613,531 @@
         <v>146</v>
       </c>
       <c r="B148">
+        <v>7773060</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45352.875</v>
+      </c>
+      <c r="F148" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>47</v>
+      </c>
+      <c r="K148">
+        <v>3.1</v>
+      </c>
+      <c r="L148">
+        <v>3.1</v>
+      </c>
+      <c r="M148">
+        <v>2.3</v>
+      </c>
+      <c r="N148">
+        <v>3.75</v>
+      </c>
+      <c r="O148">
+        <v>3.2</v>
+      </c>
+      <c r="P148">
+        <v>2</v>
+      </c>
+      <c r="Q148">
+        <v>0.5</v>
+      </c>
+      <c r="R148">
+        <v>1.825</v>
+      </c>
+      <c r="S148">
+        <v>1.975</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>2</v>
+      </c>
+      <c r="V148">
+        <v>1.8</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>1</v>
+      </c>
+      <c r="Z148">
+        <v>-1</v>
+      </c>
+      <c r="AA148">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
         <v>7773462</v>
       </c>
-      <c r="C148" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" t="s">
-        <v>28</v>
-      </c>
-      <c r="E148" s="2">
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
         <v>45353.625</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F149" t="s">
         <v>31</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G149" t="s">
         <v>38</v>
       </c>
-      <c r="K148">
+      <c r="K149">
         <v>1.9</v>
       </c>
-      <c r="L148">
+      <c r="L149">
         <v>3.4</v>
       </c>
-      <c r="M148">
+      <c r="M149">
         <v>3.9</v>
       </c>
-      <c r="N148">
-        <v>1.909</v>
-      </c>
-      <c r="O148">
-        <v>3.4</v>
-      </c>
-      <c r="P148">
+      <c r="N149">
+        <v>1.833</v>
+      </c>
+      <c r="O149">
+        <v>3.5</v>
+      </c>
+      <c r="P149">
         <v>4</v>
       </c>
-      <c r="Q148">
+      <c r="Q149">
         <v>-0.5</v>
       </c>
-      <c r="R148">
-        <v>1.925</v>
-      </c>
-      <c r="S148">
-        <v>1.875</v>
-      </c>
-      <c r="T148">
+      <c r="R149">
+        <v>1.825</v>
+      </c>
+      <c r="S149">
+        <v>1.975</v>
+      </c>
+      <c r="T149">
         <v>2.5</v>
       </c>
-      <c r="U148">
+      <c r="U149">
+        <v>1.95</v>
+      </c>
+      <c r="V149">
+        <v>1.85</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7773461</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45353.72916666666</v>
+      </c>
+      <c r="F150" t="s">
+        <v>44</v>
+      </c>
+      <c r="G150" t="s">
+        <v>42</v>
+      </c>
+      <c r="K150">
+        <v>1.7</v>
+      </c>
+      <c r="L150">
+        <v>3.75</v>
+      </c>
+      <c r="M150">
+        <v>4.75</v>
+      </c>
+      <c r="N150">
+        <v>1.5</v>
+      </c>
+      <c r="O150">
+        <v>4.2</v>
+      </c>
+      <c r="P150">
+        <v>6</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.85</v>
+      </c>
+      <c r="S150">
+        <v>1.95</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>1.975</v>
+      </c>
+      <c r="V150">
+        <v>1.825</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7773458</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45353.83333333334</v>
+      </c>
+      <c r="F151" t="s">
+        <v>36</v>
+      </c>
+      <c r="G151" t="s">
+        <v>43</v>
+      </c>
+      <c r="K151">
+        <v>2.375</v>
+      </c>
+      <c r="L151">
+        <v>3.25</v>
+      </c>
+      <c r="M151">
+        <v>2.9</v>
+      </c>
+      <c r="N151">
+        <v>2.7</v>
+      </c>
+      <c r="O151">
+        <v>3.2</v>
+      </c>
+      <c r="P151">
+        <v>2.55</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>1.85</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.9</v>
+      </c>
+      <c r="V151">
+        <v>1.9</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7798121</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45354.625</v>
+      </c>
+      <c r="F152" t="s">
+        <v>37</v>
+      </c>
+      <c r="G152" t="s">
+        <v>39</v>
+      </c>
+      <c r="K152">
+        <v>1.75</v>
+      </c>
+      <c r="L152">
+        <v>3.5</v>
+      </c>
+      <c r="M152">
+        <v>4.333</v>
+      </c>
+      <c r="N152">
+        <v>1.615</v>
+      </c>
+      <c r="O152">
+        <v>3.75</v>
+      </c>
+      <c r="P152">
+        <v>5.25</v>
+      </c>
+      <c r="Q152">
+        <v>-0.75</v>
+      </c>
+      <c r="R152">
+        <v>1.775</v>
+      </c>
+      <c r="S152">
         <v>2.025</v>
       </c>
-      <c r="V148">
-        <v>1.775</v>
-      </c>
-      <c r="W148">
-        <v>0</v>
-      </c>
-      <c r="X148">
-        <v>0</v>
-      </c>
-      <c r="Y148">
-        <v>0</v>
-      </c>
-      <c r="Z148">
-        <v>0</v>
-      </c>
-      <c r="AA148">
+      <c r="T152">
+        <v>2.75</v>
+      </c>
+      <c r="U152">
+        <v>1.85</v>
+      </c>
+      <c r="V152">
+        <v>1.95</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AA152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>7773460</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45354.72916666666</v>
+      </c>
+      <c r="F153" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" t="s">
+        <v>33</v>
+      </c>
+      <c r="K153">
+        <v>1.533</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153">
+        <v>6</v>
+      </c>
+      <c r="N153">
+        <v>1.45</v>
+      </c>
+      <c r="O153">
+        <v>4.2</v>
+      </c>
+      <c r="P153">
+        <v>6.5</v>
+      </c>
+      <c r="Q153">
+        <v>-1</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
+        <v>1.95</v>
+      </c>
+      <c r="T153">
+        <v>2.25</v>
+      </c>
+      <c r="U153">
+        <v>1.9</v>
+      </c>
+      <c r="V153">
+        <v>1.9</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>0</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7773780</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45354.83333333334</v>
+      </c>
+      <c r="F154" t="s">
+        <v>32</v>
+      </c>
+      <c r="G154" t="s">
+        <v>45</v>
+      </c>
+      <c r="K154">
+        <v>1.2</v>
+      </c>
+      <c r="L154">
+        <v>6</v>
+      </c>
+      <c r="M154">
+        <v>11</v>
+      </c>
+      <c r="N154">
+        <v>1.222</v>
+      </c>
+      <c r="O154">
+        <v>6</v>
+      </c>
+      <c r="P154">
+        <v>10</v>
+      </c>
+      <c r="Q154">
+        <v>-1.75</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>1.85</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.9</v>
+      </c>
+      <c r="V154">
+        <v>1.9</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>0</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AA154">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC154"/>
+  <dimension ref="A1:AC153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12011,7 +12011,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483247</v>
+        <v>7483081</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12023,76 +12023,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
+        <v>2.75</v>
+      </c>
+      <c r="L130">
         <v>3.25</v>
       </c>
-      <c r="L130">
-        <v>3.2</v>
-      </c>
       <c r="M130">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12100,7 +12100,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,76 +12112,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12189,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,76 +12201,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
+        <v>3.2</v>
+      </c>
+      <c r="M132">
+        <v>2.25</v>
+      </c>
+      <c r="N132">
+        <v>3.5</v>
+      </c>
+      <c r="O132">
         <v>3.25</v>
       </c>
-      <c r="M132">
-        <v>4.2</v>
-      </c>
-      <c r="N132">
-        <v>1.909</v>
-      </c>
-      <c r="O132">
-        <v>3.5</v>
-      </c>
       <c r="P132">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
+        <v>1.025</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB132">
-        <v>-1</v>
-      </c>
-      <c r="AC132">
-        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483189</v>
+        <v>7483281</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,61 +12290,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>48</v>
       </c>
       <c r="K133">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12353,13 +12353,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12456,7 +12456,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,76 +12468,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M135">
+        <v>7.5</v>
+      </c>
+      <c r="N135">
+        <v>1.444</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>8</v>
+      </c>
+      <c r="Q135">
+        <v>-1.25</v>
+      </c>
+      <c r="R135">
         <v>2.05</v>
       </c>
-      <c r="N135">
-        <v>2.6</v>
-      </c>
-      <c r="O135">
-        <v>3.25</v>
-      </c>
-      <c r="P135">
-        <v>2.75</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>1.8</v>
-      </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12646,76 +12646,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M137">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N137">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12812,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12824,76 +12824,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="V139">
-        <v>1.95</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,76 +12913,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.95</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13079,7 +13079,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,73 +13091,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13168,7 +13168,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13180,76 +13180,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.75</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
-      </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13257,7 +13257,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13269,40 +13269,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R144">
         <v>1.8</v>
@@ -13311,34 +13311,34 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13346,7 +13346,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13358,73 +13358,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13719,6 +13719,15 @@
       <c r="G149" t="s">
         <v>38</v>
       </c>
+      <c r="H149">
+        <v>2</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>46</v>
+      </c>
       <c r="K149">
         <v>1.9</v>
       </c>
@@ -13729,22 +13738,22 @@
         <v>3.9</v>
       </c>
       <c r="N149">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q149">
         <v>-0.5</v>
       </c>
       <c r="R149">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T149">
         <v>2.5</v>
@@ -13756,19 +13765,25 @@
         <v>1.85</v>
       </c>
       <c r="W149">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB149">
+        <v>0.95</v>
+      </c>
+      <c r="AC149">
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13793,6 +13808,15 @@
       <c r="G150" t="s">
         <v>42</v>
       </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>46</v>
+      </c>
       <c r="K150">
         <v>1.7</v>
       </c>
@@ -13803,46 +13827,52 @@
         <v>4.75</v>
       </c>
       <c r="N150">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O150">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
+        <v>1.875</v>
+      </c>
+      <c r="S150">
+        <v>1.925</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.95</v>
+      </c>
+      <c r="V150">
         <v>1.85</v>
       </c>
-      <c r="S150">
-        <v>1.95</v>
-      </c>
-      <c r="T150">
-        <v>2.75</v>
-      </c>
-      <c r="U150">
-        <v>1.975</v>
-      </c>
-      <c r="V150">
-        <v>1.825</v>
-      </c>
       <c r="W150">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13850,7 +13880,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7773458</v>
+        <v>7798121</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13859,49 +13889,49 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45353.83333333334</v>
+        <v>45354.625</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K151">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L151">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="N151">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O151">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P151">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S151">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W151">
         <v>0</v>
@@ -13924,7 +13954,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7798121</v>
+        <v>7773460</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13933,49 +13963,49 @@
         <v>28</v>
       </c>
       <c r="E152" s="2">
-        <v>45354.625</v>
+        <v>45354.72916666666</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K152">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M152">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N152">
-        <v>1.615</v>
+        <v>1.45</v>
       </c>
       <c r="O152">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R152">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
         <v>0</v>
@@ -13998,7 +14028,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7773460</v>
+        <v>7773780</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14007,43 +14037,43 @@
         <v>28</v>
       </c>
       <c r="E153" s="2">
-        <v>45354.72916666666</v>
+        <v>45354.83333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K153">
-        <v>1.533</v>
+        <v>1.2</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M153">
+        <v>11</v>
+      </c>
+      <c r="N153">
+        <v>1.222</v>
+      </c>
+      <c r="O153">
         <v>6</v>
       </c>
-      <c r="N153">
-        <v>1.45</v>
-      </c>
-      <c r="O153">
-        <v>4.2</v>
-      </c>
       <c r="P153">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
         <v>1.85</v>
       </c>
-      <c r="S153">
-        <v>1.95</v>
-      </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
         <v>1.9</v>
@@ -14064,80 +14094,6 @@
         <v>0</v>
       </c>
       <c r="AA153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>7773780</v>
-      </c>
-      <c r="C154" t="s">
-        <v>28</v>
-      </c>
-      <c r="D154" t="s">
-        <v>28</v>
-      </c>
-      <c r="E154" s="2">
-        <v>45354.83333333334</v>
-      </c>
-      <c r="F154" t="s">
-        <v>32</v>
-      </c>
-      <c r="G154" t="s">
-        <v>45</v>
-      </c>
-      <c r="K154">
-        <v>1.2</v>
-      </c>
-      <c r="L154">
-        <v>6</v>
-      </c>
-      <c r="M154">
-        <v>11</v>
-      </c>
-      <c r="N154">
-        <v>1.222</v>
-      </c>
-      <c r="O154">
-        <v>6</v>
-      </c>
-      <c r="P154">
-        <v>10</v>
-      </c>
-      <c r="Q154">
-        <v>-1.75</v>
-      </c>
-      <c r="R154">
-        <v>1.95</v>
-      </c>
-      <c r="S154">
-        <v>1.85</v>
-      </c>
-      <c r="T154">
-        <v>2.75</v>
-      </c>
-      <c r="U154">
-        <v>1.9</v>
-      </c>
-      <c r="V154">
-        <v>1.9</v>
-      </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-      <c r="X154">
-        <v>0</v>
-      </c>
-      <c r="Y154">
-        <v>0</v>
-      </c>
-      <c r="Z154">
-        <v>0</v>
-      </c>
-      <c r="AA154">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>SD Aucas</t>
+  </si>
+  <si>
+    <t>Macara</t>
   </si>
   <si>
     <t>Imbabura</t>
@@ -522,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC153"/>
+  <dimension ref="A1:AC163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>1.4</v>
@@ -732,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>1.333</v>
@@ -821,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>2.375</v>
@@ -910,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>1.727</v>
@@ -999,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -1088,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>1.65</v>
@@ -1177,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>3.1</v>
@@ -1266,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.909</v>
@@ -1355,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>1.533</v>
@@ -1444,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>2.625</v>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
         <v>1.25</v>
@@ -1622,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>1.666</v>
@@ -1711,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>2.2</v>
@@ -1800,7 +1803,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>4.75</v>
@@ -1889,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>3.8</v>
@@ -1978,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
         <v>1.363</v>
@@ -2067,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <v>1.533</v>
@@ -2156,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>2.5</v>
@@ -2245,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>2.15</v>
@@ -2334,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>3.5</v>
@@ -2423,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
         <v>2.6</v>
@@ -2512,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>1.85</v>
@@ -2601,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
         <v>1.909</v>
@@ -2690,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
         <v>1.833</v>
@@ -2779,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K26">
         <v>2.875</v>
@@ -2868,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>1.571</v>
@@ -2957,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -3046,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>1.75</v>
@@ -3135,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>3.8</v>
@@ -3224,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>1.833</v>
@@ -3313,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>1.333</v>
@@ -3402,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>1.4</v>
@@ -3491,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
         <v>3.5</v>
@@ -3580,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
         <v>2.3</v>
@@ -3669,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>1.8</v>
@@ -3758,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>2.5</v>
@@ -3847,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>2.5</v>
@@ -3936,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>1.25</v>
@@ -4025,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
         <v>1.727</v>
@@ -4114,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
         <v>3.1</v>
@@ -4203,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
         <v>1.666</v>
@@ -4292,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>2.05</v>
@@ -4381,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4470,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4559,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
         <v>2.5</v>
@@ -4648,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47">
         <v>2.55</v>
@@ -4737,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
         <v>1.615</v>
@@ -4826,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>2.75</v>
@@ -4915,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50">
         <v>1.45</v>
@@ -5004,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K51">
         <v>1.533</v>
@@ -5093,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>2.8</v>
@@ -5182,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K53">
         <v>2.8</v>
@@ -5271,7 +5274,7 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5360,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.666</v>
@@ -5449,7 +5452,7 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
         <v>3.75</v>
@@ -5538,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5627,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5716,7 +5719,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59">
         <v>2.5</v>
@@ -5805,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K60">
         <v>1.8</v>
@@ -5894,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>2.1</v>
@@ -5983,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>2.5</v>
@@ -6072,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
         <v>1.8</v>
@@ -6161,7 +6164,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>4</v>
@@ -6250,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>1.444</v>
@@ -6339,7 +6342,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>2.625</v>
@@ -6428,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>2.375</v>
@@ -6517,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68">
         <v>2.9</v>
@@ -6606,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K69">
         <v>2.3</v>
@@ -6695,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>1.8</v>
@@ -6784,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>1.25</v>
@@ -6873,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>2.1</v>
@@ -6962,7 +6965,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73">
         <v>2.2</v>
@@ -7051,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>1.333</v>
@@ -7140,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
         <v>1.444</v>
@@ -7229,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>1.666</v>
@@ -7318,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>3.1</v>
@@ -7407,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78">
         <v>2.8</v>
@@ -7496,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>1.65</v>
@@ -7585,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.625</v>
@@ -7674,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>2.6</v>
@@ -7763,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>2.625</v>
@@ -7852,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K83">
         <v>1.666</v>
@@ -7941,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K84">
         <v>2.4</v>
@@ -8030,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>1.6</v>
@@ -8119,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>2.8</v>
@@ -8208,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
         <v>1.909</v>
@@ -8297,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>1.6</v>
@@ -8386,7 +8389,7 @@
         <v>3</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>2.375</v>
@@ -8475,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>1.666</v>
@@ -8564,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>1.444</v>
@@ -8653,7 +8656,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K92">
         <v>2.25</v>
@@ -8742,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>1.833</v>
@@ -8831,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
         <v>1.166</v>
@@ -8920,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
         <v>3</v>
@@ -9009,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>1.8</v>
@@ -9098,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>2.8</v>
@@ -9187,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>2.55</v>
@@ -9276,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
         <v>1.909</v>
@@ -9365,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>1.285</v>
@@ -9454,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>3.2</v>
@@ -9543,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>4.5</v>
@@ -9632,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>1.909</v>
@@ -9721,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
         <v>1.7</v>
@@ -9810,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>1.8</v>
@@ -9899,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>1.4</v>
@@ -9988,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>2.2</v>
@@ -10077,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K108">
         <v>1.6</v>
@@ -10166,7 +10169,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>1.75</v>
@@ -10255,7 +10258,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K110">
         <v>3.1</v>
@@ -10344,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
         <v>1.4</v>
@@ -10433,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>1.615</v>
@@ -10522,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K113">
         <v>2.3</v>
@@ -10611,7 +10614,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K114">
         <v>2.75</v>
@@ -10700,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K115">
         <v>3.6</v>
@@ -10789,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
         <v>2.3</v>
@@ -10878,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K117">
         <v>2.8</v>
@@ -10967,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K118">
         <v>2.75</v>
@@ -11056,7 +11059,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K119">
         <v>1.75</v>
@@ -11145,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K120">
         <v>1.5</v>
@@ -11234,7 +11237,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>2.75</v>
@@ -11323,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>1.727</v>
@@ -11412,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>1.333</v>
@@ -11501,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>3.2</v>
@@ -11590,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>3.2</v>
@@ -11679,7 +11682,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>1.4</v>
@@ -11768,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>4</v>
@@ -11857,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
         <v>2.15</v>
@@ -11946,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
         <v>1.727</v>
@@ -12011,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12023,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P130">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12100,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12112,13 +12115,13 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>2</v>
@@ -12127,61 +12130,61 @@
         <v>48</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N131">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12189,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12201,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K132">
+        <v>1.909</v>
+      </c>
+      <c r="L132">
         <v>3.25</v>
       </c>
-      <c r="L132">
-        <v>3.2</v>
-      </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N132">
+        <v>1.909</v>
+      </c>
+      <c r="O132">
         <v>3.5</v>
       </c>
-      <c r="O132">
-        <v>3.25</v>
-      </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12278,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483281</v>
+        <v>7483081</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12290,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
+        <v>2</v>
+      </c>
+      <c r="V133">
         <v>1.8</v>
       </c>
-      <c r="V133">
-        <v>2</v>
-      </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12391,7 +12394,7 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K134">
         <v>5.25</v>
@@ -12456,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12468,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12545,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12557,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N136">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12634,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483188</v>
+        <v>7483306</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12646,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N137">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P137">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R137">
+        <v>1.925</v>
+      </c>
+      <c r="S137">
+        <v>1.875</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
         <v>1.8</v>
       </c>
-      <c r="S137">
-        <v>2</v>
-      </c>
-      <c r="T137">
-        <v>2.5</v>
-      </c>
-      <c r="U137">
-        <v>1.975</v>
-      </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12747,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>2.5</v>
@@ -12812,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12824,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12901,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
         <v>47</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13014,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K141">
         <v>1.25</v>
@@ -13079,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13091,40 +13094,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
         <v>48</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R142">
         <v>1.8</v>
@@ -13133,34 +13136,34 @@
         <v>2</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13192,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K143">
         <v>1.75</v>
@@ -13257,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528857</v>
+        <v>7528858</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13269,55 +13272,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13326,19 +13329,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13346,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13358,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13459,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K146">
         <v>1.909</v>
@@ -13548,7 +13551,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>2.2</v>
@@ -13637,7 +13640,7 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>3.1</v>
@@ -13726,7 +13729,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>1.9</v>
@@ -13815,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K150">
         <v>1.7</v>
@@ -13880,7 +13883,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7798121</v>
+        <v>7773458</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,64 +13892,79 @@
         <v>28</v>
       </c>
       <c r="E151" s="2">
-        <v>45354.625</v>
+        <v>45353.83333333334</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151" t="s">
+        <v>48</v>
       </c>
       <c r="K151">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M151">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N151">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P151">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R151">
+        <v>1.925</v>
+      </c>
+      <c r="S151">
+        <v>1.875</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
         <v>1.9</v>
       </c>
-      <c r="S151">
+      <c r="V151">
         <v>1.9</v>
       </c>
-      <c r="T151">
-        <v>2.75</v>
-      </c>
-      <c r="U151">
-        <v>1.875</v>
-      </c>
-      <c r="V151">
-        <v>1.925</v>
-      </c>
       <c r="W151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Z151">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB151">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13954,7 +13972,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7773460</v>
+        <v>7798121</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13963,43 +13981,52 @@
         <v>28</v>
       </c>
       <c r="E152" s="2">
-        <v>45354.72916666666</v>
+        <v>45354.625</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="H152">
+        <v>3</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N152">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="O152">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P152">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q152">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R152">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
         <v>1.9</v>
@@ -14008,19 +14035,25 @@
         <v>1.9</v>
       </c>
       <c r="W152">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>0.45</v>
+      </c>
+      <c r="AC152">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14028,72 +14061,857 @@
         <v>151</v>
       </c>
       <c r="B153">
+        <v>7773460</v>
+      </c>
+      <c r="C153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45354.72916666666</v>
+      </c>
+      <c r="F153" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" t="s">
+        <v>33</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>47</v>
+      </c>
+      <c r="K153">
+        <v>1.533</v>
+      </c>
+      <c r="L153">
+        <v>4</v>
+      </c>
+      <c r="M153">
+        <v>6</v>
+      </c>
+      <c r="N153">
+        <v>1.5</v>
+      </c>
+      <c r="O153">
+        <v>4.2</v>
+      </c>
+      <c r="P153">
+        <v>6.5</v>
+      </c>
+      <c r="Q153">
+        <v>-1</v>
+      </c>
+      <c r="R153">
+        <v>1.85</v>
+      </c>
+      <c r="S153">
+        <v>1.95</v>
+      </c>
+      <c r="T153">
+        <v>2.25</v>
+      </c>
+      <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
+        <v>1.925</v>
+      </c>
+      <c r="W153">
+        <v>0.5</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AA153">
+        <v>-0</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
         <v>7773780</v>
       </c>
-      <c r="C153" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="2">
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+      <c r="D154" t="s">
+        <v>28</v>
+      </c>
+      <c r="E154" s="2">
         <v>45354.83333333334</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F154" t="s">
         <v>32</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G154" t="s">
+        <v>46</v>
+      </c>
+      <c r="H154">
+        <v>2</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" t="s">
+        <v>47</v>
+      </c>
+      <c r="K154">
+        <v>1.2</v>
+      </c>
+      <c r="L154">
+        <v>6</v>
+      </c>
+      <c r="M154">
+        <v>11</v>
+      </c>
+      <c r="N154">
+        <v>1.25</v>
+      </c>
+      <c r="O154">
+        <v>5.75</v>
+      </c>
+      <c r="P154">
+        <v>8.5</v>
+      </c>
+      <c r="Q154">
+        <v>-1.5</v>
+      </c>
+      <c r="R154">
+        <v>1.85</v>
+      </c>
+      <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
+        <v>2.75</v>
+      </c>
+      <c r="U154">
+        <v>1.875</v>
+      </c>
+      <c r="V154">
+        <v>1.925</v>
+      </c>
+      <c r="W154">
+        <v>0.25</v>
+      </c>
+      <c r="X154">
+        <v>-1</v>
+      </c>
+      <c r="Y154">
+        <v>-1</v>
+      </c>
+      <c r="Z154">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
+        <v>-1</v>
+      </c>
+      <c r="AC154">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7798120</v>
+      </c>
+      <c r="C155" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45355.875</v>
+      </c>
+      <c r="F155" t="s">
+        <v>30</v>
+      </c>
+      <c r="G155" t="s">
         <v>45</v>
       </c>
-      <c r="K153">
-        <v>1.2</v>
-      </c>
-      <c r="L153">
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>47</v>
+      </c>
+      <c r="K155">
+        <v>1.166</v>
+      </c>
+      <c r="L155">
+        <v>6.5</v>
+      </c>
+      <c r="M155">
+        <v>15</v>
+      </c>
+      <c r="N155">
+        <v>1.4</v>
+      </c>
+      <c r="O155">
+        <v>4.75</v>
+      </c>
+      <c r="P155">
+        <v>7.5</v>
+      </c>
+      <c r="Q155">
+        <v>-1.25</v>
+      </c>
+      <c r="R155">
+        <v>1.8</v>
+      </c>
+      <c r="S155">
+        <v>2</v>
+      </c>
+      <c r="T155">
+        <v>3</v>
+      </c>
+      <c r="U155">
+        <v>1.95</v>
+      </c>
+      <c r="V155">
+        <v>1.85</v>
+      </c>
+      <c r="W155">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>-0.5</v>
+      </c>
+      <c r="AA155">
+        <v>0.5</v>
+      </c>
+      <c r="AB155">
+        <v>0</v>
+      </c>
+      <c r="AC155">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7773468</v>
+      </c>
+      <c r="C156" t="s">
+        <v>28</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45359.875</v>
+      </c>
+      <c r="F156" t="s">
+        <v>43</v>
+      </c>
+      <c r="G156" t="s">
+        <v>31</v>
+      </c>
+      <c r="K156">
+        <v>1.533</v>
+      </c>
+      <c r="L156">
+        <v>4</v>
+      </c>
+      <c r="M156">
         <v>6</v>
       </c>
-      <c r="M153">
-        <v>11</v>
-      </c>
-      <c r="N153">
-        <v>1.222</v>
-      </c>
-      <c r="O153">
-        <v>6</v>
-      </c>
-      <c r="P153">
-        <v>10</v>
-      </c>
-      <c r="Q153">
-        <v>-1.75</v>
-      </c>
-      <c r="R153">
+      <c r="N156">
+        <v>1.4</v>
+      </c>
+      <c r="O156">
+        <v>4.5</v>
+      </c>
+      <c r="P156">
+        <v>7.5</v>
+      </c>
+      <c r="Q156">
+        <v>-1.25</v>
+      </c>
+      <c r="R156">
+        <v>1.925</v>
+      </c>
+      <c r="S156">
+        <v>1.875</v>
+      </c>
+      <c r="T156">
+        <v>2.5</v>
+      </c>
+      <c r="U156">
+        <v>1.825</v>
+      </c>
+      <c r="V156">
+        <v>1.975</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>0</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AA156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7773466</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
+      </c>
+      <c r="D157" t="s">
+        <v>28</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45360.625</v>
+      </c>
+      <c r="F157" t="s">
+        <v>45</v>
+      </c>
+      <c r="G157" t="s">
+        <v>39</v>
+      </c>
+      <c r="K157">
+        <v>2.6</v>
+      </c>
+      <c r="L157">
+        <v>3.2</v>
+      </c>
+      <c r="M157">
+        <v>2.5</v>
+      </c>
+      <c r="N157">
+        <v>1.45</v>
+      </c>
+      <c r="O157">
+        <v>4.2</v>
+      </c>
+      <c r="P157">
+        <v>5</v>
+      </c>
+      <c r="Q157">
+        <v>-1</v>
+      </c>
+      <c r="R157">
+        <v>1.85</v>
+      </c>
+      <c r="S157">
         <v>1.95</v>
       </c>
-      <c r="S153">
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
+        <v>1.75</v>
+      </c>
+      <c r="V157">
+        <v>2.05</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>0</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AA157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7773779</v>
+      </c>
+      <c r="C158" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" t="s">
+        <v>28</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45360.72916666666</v>
+      </c>
+      <c r="F158" t="s">
+        <v>46</v>
+      </c>
+      <c r="G158" t="s">
+        <v>40</v>
+      </c>
+      <c r="K158">
+        <v>2.5</v>
+      </c>
+      <c r="L158">
+        <v>3.2</v>
+      </c>
+      <c r="M158">
+        <v>2.6</v>
+      </c>
+      <c r="N158">
+        <v>2.55</v>
+      </c>
+      <c r="O158">
+        <v>3.2</v>
+      </c>
+      <c r="P158">
+        <v>2.55</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
         <v>1.85</v>
       </c>
-      <c r="T153">
+      <c r="S158">
+        <v>1.95</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
+        <v>1.8</v>
+      </c>
+      <c r="V158">
+        <v>2</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>0</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AA158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>7773061</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159" t="s">
+        <v>28</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45360.83333333334</v>
+      </c>
+      <c r="F159" t="s">
+        <v>29</v>
+      </c>
+      <c r="G159" t="s">
+        <v>32</v>
+      </c>
+      <c r="K159">
+        <v>1.666</v>
+      </c>
+      <c r="L159">
+        <v>3.75</v>
+      </c>
+      <c r="M159">
+        <v>4.5</v>
+      </c>
+      <c r="N159">
+        <v>1.8</v>
+      </c>
+      <c r="O159">
+        <v>3.5</v>
+      </c>
+      <c r="P159">
+        <v>4</v>
+      </c>
+      <c r="Q159">
+        <v>-0.5</v>
+      </c>
+      <c r="R159">
+        <v>1.825</v>
+      </c>
+      <c r="S159">
+        <v>1.975</v>
+      </c>
+      <c r="T159">
+        <v>2.5</v>
+      </c>
+      <c r="U159">
+        <v>1.975</v>
+      </c>
+      <c r="V159">
+        <v>1.825</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>0</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AA159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>7773467</v>
+      </c>
+      <c r="C160" t="s">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45361.625</v>
+      </c>
+      <c r="F160" t="s">
+        <v>44</v>
+      </c>
+      <c r="G160" t="s">
+        <v>34</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>3.4</v>
+      </c>
+      <c r="M160">
+        <v>3.4</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160">
+        <v>3.4</v>
+      </c>
+      <c r="P160">
+        <v>3.4</v>
+      </c>
+      <c r="Q160">
+        <v>-0.5</v>
+      </c>
+      <c r="R160">
+        <v>2.025</v>
+      </c>
+      <c r="S160">
+        <v>1.775</v>
+      </c>
+      <c r="T160">
+        <v>2.25</v>
+      </c>
+      <c r="U160">
+        <v>1.825</v>
+      </c>
+      <c r="V160">
+        <v>1.975</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>0</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AA160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>7773469</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161" t="s">
+        <v>28</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45361.72916666666</v>
+      </c>
+      <c r="F161" t="s">
+        <v>42</v>
+      </c>
+      <c r="G161" t="s">
+        <v>36</v>
+      </c>
+      <c r="K161">
+        <v>1.833</v>
+      </c>
+      <c r="L161">
+        <v>3.25</v>
+      </c>
+      <c r="M161">
+        <v>4.2</v>
+      </c>
+      <c r="N161">
+        <v>1.95</v>
+      </c>
+      <c r="O161">
+        <v>3.2</v>
+      </c>
+      <c r="P161">
+        <v>3.8</v>
+      </c>
+      <c r="Q161">
+        <v>-0.5</v>
+      </c>
+      <c r="R161">
+        <v>1.975</v>
+      </c>
+      <c r="S161">
+        <v>1.825</v>
+      </c>
+      <c r="T161">
+        <v>2.25</v>
+      </c>
+      <c r="U161">
+        <v>1.975</v>
+      </c>
+      <c r="V161">
+        <v>1.825</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>0</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AA161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>7773464</v>
+      </c>
+      <c r="C162" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" t="s">
+        <v>28</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45361.83333333334</v>
+      </c>
+      <c r="F162" t="s">
+        <v>33</v>
+      </c>
+      <c r="G162" t="s">
+        <v>30</v>
+      </c>
+      <c r="K162">
+        <v>5</v>
+      </c>
+      <c r="L162">
+        <v>3.6</v>
+      </c>
+      <c r="M162">
+        <v>1.615</v>
+      </c>
+      <c r="N162">
+        <v>6.5</v>
+      </c>
+      <c r="O162">
+        <v>3.8</v>
+      </c>
+      <c r="P162">
+        <v>1.45</v>
+      </c>
+      <c r="Q162">
+        <v>1</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>1.8</v>
+      </c>
+      <c r="T162">
+        <v>2.5</v>
+      </c>
+      <c r="U162">
+        <v>1.925</v>
+      </c>
+      <c r="V162">
+        <v>1.875</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>0</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AA162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>7773465</v>
+      </c>
+      <c r="C163" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45362.875</v>
+      </c>
+      <c r="F163" t="s">
+        <v>38</v>
+      </c>
+      <c r="G163" t="s">
+        <v>37</v>
+      </c>
+      <c r="K163">
         <v>2.75</v>
       </c>
-      <c r="U153">
-        <v>1.9</v>
-      </c>
-      <c r="V153">
-        <v>1.9</v>
-      </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-      <c r="X153">
-        <v>0</v>
-      </c>
-      <c r="Y153">
-        <v>0</v>
-      </c>
-      <c r="Z153">
-        <v>0</v>
-      </c>
-      <c r="AA153">
+      <c r="L163">
+        <v>3.25</v>
+      </c>
+      <c r="M163">
+        <v>2.4</v>
+      </c>
+      <c r="N163">
+        <v>3.75</v>
+      </c>
+      <c r="O163">
+        <v>3.4</v>
+      </c>
+      <c r="P163">
+        <v>1.909</v>
+      </c>
+      <c r="Q163">
+        <v>0.5</v>
+      </c>
+      <c r="R163">
+        <v>1.875</v>
+      </c>
+      <c r="S163">
+        <v>1.925</v>
+      </c>
+      <c r="T163">
+        <v>2.5</v>
+      </c>
+      <c r="U163">
+        <v>2.025</v>
+      </c>
+      <c r="V163">
+        <v>1.775</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N130">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X130">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
+        <v>1.909</v>
+      </c>
+      <c r="L131">
         <v>3.25</v>
       </c>
-      <c r="L131">
-        <v>3.2</v>
-      </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
+        <v>1.909</v>
+      </c>
+      <c r="O131">
         <v>3.5</v>
       </c>
-      <c r="O131">
-        <v>3.25</v>
-      </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,61 +12204,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>49</v>
       </c>
       <c r="K132">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M132">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P132">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12267,13 +12267,13 @@
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483081</v>
+        <v>7483247</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>2.25</v>
+      </c>
+      <c r="N133">
+        <v>3.5</v>
+      </c>
+      <c r="O133">
         <v>3.25</v>
       </c>
-      <c r="M133">
-        <v>2.55</v>
-      </c>
-      <c r="N133">
-        <v>3</v>
-      </c>
-      <c r="O133">
-        <v>3.3</v>
-      </c>
       <c r="P133">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M135">
+        <v>7.5</v>
+      </c>
+      <c r="N135">
+        <v>1.444</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>8</v>
+      </c>
+      <c r="Q135">
+        <v>-1.25</v>
+      </c>
+      <c r="R135">
         <v>2.05</v>
       </c>
-      <c r="N135">
-        <v>2.6</v>
-      </c>
-      <c r="O135">
-        <v>3.25</v>
-      </c>
-      <c r="P135">
-        <v>2.75</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>1.8</v>
-      </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
+        <v>2.05</v>
+      </c>
+      <c r="S142">
+        <v>1.75</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
         <v>1.8</v>
       </c>
-      <c r="S142">
-        <v>2</v>
-      </c>
-      <c r="T142">
-        <v>3</v>
-      </c>
-      <c r="U142">
-        <v>1.975</v>
-      </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,73 +13272,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,40 +13361,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
         <v>1.8</v>
@@ -13403,34 +13403,34 @@
         <v>2</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14345,6 +14345,15 @@
       <c r="G156" t="s">
         <v>31</v>
       </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>49</v>
+      </c>
       <c r="K156">
         <v>1.533</v>
       </c>
@@ -14355,46 +14364,52 @@
         <v>6</v>
       </c>
       <c r="N156">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O156">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T156">
         <v>2.5</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
+        <v>0.95</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14429,31 +14444,31 @@
         <v>2.5</v>
       </c>
       <c r="N157">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="O157">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R157">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W157">
         <v>0</v>
@@ -14503,13 +14518,13 @@
         <v>2.6</v>
       </c>
       <c r="N158">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O158">
         <v>3.2</v>
       </c>
       <c r="P158">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q158">
         <v>0</v>
@@ -14524,10 +14539,10 @@
         <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
         <v>0</v>
@@ -14589,19 +14604,19 @@
         <v>-0.5</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S159">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W159">
         <v>0</v>
@@ -14651,22 +14666,22 @@
         <v>3.4</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P160">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q160">
         <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S160">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T160">
         <v>2.25</v>
@@ -14725,22 +14740,22 @@
         <v>4.2</v>
       </c>
       <c r="N161">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O161">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P161">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q161">
         <v>-0.5</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T161">
         <v>2.25</v>
@@ -14799,31 +14814,31 @@
         <v>1.615</v>
       </c>
       <c r="N162">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O162">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P162">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q162">
         <v>1</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
         <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W162">
         <v>0</v>
@@ -14885,10 +14900,10 @@
         <v>0.5</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T163">
         <v>2.5</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC163"/>
+  <dimension ref="A1:AC167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P130">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,13 +12382,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -12397,41 +12397,41 @@
         <v>48</v>
       </c>
       <c r="K134">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N134">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q134">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z134">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.825</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,13 +12560,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -12575,41 +12575,41 @@
         <v>48</v>
       </c>
       <c r="K136">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N136">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
+        <v>1.825</v>
+      </c>
+      <c r="V136">
         <v>1.975</v>
       </c>
-      <c r="V136">
-        <v>1.825</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
@@ -12617,19 +12617,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,55 +13183,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>1</v>
-      </c>
-      <c r="I143">
-        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>48</v>
       </c>
       <c r="K143">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N143">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13240,19 +13240,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,73 +13272,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,40 +13361,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
         <v>1.8</v>
@@ -13403,34 +13403,34 @@
         <v>2</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -14434,6 +14434,15 @@
       <c r="G157" t="s">
         <v>39</v>
       </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" t="s">
+        <v>47</v>
+      </c>
       <c r="K157">
         <v>2.6</v>
       </c>
@@ -14444,46 +14453,52 @@
         <v>2.5</v>
       </c>
       <c r="N157">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P157">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q157">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R157">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T157">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U157">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W157">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="X157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14508,6 +14523,15 @@
       <c r="G158" t="s">
         <v>40</v>
       </c>
+      <c r="H158">
+        <v>3</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158" t="s">
+        <v>47</v>
+      </c>
       <c r="K158">
         <v>2.5</v>
       </c>
@@ -14545,19 +14569,25 @@
         <v>1.95</v>
       </c>
       <c r="W158">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA158">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB158">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC158">
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14582,6 +14612,15 @@
       <c r="G159" t="s">
         <v>32</v>
       </c>
+      <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" t="s">
+        <v>47</v>
+      </c>
       <c r="K159">
         <v>1.666</v>
       </c>
@@ -14592,22 +14631,22 @@
         <v>4.5</v>
       </c>
       <c r="N159">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q159">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T159">
         <v>2.25</v>
@@ -14619,19 +14658,25 @@
         <v>2</v>
       </c>
       <c r="W159">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA159">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB159">
+        <v>0.8</v>
+      </c>
+      <c r="AC159">
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14656,6 +14701,15 @@
       <c r="G160" t="s">
         <v>34</v>
       </c>
+      <c r="H160">
+        <v>3</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>47</v>
+      </c>
       <c r="K160">
         <v>2</v>
       </c>
@@ -14666,49 +14720,55 @@
         <v>3.4</v>
       </c>
       <c r="N160">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O160">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P160">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q160">
         <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T160">
         <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB160">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC160">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -14730,6 +14790,15 @@
       <c r="G161" t="s">
         <v>36</v>
       </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" t="s">
+        <v>49</v>
+      </c>
       <c r="K161">
         <v>1.833</v>
       </c>
@@ -14740,16 +14809,16 @@
         <v>4.2</v>
       </c>
       <c r="N161">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O161">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P161">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q161">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
         <v>2</v>
@@ -14761,28 +14830,34 @@
         <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X161">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB161">
+        <v>-0.5</v>
+      </c>
+      <c r="AC161">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -14804,6 +14879,15 @@
       <c r="G162" t="s">
         <v>30</v>
       </c>
+      <c r="H162">
+        <v>1</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162" t="s">
+        <v>48</v>
+      </c>
       <c r="K162">
         <v>5</v>
       </c>
@@ -14814,54 +14898,60 @@
         <v>1.615</v>
       </c>
       <c r="N162">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P162">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q162">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB162">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC162">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7773465</v>
+        <v>7773062</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14870,63 +14960,359 @@
         <v>28</v>
       </c>
       <c r="E163" s="2">
-        <v>45362.875</v>
+        <v>45366.875</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K163">
+        <v>1.2</v>
+      </c>
+      <c r="L163">
+        <v>6</v>
+      </c>
+      <c r="M163">
+        <v>13</v>
+      </c>
+      <c r="N163">
+        <v>1.222</v>
+      </c>
+      <c r="O163">
+        <v>6</v>
+      </c>
+      <c r="P163">
+        <v>12</v>
+      </c>
+      <c r="Q163">
+        <v>-1.75</v>
+      </c>
+      <c r="R163">
+        <v>1.925</v>
+      </c>
+      <c r="S163">
+        <v>1.875</v>
+      </c>
+      <c r="T163">
         <v>2.75</v>
       </c>
-      <c r="L163">
-        <v>3.25</v>
-      </c>
-      <c r="M163">
-        <v>2.4</v>
-      </c>
-      <c r="N163">
+      <c r="U163">
+        <v>1.9</v>
+      </c>
+      <c r="V163">
+        <v>1.9</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>0</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AA163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>7773471</v>
+      </c>
+      <c r="C164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" t="s">
+        <v>28</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45367.72916666666</v>
+      </c>
+      <c r="F164" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" t="s">
+        <v>44</v>
+      </c>
+      <c r="K164">
+        <v>1.533</v>
+      </c>
+      <c r="L164">
+        <v>4</v>
+      </c>
+      <c r="M164">
+        <v>6</v>
+      </c>
+      <c r="N164">
+        <v>1.533</v>
+      </c>
+      <c r="O164">
+        <v>4</v>
+      </c>
+      <c r="P164">
+        <v>6</v>
+      </c>
+      <c r="Q164">
+        <v>-1</v>
+      </c>
+      <c r="R164">
+        <v>1.9</v>
+      </c>
+      <c r="S164">
+        <v>1.9</v>
+      </c>
+      <c r="T164">
+        <v>2.75</v>
+      </c>
+      <c r="U164">
+        <v>1.925</v>
+      </c>
+      <c r="V164">
+        <v>1.875</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>0</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AA164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>7773473</v>
+      </c>
+      <c r="C165" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45367.83333333334</v>
+      </c>
+      <c r="F165" t="s">
+        <v>32</v>
+      </c>
+      <c r="G165" t="s">
+        <v>42</v>
+      </c>
+      <c r="K165">
+        <v>1.615</v>
+      </c>
+      <c r="L165">
+        <v>3.6</v>
+      </c>
+      <c r="M165">
+        <v>6</v>
+      </c>
+      <c r="N165">
+        <v>1.4</v>
+      </c>
+      <c r="O165">
+        <v>4.333</v>
+      </c>
+      <c r="P165">
+        <v>9</v>
+      </c>
+      <c r="Q165">
+        <v>-1.25</v>
+      </c>
+      <c r="R165">
+        <v>1.85</v>
+      </c>
+      <c r="S165">
+        <v>1.95</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
+        <v>1.85</v>
+      </c>
+      <c r="V165">
+        <v>1.95</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>0</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>7773472</v>
+      </c>
+      <c r="C166" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45368.72916666666</v>
+      </c>
+      <c r="F166" t="s">
+        <v>40</v>
+      </c>
+      <c r="G166" t="s">
+        <v>34</v>
+      </c>
+      <c r="K166">
+        <v>2.05</v>
+      </c>
+      <c r="L166">
+        <v>3.2</v>
+      </c>
+      <c r="M166">
         <v>3.75</v>
       </c>
-      <c r="O163">
+      <c r="N166">
+        <v>2.2</v>
+      </c>
+      <c r="O166">
+        <v>3.2</v>
+      </c>
+      <c r="P166">
         <v>3.4</v>
       </c>
-      <c r="P163">
-        <v>1.909</v>
-      </c>
-      <c r="Q163">
-        <v>0.5</v>
-      </c>
-      <c r="R163">
+      <c r="Q166">
+        <v>-0.25</v>
+      </c>
+      <c r="R166">
+        <v>1.875</v>
+      </c>
+      <c r="S166">
+        <v>1.925</v>
+      </c>
+      <c r="T166">
+        <v>2.25</v>
+      </c>
+      <c r="U166">
+        <v>2.025</v>
+      </c>
+      <c r="V166">
+        <v>1.775</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>0</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AA166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>7773470</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45368.83333333334</v>
+      </c>
+      <c r="F167" t="s">
+        <v>39</v>
+      </c>
+      <c r="G167" t="s">
+        <v>43</v>
+      </c>
+      <c r="K167">
+        <v>2.2</v>
+      </c>
+      <c r="L167">
+        <v>3.3</v>
+      </c>
+      <c r="M167">
+        <v>3.2</v>
+      </c>
+      <c r="N167">
+        <v>2.2</v>
+      </c>
+      <c r="O167">
+        <v>3.3</v>
+      </c>
+      <c r="P167">
+        <v>3.2</v>
+      </c>
+      <c r="Q167">
+        <v>-0.25</v>
+      </c>
+      <c r="R167">
+        <v>1.925</v>
+      </c>
+      <c r="S167">
+        <v>1.875</v>
+      </c>
+      <c r="T167">
+        <v>2.5</v>
+      </c>
+      <c r="U167">
+        <v>1.95</v>
+      </c>
+      <c r="V167">
         <v>1.85</v>
       </c>
-      <c r="S163">
-        <v>1.95</v>
-      </c>
-      <c r="T163">
-        <v>2.5</v>
-      </c>
-      <c r="U163">
-        <v>2.025</v>
-      </c>
-      <c r="V163">
-        <v>1.775</v>
-      </c>
-      <c r="W163">
-        <v>0</v>
-      </c>
-      <c r="X163">
-        <v>0</v>
-      </c>
-      <c r="Y163">
-        <v>0</v>
-      </c>
-      <c r="Z163">
-        <v>0</v>
-      </c>
-      <c r="AA163">
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>0</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AA167">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC167"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483189</v>
+        <v>7483281</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,61 +12026,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O130">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
@@ -12089,13 +12089,13 @@
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L131">
+        <v>3.2</v>
+      </c>
+      <c r="M131">
+        <v>2.25</v>
+      </c>
+      <c r="N131">
+        <v>3.5</v>
+      </c>
+      <c r="O131">
         <v>3.25</v>
       </c>
-      <c r="M131">
-        <v>4.2</v>
-      </c>
-      <c r="N131">
-        <v>1.909</v>
-      </c>
-      <c r="O131">
-        <v>3.5</v>
-      </c>
       <c r="P131">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
+        <v>1.025</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M132">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483247</v>
+        <v>7483081</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K133">
+        <v>2.75</v>
+      </c>
+      <c r="L133">
         <v>3.25</v>
       </c>
-      <c r="L133">
-        <v>3.2</v>
-      </c>
       <c r="M133">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,13 +12382,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -12397,41 +12397,41 @@
         <v>48</v>
       </c>
       <c r="K134">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N134">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P134">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,13 +12560,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -12575,41 +12575,41 @@
         <v>48</v>
       </c>
       <c r="K136">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N136">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q136">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
         <v>1.825</v>
       </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
@@ -12617,19 +12617,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z136">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.825</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,76 +13094,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P142">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.75</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
-      </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -14951,7 +14951,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7773062</v>
+        <v>7773465</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14960,64 +14960,79 @@
         <v>28</v>
       </c>
       <c r="E163" s="2">
-        <v>45366.875</v>
+        <v>45362.875</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" t="s">
+        <v>48</v>
       </c>
       <c r="K163">
-        <v>1.2</v>
+        <v>2.75</v>
       </c>
       <c r="L163">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M163">
-        <v>13</v>
+        <v>2.4</v>
       </c>
       <c r="N163">
-        <v>1.222</v>
+        <v>4</v>
       </c>
       <c r="O163">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P163">
-        <v>12</v>
+        <v>1.833</v>
       </c>
       <c r="Q163">
-        <v>-1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="Z163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB163">
+        <v>-1</v>
+      </c>
+      <c r="AC163">
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15025,7 +15040,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7773471</v>
+        <v>7773475</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15034,64 +15049,79 @@
         <v>28</v>
       </c>
       <c r="E164" s="2">
-        <v>45367.72916666666</v>
+        <v>45366.77083333334</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G164" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="H164">
+        <v>3</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164" t="s">
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M164">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="O164">
         <v>4</v>
       </c>
       <c r="P164">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q164">
         <v>-1</v>
       </c>
       <c r="R164">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S164">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T164">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V164">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W164">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA164">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB164">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC164">
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15099,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7773473</v>
+        <v>7773062</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15108,64 +15138,79 @@
         <v>28</v>
       </c>
       <c r="E165" s="2">
-        <v>45367.83333333334</v>
+        <v>45366.875</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G165" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165" t="s">
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>1.615</v>
+        <v>1.2</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="M165">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N165">
-        <v>1.4</v>
+        <v>1.181</v>
       </c>
       <c r="O165">
-        <v>4.333</v>
+        <v>7</v>
       </c>
       <c r="P165">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q165">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W165">
-        <v>0</v>
+        <v>0.181</v>
       </c>
       <c r="X165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA165">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB165">
+        <v>0.3875</v>
+      </c>
+      <c r="AC165">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15173,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7773472</v>
+        <v>7773778</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15182,64 +15227,79 @@
         <v>28</v>
       </c>
       <c r="E166" s="2">
-        <v>45368.72916666666</v>
+        <v>45367.625</v>
       </c>
       <c r="F166" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L166">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M166">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N166">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O166">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA166">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB166">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC166">
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15247,72 +15307,398 @@
         <v>165</v>
       </c>
       <c r="B167">
+        <v>7773471</v>
+      </c>
+      <c r="C167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" t="s">
+        <v>28</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45367.72916666666</v>
+      </c>
+      <c r="F167" t="s">
+        <v>30</v>
+      </c>
+      <c r="G167" t="s">
+        <v>44</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>2</v>
+      </c>
+      <c r="J167" t="s">
+        <v>48</v>
+      </c>
+      <c r="K167">
+        <v>1.533</v>
+      </c>
+      <c r="L167">
+        <v>4</v>
+      </c>
+      <c r="M167">
+        <v>6</v>
+      </c>
+      <c r="N167">
+        <v>1.75</v>
+      </c>
+      <c r="O167">
+        <v>3.6</v>
+      </c>
+      <c r="P167">
+        <v>4.5</v>
+      </c>
+      <c r="Q167">
+        <v>-0.75</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>1.8</v>
+      </c>
+      <c r="T167">
+        <v>2.75</v>
+      </c>
+      <c r="U167">
+        <v>2</v>
+      </c>
+      <c r="V167">
+        <v>1.8</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>-1</v>
+      </c>
+      <c r="Y167">
+        <v>3.5</v>
+      </c>
+      <c r="Z167">
+        <v>-1</v>
+      </c>
+      <c r="AA167">
+        <v>0.8</v>
+      </c>
+      <c r="AB167">
+        <v>0.5</v>
+      </c>
+      <c r="AC167">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>7773473</v>
+      </c>
+      <c r="C168" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45367.83333333334</v>
+      </c>
+      <c r="F168" t="s">
+        <v>32</v>
+      </c>
+      <c r="G168" t="s">
+        <v>42</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>49</v>
+      </c>
+      <c r="K168">
+        <v>1.615</v>
+      </c>
+      <c r="L168">
+        <v>3.6</v>
+      </c>
+      <c r="M168">
+        <v>6</v>
+      </c>
+      <c r="N168">
+        <v>1.4</v>
+      </c>
+      <c r="O168">
+        <v>4.2</v>
+      </c>
+      <c r="P168">
+        <v>8.5</v>
+      </c>
+      <c r="Q168">
+        <v>-1.25</v>
+      </c>
+      <c r="R168">
+        <v>1.95</v>
+      </c>
+      <c r="S168">
+        <v>1.85</v>
+      </c>
+      <c r="T168">
+        <v>2.5</v>
+      </c>
+      <c r="U168">
+        <v>1.95</v>
+      </c>
+      <c r="V168">
+        <v>1.85</v>
+      </c>
+      <c r="W168">
+        <v>-1</v>
+      </c>
+      <c r="X168">
+        <v>3.2</v>
+      </c>
+      <c r="Y168">
+        <v>-1</v>
+      </c>
+      <c r="Z168">
+        <v>-1</v>
+      </c>
+      <c r="AA168">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB168">
+        <v>-1</v>
+      </c>
+      <c r="AC168">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>7773474</v>
+      </c>
+      <c r="C169" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" t="s">
+        <v>28</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45368.625</v>
+      </c>
+      <c r="F169" t="s">
+        <v>37</v>
+      </c>
+      <c r="G169" t="s">
+        <v>36</v>
+      </c>
+      <c r="K169">
+        <v>1.533</v>
+      </c>
+      <c r="L169">
+        <v>4</v>
+      </c>
+      <c r="M169">
+        <v>6</v>
+      </c>
+      <c r="N169">
+        <v>1.5</v>
+      </c>
+      <c r="O169">
+        <v>4</v>
+      </c>
+      <c r="P169">
+        <v>6.5</v>
+      </c>
+      <c r="Q169">
+        <v>-1</v>
+      </c>
+      <c r="R169">
+        <v>1.85</v>
+      </c>
+      <c r="S169">
+        <v>1.95</v>
+      </c>
+      <c r="T169">
+        <v>2.5</v>
+      </c>
+      <c r="U169">
+        <v>1.8</v>
+      </c>
+      <c r="V169">
+        <v>2</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>7773472</v>
+      </c>
+      <c r="C170" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45368.72916666666</v>
+      </c>
+      <c r="F170" t="s">
+        <v>40</v>
+      </c>
+      <c r="G170" t="s">
+        <v>34</v>
+      </c>
+      <c r="K170">
+        <v>2.05</v>
+      </c>
+      <c r="L170">
+        <v>3.2</v>
+      </c>
+      <c r="M170">
+        <v>3.75</v>
+      </c>
+      <c r="N170">
+        <v>1.909</v>
+      </c>
+      <c r="O170">
+        <v>3.3</v>
+      </c>
+      <c r="P170">
+        <v>4.2</v>
+      </c>
+      <c r="Q170">
+        <v>-0.5</v>
+      </c>
+      <c r="R170">
+        <v>1.925</v>
+      </c>
+      <c r="S170">
+        <v>1.875</v>
+      </c>
+      <c r="T170">
+        <v>2.25</v>
+      </c>
+      <c r="U170">
+        <v>1.975</v>
+      </c>
+      <c r="V170">
+        <v>1.825</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>0</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AA170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
         <v>7773470</v>
       </c>
-      <c r="C167" t="s">
-        <v>28</v>
-      </c>
-      <c r="D167" t="s">
-        <v>28</v>
-      </c>
-      <c r="E167" s="2">
+      <c r="C171" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" t="s">
+        <v>28</v>
+      </c>
+      <c r="E171" s="2">
         <v>45368.83333333334</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F171" t="s">
         <v>39</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G171" t="s">
         <v>43</v>
       </c>
-      <c r="K167">
+      <c r="K171">
         <v>2.2</v>
       </c>
-      <c r="L167">
+      <c r="L171">
         <v>3.3</v>
       </c>
-      <c r="M167">
+      <c r="M171">
         <v>3.2</v>
       </c>
-      <c r="N167">
-        <v>2.2</v>
-      </c>
-      <c r="O167">
+      <c r="N171">
+        <v>3.6</v>
+      </c>
+      <c r="O171">
         <v>3.3</v>
       </c>
-      <c r="P167">
-        <v>3.2</v>
-      </c>
-      <c r="Q167">
-        <v>-0.25</v>
-      </c>
-      <c r="R167">
-        <v>1.925</v>
-      </c>
-      <c r="S167">
-        <v>1.875</v>
-      </c>
-      <c r="T167">
+      <c r="P171">
+        <v>2</v>
+      </c>
+      <c r="Q171">
+        <v>0.5</v>
+      </c>
+      <c r="R171">
+        <v>1.775</v>
+      </c>
+      <c r="S171">
+        <v>2.025</v>
+      </c>
+      <c r="T171">
         <v>2.5</v>
       </c>
-      <c r="U167">
-        <v>1.95</v>
-      </c>
-      <c r="V167">
-        <v>1.85</v>
-      </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-      <c r="X167">
-        <v>0</v>
-      </c>
-      <c r="Y167">
-        <v>0</v>
-      </c>
-      <c r="Z167">
-        <v>0</v>
-      </c>
-      <c r="AA167">
+      <c r="U171">
+        <v>2.025</v>
+      </c>
+      <c r="V171">
+        <v>1.775</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>0</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AA171">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC171"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483247</v>
+        <v>7483189</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O132">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7482867</v>
+        <v>7483306</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="N134">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="Q134">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y134">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
+        <v>0.875</v>
+      </c>
+      <c r="AB134">
         <v>-0.5</v>
       </c>
-      <c r="AB134">
-        <v>0.825</v>
-      </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,13 +12560,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -12575,41 +12575,41 @@
         <v>48</v>
       </c>
       <c r="K136">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N136">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
+        <v>1.825</v>
+      </c>
+      <c r="V136">
         <v>1.975</v>
       </c>
-      <c r="V136">
-        <v>1.825</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
@@ -12617,19 +12617,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L137">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M137">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N137">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,40 +13094,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
         <v>1.8</v>
@@ -13136,34 +13136,34 @@
         <v>2</v>
       </c>
       <c r="T142">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,40 +13361,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
         <v>1.8</v>
@@ -13403,34 +13403,34 @@
         <v>2</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -15502,6 +15502,15 @@
       <c r="G169" t="s">
         <v>36</v>
       </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169" t="s">
+        <v>49</v>
+      </c>
       <c r="K169">
         <v>1.533</v>
       </c>
@@ -15524,34 +15533,40 @@
         <v>-1</v>
       </c>
       <c r="R169">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S169">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
+        <v>2</v>
+      </c>
+      <c r="V169">
         <v>1.8</v>
       </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
       <c r="W169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB169">
+        <v>1</v>
+      </c>
+      <c r="AC169">
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15576,6 +15591,15 @@
       <c r="G170" t="s">
         <v>34</v>
       </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>47</v>
+      </c>
       <c r="K170">
         <v>2.05</v>
       </c>
@@ -15598,34 +15622,40 @@
         <v>-0.5</v>
       </c>
       <c r="R170">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S170">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
         <v>2.25</v>
       </c>
       <c r="U170">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W170">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA170">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB170">
+        <v>-0.5</v>
+      </c>
+      <c r="AC170">
+        <v>0.4</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15650,6 +15680,15 @@
       <c r="G171" t="s">
         <v>43</v>
       </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="s">
+        <v>48</v>
+      </c>
       <c r="K171">
         <v>2.2</v>
       </c>
@@ -15660,45 +15699,1711 @@
         <v>3.2</v>
       </c>
       <c r="N171">
+        <v>4.333</v>
+      </c>
+      <c r="O171">
         <v>3.6</v>
       </c>
-      <c r="O171">
-        <v>3.3</v>
-      </c>
       <c r="P171">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q171">
         <v>0.5</v>
       </c>
       <c r="R171">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
         <v>2.5</v>
       </c>
       <c r="U171">
+        <v>1.975</v>
+      </c>
+      <c r="V171">
+        <v>1.825</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
+        <v>-1</v>
+      </c>
+      <c r="Y171">
+        <v>0.8</v>
+      </c>
+      <c r="Z171">
+        <v>-1</v>
+      </c>
+      <c r="AA171">
+        <v>0.8</v>
+      </c>
+      <c r="AB171">
+        <v>-1</v>
+      </c>
+      <c r="AC171">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>7773480</v>
+      </c>
+      <c r="C172" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45370.77083333334</v>
+      </c>
+      <c r="F172" t="s">
+        <v>33</v>
+      </c>
+      <c r="G172" t="s">
+        <v>31</v>
+      </c>
+      <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" t="s">
+        <v>47</v>
+      </c>
+      <c r="K172">
+        <v>3.3</v>
+      </c>
+      <c r="L172">
+        <v>3.25</v>
+      </c>
+      <c r="M172">
+        <v>2.2</v>
+      </c>
+      <c r="N172">
+        <v>3.2</v>
+      </c>
+      <c r="O172">
+        <v>3.1</v>
+      </c>
+      <c r="P172">
+        <v>2.375</v>
+      </c>
+      <c r="Q172">
+        <v>0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.775</v>
+      </c>
+      <c r="S172">
         <v>2.025</v>
       </c>
-      <c r="V171">
+      <c r="T172">
+        <v>2.25</v>
+      </c>
+      <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
+        <v>1.85</v>
+      </c>
+      <c r="W172">
+        <v>2.2</v>
+      </c>
+      <c r="X172">
+        <v>-1</v>
+      </c>
+      <c r="Y172">
+        <v>-1</v>
+      </c>
+      <c r="Z172">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
+        <v>0.95</v>
+      </c>
+      <c r="AC172">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>7773777</v>
+      </c>
+      <c r="C173" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45370.875</v>
+      </c>
+      <c r="F173" t="s">
+        <v>42</v>
+      </c>
+      <c r="G173" t="s">
+        <v>46</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173" t="s">
+        <v>48</v>
+      </c>
+      <c r="K173">
+        <v>1.727</v>
+      </c>
+      <c r="L173">
+        <v>3.5</v>
+      </c>
+      <c r="M173">
+        <v>4.75</v>
+      </c>
+      <c r="N173">
+        <v>1.55</v>
+      </c>
+      <c r="O173">
+        <v>3.75</v>
+      </c>
+      <c r="P173">
+        <v>5.75</v>
+      </c>
+      <c r="Q173">
+        <v>-1</v>
+      </c>
+      <c r="R173">
+        <v>1.95</v>
+      </c>
+      <c r="S173">
+        <v>1.85</v>
+      </c>
+      <c r="T173">
+        <v>2.5</v>
+      </c>
+      <c r="U173">
+        <v>1.8</v>
+      </c>
+      <c r="V173">
+        <v>2</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>4.75</v>
+      </c>
+      <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB173">
+        <v>0.8</v>
+      </c>
+      <c r="AC173">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>7977166</v>
+      </c>
+      <c r="C174" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45371.77083333334</v>
+      </c>
+      <c r="F174" t="s">
+        <v>36</v>
+      </c>
+      <c r="G174" t="s">
+        <v>45</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="s">
+        <v>49</v>
+      </c>
+      <c r="K174">
+        <v>2.15</v>
+      </c>
+      <c r="L174">
+        <v>3.3</v>
+      </c>
+      <c r="M174">
+        <v>3.1</v>
+      </c>
+      <c r="N174">
+        <v>2.6</v>
+      </c>
+      <c r="O174">
+        <v>3.25</v>
+      </c>
+      <c r="P174">
+        <v>2.55</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>1.925</v>
+      </c>
+      <c r="S174">
+        <v>1.875</v>
+      </c>
+      <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>1.9</v>
+      </c>
+      <c r="V174">
+        <v>1.9</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>2.25</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>-0</v>
+      </c>
+      <c r="AB174">
+        <v>-0.5</v>
+      </c>
+      <c r="AC174">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>7773478</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>28</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45371.875</v>
+      </c>
+      <c r="F175" t="s">
+        <v>44</v>
+      </c>
+      <c r="G175" t="s">
+        <v>39</v>
+      </c>
+      <c r="H175">
+        <v>3</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+      <c r="J175" t="s">
+        <v>48</v>
+      </c>
+      <c r="K175">
+        <v>1.5</v>
+      </c>
+      <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="M175">
+        <v>5.5</v>
+      </c>
+      <c r="N175">
+        <v>1.909</v>
+      </c>
+      <c r="O175">
+        <v>3.5</v>
+      </c>
+      <c r="P175">
+        <v>3.6</v>
+      </c>
+      <c r="Q175">
+        <v>-0.5</v>
+      </c>
+      <c r="R175">
+        <v>1.9</v>
+      </c>
+      <c r="S175">
+        <v>1.9</v>
+      </c>
+      <c r="T175">
+        <v>2.5</v>
+      </c>
+      <c r="U175">
+        <v>1.85</v>
+      </c>
+      <c r="V175">
+        <v>1.95</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>2.6</v>
+      </c>
+      <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB175">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC175">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>7773063</v>
+      </c>
+      <c r="C176" t="s">
+        <v>28</v>
+      </c>
+      <c r="D176" t="s">
+        <v>28</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45372.77083333334</v>
+      </c>
+      <c r="F176" t="s">
+        <v>34</v>
+      </c>
+      <c r="G176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>49</v>
+      </c>
+      <c r="K176">
+        <v>3.25</v>
+      </c>
+      <c r="L176">
+        <v>3.3</v>
+      </c>
+      <c r="M176">
+        <v>2.2</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176">
+        <v>3.4</v>
+      </c>
+      <c r="P176">
+        <v>1.95</v>
+      </c>
+      <c r="Q176">
+        <v>0.5</v>
+      </c>
+      <c r="R176">
+        <v>1.85</v>
+      </c>
+      <c r="S176">
+        <v>1.95</v>
+      </c>
+      <c r="T176">
+        <v>2.25</v>
+      </c>
+      <c r="U176">
+        <v>1.975</v>
+      </c>
+      <c r="V176">
+        <v>1.825</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>2.4</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA176">
+        <v>-1</v>
+      </c>
+      <c r="AB176">
+        <v>-0.5</v>
+      </c>
+      <c r="AC176">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>7773481</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>28</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45372.875</v>
+      </c>
+      <c r="F177" t="s">
+        <v>43</v>
+      </c>
+      <c r="G177" t="s">
+        <v>40</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>47</v>
+      </c>
+      <c r="K177">
+        <v>1.666</v>
+      </c>
+      <c r="L177">
+        <v>3.5</v>
+      </c>
+      <c r="M177">
+        <v>5.5</v>
+      </c>
+      <c r="N177">
+        <v>1.727</v>
+      </c>
+      <c r="O177">
+        <v>3.4</v>
+      </c>
+      <c r="P177">
+        <v>5</v>
+      </c>
+      <c r="Q177">
+        <v>-0.75</v>
+      </c>
+      <c r="R177">
+        <v>1.95</v>
+      </c>
+      <c r="S177">
+        <v>1.85</v>
+      </c>
+      <c r="T177">
+        <v>2.25</v>
+      </c>
+      <c r="U177">
         <v>1.775</v>
       </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
+      <c r="V177">
+        <v>2.025</v>
+      </c>
+      <c r="W177">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>0.95</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>-0.5</v>
+      </c>
+      <c r="AC177">
+        <v>0.5125</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>7773776</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178" t="s">
+        <v>28</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45374.72916666666</v>
+      </c>
+      <c r="F178" t="s">
+        <v>46</v>
+      </c>
+      <c r="G178" t="s">
+        <v>33</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>49</v>
+      </c>
+      <c r="K178">
+        <v>1.571</v>
+      </c>
+      <c r="L178">
+        <v>3.75</v>
+      </c>
+      <c r="M178">
+        <v>5.5</v>
+      </c>
+      <c r="N178">
+        <v>1.666</v>
+      </c>
+      <c r="O178">
+        <v>3.8</v>
+      </c>
+      <c r="P178">
+        <v>4.5</v>
+      </c>
+      <c r="Q178">
+        <v>-0.75</v>
+      </c>
+      <c r="R178">
+        <v>1.875</v>
+      </c>
+      <c r="S178">
+        <v>1.925</v>
+      </c>
+      <c r="T178">
+        <v>2.5</v>
+      </c>
+      <c r="U178">
+        <v>1.825</v>
+      </c>
+      <c r="V178">
+        <v>1.975</v>
+      </c>
+      <c r="W178">
+        <v>-1</v>
+      </c>
+      <c r="X178">
+        <v>2.8</v>
+      </c>
+      <c r="Y178">
+        <v>-1</v>
+      </c>
+      <c r="Z178">
+        <v>-1</v>
+      </c>
+      <c r="AA178">
+        <v>0.925</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>7773486</v>
+      </c>
+      <c r="C179" t="s">
+        <v>28</v>
+      </c>
+      <c r="D179" t="s">
+        <v>28</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45375.58333333334</v>
+      </c>
+      <c r="F179" t="s">
+        <v>39</v>
+      </c>
+      <c r="G179" t="s">
+        <v>36</v>
+      </c>
+      <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>47</v>
+      </c>
+      <c r="K179">
+        <v>2.1</v>
+      </c>
+      <c r="L179">
+        <v>3.25</v>
+      </c>
+      <c r="M179">
+        <v>3.25</v>
+      </c>
+      <c r="N179">
+        <v>2.5</v>
+      </c>
+      <c r="O179">
+        <v>3.6</v>
+      </c>
+      <c r="P179">
+        <v>2.375</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>1.85</v>
+      </c>
+      <c r="T179">
+        <v>3</v>
+      </c>
+      <c r="U179">
+        <v>1.85</v>
+      </c>
+      <c r="V179">
+        <v>1.95</v>
+      </c>
+      <c r="W179">
+        <v>1.5</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>0.95</v>
+      </c>
+      <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>7773485</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45375.72916666666</v>
+      </c>
+      <c r="F180" t="s">
+        <v>34</v>
+      </c>
+      <c r="G180" t="s">
+        <v>45</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>49</v>
+      </c>
+      <c r="K180">
+        <v>2.25</v>
+      </c>
+      <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>3.1</v>
+      </c>
+      <c r="N180">
+        <v>2.7</v>
+      </c>
+      <c r="O180">
+        <v>3.2</v>
+      </c>
+      <c r="P180">
+        <v>2.45</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>1.8</v>
+      </c>
+      <c r="T180">
+        <v>2.25</v>
+      </c>
+      <c r="U180">
+        <v>2.05</v>
+      </c>
+      <c r="V180">
+        <v>1.75</v>
+      </c>
+      <c r="W180">
+        <v>-1</v>
+      </c>
+      <c r="X180">
+        <v>2.2</v>
+      </c>
+      <c r="Y180">
+        <v>-1</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>-0</v>
+      </c>
+      <c r="AB180">
+        <v>-0.5</v>
+      </c>
+      <c r="AC180">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>7773064</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45375.83333333334</v>
+      </c>
+      <c r="F181" t="s">
+        <v>29</v>
+      </c>
+      <c r="G181" t="s">
+        <v>44</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K181">
+        <v>1.615</v>
+      </c>
+      <c r="L181">
+        <v>3.75</v>
+      </c>
+      <c r="M181">
+        <v>5</v>
+      </c>
+      <c r="N181">
+        <v>1.7</v>
+      </c>
+      <c r="O181">
+        <v>3.6</v>
+      </c>
+      <c r="P181">
+        <v>4.5</v>
+      </c>
+      <c r="Q181">
+        <v>-0.75</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
+        <v>1.9</v>
+      </c>
+      <c r="V181">
+        <v>1.9</v>
+      </c>
+      <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
+        <v>2.6</v>
+      </c>
+      <c r="Y181">
+        <v>-1</v>
+      </c>
+      <c r="Z181">
+        <v>-1</v>
+      </c>
+      <c r="AA181">
+        <v>0.8</v>
+      </c>
+      <c r="AB181">
+        <v>-1</v>
+      </c>
+      <c r="AC181">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>7773487</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45376.77083333334</v>
+      </c>
+      <c r="F182" t="s">
+        <v>40</v>
+      </c>
+      <c r="G182" t="s">
+        <v>38</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182" t="s">
+        <v>49</v>
+      </c>
+      <c r="K182">
+        <v>1.5</v>
+      </c>
+      <c r="L182">
+        <v>3.75</v>
+      </c>
+      <c r="M182">
+        <v>6.5</v>
+      </c>
+      <c r="N182">
+        <v>1.5</v>
+      </c>
+      <c r="O182">
+        <v>3.6</v>
+      </c>
+      <c r="P182">
+        <v>6.5</v>
+      </c>
+      <c r="Q182">
+        <v>-1</v>
+      </c>
+      <c r="R182">
+        <v>1.925</v>
+      </c>
+      <c r="S182">
+        <v>1.875</v>
+      </c>
+      <c r="T182">
+        <v>2.25</v>
+      </c>
+      <c r="U182">
+        <v>1.825</v>
+      </c>
+      <c r="V182">
+        <v>1.975</v>
+      </c>
+      <c r="W182">
+        <v>-1</v>
+      </c>
+      <c r="X182">
+        <v>2.6</v>
+      </c>
+      <c r="Y182">
+        <v>-1</v>
+      </c>
+      <c r="Z182">
+        <v>-1</v>
+      </c>
+      <c r="AA182">
+        <v>0.875</v>
+      </c>
+      <c r="AB182">
+        <v>-0.5</v>
+      </c>
+      <c r="AC182">
+        <v>0.4875</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>7773482</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45376.875</v>
+      </c>
+      <c r="F183" t="s">
+        <v>42</v>
+      </c>
+      <c r="G183" t="s">
+        <v>43</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>49</v>
+      </c>
+      <c r="K183">
+        <v>3</v>
+      </c>
+      <c r="L183">
+        <v>3.2</v>
+      </c>
+      <c r="M183">
+        <v>2.3</v>
+      </c>
+      <c r="N183">
+        <v>2.9</v>
+      </c>
+      <c r="O183">
+        <v>3.1</v>
+      </c>
+      <c r="P183">
+        <v>2.45</v>
+      </c>
+      <c r="Q183">
+        <v>0.25</v>
+      </c>
+      <c r="R183">
+        <v>1.75</v>
+      </c>
+      <c r="S183">
+        <v>2.05</v>
+      </c>
+      <c r="T183">
+        <v>2.25</v>
+      </c>
+      <c r="U183">
+        <v>2.025</v>
+      </c>
+      <c r="V183">
+        <v>1.775</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
+        <v>2.1</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>0.375</v>
+      </c>
+      <c r="AA183">
+        <v>-0.5</v>
+      </c>
+      <c r="AB183">
+        <v>-0.5</v>
+      </c>
+      <c r="AC183">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>7773775</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45379.875</v>
+      </c>
+      <c r="F184" t="s">
+        <v>30</v>
+      </c>
+      <c r="G184" t="s">
+        <v>46</v>
+      </c>
+      <c r="K184">
+        <v>1.2</v>
+      </c>
+      <c r="L184">
+        <v>6</v>
+      </c>
+      <c r="M184">
+        <v>11</v>
+      </c>
+      <c r="N184">
+        <v>1.25</v>
+      </c>
+      <c r="O184">
+        <v>5.75</v>
+      </c>
+      <c r="P184">
+        <v>8.5</v>
+      </c>
+      <c r="Q184">
+        <v>-1.5</v>
+      </c>
+      <c r="R184">
+        <v>1.825</v>
+      </c>
+      <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
+        <v>2.75</v>
+      </c>
+      <c r="U184">
+        <v>1.85</v>
+      </c>
+      <c r="V184">
+        <v>1.95</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>7773488</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45380.875</v>
+      </c>
+      <c r="F185" t="s">
+        <v>45</v>
+      </c>
+      <c r="G185" t="s">
+        <v>32</v>
+      </c>
+      <c r="K185">
+        <v>3.1</v>
+      </c>
+      <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
+        <v>2.1</v>
+      </c>
+      <c r="N185">
+        <v>2.4</v>
+      </c>
+      <c r="O185">
+        <v>3.3</v>
+      </c>
+      <c r="P185">
+        <v>2.6</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>1.775</v>
+      </c>
+      <c r="S185">
+        <v>2.025</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
+        <v>1.9</v>
+      </c>
+      <c r="V185">
+        <v>1.9</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>8016804</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45381.625</v>
+      </c>
+      <c r="F186" t="s">
+        <v>31</v>
+      </c>
+      <c r="G186" t="s">
+        <v>44</v>
+      </c>
+      <c r="K186">
+        <v>2.55</v>
+      </c>
+      <c r="L186">
+        <v>3.3</v>
+      </c>
+      <c r="M186">
+        <v>2.5</v>
+      </c>
+      <c r="N186">
+        <v>2.55</v>
+      </c>
+      <c r="O186">
+        <v>3.3</v>
+      </c>
+      <c r="P186">
+        <v>2.5</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>1.95</v>
+      </c>
+      <c r="S186">
+        <v>1.85</v>
+      </c>
+      <c r="T186">
+        <v>2.5</v>
+      </c>
+      <c r="U186">
+        <v>1.975</v>
+      </c>
+      <c r="V186">
+        <v>1.825</v>
+      </c>
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>0</v>
+      </c>
+      <c r="Z186">
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>8018935</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45381.72916666666</v>
+      </c>
+      <c r="F187" t="s">
+        <v>38</v>
+      </c>
+      <c r="G187" t="s">
+        <v>34</v>
+      </c>
+      <c r="K187">
+        <v>2.7</v>
+      </c>
+      <c r="L187">
+        <v>3.2</v>
+      </c>
+      <c r="M187">
+        <v>2.45</v>
+      </c>
+      <c r="N187">
+        <v>2.7</v>
+      </c>
+      <c r="O187">
+        <v>3.2</v>
+      </c>
+      <c r="P187">
+        <v>2.45</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>1.8</v>
+      </c>
+      <c r="T187">
+        <v>2.25</v>
+      </c>
+      <c r="U187">
+        <v>2</v>
+      </c>
+      <c r="V187">
+        <v>1.8</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7773490</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45381.83333333334</v>
+      </c>
+      <c r="F188" t="s">
+        <v>33</v>
+      </c>
+      <c r="G188" t="s">
+        <v>39</v>
+      </c>
+      <c r="K188">
+        <v>3.1</v>
+      </c>
+      <c r="L188">
+        <v>3.3</v>
+      </c>
+      <c r="M188">
+        <v>2.15</v>
+      </c>
+      <c r="N188">
+        <v>3.1</v>
+      </c>
+      <c r="O188">
+        <v>3.3</v>
+      </c>
+      <c r="P188">
+        <v>2.15</v>
+      </c>
+      <c r="Q188">
+        <v>0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>1.85</v>
+      </c>
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>1.975</v>
+      </c>
+      <c r="V188">
+        <v>1.825</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>7773493</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45382.625</v>
+      </c>
+      <c r="F189" t="s">
+        <v>37</v>
+      </c>
+      <c r="G189" t="s">
+        <v>42</v>
+      </c>
+      <c r="K189">
+        <v>1.4</v>
+      </c>
+      <c r="L189">
+        <v>4.333</v>
+      </c>
+      <c r="M189">
+        <v>6.5</v>
+      </c>
+      <c r="N189">
+        <v>1.4</v>
+      </c>
+      <c r="O189">
+        <v>4.333</v>
+      </c>
+      <c r="P189">
+        <v>6.5</v>
+      </c>
+      <c r="Q189">
+        <v>-1.25</v>
+      </c>
+      <c r="R189">
+        <v>1.975</v>
+      </c>
+      <c r="S189">
+        <v>1.825</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.825</v>
+      </c>
+      <c r="V189">
+        <v>1.975</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7773492</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45382.72916666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>36</v>
+      </c>
+      <c r="G190" t="s">
+        <v>40</v>
+      </c>
+      <c r="K190">
+        <v>2.1</v>
+      </c>
+      <c r="L190">
+        <v>3.2</v>
+      </c>
+      <c r="M190">
+        <v>3.3</v>
+      </c>
+      <c r="N190">
+        <v>2.1</v>
+      </c>
+      <c r="O190">
+        <v>3.2</v>
+      </c>
+      <c r="P190">
+        <v>3.3</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.775</v>
+      </c>
+      <c r="S190">
+        <v>2.025</v>
+      </c>
+      <c r="T190">
+        <v>2.25</v>
+      </c>
+      <c r="U190">
+        <v>1.925</v>
+      </c>
+      <c r="V190">
+        <v>1.875</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>8018936</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45382.83333333334</v>
+      </c>
+      <c r="F191" t="s">
+        <v>43</v>
+      </c>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+      <c r="K191">
+        <v>2.375</v>
+      </c>
+      <c r="L191">
+        <v>3.2</v>
+      </c>
+      <c r="M191">
+        <v>2.875</v>
+      </c>
+      <c r="N191">
+        <v>2.375</v>
+      </c>
+      <c r="O191">
+        <v>3.2</v>
+      </c>
+      <c r="P191">
+        <v>2.875</v>
+      </c>
+      <c r="Q191">
+        <v>-0.25</v>
+      </c>
+      <c r="R191">
+        <v>2.05</v>
+      </c>
+      <c r="S191">
+        <v>1.75</v>
+      </c>
+      <c r="T191">
+        <v>2.25</v>
+      </c>
+      <c r="U191">
+        <v>1.8</v>
+      </c>
+      <c r="V191">
+        <v>2</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L130">
+        <v>3.2</v>
+      </c>
+      <c r="M130">
+        <v>2.25</v>
+      </c>
+      <c r="N130">
+        <v>3.5</v>
+      </c>
+      <c r="O130">
         <v>3.25</v>
       </c>
-      <c r="M130">
-        <v>4.2</v>
-      </c>
-      <c r="N130">
-        <v>1.909</v>
-      </c>
-      <c r="O130">
-        <v>3.5</v>
-      </c>
       <c r="P130">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
+        <v>1.025</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
-      <c r="AC130">
-        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N131">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O131">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X131">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483247</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483081</v>
+        <v>7483281</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
+        <v>4.2</v>
+      </c>
+      <c r="N142">
+        <v>2.4</v>
+      </c>
+      <c r="O142">
         <v>3.1</v>
       </c>
-      <c r="N142">
-        <v>2.1</v>
-      </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,55 +13272,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
-      </c>
-      <c r="I144">
-        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13329,19 +13329,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,40 +13361,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
         <v>1.8</v>
@@ -13403,34 +13403,34 @@
         <v>2</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -16837,6 +16837,15 @@
       <c r="G184" t="s">
         <v>46</v>
       </c>
+      <c r="H184">
+        <v>5</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184" t="s">
+        <v>47</v>
+      </c>
       <c r="K184">
         <v>1.2</v>
       </c>
@@ -16847,46 +16856,52 @@
         <v>11</v>
       </c>
       <c r="N184">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="O184">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P184">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q184">
         <v>-1.5</v>
       </c>
       <c r="R184">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T184">
         <v>2.75</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA184">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB184">
+        <v>0.8</v>
+      </c>
+      <c r="AC184">
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,31 +16936,31 @@
         <v>2.1</v>
       </c>
       <c r="N185">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q185">
         <v>0</v>
       </c>
       <c r="R185">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S185">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
         <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V185">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -17007,10 +17022,10 @@
         <v>0</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T186">
         <v>2.5</v>
@@ -17081,10 +17096,10 @@
         <v>0</v>
       </c>
       <c r="R187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>2.25</v>
@@ -17143,31 +17158,31 @@
         <v>2.15</v>
       </c>
       <c r="N188">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R188">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S188">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V188">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17291,31 +17306,31 @@
         <v>3.3</v>
       </c>
       <c r="N190">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O190">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S190">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T190">
         <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17365,10 +17380,10 @@
         <v>2.875</v>
       </c>
       <c r="N191">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O191">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P191">
         <v>2.875</v>
@@ -17377,19 +17392,19 @@
         <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
         <v>0</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M134">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N134">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X134">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,13 +12471,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -12486,41 +12486,41 @@
         <v>48</v>
       </c>
       <c r="K135">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P135">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482867</v>
+        <v>7483306</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M136">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="N136">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="Q136">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
+        <v>0.875</v>
+      </c>
+      <c r="AB136">
         <v>-0.5</v>
       </c>
-      <c r="AB136">
-        <v>0.825</v>
-      </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M137">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N137">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
         <v>3.1</v>
-      </c>
-      <c r="P142">
-        <v>2.75</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>1.75</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
         <v>1.8</v>
       </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.975</v>
-      </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,40 +13361,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
         <v>1.8</v>
@@ -13403,34 +13403,34 @@
         <v>2</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -16939,19 +16939,19 @@
         <v>2.3</v>
       </c>
       <c r="O185">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P185">
         <v>2.75</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
         <v>1.75</v>
-      </c>
-      <c r="S185">
-        <v>2.05</v>
       </c>
       <c r="T185">
         <v>2.5</v>
@@ -17022,10 +17022,10 @@
         <v>0</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T186">
         <v>2.5</v>
@@ -17158,22 +17158,22 @@
         <v>2.15</v>
       </c>
       <c r="N188">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O188">
         <v>3.6</v>
       </c>
       <c r="P188">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="Q188">
         <v>0.75</v>
       </c>
       <c r="R188">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
         <v>2.5</v>
@@ -17244,10 +17244,10 @@
         <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
         <v>2.5</v>
@@ -17380,13 +17380,13 @@
         <v>2.875</v>
       </c>
       <c r="N191">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O191">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P191">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q191">
         <v>-0.25</v>
@@ -17401,10 +17401,10 @@
         <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W191">
         <v>0</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>0.875</v>
+      </c>
+      <c r="AB134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.375</v>
-      </c>
-      <c r="AB134">
-        <v>0.95</v>
-      </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,13 +12471,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -12486,41 +12486,41 @@
         <v>48</v>
       </c>
       <c r="K135">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N135">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O135">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q135">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z135">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.825</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483306</v>
+        <v>7482867</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L136">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N136">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA136">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M137">
+        <v>7.5</v>
+      </c>
+      <c r="N137">
+        <v>1.444</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>8</v>
+      </c>
+      <c r="Q137">
+        <v>-1.25</v>
+      </c>
+      <c r="R137">
         <v>2.05</v>
       </c>
-      <c r="N137">
-        <v>2.6</v>
-      </c>
-      <c r="O137">
-        <v>3.25</v>
-      </c>
-      <c r="P137">
-        <v>2.75</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>1.8</v>
-      </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="V139">
-        <v>1.95</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.95</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
+        <v>4.2</v>
+      </c>
+      <c r="N142">
+        <v>2.4</v>
+      </c>
+      <c r="O142">
         <v>3.1</v>
       </c>
-      <c r="N142">
-        <v>2.1</v>
-      </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,40 +13361,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
         <v>1.8</v>
@@ -13403,34 +13403,34 @@
         <v>2</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7773488</v>
+        <v>7773490</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16918,49 +16918,49 @@
         <v>28</v>
       </c>
       <c r="E185" s="2">
-        <v>45380.875</v>
+        <v>45381.83333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G185" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K185">
         <v>3.1</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N185">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="O185">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P185">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R185">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
         <v>2.5</v>
       </c>
       <c r="U185">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V185">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
         <v>0</v>
@@ -16983,7 +16983,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>8016804</v>
+        <v>7773493</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16992,49 +16992,49 @@
         <v>28</v>
       </c>
       <c r="E186" s="2">
-        <v>45381.625</v>
+        <v>45382.625</v>
       </c>
       <c r="F186" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K186">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L186">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M186">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N186">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O186">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P186">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R186">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S186">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
         <v>0</v>
@@ -17057,7 +17057,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8018935</v>
+        <v>7773492</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17066,49 +17066,49 @@
         <v>28</v>
       </c>
       <c r="E187" s="2">
-        <v>45381.72916666666</v>
+        <v>45382.72916666666</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G187" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K187">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L187">
         <v>3.2</v>
       </c>
       <c r="M187">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="N187">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="O187">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P187">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
+        <v>1.825</v>
+      </c>
+      <c r="S187">
         <v>1.975</v>
-      </c>
-      <c r="S187">
-        <v>1.825</v>
       </c>
       <c r="T187">
         <v>2.25</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V187">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17131,7 +17131,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7773490</v>
+        <v>8018936</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17140,49 +17140,49 @@
         <v>28</v>
       </c>
       <c r="E188" s="2">
-        <v>45381.83333333334</v>
+        <v>45382.83333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K188">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L188">
+        <v>3.2</v>
+      </c>
+      <c r="M188">
+        <v>2.875</v>
+      </c>
+      <c r="N188">
+        <v>2.3</v>
+      </c>
+      <c r="O188">
         <v>3.3</v>
       </c>
-      <c r="M188">
-        <v>2.15</v>
-      </c>
-      <c r="N188">
-        <v>4.5</v>
-      </c>
-      <c r="O188">
-        <v>3.6</v>
-      </c>
       <c r="P188">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="Q188">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17197,228 +17197,6 @@
         <v>0</v>
       </c>
       <c r="AA188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:29">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>7773493</v>
-      </c>
-      <c r="C189" t="s">
-        <v>28</v>
-      </c>
-      <c r="D189" t="s">
-        <v>28</v>
-      </c>
-      <c r="E189" s="2">
-        <v>45382.625</v>
-      </c>
-      <c r="F189" t="s">
-        <v>37</v>
-      </c>
-      <c r="G189" t="s">
-        <v>42</v>
-      </c>
-      <c r="K189">
-        <v>1.4</v>
-      </c>
-      <c r="L189">
-        <v>4.333</v>
-      </c>
-      <c r="M189">
-        <v>6.5</v>
-      </c>
-      <c r="N189">
-        <v>1.4</v>
-      </c>
-      <c r="O189">
-        <v>4.333</v>
-      </c>
-      <c r="P189">
-        <v>6.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.25</v>
-      </c>
-      <c r="R189">
-        <v>2</v>
-      </c>
-      <c r="S189">
-        <v>1.8</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
-      <c r="U189">
-        <v>1.825</v>
-      </c>
-      <c r="V189">
-        <v>1.975</v>
-      </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-      <c r="X189">
-        <v>0</v>
-      </c>
-      <c r="Y189">
-        <v>0</v>
-      </c>
-      <c r="Z189">
-        <v>0</v>
-      </c>
-      <c r="AA189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:29">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>7773492</v>
-      </c>
-      <c r="C190" t="s">
-        <v>28</v>
-      </c>
-      <c r="D190" t="s">
-        <v>28</v>
-      </c>
-      <c r="E190" s="2">
-        <v>45382.72916666666</v>
-      </c>
-      <c r="F190" t="s">
-        <v>36</v>
-      </c>
-      <c r="G190" t="s">
-        <v>40</v>
-      </c>
-      <c r="K190">
-        <v>2.1</v>
-      </c>
-      <c r="L190">
-        <v>3.2</v>
-      </c>
-      <c r="M190">
-        <v>3.3</v>
-      </c>
-      <c r="N190">
-        <v>1.8</v>
-      </c>
-      <c r="O190">
-        <v>3.4</v>
-      </c>
-      <c r="P190">
-        <v>4.2</v>
-      </c>
-      <c r="Q190">
-        <v>-0.5</v>
-      </c>
-      <c r="R190">
-        <v>1.8</v>
-      </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
-      <c r="T190">
-        <v>2.25</v>
-      </c>
-      <c r="U190">
-        <v>1.9</v>
-      </c>
-      <c r="V190">
-        <v>1.9</v>
-      </c>
-      <c r="W190">
-        <v>0</v>
-      </c>
-      <c r="X190">
-        <v>0</v>
-      </c>
-      <c r="Y190">
-        <v>0</v>
-      </c>
-      <c r="Z190">
-        <v>0</v>
-      </c>
-      <c r="AA190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:29">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>8018936</v>
-      </c>
-      <c r="C191" t="s">
-        <v>28</v>
-      </c>
-      <c r="D191" t="s">
-        <v>28</v>
-      </c>
-      <c r="E191" s="2">
-        <v>45382.83333333334</v>
-      </c>
-      <c r="F191" t="s">
-        <v>43</v>
-      </c>
-      <c r="G191" t="s">
-        <v>29</v>
-      </c>
-      <c r="K191">
-        <v>2.375</v>
-      </c>
-      <c r="L191">
-        <v>3.2</v>
-      </c>
-      <c r="M191">
-        <v>2.875</v>
-      </c>
-      <c r="N191">
-        <v>2.2</v>
-      </c>
-      <c r="O191">
-        <v>3.4</v>
-      </c>
-      <c r="P191">
-        <v>3</v>
-      </c>
-      <c r="Q191">
-        <v>-0.25</v>
-      </c>
-      <c r="R191">
-        <v>1.975</v>
-      </c>
-      <c r="S191">
-        <v>1.825</v>
-      </c>
-      <c r="T191">
-        <v>2.5</v>
-      </c>
-      <c r="U191">
-        <v>1.8</v>
-      </c>
-      <c r="V191">
-        <v>2</v>
-      </c>
-      <c r="W191">
-        <v>0</v>
-      </c>
-      <c r="X191">
-        <v>0</v>
-      </c>
-      <c r="Y191">
-        <v>0</v>
-      </c>
-      <c r="Z191">
-        <v>0</v>
-      </c>
-      <c r="AA191">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC188"/>
+  <dimension ref="A1:AC187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483247</v>
+        <v>7483081</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K130">
+        <v>2.75</v>
+      </c>
+      <c r="L130">
         <v>3.25</v>
       </c>
-      <c r="L130">
-        <v>3.2</v>
-      </c>
       <c r="M130">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O132">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" t="s">
+        <v>48</v>
+      </c>
+      <c r="K134">
+        <v>3.6</v>
+      </c>
+      <c r="L134">
+        <v>3.3</v>
+      </c>
+      <c r="M134">
+        <v>2.05</v>
+      </c>
+      <c r="N134">
+        <v>2.6</v>
+      </c>
+      <c r="O134">
+        <v>3.25</v>
+      </c>
+      <c r="P134">
+        <v>2.75</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>1.8</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
+        <v>1.825</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>1.75</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134" t="s">
-        <v>49</v>
-      </c>
-      <c r="K134">
-        <v>1.5</v>
-      </c>
-      <c r="L134">
-        <v>4.333</v>
-      </c>
-      <c r="M134">
-        <v>5.75</v>
-      </c>
-      <c r="N134">
-        <v>1.533</v>
-      </c>
-      <c r="O134">
-        <v>4.2</v>
-      </c>
-      <c r="P134">
-        <v>5.5</v>
-      </c>
-      <c r="Q134">
-        <v>-1</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.8</v>
-      </c>
-      <c r="V134">
-        <v>2</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>3.2</v>
-      </c>
-      <c r="Y134">
-        <v>-1</v>
-      </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
-      <c r="AA134">
-        <v>0.875</v>
-      </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,13 +12471,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -12486,41 +12486,41 @@
         <v>48</v>
       </c>
       <c r="K135">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P135">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N136">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB136">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N137">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P137">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>0.875</v>
+      </c>
+      <c r="AB137">
         <v>-0.5</v>
       </c>
-      <c r="AA137">
-        <v>0.375</v>
-      </c>
-      <c r="AB137">
-        <v>0.95</v>
-      </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
         <v>3.1</v>
-      </c>
-      <c r="P142">
-        <v>2.75</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,55 +13183,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>1</v>
-      </c>
-      <c r="I143">
-        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>48</v>
       </c>
       <c r="K143">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N143">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13240,19 +13240,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>1.75</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
         <v>1.8</v>
       </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.975</v>
-      </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7773490</v>
+        <v>7773488</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16918,64 +16918,79 @@
         <v>28</v>
       </c>
       <c r="E185" s="2">
-        <v>45381.83333333334</v>
+        <v>45380.875</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="s">
+        <v>49</v>
       </c>
       <c r="K185">
         <v>3.1</v>
       </c>
       <c r="L185">
+        <v>3.4</v>
+      </c>
+      <c r="M185">
+        <v>2.1</v>
+      </c>
+      <c r="N185">
+        <v>2.1</v>
+      </c>
+      <c r="O185">
         <v>3.3</v>
       </c>
-      <c r="M185">
-        <v>2.15</v>
-      </c>
-      <c r="N185">
-        <v>4.5</v>
-      </c>
-      <c r="O185">
-        <v>3.6</v>
-      </c>
       <c r="P185">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q185">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T185">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V185">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>0</v>
+        <v>0.4625</v>
+      </c>
+      <c r="AB185">
+        <v>-0.5</v>
+      </c>
+      <c r="AC185">
+        <v>0.5125</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16983,7 +16998,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7773493</v>
+        <v>8016804</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16992,43 +17007,52 @@
         <v>28</v>
       </c>
       <c r="E186" s="2">
-        <v>45382.625</v>
+        <v>45381.625</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186" t="s">
+        <v>48</v>
       </c>
       <c r="K186">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L186">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M186">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N186">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O186">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P186">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q186">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T186">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
         <v>1.85</v>
@@ -17037,19 +17061,25 @@
         <v>1.95</v>
       </c>
       <c r="W186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Z186">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB186">
+        <v>-0.5</v>
+      </c>
+      <c r="AC186">
+        <v>0.475</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17057,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7773492</v>
+        <v>8018936</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17066,49 +17096,49 @@
         <v>28</v>
       </c>
       <c r="E187" s="2">
-        <v>45382.72916666666</v>
+        <v>45382.83333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K187">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L187">
         <v>3.2</v>
       </c>
       <c r="M187">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="N187">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P187">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T187">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V187">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W187">
         <v>0</v>
@@ -17123,80 +17153,6 @@
         <v>0</v>
       </c>
       <c r="AA187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:29">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>8018936</v>
-      </c>
-      <c r="C188" t="s">
-        <v>28</v>
-      </c>
-      <c r="D188" t="s">
-        <v>28</v>
-      </c>
-      <c r="E188" s="2">
-        <v>45382.83333333334</v>
-      </c>
-      <c r="F188" t="s">
-        <v>43</v>
-      </c>
-      <c r="G188" t="s">
-        <v>29</v>
-      </c>
-      <c r="K188">
-        <v>2.375</v>
-      </c>
-      <c r="L188">
-        <v>3.2</v>
-      </c>
-      <c r="M188">
-        <v>2.875</v>
-      </c>
-      <c r="N188">
-        <v>2.3</v>
-      </c>
-      <c r="O188">
-        <v>3.3</v>
-      </c>
-      <c r="P188">
-        <v>2.8</v>
-      </c>
-      <c r="Q188">
-        <v>-0.25</v>
-      </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
-      <c r="S188">
-        <v>1.8</v>
-      </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
-      <c r="V188">
-        <v>1.975</v>
-      </c>
-      <c r="W188">
-        <v>0</v>
-      </c>
-      <c r="X188">
-        <v>0</v>
-      </c>
-      <c r="Y188">
-        <v>0</v>
-      </c>
-      <c r="Z188">
-        <v>0</v>
-      </c>
-      <c r="AA188">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC187"/>
+  <dimension ref="A1:AC198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483189</v>
+        <v>7483281</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,61 +12115,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>49</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y131">
         <v>-1</v>
@@ -12178,13 +12178,13 @@
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,61 +12293,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>49</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M133">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12356,13 +12356,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483188</v>
+        <v>7483306</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N134">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R134">
+        <v>1.925</v>
+      </c>
+      <c r="S134">
+        <v>1.875</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
         <v>1.8</v>
       </c>
-      <c r="S134">
-        <v>2</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.975</v>
-      </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y134">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,73 +12471,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H135">
+        <v>2</v>
+      </c>
+      <c r="I135">
         <v>1</v>
       </c>
-      <c r="I135">
-        <v>2</v>
-      </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M135">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N135">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O135">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q135">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483306</v>
+        <v>7482867</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K137">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L137">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N137">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O137">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P137">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA137">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528857</v>
+        <v>7528858</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,55 +13183,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>48</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13240,19 +13240,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,55 +13361,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>1</v>
-      </c>
-      <c r="I145">
-        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>48</v>
       </c>
       <c r="K145">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13418,19 +13418,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>8018936</v>
+        <v>8018935</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17096,43 +17096,52 @@
         <v>28</v>
       </c>
       <c r="E187" s="2">
-        <v>45382.83333333334</v>
+        <v>45381.72916666666</v>
       </c>
       <c r="F187" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187" t="s">
+        <v>47</v>
       </c>
       <c r="K187">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="L187">
         <v>3.2</v>
       </c>
       <c r="M187">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="N187">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="O187">
         <v>3.2</v>
       </c>
       <c r="P187">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="Q187">
         <v>0</v>
       </c>
       <c r="R187">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U187">
         <v>2.025</v>
@@ -17141,18 +17150,898 @@
         <v>1.775</v>
       </c>
       <c r="W187">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA187">
+        <v>-1</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7773490</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45381.83333333334</v>
+      </c>
+      <c r="F188" t="s">
+        <v>33</v>
+      </c>
+      <c r="G188" t="s">
+        <v>39</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188" t="s">
+        <v>47</v>
+      </c>
+      <c r="K188">
+        <v>3.1</v>
+      </c>
+      <c r="L188">
+        <v>3.3</v>
+      </c>
+      <c r="M188">
+        <v>2.15</v>
+      </c>
+      <c r="N188">
+        <v>4.5</v>
+      </c>
+      <c r="O188">
+        <v>3.5</v>
+      </c>
+      <c r="P188">
+        <v>1.7</v>
+      </c>
+      <c r="Q188">
+        <v>0.75</v>
+      </c>
+      <c r="R188">
+        <v>1.8</v>
+      </c>
+      <c r="S188">
+        <v>2</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.775</v>
+      </c>
+      <c r="V188">
+        <v>2.025</v>
+      </c>
+      <c r="W188">
+        <v>3.5</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
+        <v>-1</v>
+      </c>
+      <c r="Z188">
+        <v>0.8</v>
+      </c>
+      <c r="AA188">
+        <v>-1</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>7773493</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45382.625</v>
+      </c>
+      <c r="F189" t="s">
+        <v>37</v>
+      </c>
+      <c r="G189" t="s">
+        <v>42</v>
+      </c>
+      <c r="H189">
+        <v>5</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>47</v>
+      </c>
+      <c r="K189">
+        <v>1.4</v>
+      </c>
+      <c r="L189">
+        <v>4.333</v>
+      </c>
+      <c r="M189">
+        <v>6.5</v>
+      </c>
+      <c r="N189">
+        <v>1.4</v>
+      </c>
+      <c r="O189">
+        <v>4.333</v>
+      </c>
+      <c r="P189">
+        <v>6.5</v>
+      </c>
+      <c r="Q189">
+        <v>-1.25</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>1.8</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>1.9</v>
+      </c>
+      <c r="V189">
+        <v>1.9</v>
+      </c>
+      <c r="W189">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
+        <v>-1</v>
+      </c>
+      <c r="Z189">
+        <v>1</v>
+      </c>
+      <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC189">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7773492</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45382.72916666666</v>
+      </c>
+      <c r="F190" t="s">
+        <v>36</v>
+      </c>
+      <c r="G190" t="s">
+        <v>40</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190" t="s">
+        <v>49</v>
+      </c>
+      <c r="K190">
+        <v>2.1</v>
+      </c>
+      <c r="L190">
+        <v>3.2</v>
+      </c>
+      <c r="M190">
+        <v>3.3</v>
+      </c>
+      <c r="N190">
+        <v>2.05</v>
+      </c>
+      <c r="O190">
+        <v>3.25</v>
+      </c>
+      <c r="P190">
+        <v>3.4</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.25</v>
+      </c>
+      <c r="U190">
+        <v>1.9</v>
+      </c>
+      <c r="V190">
+        <v>1.9</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
+        <v>2.25</v>
+      </c>
+      <c r="Y190">
+        <v>-1</v>
+      </c>
+      <c r="Z190">
+        <v>-0.5</v>
+      </c>
+      <c r="AA190">
+        <v>0.5</v>
+      </c>
+      <c r="AB190">
+        <v>-1</v>
+      </c>
+      <c r="AC190">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>8018936</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45382.83333333334</v>
+      </c>
+      <c r="F191" t="s">
+        <v>43</v>
+      </c>
+      <c r="G191" t="s">
+        <v>29</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191" t="s">
+        <v>49</v>
+      </c>
+      <c r="K191">
+        <v>2.375</v>
+      </c>
+      <c r="L191">
+        <v>3.2</v>
+      </c>
+      <c r="M191">
+        <v>2.875</v>
+      </c>
+      <c r="N191">
+        <v>2.55</v>
+      </c>
+      <c r="O191">
+        <v>3.2</v>
+      </c>
+      <c r="P191">
+        <v>2.625</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>1.85</v>
+      </c>
+      <c r="S191">
+        <v>1.95</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>2.025</v>
+      </c>
+      <c r="V191">
+        <v>1.775</v>
+      </c>
+      <c r="W191">
+        <v>-1</v>
+      </c>
+      <c r="X191">
+        <v>2.2</v>
+      </c>
+      <c r="Y191">
+        <v>-1</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>-0</v>
+      </c>
+      <c r="AB191">
+        <v>-1</v>
+      </c>
+      <c r="AC191">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>8040559</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45387.875</v>
+      </c>
+      <c r="F192" t="s">
+        <v>42</v>
+      </c>
+      <c r="G192" t="s">
+        <v>31</v>
+      </c>
+      <c r="K192">
+        <v>1.85</v>
+      </c>
+      <c r="L192">
+        <v>3.6</v>
+      </c>
+      <c r="M192">
+        <v>4</v>
+      </c>
+      <c r="N192">
+        <v>1.85</v>
+      </c>
+      <c r="O192">
+        <v>3.6</v>
+      </c>
+      <c r="P192">
+        <v>4</v>
+      </c>
+      <c r="Q192">
+        <v>-0.5</v>
+      </c>
+      <c r="R192">
+        <v>1.85</v>
+      </c>
+      <c r="S192">
+        <v>1.95</v>
+      </c>
+      <c r="T192">
+        <v>2.5</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>1.8</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7773497</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45388.625</v>
+      </c>
+      <c r="F193" t="s">
+        <v>44</v>
+      </c>
+      <c r="G193" t="s">
+        <v>33</v>
+      </c>
+      <c r="K193">
+        <v>1.363</v>
+      </c>
+      <c r="L193">
+        <v>5</v>
+      </c>
+      <c r="M193">
+        <v>7.5</v>
+      </c>
+      <c r="N193">
+        <v>1.363</v>
+      </c>
+      <c r="O193">
+        <v>5</v>
+      </c>
+      <c r="P193">
+        <v>7.5</v>
+      </c>
+      <c r="Q193">
+        <v>-1.25</v>
+      </c>
+      <c r="R193">
+        <v>1.8</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
+        <v>1.8</v>
+      </c>
+      <c r="V193">
+        <v>2</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>7773495</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45388.72916666666</v>
+      </c>
+      <c r="F194" t="s">
+        <v>39</v>
+      </c>
+      <c r="G194" t="s">
+        <v>30</v>
+      </c>
+      <c r="K194">
+        <v>4</v>
+      </c>
+      <c r="L194">
+        <v>3.6</v>
+      </c>
+      <c r="M194">
+        <v>1.85</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194">
+        <v>3.6</v>
+      </c>
+      <c r="P194">
+        <v>1.85</v>
+      </c>
+      <c r="Q194">
+        <v>0.5</v>
+      </c>
+      <c r="R194">
+        <v>1.95</v>
+      </c>
+      <c r="S194">
+        <v>1.85</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
+        <v>1.875</v>
+      </c>
+      <c r="V194">
+        <v>1.925</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>8040560</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45388.83333333334</v>
+      </c>
+      <c r="F195" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" t="s">
+        <v>36</v>
+      </c>
+      <c r="K195">
+        <v>1.6</v>
+      </c>
+      <c r="L195">
+        <v>3.8</v>
+      </c>
+      <c r="M195">
+        <v>5.75</v>
+      </c>
+      <c r="N195">
+        <v>1.6</v>
+      </c>
+      <c r="O195">
+        <v>3.8</v>
+      </c>
+      <c r="P195">
+        <v>5.75</v>
+      </c>
+      <c r="Q195">
+        <v>-1</v>
+      </c>
+      <c r="R195">
+        <v>2.025</v>
+      </c>
+      <c r="S195">
+        <v>1.775</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>1.85</v>
+      </c>
+      <c r="V195">
+        <v>1.95</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7773066</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45389.625</v>
+      </c>
+      <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
+        <v>38</v>
+      </c>
+      <c r="K196">
+        <v>1.3</v>
+      </c>
+      <c r="L196">
+        <v>5.5</v>
+      </c>
+      <c r="M196">
+        <v>8</v>
+      </c>
+      <c r="N196">
+        <v>1.3</v>
+      </c>
+      <c r="O196">
+        <v>5.5</v>
+      </c>
+      <c r="P196">
+        <v>8</v>
+      </c>
+      <c r="Q196">
+        <v>-1.5</v>
+      </c>
+      <c r="R196">
+        <v>1.925</v>
+      </c>
+      <c r="S196">
+        <v>1.875</v>
+      </c>
+      <c r="T196">
+        <v>2.75</v>
+      </c>
+      <c r="U196">
+        <v>1.925</v>
+      </c>
+      <c r="V196">
+        <v>1.875</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>8040561</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45389.72916666666</v>
+      </c>
+      <c r="F197" t="s">
+        <v>40</v>
+      </c>
+      <c r="G197" t="s">
+        <v>37</v>
+      </c>
+      <c r="K197">
+        <v>2.8</v>
+      </c>
+      <c r="L197">
+        <v>3.4</v>
+      </c>
+      <c r="M197">
+        <v>2.45</v>
+      </c>
+      <c r="N197">
+        <v>2.8</v>
+      </c>
+      <c r="O197">
+        <v>3.3</v>
+      </c>
+      <c r="P197">
+        <v>2.45</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>2.025</v>
+      </c>
+      <c r="S197">
+        <v>1.775</v>
+      </c>
+      <c r="T197">
+        <v>2.5</v>
+      </c>
+      <c r="U197">
+        <v>1.925</v>
+      </c>
+      <c r="V197">
+        <v>1.875</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>8040562</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45389.83333333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" t="s">
+        <v>43</v>
+      </c>
+      <c r="K198">
+        <v>2.7</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>2.8</v>
+      </c>
+      <c r="N198">
+        <v>2.7</v>
+      </c>
+      <c r="O198">
+        <v>3</v>
+      </c>
+      <c r="P198">
+        <v>2.8</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>1.85</v>
+      </c>
+      <c r="S198">
+        <v>1.95</v>
+      </c>
+      <c r="T198">
+        <v>2.25</v>
+      </c>
+      <c r="U198">
+        <v>1.95</v>
+      </c>
+      <c r="V198">
+        <v>1.85</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>0</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483081</v>
+        <v>7483281</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
         <v>3.25</v>
       </c>
       <c r="M130">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L131">
+        <v>3.2</v>
+      </c>
+      <c r="M131">
+        <v>2.25</v>
+      </c>
+      <c r="N131">
+        <v>3.5</v>
+      </c>
+      <c r="O131">
         <v>3.25</v>
       </c>
-      <c r="M131">
-        <v>4.2</v>
-      </c>
-      <c r="N131">
-        <v>1.909</v>
-      </c>
-      <c r="O131">
-        <v>3.5</v>
-      </c>
       <c r="P131">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
+        <v>1.025</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB131">
-        <v>-1</v>
-      </c>
-      <c r="AC131">
-        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483247</v>
+        <v>7483081</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K132">
+        <v>2.75</v>
+      </c>
+      <c r="L132">
         <v>3.25</v>
       </c>
-      <c r="L132">
-        <v>3.2</v>
-      </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" t="s">
+        <v>48</v>
+      </c>
+      <c r="K134">
+        <v>3.6</v>
+      </c>
+      <c r="L134">
+        <v>3.3</v>
+      </c>
+      <c r="M134">
+        <v>2.05</v>
+      </c>
+      <c r="N134">
+        <v>2.6</v>
+      </c>
+      <c r="O134">
+        <v>3.25</v>
+      </c>
+      <c r="P134">
+        <v>2.75</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>1.8</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
+        <v>1.825</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>1.75</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134" t="s">
-        <v>49</v>
-      </c>
-      <c r="K134">
-        <v>1.5</v>
-      </c>
-      <c r="L134">
-        <v>4.333</v>
-      </c>
-      <c r="M134">
-        <v>5.75</v>
-      </c>
-      <c r="N134">
-        <v>1.533</v>
-      </c>
-      <c r="O134">
-        <v>4.2</v>
-      </c>
-      <c r="P134">
-        <v>5.5</v>
-      </c>
-      <c r="Q134">
-        <v>-1</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.8</v>
-      </c>
-      <c r="V134">
-        <v>2</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>3.2</v>
-      </c>
-      <c r="Y134">
-        <v>-1</v>
-      </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
-      <c r="AA134">
-        <v>0.875</v>
-      </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M135">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.875</v>
+      </c>
+      <c r="AB135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.375</v>
-      </c>
-      <c r="AB135">
-        <v>0.95</v>
-      </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M136">
+        <v>7.5</v>
+      </c>
+      <c r="N136">
+        <v>1.444</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>8</v>
+      </c>
+      <c r="Q136">
+        <v>-1.25</v>
+      </c>
+      <c r="R136">
         <v>2.05</v>
       </c>
-      <c r="N136">
-        <v>2.6</v>
-      </c>
-      <c r="O136">
-        <v>3.25</v>
-      </c>
-      <c r="P136">
-        <v>2.75</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>1.8</v>
-      </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="V139">
-        <v>1.95</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.95</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>1.75</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
         <v>1.8</v>
       </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.975</v>
-      </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -17559,7 +17559,7 @@
         <v>4</v>
       </c>
       <c r="N192">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O192">
         <v>3.6</v>
@@ -17571,10 +17571,10 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T192">
         <v>2.5</v>
@@ -17645,19 +17645,19 @@
         <v>-1.25</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17707,31 +17707,31 @@
         <v>1.85</v>
       </c>
       <c r="N194">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O194">
         <v>3.6</v>
       </c>
       <c r="P194">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q194">
         <v>0.5</v>
       </c>
       <c r="R194">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S194">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
         <v>2.75</v>
       </c>
       <c r="U194">
+        <v>1.925</v>
+      </c>
+      <c r="V194">
         <v>1.875</v>
-      </c>
-      <c r="V194">
-        <v>1.925</v>
       </c>
       <c r="W194">
         <v>0</v>
@@ -17781,16 +17781,16 @@
         <v>5.75</v>
       </c>
       <c r="N195">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="O195">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q195">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
         <v>2.025</v>
@@ -17802,10 +17802,10 @@
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
         <v>0</v>
@@ -17867,19 +17867,19 @@
         <v>-1.5</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
         <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -17929,31 +17929,31 @@
         <v>2.45</v>
       </c>
       <c r="N197">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O197">
         <v>3.3</v>
       </c>
       <c r="P197">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S197">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
         <v>0</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC198"/>
+  <dimension ref="A1:AC199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483281</v>
+        <v>7483081</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L130">
         <v>3.25</v>
       </c>
       <c r="M130">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M132">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483189</v>
+        <v>7483281</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,61 +12293,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>49</v>
       </c>
       <c r="K133">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12356,13 +12356,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M134">
+        <v>7.5</v>
+      </c>
+      <c r="N134">
+        <v>1.444</v>
+      </c>
+      <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134">
+        <v>8</v>
+      </c>
+      <c r="Q134">
+        <v>-1.25</v>
+      </c>
+      <c r="R134">
         <v>2.05</v>
       </c>
-      <c r="N134">
-        <v>2.6</v>
-      </c>
-      <c r="O134">
-        <v>3.25</v>
-      </c>
-      <c r="P134">
-        <v>2.75</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>1.8</v>
-      </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482832</v>
+        <v>7482867</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
+        <v>5.25</v>
+      </c>
+      <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>1.65</v>
+      </c>
+      <c r="N136">
+        <v>9</v>
+      </c>
+      <c r="O136">
+        <v>4.5</v>
+      </c>
+      <c r="P136">
         <v>1.363</v>
       </c>
-      <c r="L136">
-        <v>5</v>
-      </c>
-      <c r="M136">
-        <v>7.5</v>
-      </c>
-      <c r="N136">
-        <v>1.444</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>8</v>
-      </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z136">
+        <v>0.4875</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="AA136">
-        <v>0.375</v>
-      </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,13 +12649,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -12664,41 +12664,41 @@
         <v>48</v>
       </c>
       <c r="K137">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M137">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N137">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O137">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q137">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
         <v>1.825</v>
       </c>
-      <c r="V137">
-        <v>1.975</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
@@ -12706,19 +12706,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z137">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>0.825</v>
-      </c>
-      <c r="AC137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>2</v>
-      </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528857</v>
+        <v>7528858</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,55 +13272,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13329,19 +13329,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -17633,31 +17633,31 @@
         <v>7.5</v>
       </c>
       <c r="N193">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O193">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P193">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q193">
         <v>-1.25</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17707,31 +17707,31 @@
         <v>1.85</v>
       </c>
       <c r="N194">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O194">
         <v>3.6</v>
       </c>
       <c r="P194">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q194">
         <v>0.5</v>
       </c>
       <c r="R194">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S194">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T194">
         <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
         <v>0</v>
@@ -17781,31 +17781,31 @@
         <v>5.75</v>
       </c>
       <c r="N195">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O195">
         <v>3.5</v>
       </c>
       <c r="P195">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q195">
         <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W195">
         <v>0</v>
@@ -17855,31 +17855,31 @@
         <v>8</v>
       </c>
       <c r="N196">
-        <v>1.3</v>
+        <v>1.333</v>
       </c>
       <c r="O196">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P196">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q196">
         <v>-1.5</v>
       </c>
       <c r="R196">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T196">
         <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -18042,6 +18042,80 @@
         <v>0</v>
       </c>
       <c r="AA198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7773774</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45390.875</v>
+      </c>
+      <c r="F199" t="s">
+        <v>46</v>
+      </c>
+      <c r="G199" t="s">
+        <v>45</v>
+      </c>
+      <c r="K199">
+        <v>2.25</v>
+      </c>
+      <c r="L199">
+        <v>3.1</v>
+      </c>
+      <c r="M199">
+        <v>3.2</v>
+      </c>
+      <c r="N199">
+        <v>2.7</v>
+      </c>
+      <c r="O199">
+        <v>3.1</v>
+      </c>
+      <c r="P199">
+        <v>2.6</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>1.925</v>
+      </c>
+      <c r="S199">
+        <v>1.875</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>1.875</v>
+      </c>
+      <c r="V199">
+        <v>1.925</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483081</v>
+        <v>7483281</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
         <v>3.25</v>
       </c>
       <c r="M130">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,61 +12293,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>49</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M133">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12356,13 +12356,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N136">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB136">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,13 +12649,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -12664,41 +12664,41 @@
         <v>48</v>
       </c>
       <c r="K137">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N137">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P137">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
+        <v>1.825</v>
+      </c>
+      <c r="V137">
         <v>1.975</v>
       </c>
-      <c r="V137">
-        <v>1.825</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
@@ -12706,19 +12706,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="V139">
-        <v>1.95</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.95</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,55 +13272,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
-      </c>
-      <c r="I144">
-        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13329,19 +13329,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>1.75</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
         <v>1.8</v>
       </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.975</v>
-      </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -17571,19 +17571,19 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -17654,10 +17654,10 @@
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V193">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17719,19 +17719,19 @@
         <v>0.5</v>
       </c>
       <c r="R194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
         <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
         <v>0</v>
@@ -17781,22 +17781,22 @@
         <v>5.75</v>
       </c>
       <c r="N195">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O195">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q195">
         <v>-0.75</v>
       </c>
       <c r="R195">
+        <v>1.825</v>
+      </c>
+      <c r="S195">
         <v>1.975</v>
-      </c>
-      <c r="S195">
-        <v>1.825</v>
       </c>
       <c r="T195">
         <v>2.5</v>
@@ -17867,19 +17867,19 @@
         <v>-1.5</v>
       </c>
       <c r="R196">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
         <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V196">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -17929,22 +17929,22 @@
         <v>2.45</v>
       </c>
       <c r="N197">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O197">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P197">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R197">
+        <v>2.05</v>
+      </c>
+      <c r="S197">
         <v>1.75</v>
-      </c>
-      <c r="S197">
-        <v>2.05</v>
       </c>
       <c r="T197">
         <v>2.5</v>
@@ -18077,31 +18077,31 @@
         <v>3.2</v>
       </c>
       <c r="N199">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O199">
         <v>3.1</v>
       </c>
       <c r="P199">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q199">
         <v>0</v>
       </c>
       <c r="R199">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
         <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V199">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W199">
         <v>0</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L130">
+        <v>3.2</v>
+      </c>
+      <c r="M130">
+        <v>2.25</v>
+      </c>
+      <c r="N130">
+        <v>3.5</v>
+      </c>
+      <c r="O130">
         <v>3.25</v>
       </c>
-      <c r="M130">
-        <v>4.2</v>
-      </c>
-      <c r="N130">
-        <v>1.909</v>
-      </c>
-      <c r="O130">
-        <v>3.5</v>
-      </c>
       <c r="P130">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
+        <v>1.025</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
-      <c r="AC130">
-        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
+        <v>1.909</v>
+      </c>
+      <c r="L131">
         <v>3.25</v>
       </c>
-      <c r="L131">
-        <v>3.2</v>
-      </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
+        <v>1.909</v>
+      </c>
+      <c r="O131">
         <v>3.5</v>
       </c>
-      <c r="O131">
-        <v>3.25</v>
-      </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M132">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M134">
+        <v>7.5</v>
+      </c>
+      <c r="N134">
+        <v>1.444</v>
+      </c>
+      <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134">
+        <v>8</v>
+      </c>
+      <c r="Q134">
+        <v>-1.25</v>
+      </c>
+      <c r="R134">
         <v>2.05</v>
       </c>
-      <c r="N134">
-        <v>2.6</v>
-      </c>
-      <c r="O134">
-        <v>3.25</v>
-      </c>
-      <c r="P134">
-        <v>2.75</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>1.8</v>
-      </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>48</v>
+      </c>
+      <c r="K135">
+        <v>3.6</v>
+      </c>
+      <c r="L135">
+        <v>3.3</v>
+      </c>
+      <c r="M135">
+        <v>2.05</v>
+      </c>
+      <c r="N135">
+        <v>2.6</v>
+      </c>
+      <c r="O135">
+        <v>3.25</v>
+      </c>
+      <c r="P135">
+        <v>2.75</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>1.8</v>
+      </c>
+      <c r="S135">
+        <v>2</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
+        <v>1.825</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>1.75</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
         <v>1</v>
       </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="J135" t="s">
-        <v>49</v>
-      </c>
-      <c r="K135">
-        <v>1.5</v>
-      </c>
-      <c r="L135">
-        <v>4.333</v>
-      </c>
-      <c r="M135">
-        <v>5.75</v>
-      </c>
-      <c r="N135">
-        <v>1.533</v>
-      </c>
-      <c r="O135">
-        <v>4.2</v>
-      </c>
-      <c r="P135">
-        <v>5.5</v>
-      </c>
-      <c r="Q135">
-        <v>-1</v>
-      </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.8</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>3.2</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>-1</v>
-      </c>
-      <c r="AA135">
-        <v>0.875</v>
-      </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482832</v>
+        <v>7482867</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
+        <v>5.25</v>
+      </c>
+      <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>1.65</v>
+      </c>
+      <c r="N136">
+        <v>9</v>
+      </c>
+      <c r="O136">
+        <v>4.5</v>
+      </c>
+      <c r="P136">
         <v>1.363</v>
       </c>
-      <c r="L136">
-        <v>5</v>
-      </c>
-      <c r="M136">
-        <v>7.5</v>
-      </c>
-      <c r="N136">
-        <v>1.444</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>8</v>
-      </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z136">
+        <v>0.4875</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="AA136">
-        <v>0.375</v>
-      </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482867</v>
+        <v>7483306</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="N137">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P137">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="Q137">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y137">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
+        <v>0.875</v>
+      </c>
+      <c r="AB137">
         <v>-0.5</v>
       </c>
-      <c r="AB137">
-        <v>0.825</v>
-      </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,40 +13183,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N143">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
         <v>1.8</v>
@@ -13225,34 +13225,34 @@
         <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>1.75</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
         <v>1.8</v>
       </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.975</v>
-      </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
+        <v>3.4</v>
+      </c>
+      <c r="P145">
         <v>3.1</v>
-      </c>
-      <c r="P145">
-        <v>2.75</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>8040559</v>
+        <v>7773497</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17541,43 +17541,43 @@
         <v>28</v>
       </c>
       <c r="E192" s="2">
-        <v>45387.875</v>
+        <v>45388.625</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G192" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K192">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M192">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N192">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P192">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
         <v>1.8</v>
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7773497</v>
+        <v>7773495</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,49 +17615,49 @@
         <v>28</v>
       </c>
       <c r="E193" s="2">
-        <v>45388.625</v>
+        <v>45388.72916666666</v>
       </c>
       <c r="F193" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K193">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>7.5</v>
+        <v>1.85</v>
       </c>
       <c r="N193">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O193">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P193">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q193">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R193">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V193">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17680,7 +17680,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7773495</v>
+        <v>8040560</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17689,34 +17689,34 @@
         <v>28</v>
       </c>
       <c r="E194" s="2">
-        <v>45388.72916666666</v>
+        <v>45388.83333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K194">
+        <v>1.6</v>
+      </c>
+      <c r="L194">
+        <v>3.8</v>
+      </c>
+      <c r="M194">
+        <v>5.75</v>
+      </c>
+      <c r="N194">
+        <v>1.5</v>
+      </c>
+      <c r="O194">
         <v>4</v>
       </c>
-      <c r="L194">
-        <v>3.6</v>
-      </c>
-      <c r="M194">
-        <v>1.85</v>
-      </c>
-      <c r="N194">
-        <v>3.8</v>
-      </c>
-      <c r="O194">
-        <v>3.6</v>
-      </c>
       <c r="P194">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="Q194">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R194">
         <v>1.875</v>
@@ -17725,13 +17725,13 @@
         <v>1.925</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W194">
         <v>0</v>
@@ -17754,7 +17754,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>8040560</v>
+        <v>7773066</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17763,49 +17763,49 @@
         <v>28</v>
       </c>
       <c r="E195" s="2">
-        <v>45388.83333333334</v>
+        <v>45389.625</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K195">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="L195">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="M195">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="N195">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P195">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R195">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S195">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W195">
         <v>0</v>
@@ -17828,7 +17828,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7773066</v>
+        <v>8040561</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17837,49 +17837,49 @@
         <v>28</v>
       </c>
       <c r="E196" s="2">
-        <v>45389.625</v>
+        <v>45389.72916666666</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K196">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L196">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>8</v>
+        <v>2.45</v>
       </c>
       <c r="N196">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="O196">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P196">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q196">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
+        <v>1.75</v>
+      </c>
+      <c r="S196">
+        <v>2.05</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
         <v>1.975</v>
       </c>
-      <c r="S196">
+      <c r="V196">
         <v>1.825</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
-      <c r="U196">
-        <v>1.925</v>
-      </c>
-      <c r="V196">
-        <v>1.875</v>
       </c>
       <c r="W196">
         <v>0</v>
@@ -17902,7 +17902,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8040561</v>
+        <v>8040562</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17911,43 +17911,43 @@
         <v>28</v>
       </c>
       <c r="E197" s="2">
-        <v>45389.72916666666</v>
+        <v>45389.83333333334</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K197">
+        <v>2.7</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
         <v>2.8</v>
       </c>
-      <c r="L197">
-        <v>3.4</v>
-      </c>
-      <c r="M197">
-        <v>2.45</v>
-      </c>
       <c r="N197">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O197">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P197">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="Q197">
         <v>0</v>
       </c>
       <c r="R197">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S197">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
         <v>1.95</v>
@@ -17976,7 +17976,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>8040562</v>
+        <v>7773774</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -17985,50 +17985,50 @@
         <v>28</v>
       </c>
       <c r="E198" s="2">
-        <v>45389.83333333334</v>
+        <v>45390.875</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G198" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K198">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="L198">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M198">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N198">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O198">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P198">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q198">
         <v>0</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
+        <v>1.85</v>
+      </c>
+      <c r="V198">
         <v>1.95</v>
       </c>
-      <c r="V198">
-        <v>1.85</v>
-      </c>
       <c r="W198">
         <v>0</v>
       </c>
@@ -18042,80 +18042,6 @@
         <v>0</v>
       </c>
       <c r="AA198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:27">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>7773774</v>
-      </c>
-      <c r="C199" t="s">
-        <v>28</v>
-      </c>
-      <c r="D199" t="s">
-        <v>28</v>
-      </c>
-      <c r="E199" s="2">
-        <v>45390.875</v>
-      </c>
-      <c r="F199" t="s">
-        <v>46</v>
-      </c>
-      <c r="G199" t="s">
-        <v>45</v>
-      </c>
-      <c r="K199">
-        <v>2.25</v>
-      </c>
-      <c r="L199">
-        <v>3.1</v>
-      </c>
-      <c r="M199">
-        <v>3.2</v>
-      </c>
-      <c r="N199">
-        <v>2.875</v>
-      </c>
-      <c r="O199">
-        <v>3.1</v>
-      </c>
-      <c r="P199">
-        <v>2.5</v>
-      </c>
-      <c r="Q199">
-        <v>0</v>
-      </c>
-      <c r="R199">
-        <v>2</v>
-      </c>
-      <c r="S199">
-        <v>1.8</v>
-      </c>
-      <c r="T199">
-        <v>2.25</v>
-      </c>
-      <c r="U199">
-        <v>1.85</v>
-      </c>
-      <c r="V199">
-        <v>1.95</v>
-      </c>
-      <c r="W199">
-        <v>0</v>
-      </c>
-      <c r="X199">
-        <v>0</v>
-      </c>
-      <c r="Y199">
-        <v>0</v>
-      </c>
-      <c r="Z199">
-        <v>0</v>
-      </c>
-      <c r="AA199">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>0.875</v>
+      </c>
+      <c r="AB134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.375</v>
-      </c>
-      <c r="AB134">
-        <v>0.95</v>
-      </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,13 +12471,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -12486,41 +12486,41 @@
         <v>48</v>
       </c>
       <c r="K135">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P135">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N136">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB136">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>48</v>
+      </c>
+      <c r="K137">
+        <v>3.6</v>
+      </c>
+      <c r="L137">
+        <v>3.3</v>
+      </c>
+      <c r="M137">
+        <v>2.05</v>
+      </c>
+      <c r="N137">
+        <v>2.6</v>
+      </c>
+      <c r="O137">
+        <v>3.25</v>
+      </c>
+      <c r="P137">
+        <v>2.75</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.8</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
+        <v>1.825</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>1.75</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137" t="s">
-        <v>49</v>
-      </c>
-      <c r="K137">
-        <v>1.5</v>
-      </c>
-      <c r="L137">
-        <v>4.333</v>
-      </c>
-      <c r="M137">
-        <v>5.75</v>
-      </c>
-      <c r="N137">
-        <v>1.533</v>
-      </c>
-      <c r="O137">
-        <v>4.2</v>
-      </c>
-      <c r="P137">
-        <v>5.5</v>
-      </c>
-      <c r="Q137">
-        <v>-1</v>
-      </c>
-      <c r="R137">
-        <v>1.925</v>
-      </c>
-      <c r="S137">
-        <v>1.875</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.8</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>3.2</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
-      </c>
-      <c r="AA137">
-        <v>0.875</v>
-      </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -17559,31 +17559,31 @@
         <v>7.5</v>
       </c>
       <c r="N192">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O192">
         <v>4.75</v>
       </c>
       <c r="P192">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q192">
         <v>-1.25</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
         <v>0</v>
@@ -17633,31 +17633,31 @@
         <v>1.85</v>
       </c>
       <c r="N193">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O193">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="Q193">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
         <v>0</v>
@@ -17713,16 +17713,16 @@
         <v>4</v>
       </c>
       <c r="P194">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q194">
         <v>-1</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T194">
         <v>2.5</v>
@@ -17793,19 +17793,19 @@
         <v>-1.5</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T195">
         <v>2.75</v>
       </c>
       <c r="U195">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V195">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W195">
         <v>0</v>
@@ -17950,10 +17950,10 @@
         <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W197">
         <v>0</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
+        <v>1.909</v>
+      </c>
+      <c r="L130">
         <v>3.25</v>
       </c>
-      <c r="L130">
-        <v>3.2</v>
-      </c>
       <c r="M130">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
+        <v>1.909</v>
+      </c>
+      <c r="O130">
         <v>3.5</v>
       </c>
-      <c r="O130">
-        <v>3.25</v>
-      </c>
       <c r="P130">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y130">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483281</v>
+        <v>7483081</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
+        <v>2</v>
+      </c>
+      <c r="V131">
         <v>1.8</v>
       </c>
-      <c r="V131">
-        <v>2</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O132">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M133">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P133">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,13 +12471,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>2</v>
@@ -12486,41 +12486,41 @@
         <v>48</v>
       </c>
       <c r="K135">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N135">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O135">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q135">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z135">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.825</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482832</v>
+        <v>7482867</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
+        <v>5.25</v>
+      </c>
+      <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>1.65</v>
+      </c>
+      <c r="N136">
+        <v>9</v>
+      </c>
+      <c r="O136">
+        <v>4.5</v>
+      </c>
+      <c r="P136">
         <v>1.363</v>
       </c>
-      <c r="L136">
-        <v>5</v>
-      </c>
-      <c r="M136">
-        <v>7.5</v>
-      </c>
-      <c r="N136">
-        <v>1.444</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>8</v>
-      </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z136">
+        <v>0.4875</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="AA136">
-        <v>0.375</v>
-      </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M137">
+        <v>7.5</v>
+      </c>
+      <c r="N137">
+        <v>1.444</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>8</v>
+      </c>
+      <c r="Q137">
+        <v>-1.25</v>
+      </c>
+      <c r="R137">
         <v>2.05</v>
       </c>
-      <c r="N137">
-        <v>2.6</v>
-      </c>
-      <c r="O137">
-        <v>3.25</v>
-      </c>
-      <c r="P137">
-        <v>2.75</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>1.8</v>
-      </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>2</v>
-      </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,40 +13183,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
         <v>1.8</v>
@@ -13225,34 +13225,34 @@
         <v>2</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -17532,7 +17532,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7773497</v>
+        <v>8040559</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17541,72 +17541,87 @@
         <v>28</v>
       </c>
       <c r="E192" s="2">
-        <v>45388.625</v>
+        <v>45387.875</v>
       </c>
       <c r="F192" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>2</v>
+      </c>
+      <c r="J192" t="s">
+        <v>49</v>
       </c>
       <c r="K192">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="L192">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O192">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q192">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
+        <v>1.9</v>
+      </c>
+      <c r="S192">
+        <v>1.9</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>1.85</v>
+      </c>
+      <c r="V192">
         <v>1.95</v>
       </c>
-      <c r="S192">
-        <v>1.85</v>
-      </c>
-      <c r="T192">
-        <v>2.75</v>
-      </c>
-      <c r="U192">
-        <v>1.9</v>
-      </c>
-      <c r="V192">
-        <v>1.9</v>
-      </c>
       <c r="W192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB192">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC192">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7773495</v>
+        <v>7773497</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,72 +17630,87 @@
         <v>28</v>
       </c>
       <c r="E193" s="2">
-        <v>45388.72916666666</v>
+        <v>45388.625</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193" t="s">
+        <v>47</v>
       </c>
       <c r="K193">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M193">
+        <v>7.5</v>
+      </c>
+      <c r="N193">
+        <v>1.4</v>
+      </c>
+      <c r="O193">
+        <v>4.75</v>
+      </c>
+      <c r="P193">
+        <v>7</v>
+      </c>
+      <c r="Q193">
+        <v>-1.25</v>
+      </c>
+      <c r="R193">
         <v>1.85</v>
       </c>
-      <c r="N193">
-        <v>3.2</v>
-      </c>
-      <c r="O193">
-        <v>3.6</v>
-      </c>
-      <c r="P193">
-        <v>2.05</v>
-      </c>
-      <c r="Q193">
-        <v>0.25</v>
-      </c>
-      <c r="R193">
+      <c r="S193">
         <v>1.95</v>
-      </c>
-      <c r="S193">
-        <v>1.85</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W193">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB193">
+        <v>0.4125</v>
+      </c>
+      <c r="AC193">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>8040560</v>
+        <v>7773495</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17689,72 +17719,87 @@
         <v>28</v>
       </c>
       <c r="E194" s="2">
-        <v>45388.83333333334</v>
+        <v>45388.72916666666</v>
       </c>
       <c r="F194" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>48</v>
       </c>
       <c r="K194">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L194">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M194">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="N194">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O194">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P194">
-        <v>7</v>
+        <v>1.95</v>
       </c>
       <c r="Q194">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:27">
+        <v>0.925</v>
+      </c>
+      <c r="AB194">
+        <v>0.425</v>
+      </c>
+      <c r="AC194">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7773066</v>
+        <v>8040560</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17763,72 +17808,87 @@
         <v>28</v>
       </c>
       <c r="E195" s="2">
-        <v>45389.625</v>
+        <v>45388.83333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="H195">
+        <v>4</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>47</v>
       </c>
       <c r="K195">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="L195">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="M195">
-        <v>8</v>
+        <v>5.75</v>
       </c>
       <c r="N195">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O195">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q195">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R195">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>0.825</v>
+      </c>
+      <c r="AC195">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>8040561</v>
+        <v>7773066</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17837,72 +17897,87 @@
         <v>28</v>
       </c>
       <c r="E196" s="2">
-        <v>45389.72916666666</v>
+        <v>45389.625</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>47</v>
       </c>
       <c r="K196">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L196">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M196">
-        <v>2.45</v>
+        <v>8</v>
       </c>
       <c r="N196">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="P196">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="Q196">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R196">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>0.45</v>
+      </c>
+      <c r="AC196">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>8040562</v>
+        <v>8040561</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17911,67 +17986,82 @@
         <v>28</v>
       </c>
       <c r="E197" s="2">
-        <v>45389.83333333334</v>
+        <v>45389.72916666666</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197" t="s">
+        <v>48</v>
       </c>
       <c r="K197">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L197">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M197">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="N197">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="O197">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S197">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V197">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -18006,7 +18096,7 @@
         <v>2.875</v>
       </c>
       <c r="O198">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P198">
         <v>2.5</v>
@@ -18015,19 +18105,19 @@
         <v>0</v>
       </c>
       <c r="R198">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S198">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="T198">
         <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V198">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
         <v>0</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC198"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,61 +12026,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
@@ -12089,13 +12089,13 @@
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483189</v>
+        <v>7483281</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,61 +12293,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>49</v>
       </c>
       <c r="K133">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12356,13 +12356,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M135">
+        <v>7.5</v>
+      </c>
+      <c r="N135">
+        <v>1.444</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>8</v>
+      </c>
+      <c r="Q135">
+        <v>-1.25</v>
+      </c>
+      <c r="R135">
         <v>2.05</v>
       </c>
-      <c r="N135">
-        <v>2.6</v>
-      </c>
-      <c r="O135">
-        <v>3.25</v>
-      </c>
-      <c r="P135">
-        <v>2.75</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>1.8</v>
-      </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,13 +12560,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -12575,41 +12575,41 @@
         <v>48</v>
       </c>
       <c r="K136">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N136">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q136">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
         <v>1.825</v>
       </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
@@ -12617,19 +12617,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z136">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.825</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482832</v>
+        <v>7482867</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,73 +12649,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K137">
+        <v>5.25</v>
+      </c>
+      <c r="L137">
+        <v>3.75</v>
+      </c>
+      <c r="M137">
+        <v>1.65</v>
+      </c>
+      <c r="N137">
+        <v>9</v>
+      </c>
+      <c r="O137">
+        <v>4.5</v>
+      </c>
+      <c r="P137">
         <v>1.363</v>
       </c>
-      <c r="L137">
-        <v>5</v>
-      </c>
-      <c r="M137">
-        <v>7.5</v>
-      </c>
-      <c r="N137">
-        <v>1.444</v>
-      </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <v>8</v>
-      </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z137">
+        <v>0.4875</v>
+      </c>
+      <c r="AA137">
         <v>-0.5</v>
       </c>
-      <c r="AA137">
-        <v>0.375</v>
-      </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N143">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -18066,72 +18066,605 @@
         <v>196</v>
       </c>
       <c r="B198">
+        <v>8040562</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45389.83333333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" t="s">
+        <v>43</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>49</v>
+      </c>
+      <c r="K198">
+        <v>2.7</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>2.8</v>
+      </c>
+      <c r="N198">
+        <v>2.8</v>
+      </c>
+      <c r="O198">
+        <v>2.9</v>
+      </c>
+      <c r="P198">
+        <v>2.8</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>1.95</v>
+      </c>
+      <c r="S198">
+        <v>1.85</v>
+      </c>
+      <c r="T198">
+        <v>2</v>
+      </c>
+      <c r="U198">
+        <v>1.775</v>
+      </c>
+      <c r="V198">
+        <v>2.025</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>1.9</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AA198">
+        <v>-0</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+      <c r="AC198">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
         <v>7773774</v>
       </c>
-      <c r="C198" t="s">
-        <v>28</v>
-      </c>
-      <c r="D198" t="s">
-        <v>28</v>
-      </c>
-      <c r="E198" s="2">
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
         <v>45390.875</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F199" t="s">
         <v>46</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G199" t="s">
         <v>45</v>
       </c>
-      <c r="K198">
+      <c r="K199">
         <v>2.25</v>
       </c>
-      <c r="L198">
+      <c r="L199">
         <v>3.1</v>
       </c>
-      <c r="M198">
+      <c r="M199">
         <v>3.2</v>
       </c>
-      <c r="N198">
-        <v>2.875</v>
-      </c>
-      <c r="O198">
+      <c r="N199">
+        <v>3.2</v>
+      </c>
+      <c r="O199">
+        <v>3.1</v>
+      </c>
+      <c r="P199">
+        <v>2.2</v>
+      </c>
+      <c r="Q199">
+        <v>0.25</v>
+      </c>
+      <c r="R199">
+        <v>1.825</v>
+      </c>
+      <c r="S199">
+        <v>1.975</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>1.9</v>
+      </c>
+      <c r="V199">
+        <v>1.9</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7773501</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45394.875</v>
+      </c>
+      <c r="F200" t="s">
+        <v>36</v>
+      </c>
+      <c r="G200" t="s">
+        <v>44</v>
+      </c>
+      <c r="K200">
         <v>3</v>
       </c>
-      <c r="P198">
+      <c r="L200">
+        <v>3.2</v>
+      </c>
+      <c r="M200">
+        <v>2.25</v>
+      </c>
+      <c r="N200">
+        <v>3.1</v>
+      </c>
+      <c r="O200">
+        <v>3.2</v>
+      </c>
+      <c r="P200">
+        <v>2.2</v>
+      </c>
+      <c r="Q200">
+        <v>0.25</v>
+      </c>
+      <c r="R200">
+        <v>1.8</v>
+      </c>
+      <c r="S200">
+        <v>2</v>
+      </c>
+      <c r="T200">
         <v>2.5</v>
       </c>
-      <c r="Q198">
-        <v>0</v>
-      </c>
-      <c r="R198">
-        <v>2.025</v>
-      </c>
-      <c r="S198">
-        <v>1.775</v>
-      </c>
-      <c r="T198">
+      <c r="U200">
+        <v>2</v>
+      </c>
+      <c r="V200">
+        <v>1.8</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7773503</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45395.625</v>
+      </c>
+      <c r="F201" t="s">
+        <v>31</v>
+      </c>
+      <c r="G201" t="s">
+        <v>34</v>
+      </c>
+      <c r="K201">
+        <v>2.1</v>
+      </c>
+      <c r="L201">
+        <v>3.1</v>
+      </c>
+      <c r="M201">
+        <v>3.4</v>
+      </c>
+      <c r="N201">
+        <v>2.1</v>
+      </c>
+      <c r="O201">
+        <v>3.1</v>
+      </c>
+      <c r="P201">
+        <v>3.4</v>
+      </c>
+      <c r="Q201">
+        <v>-0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.8</v>
+      </c>
+      <c r="S201">
+        <v>2</v>
+      </c>
+      <c r="T201">
         <v>2.25</v>
       </c>
-      <c r="U198">
-        <v>1.875</v>
-      </c>
-      <c r="V198">
-        <v>1.925</v>
-      </c>
-      <c r="W198">
-        <v>0</v>
-      </c>
-      <c r="X198">
-        <v>0</v>
-      </c>
-      <c r="Y198">
-        <v>0</v>
-      </c>
-      <c r="Z198">
-        <v>0</v>
-      </c>
-      <c r="AA198">
+      <c r="U201">
+        <v>1.9</v>
+      </c>
+      <c r="V201">
+        <v>1.9</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>8069719</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45395.72916666666</v>
+      </c>
+      <c r="F202" t="s">
+        <v>45</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="K202">
+        <v>1.95</v>
+      </c>
+      <c r="L202">
+        <v>3.25</v>
+      </c>
+      <c r="M202">
+        <v>3.5</v>
+      </c>
+      <c r="N202">
+        <v>1.909</v>
+      </c>
+      <c r="O202">
+        <v>3.3</v>
+      </c>
+      <c r="P202">
+        <v>3.6</v>
+      </c>
+      <c r="Q202">
+        <v>-0.5</v>
+      </c>
+      <c r="R202">
+        <v>1.95</v>
+      </c>
+      <c r="S202">
+        <v>1.85</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>1.8</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>8069537</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45395.83333333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>43</v>
+      </c>
+      <c r="G203" t="s">
+        <v>33</v>
+      </c>
+      <c r="K203">
+        <v>1.28</v>
+      </c>
+      <c r="L203">
+        <v>5.5</v>
+      </c>
+      <c r="M203">
+        <v>8.5</v>
+      </c>
+      <c r="N203">
+        <v>1.3</v>
+      </c>
+      <c r="O203">
+        <v>5.25</v>
+      </c>
+      <c r="P203">
+        <v>8.5</v>
+      </c>
+      <c r="Q203">
+        <v>-1.5</v>
+      </c>
+      <c r="R203">
+        <v>1.95</v>
+      </c>
+      <c r="S203">
+        <v>1.85</v>
+      </c>
+      <c r="T203">
+        <v>2.75</v>
+      </c>
+      <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
+        <v>1.95</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7773067</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45396.625</v>
+      </c>
+      <c r="F204" t="s">
+        <v>37</v>
+      </c>
+      <c r="G204" t="s">
+        <v>29</v>
+      </c>
+      <c r="K204">
+        <v>2.3</v>
+      </c>
+      <c r="L204">
+        <v>3.1</v>
+      </c>
+      <c r="M204">
+        <v>3</v>
+      </c>
+      <c r="N204">
+        <v>2.5</v>
+      </c>
+      <c r="O204">
+        <v>3.1</v>
+      </c>
+      <c r="P204">
+        <v>2.7</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
+        <v>1.975</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>1.9</v>
+      </c>
+      <c r="V204">
+        <v>1.9</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>8069721</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45396.83333333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>38</v>
+      </c>
+      <c r="G205" t="s">
+        <v>32</v>
+      </c>
+      <c r="K205">
+        <v>4</v>
+      </c>
+      <c r="L205">
+        <v>3.4</v>
+      </c>
+      <c r="M205">
+        <v>1.85</v>
+      </c>
+      <c r="N205">
+        <v>3.8</v>
+      </c>
+      <c r="O205">
+        <v>3.4</v>
+      </c>
+      <c r="P205">
+        <v>1.85</v>
+      </c>
+      <c r="Q205">
+        <v>0.5</v>
+      </c>
+      <c r="R205">
+        <v>1.9</v>
+      </c>
+      <c r="S205">
+        <v>1.9</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205">
+        <v>1.8</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC205"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483189</v>
+        <v>7483281</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,61 +12026,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>49</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O130">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
@@ -12089,13 +12089,13 @@
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483247</v>
+        <v>7483081</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K132">
+        <v>2.75</v>
+      </c>
+      <c r="L132">
         <v>3.25</v>
       </c>
-      <c r="L132">
-        <v>3.2</v>
-      </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>2.25</v>
+      </c>
+      <c r="N133">
+        <v>3.5</v>
+      </c>
+      <c r="O133">
         <v>3.25</v>
       </c>
-      <c r="M133">
-        <v>4.2</v>
-      </c>
-      <c r="N133">
-        <v>1.909</v>
-      </c>
-      <c r="O133">
-        <v>3.5</v>
-      </c>
       <c r="P133">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
+        <v>1.025</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
-      <c r="AC133">
-        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" t="s">
+        <v>48</v>
+      </c>
+      <c r="K134">
+        <v>3.6</v>
+      </c>
+      <c r="L134">
+        <v>3.3</v>
+      </c>
+      <c r="M134">
+        <v>2.05</v>
+      </c>
+      <c r="N134">
+        <v>2.6</v>
+      </c>
+      <c r="O134">
+        <v>3.25</v>
+      </c>
+      <c r="P134">
+        <v>2.75</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>1.8</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>2.5</v>
+      </c>
+      <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
+        <v>1.825</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>1.75</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134" t="s">
-        <v>49</v>
-      </c>
-      <c r="K134">
-        <v>1.5</v>
-      </c>
-      <c r="L134">
-        <v>4.333</v>
-      </c>
-      <c r="M134">
-        <v>5.75</v>
-      </c>
-      <c r="N134">
-        <v>1.533</v>
-      </c>
-      <c r="O134">
-        <v>4.2</v>
-      </c>
-      <c r="P134">
-        <v>5.5</v>
-      </c>
-      <c r="Q134">
-        <v>-1</v>
-      </c>
-      <c r="R134">
-        <v>1.925</v>
-      </c>
-      <c r="S134">
-        <v>1.875</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.8</v>
-      </c>
-      <c r="V134">
-        <v>2</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>3.2</v>
-      </c>
-      <c r="Y134">
-        <v>-1</v>
-      </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
-      <c r="AA134">
-        <v>0.875</v>
-      </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M135">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.875</v>
+      </c>
+      <c r="AB135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.375</v>
-      </c>
-      <c r="AB135">
-        <v>0.95</v>
-      </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M136">
+        <v>7.5</v>
+      </c>
+      <c r="N136">
+        <v>1.444</v>
+      </c>
+      <c r="O136">
+        <v>4</v>
+      </c>
+      <c r="P136">
+        <v>8</v>
+      </c>
+      <c r="Q136">
+        <v>-1.25</v>
+      </c>
+      <c r="R136">
         <v>2.05</v>
       </c>
-      <c r="N136">
-        <v>2.6</v>
-      </c>
-      <c r="O136">
-        <v>3.25</v>
-      </c>
-      <c r="P136">
-        <v>2.75</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>1.8</v>
-      </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,55 +13183,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>1</v>
-      </c>
-      <c r="I143">
-        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>48</v>
       </c>
       <c r="K143">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N143">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
@@ -13240,19 +13240,19 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z143">
         <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,40 +13272,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
         <v>1.8</v>
@@ -13314,34 +13314,34 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>2</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
+        <v>4.2</v>
+      </c>
+      <c r="N145">
+        <v>2.4</v>
+      </c>
+      <c r="O145">
         <v>3.1</v>
       </c>
-      <c r="N145">
-        <v>2.1</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA145">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -18172,6 +18172,15 @@
       <c r="G199" t="s">
         <v>45</v>
       </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>48</v>
+      </c>
       <c r="K199">
         <v>2.25</v>
       </c>
@@ -18182,46 +18191,52 @@
         <v>3.2</v>
       </c>
       <c r="N199">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O199">
         <v>3.1</v>
       </c>
       <c r="P199">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q199">
         <v>0.25</v>
       </c>
       <c r="R199">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T199">
         <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18268,19 +18283,19 @@
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
         <v>2.5</v>
       </c>
       <c r="U200">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18342,10 +18357,10 @@
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
         <v>2.25</v>
@@ -18404,31 +18419,31 @@
         <v>3.5</v>
       </c>
       <c r="N202">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="O202">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S202">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T202">
         <v>2.5</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18478,22 +18493,22 @@
         <v>8.5</v>
       </c>
       <c r="N203">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="O203">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P203">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q203">
         <v>-1.5</v>
       </c>
       <c r="R203">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S203">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T203">
         <v>2.75</v>
@@ -18665,6 +18680,80 @@
         <v>0</v>
       </c>
       <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7773504</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45397.875</v>
+      </c>
+      <c r="F206" t="s">
+        <v>30</v>
+      </c>
+      <c r="G206" t="s">
+        <v>40</v>
+      </c>
+      <c r="K206">
+        <v>1.363</v>
+      </c>
+      <c r="L206">
+        <v>4.333</v>
+      </c>
+      <c r="M206">
+        <v>7.5</v>
+      </c>
+      <c r="N206">
+        <v>1.363</v>
+      </c>
+      <c r="O206">
+        <v>4.333</v>
+      </c>
+      <c r="P206">
+        <v>7.5</v>
+      </c>
+      <c r="Q206">
+        <v>-1.25</v>
+      </c>
+      <c r="R206">
+        <v>1.825</v>
+      </c>
+      <c r="S206">
+        <v>1.975</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.925</v>
+      </c>
+      <c r="V206">
+        <v>1.875</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483281</v>
+        <v>7483081</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L130">
         <v>3.25</v>
       </c>
       <c r="M130">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483081</v>
+        <v>7483247</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
+        <v>3.2</v>
+      </c>
+      <c r="M132">
+        <v>2.25</v>
+      </c>
+      <c r="N132">
+        <v>3.5</v>
+      </c>
+      <c r="O132">
         <v>3.25</v>
       </c>
-      <c r="M132">
-        <v>2.55</v>
-      </c>
-      <c r="N132">
-        <v>3</v>
-      </c>
-      <c r="O132">
-        <v>3.3</v>
-      </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
+        <v>1.909</v>
+      </c>
+      <c r="L133">
         <v>3.25</v>
       </c>
-      <c r="L133">
-        <v>3.2</v>
-      </c>
       <c r="M133">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
+        <v>1.909</v>
+      </c>
+      <c r="O133">
         <v>3.5</v>
       </c>
-      <c r="O133">
-        <v>3.25</v>
-      </c>
       <c r="P133">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483306</v>
+        <v>7482867</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L135">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N135">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P135">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA135">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482867</v>
+        <v>7483306</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="N137">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P137">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="Q137">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y137">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
+        <v>0.875</v>
+      </c>
+      <c r="AB137">
         <v>-0.5</v>
       </c>
-      <c r="AB137">
-        <v>0.825</v>
-      </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>2</v>
-      </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,40 +13183,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
         <v>1.8</v>
@@ -13225,34 +13225,34 @@
         <v>2</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,40 +13272,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R144">
         <v>1.8</v>
@@ -13314,34 +13314,34 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -18292,10 +18292,10 @@
         <v>2.5</v>
       </c>
       <c r="U200">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18419,22 +18419,22 @@
         <v>3.5</v>
       </c>
       <c r="N202">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="O202">
         <v>3.6</v>
       </c>
       <c r="P202">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q202">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
+        <v>1.775</v>
+      </c>
+      <c r="S202">
         <v>2.025</v>
-      </c>
-      <c r="S202">
-        <v>1.775</v>
       </c>
       <c r="T202">
         <v>2.5</v>
@@ -18579,10 +18579,10 @@
         <v>0</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
         <v>2.25</v>
@@ -18727,10 +18727,10 @@
         <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>2.75</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483081</v>
+        <v>7483281</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L130">
         <v>3.25</v>
       </c>
       <c r="M130">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P130">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N131">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483247</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483281</v>
+        <v>7483081</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
         <v>3.25</v>
       </c>
       <c r="M133">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
+        <v>2</v>
+      </c>
+      <c r="V133">
         <v>1.8</v>
       </c>
-      <c r="V133">
-        <v>2</v>
-      </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M134">
+        <v>7.5</v>
+      </c>
+      <c r="N134">
+        <v>1.444</v>
+      </c>
+      <c r="O134">
+        <v>4</v>
+      </c>
+      <c r="P134">
+        <v>8</v>
+      </c>
+      <c r="Q134">
+        <v>-1.25</v>
+      </c>
+      <c r="R134">
         <v>2.05</v>
       </c>
-      <c r="N134">
-        <v>2.6</v>
-      </c>
-      <c r="O134">
-        <v>3.25</v>
-      </c>
-      <c r="P134">
-        <v>2.75</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>1.8</v>
-      </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482867</v>
+        <v>7483306</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M135">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="N135">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="O135">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="Q135">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
+        <v>0.875</v>
+      </c>
+      <c r="AB135">
         <v>-0.5</v>
       </c>
-      <c r="AB135">
-        <v>0.825</v>
-      </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482832</v>
+        <v>7482867</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
+        <v>5.25</v>
+      </c>
+      <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>1.65</v>
+      </c>
+      <c r="N136">
+        <v>9</v>
+      </c>
+      <c r="O136">
+        <v>4.5</v>
+      </c>
+      <c r="P136">
         <v>1.363</v>
       </c>
-      <c r="L136">
-        <v>5</v>
-      </c>
-      <c r="M136">
-        <v>7.5</v>
-      </c>
-      <c r="N136">
-        <v>1.444</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>8</v>
-      </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z136">
+        <v>0.4875</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="AA136">
-        <v>0.375</v>
-      </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>48</v>
+      </c>
+      <c r="K137">
+        <v>3.6</v>
+      </c>
+      <c r="L137">
+        <v>3.3</v>
+      </c>
+      <c r="M137">
+        <v>2.05</v>
+      </c>
+      <c r="N137">
+        <v>2.6</v>
+      </c>
+      <c r="O137">
+        <v>3.25</v>
+      </c>
+      <c r="P137">
+        <v>2.75</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.8</v>
+      </c>
+      <c r="S137">
+        <v>2</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
+        <v>1.825</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>1.75</v>
+      </c>
+      <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137" t="s">
-        <v>49</v>
-      </c>
-      <c r="K137">
-        <v>1.5</v>
-      </c>
-      <c r="L137">
-        <v>4.333</v>
-      </c>
-      <c r="M137">
-        <v>5.75</v>
-      </c>
-      <c r="N137">
-        <v>1.533</v>
-      </c>
-      <c r="O137">
-        <v>4.2</v>
-      </c>
-      <c r="P137">
-        <v>5.5</v>
-      </c>
-      <c r="Q137">
-        <v>-1</v>
-      </c>
-      <c r="R137">
-        <v>1.925</v>
-      </c>
-      <c r="S137">
-        <v>1.875</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
-      <c r="U137">
-        <v>1.8</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
-      <c r="W137">
-        <v>-1</v>
-      </c>
-      <c r="X137">
-        <v>3.2</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>-1</v>
-      </c>
-      <c r="AA137">
-        <v>0.875</v>
-      </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
         <v>3.1</v>
-      </c>
-      <c r="P142">
-        <v>2.75</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
+        <v>4.2</v>
+      </c>
+      <c r="N143">
+        <v>2.4</v>
+      </c>
+      <c r="O143">
         <v>3.1</v>
       </c>
-      <c r="N143">
-        <v>2.1</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -18271,31 +18271,31 @@
         <v>2.25</v>
       </c>
       <c r="N200">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O200">
         <v>3.2</v>
       </c>
       <c r="P200">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S200">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18345,22 +18345,22 @@
         <v>3.4</v>
       </c>
       <c r="N201">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O201">
         <v>3.1</v>
       </c>
       <c r="P201">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q201">
         <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
         <v>2.25</v>
@@ -18431,19 +18431,19 @@
         <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S202">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T202">
         <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18588,10 +18588,10 @@
         <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18653,10 +18653,10 @@
         <v>0.5</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T205">
         <v>2.5</v>
@@ -18727,10 +18727,10 @@
         <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T206">
         <v>2.75</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>0.875</v>
+      </c>
+      <c r="AB134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.375</v>
-      </c>
-      <c r="AB134">
-        <v>0.95</v>
-      </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L135">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M135">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N135">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X135">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,13 +12560,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -12575,41 +12575,41 @@
         <v>48</v>
       </c>
       <c r="K136">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N136">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q136">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
         <v>1.825</v>
       </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
@@ -12617,19 +12617,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z136">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.825</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,13 +12649,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -12664,41 +12664,41 @@
         <v>48</v>
       </c>
       <c r="K137">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N137">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P137">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q137">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R137">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
+        <v>1.825</v>
+      </c>
+      <c r="V137">
         <v>1.975</v>
       </c>
-      <c r="V137">
-        <v>1.825</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
@@ -12706,19 +12706,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="V139">
-        <v>1.95</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.95</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
+        <v>2.05</v>
+      </c>
+      <c r="S144">
+        <v>1.75</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
         <v>1.8</v>
       </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>3</v>
-      </c>
-      <c r="U144">
-        <v>1.975</v>
-      </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K145">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N145">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -18271,31 +18271,31 @@
         <v>2.25</v>
       </c>
       <c r="N200">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O200">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
+        <v>1.85</v>
+      </c>
+      <c r="S200">
         <v>1.95</v>
-      </c>
-      <c r="S200">
-        <v>1.85</v>
       </c>
       <c r="T200">
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18431,10 +18431,10 @@
         <v>-0.75</v>
       </c>
       <c r="R202">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S202">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
         <v>2.5</v>
@@ -18493,31 +18493,31 @@
         <v>8.5</v>
       </c>
       <c r="N203">
-        <v>1.25</v>
+        <v>1.222</v>
       </c>
       <c r="O203">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="P203">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Q203">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R203">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T203">
         <v>2.75</v>
       </c>
       <c r="U203">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18567,22 +18567,22 @@
         <v>3</v>
       </c>
       <c r="N204">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O204">
         <v>3.1</v>
       </c>
       <c r="P204">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q204">
         <v>0</v>
       </c>
       <c r="R204">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T204">
         <v>2.25</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M133">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P133">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M134">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N134">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P134">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X134">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC134">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M135">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.875</v>
+      </c>
+      <c r="AB135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.375</v>
-      </c>
-      <c r="AB135">
-        <v>0.95</v>
-      </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
         <v>1</v>
       </c>
-      <c r="I142">
-        <v>2</v>
-      </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N142">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,73 +13272,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N144">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
+        <v>3.4</v>
+      </c>
+      <c r="P144">
         <v>3.1</v>
-      </c>
-      <c r="P144">
-        <v>2.75</v>
       </c>
       <c r="Q144">
         <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7773501</v>
+        <v>8069719</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18253,49 +18253,49 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45394.875</v>
+        <v>45395.72916666666</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G200" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K200">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="L200">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M200">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="N200">
-        <v>3.1</v>
+        <v>1.571</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7773503</v>
+        <v>8069537</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,49 +18327,49 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45395.625</v>
+        <v>45395.83333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K201">
-        <v>2.1</v>
+        <v>1.28</v>
       </c>
       <c r="L201">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M201">
-        <v>3.4</v>
+        <v>8.5</v>
       </c>
       <c r="N201">
-        <v>2.15</v>
+        <v>1.25</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="P201">
-        <v>3.25</v>
+        <v>10</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
         <v>0</v>
@@ -18392,7 +18392,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>8069719</v>
+        <v>7773067</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18401,49 +18401,49 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45395.72916666666</v>
+        <v>45396.625</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K202">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L202">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M202">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N202">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P202">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R202">
+        <v>1.875</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
         <v>1.825</v>
       </c>
-      <c r="S202">
+      <c r="V202">
         <v>1.975</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>1.975</v>
-      </c>
-      <c r="V202">
-        <v>1.825</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18466,7 +18466,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>8069537</v>
+        <v>8069720</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18475,49 +18475,49 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45395.83333333334</v>
+        <v>45396.72916666666</v>
       </c>
       <c r="F203" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K203">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="L203">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M203">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="N203">
-        <v>1.222</v>
+        <v>1.615</v>
       </c>
       <c r="O203">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="P203">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="Q203">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
+        <v>1.975</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
         <v>1.95</v>
       </c>
-      <c r="S203">
+      <c r="V203">
         <v>1.85</v>
-      </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
-      <c r="U203">
-        <v>1.9</v>
-      </c>
-      <c r="V203">
-        <v>1.9</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18540,7 +18540,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7773067</v>
+        <v>8069721</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18549,49 +18549,49 @@
         <v>28</v>
       </c>
       <c r="E204" s="2">
-        <v>45396.625</v>
+        <v>45396.83333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K204">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="L204">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M204">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N204">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="O204">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P204">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S204">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
+        <v>1.975</v>
+      </c>
+      <c r="V204">
         <v>1.825</v>
-      </c>
-      <c r="V204">
-        <v>1.975</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18614,7 +18614,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>8069721</v>
+        <v>7773504</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18623,49 +18623,49 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45396.83333333334</v>
+        <v>45397.875</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K205">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M205">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="N205">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P205">
-        <v>1.85</v>
+        <v>8</v>
       </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R205">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18680,80 +18680,6 @@
         <v>0</v>
       </c>
       <c r="AA205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:29">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>7773504</v>
-      </c>
-      <c r="C206" t="s">
-        <v>28</v>
-      </c>
-      <c r="D206" t="s">
-        <v>28</v>
-      </c>
-      <c r="E206" s="2">
-        <v>45397.875</v>
-      </c>
-      <c r="F206" t="s">
-        <v>30</v>
-      </c>
-      <c r="G206" t="s">
-        <v>40</v>
-      </c>
-      <c r="K206">
-        <v>1.363</v>
-      </c>
-      <c r="L206">
-        <v>4.333</v>
-      </c>
-      <c r="M206">
-        <v>7.5</v>
-      </c>
-      <c r="N206">
-        <v>1.363</v>
-      </c>
-      <c r="O206">
-        <v>4.333</v>
-      </c>
-      <c r="P206">
-        <v>7.5</v>
-      </c>
-      <c r="Q206">
-        <v>-1.25</v>
-      </c>
-      <c r="R206">
-        <v>1.775</v>
-      </c>
-      <c r="S206">
-        <v>2.025</v>
-      </c>
-      <c r="T206">
-        <v>2.75</v>
-      </c>
-      <c r="U206">
-        <v>1.925</v>
-      </c>
-      <c r="V206">
-        <v>1.875</v>
-      </c>
-      <c r="W206">
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <v>0</v>
-      </c>
-      <c r="Y206">
-        <v>0</v>
-      </c>
-      <c r="Z206">
-        <v>0</v>
-      </c>
-      <c r="AA206">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC205"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M132">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L133">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T133">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M134">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O134">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
+        <v>0.875</v>
+      </c>
+      <c r="AB134">
         <v>-0.5</v>
       </c>
-      <c r="AA134">
-        <v>0.375</v>
-      </c>
-      <c r="AB134">
-        <v>0.95</v>
-      </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L135">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M135">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N135">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P135">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X135">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,13 +12560,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>2</v>
@@ -12575,41 +12575,41 @@
         <v>48</v>
       </c>
       <c r="K136">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N136">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P136">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R136">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
+        <v>1.825</v>
+      </c>
+      <c r="V136">
         <v>1.975</v>
       </c>
-      <c r="V136">
-        <v>1.825</v>
-      </c>
       <c r="W136">
         <v>-1</v>
       </c>
@@ -12617,19 +12617,19 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA136">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,13 +12649,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -12664,41 +12664,41 @@
         <v>48</v>
       </c>
       <c r="K137">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M137">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N137">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O137">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q137">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
         <v>1.825</v>
       </c>
-      <c r="V137">
-        <v>1.975</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
@@ -12706,19 +12706,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z137">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
         <v>0.825</v>
-      </c>
-      <c r="AC137">
-        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="V139">
-        <v>1.95</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.95</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
         <v>3.1</v>
-      </c>
-      <c r="P142">
-        <v>2.75</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.75</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
-      </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,40 +13272,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R144">
         <v>1.8</v>
@@ -13314,34 +13314,34 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>8069719</v>
+        <v>8069720</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18253,49 +18253,49 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45395.72916666666</v>
+        <v>45396.72916666666</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G200" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K200">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M200">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N200">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O200">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P200">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q200">
         <v>-0.75</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T200">
         <v>2.5</v>
       </c>
       <c r="U200">
+        <v>1.825</v>
+      </c>
+      <c r="V200">
         <v>1.975</v>
-      </c>
-      <c r="V200">
-        <v>1.825</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>8069537</v>
+        <v>8069721</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,43 +18327,43 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45395.83333333334</v>
+        <v>45396.83333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K201">
-        <v>1.28</v>
+        <v>4</v>
       </c>
       <c r="L201">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="N201">
-        <v>1.25</v>
+        <v>4.2</v>
       </c>
       <c r="O201">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P201">
-        <v>10</v>
+        <v>1.75</v>
       </c>
       <c r="Q201">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
         <v>1.95</v>
@@ -18392,7 +18392,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7773067</v>
+        <v>7773504</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18401,49 +18401,49 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45396.625</v>
+        <v>45397.875</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K202">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M202">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N202">
-        <v>2.6</v>
+        <v>1.285</v>
       </c>
       <c r="O202">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P202">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R202">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S202">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18458,228 +18458,6 @@
         <v>0</v>
       </c>
       <c r="AA202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:29">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>8069720</v>
-      </c>
-      <c r="C203" t="s">
-        <v>28</v>
-      </c>
-      <c r="D203" t="s">
-        <v>28</v>
-      </c>
-      <c r="E203" s="2">
-        <v>45396.72916666666</v>
-      </c>
-      <c r="F203" t="s">
-        <v>39</v>
-      </c>
-      <c r="G203" t="s">
-        <v>46</v>
-      </c>
-      <c r="K203">
-        <v>1.7</v>
-      </c>
-      <c r="L203">
-        <v>3.6</v>
-      </c>
-      <c r="M203">
-        <v>4.2</v>
-      </c>
-      <c r="N203">
-        <v>1.615</v>
-      </c>
-      <c r="O203">
-        <v>3.75</v>
-      </c>
-      <c r="P203">
-        <v>4.5</v>
-      </c>
-      <c r="Q203">
-        <v>-0.75</v>
-      </c>
-      <c r="R203">
-        <v>1.825</v>
-      </c>
-      <c r="S203">
-        <v>1.975</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
-      <c r="U203">
-        <v>1.95</v>
-      </c>
-      <c r="V203">
-        <v>1.85</v>
-      </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-      <c r="X203">
-        <v>0</v>
-      </c>
-      <c r="Y203">
-        <v>0</v>
-      </c>
-      <c r="Z203">
-        <v>0</v>
-      </c>
-      <c r="AA203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>8069721</v>
-      </c>
-      <c r="C204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" s="2">
-        <v>45396.83333333334</v>
-      </c>
-      <c r="F204" t="s">
-        <v>38</v>
-      </c>
-      <c r="G204" t="s">
-        <v>32</v>
-      </c>
-      <c r="K204">
-        <v>4</v>
-      </c>
-      <c r="L204">
-        <v>3.4</v>
-      </c>
-      <c r="M204">
-        <v>1.85</v>
-      </c>
-      <c r="N204">
-        <v>4.2</v>
-      </c>
-      <c r="O204">
-        <v>3.4</v>
-      </c>
-      <c r="P204">
-        <v>1.8</v>
-      </c>
-      <c r="Q204">
-        <v>0.5</v>
-      </c>
-      <c r="R204">
-        <v>2.025</v>
-      </c>
-      <c r="S204">
-        <v>1.775</v>
-      </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>1.975</v>
-      </c>
-      <c r="V204">
-        <v>1.825</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
-      </c>
-      <c r="AA204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:29">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205">
-        <v>7773504</v>
-      </c>
-      <c r="C205" t="s">
-        <v>28</v>
-      </c>
-      <c r="D205" t="s">
-        <v>28</v>
-      </c>
-      <c r="E205" s="2">
-        <v>45397.875</v>
-      </c>
-      <c r="F205" t="s">
-        <v>30</v>
-      </c>
-      <c r="G205" t="s">
-        <v>40</v>
-      </c>
-      <c r="K205">
-        <v>1.363</v>
-      </c>
-      <c r="L205">
-        <v>4.333</v>
-      </c>
-      <c r="M205">
-        <v>7.5</v>
-      </c>
-      <c r="N205">
-        <v>1.333</v>
-      </c>
-      <c r="O205">
-        <v>4.5</v>
-      </c>
-      <c r="P205">
-        <v>8</v>
-      </c>
-      <c r="Q205">
-        <v>-1.5</v>
-      </c>
-      <c r="R205">
-        <v>2</v>
-      </c>
-      <c r="S205">
-        <v>1.8</v>
-      </c>
-      <c r="T205">
-        <v>2.75</v>
-      </c>
-      <c r="U205">
-        <v>1.9</v>
-      </c>
-      <c r="V205">
-        <v>1.9</v>
-      </c>
-      <c r="W205">
-        <v>0</v>
-      </c>
-      <c r="X205">
-        <v>0</v>
-      </c>
-      <c r="Y205">
-        <v>0</v>
-      </c>
-      <c r="Z205">
-        <v>0</v>
-      </c>
-      <c r="AA205">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483281</v>
+        <v>7483081</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L130">
         <v>3.25</v>
       </c>
       <c r="M130">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483247</v>
+        <v>7483189</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>3.25</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483281</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,61 +12204,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
         <v>49</v>
       </c>
       <c r="K132">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L132">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P132">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12267,13 +12267,13 @@
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483081</v>
+        <v>7483247</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>2.25</v>
+      </c>
+      <c r="N133">
+        <v>3.5</v>
+      </c>
+      <c r="O133">
         <v>3.25</v>
       </c>
-      <c r="M133">
-        <v>2.55</v>
-      </c>
-      <c r="N133">
-        <v>3</v>
-      </c>
-      <c r="O133">
-        <v>3.3</v>
-      </c>
       <c r="P133">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483306</v>
+        <v>7482867</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="L134">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N134">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P134">
-        <v>5.5</v>
+        <v>1.363</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA134">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="O135">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482867</v>
+        <v>7483306</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M136">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="N136">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="Q136">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
+        <v>0.875</v>
+      </c>
+      <c r="AB136">
         <v>-0.5</v>
       </c>
-      <c r="AB136">
-        <v>0.825</v>
-      </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L137">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M137">
+        <v>7.5</v>
+      </c>
+      <c r="N137">
+        <v>1.444</v>
+      </c>
+      <c r="O137">
+        <v>4</v>
+      </c>
+      <c r="P137">
+        <v>8</v>
+      </c>
+      <c r="Q137">
+        <v>-1.25</v>
+      </c>
+      <c r="R137">
         <v>2.05</v>
       </c>
-      <c r="N137">
-        <v>2.6</v>
-      </c>
-      <c r="O137">
-        <v>3.25</v>
-      </c>
-      <c r="P137">
-        <v>2.75</v>
-      </c>
-      <c r="Q137">
-        <v>0</v>
-      </c>
-      <c r="R137">
-        <v>1.8</v>
-      </c>
       <c r="S137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
+        <v>3.4</v>
+      </c>
+      <c r="P143">
         <v>3.1</v>
-      </c>
-      <c r="P143">
-        <v>2.75</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H145">
+        <v>2</v>
+      </c>
+      <c r="I145">
         <v>1</v>
       </c>
-      <c r="I145">
-        <v>2</v>
-      </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N145">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>8069720</v>
+        <v>7773501</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18253,64 +18253,79 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45396.72916666666</v>
+        <v>45394.875</v>
       </c>
       <c r="F200" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="H200">
+        <v>3</v>
+      </c>
+      <c r="I200">
+        <v>3</v>
+      </c>
+      <c r="J200" t="s">
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L200">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M200">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="N200">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O200">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q200">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB200">
+        <v>0.95</v>
+      </c>
+      <c r="AC200">
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18318,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>8069721</v>
+        <v>7773503</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,64 +18342,79 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45396.83333333334</v>
+        <v>45395.625</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201" t="s">
+        <v>48</v>
       </c>
       <c r="K201">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L201">
+        <v>3.1</v>
+      </c>
+      <c r="M201">
         <v>3.4</v>
       </c>
-      <c r="M201">
+      <c r="N201">
+        <v>2.25</v>
+      </c>
+      <c r="O201">
+        <v>3</v>
+      </c>
+      <c r="P201">
+        <v>3.1</v>
+      </c>
+      <c r="Q201">
+        <v>-0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
         <v>1.85</v>
       </c>
-      <c r="N201">
-        <v>4.2</v>
-      </c>
-      <c r="O201">
-        <v>3.5</v>
-      </c>
-      <c r="P201">
-        <v>1.75</v>
-      </c>
-      <c r="Q201">
-        <v>0.75</v>
-      </c>
-      <c r="R201">
-        <v>1.825</v>
-      </c>
-      <c r="S201">
-        <v>1.975</v>
-      </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB201">
+        <v>0.925</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18392,7 +18422,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7773504</v>
+        <v>8069719</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18401,63 +18431,537 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45397.875</v>
+        <v>45395.72916666666</v>
       </c>
       <c r="F202" t="s">
+        <v>45</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="s">
+        <v>49</v>
+      </c>
+      <c r="K202">
+        <v>1.95</v>
+      </c>
+      <c r="L202">
+        <v>3.25</v>
+      </c>
+      <c r="M202">
+        <v>3.5</v>
+      </c>
+      <c r="N202">
+        <v>1.571</v>
+      </c>
+      <c r="O202">
+        <v>3.6</v>
+      </c>
+      <c r="P202">
+        <v>5.25</v>
+      </c>
+      <c r="Q202">
+        <v>-1</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.8</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>1.8</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>2.6</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
+        <v>0.8</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>8069537</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45395.83333333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>43</v>
+      </c>
+      <c r="G203" t="s">
+        <v>33</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>47</v>
+      </c>
+      <c r="K203">
+        <v>1.28</v>
+      </c>
+      <c r="L203">
+        <v>5.5</v>
+      </c>
+      <c r="M203">
+        <v>8.5</v>
+      </c>
+      <c r="N203">
+        <v>1.25</v>
+      </c>
+      <c r="O203">
+        <v>5.5</v>
+      </c>
+      <c r="P203">
+        <v>10</v>
+      </c>
+      <c r="Q203">
+        <v>-1.5</v>
+      </c>
+      <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
+        <v>1.975</v>
+      </c>
+      <c r="T203">
+        <v>2.75</v>
+      </c>
+      <c r="U203">
+        <v>1.95</v>
+      </c>
+      <c r="V203">
+        <v>1.85</v>
+      </c>
+      <c r="W203">
+        <v>0.25</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.825</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7773511</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45399.77083333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>33</v>
+      </c>
+      <c r="G204" t="s">
+        <v>38</v>
+      </c>
+      <c r="K204">
+        <v>2.4</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>3.2</v>
+      </c>
+      <c r="N204">
+        <v>2.4</v>
+      </c>
+      <c r="O204">
+        <v>3</v>
+      </c>
+      <c r="P204">
+        <v>3.2</v>
+      </c>
+      <c r="Q204">
+        <v>-0.25</v>
+      </c>
+      <c r="R204">
+        <v>2.025</v>
+      </c>
+      <c r="S204">
+        <v>1.775</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>1.9</v>
+      </c>
+      <c r="V204">
+        <v>1.9</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7773510</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45399.875</v>
+      </c>
+      <c r="F205" t="s">
+        <v>34</v>
+      </c>
+      <c r="G205" t="s">
+        <v>36</v>
+      </c>
+      <c r="K205">
+        <v>1.95</v>
+      </c>
+      <c r="L205">
+        <v>3.25</v>
+      </c>
+      <c r="M205">
+        <v>4.2</v>
+      </c>
+      <c r="N205">
+        <v>1.95</v>
+      </c>
+      <c r="O205">
+        <v>3.25</v>
+      </c>
+      <c r="P205">
+        <v>4.2</v>
+      </c>
+      <c r="Q205">
+        <v>-0.5</v>
+      </c>
+      <c r="R205">
+        <v>1.95</v>
+      </c>
+      <c r="S205">
+        <v>1.85</v>
+      </c>
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
+        <v>1.9</v>
+      </c>
+      <c r="V205">
+        <v>1.9</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7773068</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45400.77083333334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>29</v>
+      </c>
+      <c r="G206" t="s">
+        <v>31</v>
+      </c>
+      <c r="K206">
+        <v>1.333</v>
+      </c>
+      <c r="L206">
+        <v>5.5</v>
+      </c>
+      <c r="M206">
+        <v>8</v>
+      </c>
+      <c r="N206">
+        <v>1.333</v>
+      </c>
+      <c r="O206">
+        <v>5.5</v>
+      </c>
+      <c r="P206">
+        <v>8</v>
+      </c>
+      <c r="Q206">
+        <v>-1.5</v>
+      </c>
+      <c r="R206">
+        <v>1.925</v>
+      </c>
+      <c r="S206">
+        <v>1.875</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.8</v>
+      </c>
+      <c r="V206">
+        <v>2</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7773508</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45400.875</v>
+      </c>
+      <c r="F207" t="s">
+        <v>32</v>
+      </c>
+      <c r="G207" t="s">
+        <v>39</v>
+      </c>
+      <c r="K207">
+        <v>1.45</v>
+      </c>
+      <c r="L207">
+        <v>4.5</v>
+      </c>
+      <c r="M207">
+        <v>6.5</v>
+      </c>
+      <c r="N207">
+        <v>1.45</v>
+      </c>
+      <c r="O207">
+        <v>4.5</v>
+      </c>
+      <c r="P207">
+        <v>6.5</v>
+      </c>
+      <c r="Q207">
+        <v>-1.25</v>
+      </c>
+      <c r="R207">
+        <v>1.975</v>
+      </c>
+      <c r="S207">
+        <v>1.825</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
+        <v>1.8</v>
+      </c>
+      <c r="V207">
+        <v>2</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7773507</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45401.77083333334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>42</v>
+      </c>
+      <c r="G208" t="s">
         <v>30</v>
       </c>
-      <c r="G202" t="s">
-        <v>40</v>
-      </c>
-      <c r="K202">
-        <v>1.363</v>
-      </c>
-      <c r="L202">
-        <v>4.333</v>
-      </c>
-      <c r="M202">
-        <v>7.5</v>
-      </c>
-      <c r="N202">
-        <v>1.285</v>
-      </c>
-      <c r="O202">
-        <v>4.75</v>
-      </c>
-      <c r="P202">
-        <v>9</v>
-      </c>
-      <c r="Q202">
-        <v>-1.5</v>
-      </c>
-      <c r="R202">
+      <c r="K208">
+        <v>4</v>
+      </c>
+      <c r="L208">
+        <v>3.25</v>
+      </c>
+      <c r="M208">
+        <v>1.909</v>
+      </c>
+      <c r="N208">
+        <v>3.8</v>
+      </c>
+      <c r="O208">
+        <v>3.25</v>
+      </c>
+      <c r="P208">
         <v>1.95</v>
       </c>
-      <c r="S202">
-        <v>1.85</v>
-      </c>
-      <c r="T202">
+      <c r="Q208">
+        <v>0.5</v>
+      </c>
+      <c r="R208">
+        <v>1.825</v>
+      </c>
+      <c r="S208">
+        <v>1.975</v>
+      </c>
+      <c r="T208">
         <v>2.75</v>
       </c>
-      <c r="U202">
-        <v>1.85</v>
-      </c>
-      <c r="V202">
-        <v>1.95</v>
-      </c>
-      <c r="W202">
-        <v>0</v>
-      </c>
-      <c r="X202">
-        <v>0</v>
-      </c>
-      <c r="Y202">
-        <v>0</v>
-      </c>
-      <c r="Z202">
-        <v>0</v>
-      </c>
-      <c r="AA202">
+      <c r="U208">
+        <v>1.975</v>
+      </c>
+      <c r="V208">
+        <v>1.825</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="N131">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,61 +12204,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>49</v>
       </c>
       <c r="K132">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M132">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O132">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P132">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
         <v>-1</v>
@@ -12267,13 +12267,13 @@
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
+        <v>1.909</v>
+      </c>
+      <c r="L133">
         <v>3.25</v>
       </c>
-      <c r="L133">
-        <v>3.2</v>
-      </c>
       <c r="M133">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
+        <v>1.909</v>
+      </c>
+      <c r="O133">
         <v>3.5</v>
       </c>
-      <c r="O133">
-        <v>3.25</v>
-      </c>
       <c r="P133">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,13 +12382,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -12397,41 +12397,41 @@
         <v>48</v>
       </c>
       <c r="K134">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N134">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q134">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z134">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.825</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483188</v>
+        <v>7483306</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M135">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R135">
+        <v>1.925</v>
+      </c>
+      <c r="S135">
+        <v>1.875</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
         <v>1.8</v>
       </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.975</v>
-      </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y135">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N136">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482832</v>
+        <v>7482867</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,73 +12649,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K137">
+        <v>5.25</v>
+      </c>
+      <c r="L137">
+        <v>3.75</v>
+      </c>
+      <c r="M137">
+        <v>1.65</v>
+      </c>
+      <c r="N137">
+        <v>9</v>
+      </c>
+      <c r="O137">
+        <v>4.5</v>
+      </c>
+      <c r="P137">
         <v>1.363</v>
       </c>
-      <c r="L137">
-        <v>5</v>
-      </c>
-      <c r="M137">
-        <v>7.5</v>
-      </c>
-      <c r="N137">
-        <v>1.444</v>
-      </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <v>8</v>
-      </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z137">
+        <v>0.4875</v>
+      </c>
+      <c r="AA137">
         <v>-0.5</v>
       </c>
-      <c r="AA137">
-        <v>0.375</v>
-      </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,40 +13183,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N143">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O143">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
         <v>1.8</v>
@@ -13225,34 +13225,34 @@
         <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,40 +13272,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
         <v>1.8</v>
@@ -13314,34 +13314,34 @@
         <v>2</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -18600,7 +18600,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7773511</v>
+        <v>7773067</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18609,64 +18609,79 @@
         <v>28</v>
       </c>
       <c r="E204" s="2">
-        <v>45399.77083333334</v>
+        <v>45396.625</v>
       </c>
       <c r="F204" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G204" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>2</v>
+      </c>
+      <c r="J204" t="s">
+        <v>49</v>
       </c>
       <c r="K204">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L204">
+        <v>3.1</v>
+      </c>
+      <c r="M204">
         <v>3</v>
       </c>
-      <c r="M204">
-        <v>3.2</v>
-      </c>
       <c r="N204">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O204">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P204">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R204">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S204">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T204">
         <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
         <v>0</v>
       </c>
       <c r="AA204">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB204">
+        <v>0.825</v>
+      </c>
+      <c r="AC204">
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18674,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7773510</v>
+        <v>8069720</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18683,34 +18698,43 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45399.875</v>
+        <v>45396.72916666666</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L205">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M205">
         <v>4.2</v>
       </c>
       <c r="N205">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O205">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
         <v>1.95</v>
@@ -18719,28 +18743,34 @@
         <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA205">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>0.925</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18748,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7773068</v>
+        <v>8069721</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18757,64 +18787,79 @@
         <v>28</v>
       </c>
       <c r="E206" s="2">
-        <v>45400.77083333334</v>
+        <v>45396.83333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>3</v>
+      </c>
+      <c r="J206" t="s">
+        <v>48</v>
       </c>
       <c r="K206">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="L206">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="N206">
-        <v>1.333</v>
+        <v>3.75</v>
       </c>
       <c r="O206">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="Q206">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB206">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC206">
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18822,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7773508</v>
+        <v>7773504</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18831,64 +18876,79 @@
         <v>28</v>
       </c>
       <c r="E207" s="2">
-        <v>45400.875</v>
+        <v>45397.875</v>
       </c>
       <c r="F207" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>47</v>
       </c>
       <c r="K207">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="L207">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="M207">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N207">
-        <v>1.45</v>
+        <v>1.363</v>
       </c>
       <c r="O207">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P207">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q207">
         <v>-1.25</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T207">
         <v>2.75</v>
       </c>
       <c r="U207">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB207">
+        <v>0.4375</v>
+      </c>
+      <c r="AC207">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18896,72 +18956,442 @@
         <v>206</v>
       </c>
       <c r="B208">
+        <v>7773772</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45400.66666666666</v>
+      </c>
+      <c r="F208" t="s">
+        <v>46</v>
+      </c>
+      <c r="G208" t="s">
+        <v>37</v>
+      </c>
+      <c r="K208">
+        <v>4.5</v>
+      </c>
+      <c r="L208">
+        <v>3.75</v>
+      </c>
+      <c r="M208">
+        <v>1.727</v>
+      </c>
+      <c r="N208">
+        <v>4.333</v>
+      </c>
+      <c r="O208">
+        <v>3.8</v>
+      </c>
+      <c r="P208">
+        <v>1.6</v>
+      </c>
+      <c r="Q208">
+        <v>0.75</v>
+      </c>
+      <c r="R208">
+        <v>2</v>
+      </c>
+      <c r="S208">
+        <v>1.8</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>1.8</v>
+      </c>
+      <c r="V208">
+        <v>2</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>7773068</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45400.77083333334</v>
+      </c>
+      <c r="F209" t="s">
+        <v>29</v>
+      </c>
+      <c r="G209" t="s">
+        <v>31</v>
+      </c>
+      <c r="K209">
+        <v>1.333</v>
+      </c>
+      <c r="L209">
+        <v>5.5</v>
+      </c>
+      <c r="M209">
+        <v>8</v>
+      </c>
+      <c r="N209">
+        <v>1.3</v>
+      </c>
+      <c r="O209">
+        <v>5.5</v>
+      </c>
+      <c r="P209">
+        <v>8</v>
+      </c>
+      <c r="Q209">
+        <v>-1.5</v>
+      </c>
+      <c r="R209">
+        <v>1.9</v>
+      </c>
+      <c r="S209">
+        <v>1.9</v>
+      </c>
+      <c r="T209">
+        <v>3</v>
+      </c>
+      <c r="U209">
+        <v>1.925</v>
+      </c>
+      <c r="V209">
+        <v>1.875</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>7773508</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45400.875</v>
+      </c>
+      <c r="F210" t="s">
+        <v>32</v>
+      </c>
+      <c r="G210" t="s">
+        <v>39</v>
+      </c>
+      <c r="K210">
+        <v>1.45</v>
+      </c>
+      <c r="L210">
+        <v>4.5</v>
+      </c>
+      <c r="M210">
+        <v>6.5</v>
+      </c>
+      <c r="N210">
+        <v>1.4</v>
+      </c>
+      <c r="O210">
+        <v>4.75</v>
+      </c>
+      <c r="P210">
+        <v>7</v>
+      </c>
+      <c r="Q210">
+        <v>-1.25</v>
+      </c>
+      <c r="R210">
+        <v>1.9</v>
+      </c>
+      <c r="S210">
+        <v>1.9</v>
+      </c>
+      <c r="T210">
+        <v>2.75</v>
+      </c>
+      <c r="U210">
+        <v>1.775</v>
+      </c>
+      <c r="V210">
+        <v>2.025</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7773509</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45401.66666666666</v>
+      </c>
+      <c r="F211" t="s">
+        <v>40</v>
+      </c>
+      <c r="G211" t="s">
+        <v>45</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>3.25</v>
+      </c>
+      <c r="M211">
+        <v>3.75</v>
+      </c>
+      <c r="N211">
+        <v>2.2</v>
+      </c>
+      <c r="O211">
+        <v>3.25</v>
+      </c>
+      <c r="P211">
+        <v>3.25</v>
+      </c>
+      <c r="Q211">
+        <v>-0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.9</v>
+      </c>
+      <c r="S211">
+        <v>1.9</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>1.9</v>
+      </c>
+      <c r="V211">
+        <v>1.9</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
         <v>7773507</v>
       </c>
-      <c r="C208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D208" t="s">
-        <v>28</v>
-      </c>
-      <c r="E208" s="2">
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
         <v>45401.77083333334</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F212" t="s">
         <v>42</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G212" t="s">
         <v>30</v>
       </c>
-      <c r="K208">
+      <c r="K212">
         <v>4</v>
       </c>
-      <c r="L208">
+      <c r="L212">
         <v>3.25</v>
       </c>
-      <c r="M208">
+      <c r="M212">
         <v>1.909</v>
       </c>
-      <c r="N208">
-        <v>3.8</v>
-      </c>
-      <c r="O208">
+      <c r="N212">
+        <v>3.5</v>
+      </c>
+      <c r="O212">
+        <v>3.1</v>
+      </c>
+      <c r="P212">
+        <v>2.15</v>
+      </c>
+      <c r="Q212">
+        <v>0.25</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>1.925</v>
+      </c>
+      <c r="V212">
+        <v>1.875</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7773506</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45401.875</v>
+      </c>
+      <c r="F213" t="s">
+        <v>44</v>
+      </c>
+      <c r="G213" t="s">
+        <v>43</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
         <v>3.25</v>
       </c>
-      <c r="P208">
-        <v>1.95</v>
-      </c>
-      <c r="Q208">
-        <v>0.5</v>
-      </c>
-      <c r="R208">
-        <v>1.825</v>
-      </c>
-      <c r="S208">
-        <v>1.975</v>
-      </c>
-      <c r="T208">
-        <v>2.75</v>
-      </c>
-      <c r="U208">
-        <v>1.975</v>
-      </c>
-      <c r="V208">
-        <v>1.825</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
+      <c r="M213">
+        <v>3.6</v>
+      </c>
+      <c r="N213">
+        <v>2.15</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
+        <v>3.25</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.875</v>
+      </c>
+      <c r="S213">
+        <v>1.925</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
+        <v>1.8</v>
+      </c>
+      <c r="V213">
+        <v>2</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC213"/>
+  <dimension ref="A1:AC211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483081</v>
+        <v>7483247</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L130">
+        <v>3.2</v>
+      </c>
+      <c r="M130">
+        <v>2.25</v>
+      </c>
+      <c r="N130">
+        <v>3.5</v>
+      </c>
+      <c r="O130">
         <v>3.25</v>
       </c>
-      <c r="M130">
-        <v>2.55</v>
-      </c>
-      <c r="N130">
-        <v>3</v>
-      </c>
-      <c r="O130">
-        <v>3.3</v>
-      </c>
       <c r="P130">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
+        <v>1.909</v>
+      </c>
+      <c r="L131">
         <v>3.25</v>
       </c>
-      <c r="L131">
-        <v>3.2</v>
-      </c>
       <c r="M131">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N131">
+        <v>1.909</v>
+      </c>
+      <c r="O131">
         <v>3.5</v>
       </c>
-      <c r="O131">
-        <v>3.25</v>
-      </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,61 +12293,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>49</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M133">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12356,13 +12356,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,13 +12382,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -12397,41 +12397,41 @@
         <v>48</v>
       </c>
       <c r="K134">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M134">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="N134">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P134">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>48</v>
+      </c>
+      <c r="K135">
+        <v>3.6</v>
+      </c>
+      <c r="L135">
+        <v>3.3</v>
+      </c>
+      <c r="M135">
+        <v>2.05</v>
+      </c>
+      <c r="N135">
+        <v>2.6</v>
+      </c>
+      <c r="O135">
+        <v>3.25</v>
+      </c>
+      <c r="P135">
+        <v>2.75</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>1.8</v>
+      </c>
+      <c r="S135">
+        <v>2</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
+        <v>1.825</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>1.75</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
         <v>1</v>
       </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c r="J135" t="s">
-        <v>49</v>
-      </c>
-      <c r="K135">
-        <v>1.5</v>
-      </c>
-      <c r="L135">
-        <v>4.333</v>
-      </c>
-      <c r="M135">
-        <v>5.75</v>
-      </c>
-      <c r="N135">
-        <v>1.533</v>
-      </c>
-      <c r="O135">
-        <v>4.2</v>
-      </c>
-      <c r="P135">
-        <v>5.5</v>
-      </c>
-      <c r="Q135">
-        <v>-1</v>
-      </c>
-      <c r="R135">
-        <v>1.925</v>
-      </c>
-      <c r="S135">
-        <v>1.875</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.8</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>3.2</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>-1</v>
-      </c>
-      <c r="AA135">
-        <v>0.875</v>
-      </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K136">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L136">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M136">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N136">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O136">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P136">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
+        <v>0.875</v>
+      </c>
+      <c r="AB136">
         <v>-0.5</v>
       </c>
-      <c r="AA136">
-        <v>0.375</v>
-      </c>
-      <c r="AB136">
-        <v>0.95</v>
-      </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,73 +12649,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
         <v>1</v>
       </c>
-      <c r="I137">
-        <v>2</v>
-      </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M137">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N137">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O137">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P137">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q137">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T137">
         <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB137">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.95</v>
+      </c>
+      <c r="V139">
         <v>1.85</v>
       </c>
-      <c r="V139">
-        <v>1.95</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.85</v>
+      </c>
+      <c r="V140">
         <v>1.95</v>
       </c>
-      <c r="V140">
-        <v>1.85</v>
-      </c>
       <c r="W140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
+        <v>-1</v>
+      </c>
+      <c r="AC140">
         <v>0.95</v>
-      </c>
-      <c r="AC140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2.05</v>
+      </c>
+      <c r="S143">
+        <v>1.75</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
         <v>1.8</v>
       </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
-      </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7773772</v>
+        <v>7773511</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18965,64 +18965,79 @@
         <v>28</v>
       </c>
       <c r="E208" s="2">
-        <v>45400.66666666666</v>
+        <v>45399.77083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" t="s">
+        <v>49</v>
       </c>
       <c r="K208">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="L208">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="N208">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O208">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P208">
-        <v>1.6</v>
+        <v>2.875</v>
       </c>
       <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>1.8</v>
+      </c>
+      <c r="S208">
+        <v>2</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>2.05</v>
+      </c>
+      <c r="V208">
+        <v>1.75</v>
+      </c>
+      <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>1.9</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>-0</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.75</v>
-      </c>
-      <c r="R208">
-        <v>2</v>
-      </c>
-      <c r="S208">
-        <v>1.8</v>
-      </c>
-      <c r="T208">
-        <v>2.5</v>
-      </c>
-      <c r="U208">
-        <v>1.8</v>
-      </c>
-      <c r="V208">
-        <v>2</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
-        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -19030,7 +19045,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7773068</v>
+        <v>7773509</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19039,49 +19054,49 @@
         <v>28</v>
       </c>
       <c r="E209" s="2">
-        <v>45400.77083333334</v>
+        <v>45401.66666666666</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K209">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L209">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="N209">
-        <v>1.3</v>
+        <v>2.15</v>
       </c>
       <c r="O209">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P209">
-        <v>8</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S209">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19104,7 +19119,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7773508</v>
+        <v>7773507</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19113,49 +19128,49 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45400.875</v>
+        <v>45401.77083333334</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K210">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="L210">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
-        <v>6.5</v>
+        <v>1.909</v>
       </c>
       <c r="N210">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O210">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P210">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="Q210">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T210">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19178,7 +19193,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7773509</v>
+        <v>7773506</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19187,13 +19202,13 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45401.66666666666</v>
+        <v>45401.875</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G211" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K211">
         <v>2</v>
@@ -19202,13 +19217,13 @@
         <v>3.25</v>
       </c>
       <c r="M211">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N211">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O211">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
         <v>3.25</v>
@@ -19217,19 +19232,19 @@
         <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S211">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T211">
         <v>2.25</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19244,154 +19259,6 @@
         <v>0</v>
       </c>
       <c r="AA211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:27">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>7773507</v>
-      </c>
-      <c r="C212" t="s">
-        <v>28</v>
-      </c>
-      <c r="D212" t="s">
-        <v>28</v>
-      </c>
-      <c r="E212" s="2">
-        <v>45401.77083333334</v>
-      </c>
-      <c r="F212" t="s">
-        <v>42</v>
-      </c>
-      <c r="G212" t="s">
-        <v>30</v>
-      </c>
-      <c r="K212">
-        <v>4</v>
-      </c>
-      <c r="L212">
-        <v>3.25</v>
-      </c>
-      <c r="M212">
-        <v>1.909</v>
-      </c>
-      <c r="N212">
-        <v>3.5</v>
-      </c>
-      <c r="O212">
-        <v>3.1</v>
-      </c>
-      <c r="P212">
-        <v>2.15</v>
-      </c>
-      <c r="Q212">
-        <v>0.25</v>
-      </c>
-      <c r="R212">
-        <v>2</v>
-      </c>
-      <c r="S212">
-        <v>1.8</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.925</v>
-      </c>
-      <c r="V212">
-        <v>1.875</v>
-      </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
-      <c r="X212">
-        <v>0</v>
-      </c>
-      <c r="Y212">
-        <v>0</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:27">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213">
-        <v>7773506</v>
-      </c>
-      <c r="C213" t="s">
-        <v>28</v>
-      </c>
-      <c r="D213" t="s">
-        <v>28</v>
-      </c>
-      <c r="E213" s="2">
-        <v>45401.875</v>
-      </c>
-      <c r="F213" t="s">
-        <v>44</v>
-      </c>
-      <c r="G213" t="s">
-        <v>43</v>
-      </c>
-      <c r="K213">
-        <v>2</v>
-      </c>
-      <c r="L213">
-        <v>3.25</v>
-      </c>
-      <c r="M213">
-        <v>3.6</v>
-      </c>
-      <c r="N213">
-        <v>2.15</v>
-      </c>
-      <c r="O213">
-        <v>3.2</v>
-      </c>
-      <c r="P213">
-        <v>3.25</v>
-      </c>
-      <c r="Q213">
-        <v>-0.25</v>
-      </c>
-      <c r="R213">
-        <v>1.875</v>
-      </c>
-      <c r="S213">
-        <v>1.925</v>
-      </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
-      <c r="U213">
-        <v>1.8</v>
-      </c>
-      <c r="V213">
-        <v>2</v>
-      </c>
-      <c r="W213">
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <v>0</v>
-      </c>
-      <c r="Y213">
-        <v>0</v>
-      </c>
-      <c r="Z213">
-        <v>0</v>
-      </c>
-      <c r="AA213">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483281</v>
+        <v>7483081</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K131">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L131">
         <v>3.25</v>
       </c>
       <c r="M131">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O131">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
+        <v>2</v>
+      </c>
+      <c r="V131">
         <v>1.8</v>
       </c>
-      <c r="V131">
-        <v>2</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M132">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483189</v>
+        <v>7483281</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,61 +12293,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
         <v>49</v>
       </c>
       <c r="K133">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O133">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
         <v>-1</v>
@@ -12356,13 +12356,13 @@
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="N136">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482832</v>
+        <v>7483306</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M137">
-        <v>7.5</v>
+        <v>5.75</v>
       </c>
       <c r="N137">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O137">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P137">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q137">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
+        <v>0.875</v>
+      </c>
+      <c r="AB137">
         <v>-0.5</v>
       </c>
-      <c r="AA137">
-        <v>0.375</v>
-      </c>
-      <c r="AB137">
-        <v>0.95</v>
-      </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528858</v>
+        <v>7528852</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M143">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P143">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528852</v>
+        <v>7528858</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,73 +13272,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528857</v>
+        <v>7528848</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,76 +13361,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>2.05</v>
+      </c>
+      <c r="S145">
+        <v>1.75</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
         <v>1.8</v>
       </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>3</v>
-      </c>
-      <c r="U145">
-        <v>1.975</v>
-      </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -19040,12 +19040,12 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="209" spans="1:27">
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7773509</v>
+        <v>7773510</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19054,72 +19054,87 @@
         <v>28</v>
       </c>
       <c r="E209" s="2">
-        <v>45401.66666666666</v>
+        <v>45399.875</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G209" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>47</v>
       </c>
       <c r="K209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
         <v>3.25</v>
       </c>
       <c r="M209">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N209">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O209">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q209">
         <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7773507</v>
+        <v>7773772</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19128,72 +19143,87 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45401.77083333334</v>
+        <v>45400.66666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G210" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>49</v>
       </c>
       <c r="K210">
+        <v>4.5</v>
+      </c>
+      <c r="L210">
+        <v>3.75</v>
+      </c>
+      <c r="M210">
+        <v>1.727</v>
+      </c>
+      <c r="N210">
+        <v>4.5</v>
+      </c>
+      <c r="O210">
         <v>4</v>
       </c>
-      <c r="L210">
-        <v>3.25</v>
-      </c>
-      <c r="M210">
-        <v>1.909</v>
-      </c>
-      <c r="N210">
-        <v>3.5</v>
-      </c>
-      <c r="O210">
-        <v>3.1</v>
-      </c>
       <c r="P210">
-        <v>2.15</v>
+        <v>1.533</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R210">
+        <v>1.85</v>
+      </c>
+      <c r="S210">
         <v>1.95</v>
       </c>
-      <c r="S210">
-        <v>1.85</v>
-      </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7773506</v>
+        <v>7773068</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19202,64 +19232,79 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45401.875</v>
+        <v>45400.77083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G211" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H211">
+        <v>2</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>47</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L211">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M211">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="N211">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O211">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P211">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="Q211">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U211">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V211">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>0.4625</v>
+      </c>
+      <c r="AB211">
+        <v>0</v>
+      </c>
+      <c r="AC211">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC211"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
+        <v>1.909</v>
+      </c>
+      <c r="L130">
         <v>3.25</v>
       </c>
-      <c r="L130">
-        <v>3.2</v>
-      </c>
       <c r="M130">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N130">
+        <v>1.909</v>
+      </c>
+      <c r="O130">
         <v>3.5</v>
       </c>
-      <c r="O130">
-        <v>3.25</v>
-      </c>
       <c r="P130">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y130">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P131">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L132">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="N132">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="O132">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="Q132">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K133">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>2.25</v>
+      </c>
+      <c r="N133">
+        <v>3.5</v>
+      </c>
+      <c r="O133">
         <v>3.25</v>
       </c>
-      <c r="M133">
-        <v>4.2</v>
-      </c>
-      <c r="N133">
-        <v>1.909</v>
-      </c>
-      <c r="O133">
-        <v>3.5</v>
-      </c>
       <c r="P133">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
+        <v>1.025</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB133">
-        <v>-1</v>
-      </c>
-      <c r="AC133">
-        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,13 +12382,13 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>2</v>
@@ -12397,41 +12397,41 @@
         <v>48</v>
       </c>
       <c r="K134">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="N134">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="O134">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="Q134">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Z134">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.825</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M135">
+        <v>7.5</v>
+      </c>
+      <c r="N135">
+        <v>1.444</v>
+      </c>
+      <c r="O135">
+        <v>4</v>
+      </c>
+      <c r="P135">
+        <v>8</v>
+      </c>
+      <c r="Q135">
+        <v>-1.25</v>
+      </c>
+      <c r="R135">
         <v>2.05</v>
       </c>
-      <c r="N135">
-        <v>2.6</v>
-      </c>
-      <c r="O135">
-        <v>3.25</v>
-      </c>
-      <c r="P135">
-        <v>2.75</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>1.8</v>
-      </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482832</v>
+        <v>7482867</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
+        <v>5.25</v>
+      </c>
+      <c r="L136">
+        <v>3.75</v>
+      </c>
+      <c r="M136">
+        <v>1.65</v>
+      </c>
+      <c r="N136">
+        <v>9</v>
+      </c>
+      <c r="O136">
+        <v>4.5</v>
+      </c>
+      <c r="P136">
         <v>1.363</v>
       </c>
-      <c r="L136">
-        <v>5</v>
-      </c>
-      <c r="M136">
-        <v>7.5</v>
-      </c>
-      <c r="N136">
-        <v>1.444</v>
-      </c>
-      <c r="O136">
-        <v>4</v>
-      </c>
-      <c r="P136">
-        <v>8</v>
-      </c>
       <c r="Q136">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z136">
+        <v>0.4875</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="AA136">
-        <v>0.375</v>
-      </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M142">
+        <v>4.2</v>
+      </c>
+      <c r="N142">
+        <v>2.4</v>
+      </c>
+      <c r="O142">
         <v>3.1</v>
       </c>
-      <c r="N142">
-        <v>2.1</v>
-      </c>
-      <c r="O142">
-        <v>3.4</v>
-      </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S142">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA142">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528857</v>
+        <v>7528852</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,40 +13183,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P143">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
         <v>1.8</v>
@@ -13225,34 +13225,34 @@
         <v>2</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,55 +13272,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>1</v>
-      </c>
-      <c r="I144">
-        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P144">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13329,19 +13329,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528848</v>
+        <v>7528858</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,73 +13361,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -19305,6 +19305,362 @@
       </c>
       <c r="AC211">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7773508</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45400.875</v>
+      </c>
+      <c r="F212" t="s">
+        <v>32</v>
+      </c>
+      <c r="G212" t="s">
+        <v>39</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>47</v>
+      </c>
+      <c r="K212">
+        <v>1.45</v>
+      </c>
+      <c r="L212">
+        <v>4.5</v>
+      </c>
+      <c r="M212">
+        <v>6.5</v>
+      </c>
+      <c r="N212">
+        <v>1.45</v>
+      </c>
+      <c r="O212">
+        <v>4.5</v>
+      </c>
+      <c r="P212">
+        <v>7</v>
+      </c>
+      <c r="Q212">
+        <v>-1.25</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>1.8</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>1.925</v>
+      </c>
+      <c r="V212">
+        <v>1.875</v>
+      </c>
+      <c r="W212">
+        <v>0.45</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
+        <v>-1</v>
+      </c>
+      <c r="Z212">
+        <v>-0.5</v>
+      </c>
+      <c r="AA212">
+        <v>0.4</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7773509</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45401.66666666666</v>
+      </c>
+      <c r="F213" t="s">
+        <v>40</v>
+      </c>
+      <c r="G213" t="s">
+        <v>45</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>49</v>
+      </c>
+      <c r="K213">
+        <v>2</v>
+      </c>
+      <c r="L213">
+        <v>3.25</v>
+      </c>
+      <c r="M213">
+        <v>3.75</v>
+      </c>
+      <c r="N213">
+        <v>2.25</v>
+      </c>
+      <c r="O213">
+        <v>3.1</v>
+      </c>
+      <c r="P213">
+        <v>3.25</v>
+      </c>
+      <c r="Q213">
+        <v>-0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.925</v>
+      </c>
+      <c r="S213">
+        <v>1.875</v>
+      </c>
+      <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
+        <v>1.8</v>
+      </c>
+      <c r="V213">
+        <v>2</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>2.1</v>
+      </c>
+      <c r="Y213">
+        <v>-1</v>
+      </c>
+      <c r="Z213">
+        <v>-0.5</v>
+      </c>
+      <c r="AA213">
+        <v>0.4375</v>
+      </c>
+      <c r="AB213">
+        <v>0</v>
+      </c>
+      <c r="AC213">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7773506</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45401.77083333334</v>
+      </c>
+      <c r="F214" t="s">
+        <v>44</v>
+      </c>
+      <c r="G214" t="s">
+        <v>43</v>
+      </c>
+      <c r="H214">
+        <v>3</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>47</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>3.25</v>
+      </c>
+      <c r="M214">
+        <v>3.6</v>
+      </c>
+      <c r="N214">
+        <v>1.8</v>
+      </c>
+      <c r="O214">
+        <v>3.4</v>
+      </c>
+      <c r="P214">
+        <v>4.2</v>
+      </c>
+      <c r="Q214">
+        <v>-0.5</v>
+      </c>
+      <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
+        <v>1.975</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
+        <v>1.85</v>
+      </c>
+      <c r="V214">
+        <v>1.95</v>
+      </c>
+      <c r="W214">
+        <v>0.8</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.825</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC214">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7773507</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45401.77083333334</v>
+      </c>
+      <c r="F215" t="s">
+        <v>42</v>
+      </c>
+      <c r="G215" t="s">
+        <v>30</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>47</v>
+      </c>
+      <c r="K215">
+        <v>4</v>
+      </c>
+      <c r="L215">
+        <v>3.25</v>
+      </c>
+      <c r="M215">
+        <v>1.909</v>
+      </c>
+      <c r="N215">
+        <v>3.4</v>
+      </c>
+      <c r="O215">
+        <v>3</v>
+      </c>
+      <c r="P215">
+        <v>2.2</v>
+      </c>
+      <c r="Q215">
+        <v>0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.9</v>
+      </c>
+      <c r="S215">
+        <v>1.9</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>1.975</v>
+      </c>
+      <c r="V215">
+        <v>1.825</v>
+      </c>
+      <c r="W215">
+        <v>2.4</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483281</v>
+        <v>7483081</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L130">
         <v>3.25</v>
       </c>
       <c r="M130">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N130">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q130">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
+        <v>2</v>
+      </c>
+      <c r="V130">
         <v>1.8</v>
       </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483081</v>
+        <v>7483247</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
+        <v>3.2</v>
+      </c>
+      <c r="M132">
+        <v>2.25</v>
+      </c>
+      <c r="N132">
+        <v>3.5</v>
+      </c>
+      <c r="O132">
         <v>3.25</v>
       </c>
-      <c r="M132">
-        <v>2.55</v>
-      </c>
-      <c r="N132">
-        <v>3</v>
-      </c>
-      <c r="O132">
-        <v>3.3</v>
-      </c>
       <c r="P132">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
+        <v>1.909</v>
+      </c>
+      <c r="L133">
         <v>3.25</v>
       </c>
-      <c r="L133">
-        <v>3.2</v>
-      </c>
       <c r="M133">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="N133">
+        <v>1.909</v>
+      </c>
+      <c r="O133">
         <v>3.5</v>
       </c>
-      <c r="O133">
-        <v>3.25</v>
-      </c>
       <c r="P133">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y133">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,73 +13094,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H142">
         <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K142">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O142">
+        <v>3.4</v>
+      </c>
+      <c r="P142">
         <v>3.1</v>
-      </c>
-      <c r="P142">
-        <v>2.75</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M143">
+        <v>4.2</v>
+      </c>
+      <c r="N143">
+        <v>2.4</v>
+      </c>
+      <c r="O143">
         <v>3.1</v>
       </c>
-      <c r="N143">
-        <v>2.1</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA143">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528857</v>
+        <v>7528858</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,55 +13272,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>48</v>
       </c>
       <c r="K144">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N144">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O144">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V144">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W144">
         <v>-1</v>
@@ -13329,19 +13329,19 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528858</v>
+        <v>7528857</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,55 +13361,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>1</v>
-      </c>
-      <c r="I145">
-        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>48</v>
       </c>
       <c r="K145">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="N145">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="O145">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P145">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13418,19 +13418,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>2.8</v>
+        <v>4.25</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7773506</v>
+        <v>7773507</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,58 +19502,58 @@
         <v>45401.77083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>47</v>
       </c>
       <c r="K214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L214">
         <v>3.25</v>
       </c>
       <c r="M214">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N214">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
+        <v>1.9</v>
+      </c>
+      <c r="S214">
+        <v>1.9</v>
+      </c>
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.975</v>
+      </c>
+      <c r="V214">
         <v>1.825</v>
       </c>
-      <c r="S214">
-        <v>1.975</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
-      <c r="U214">
-        <v>1.85</v>
-      </c>
-      <c r="V214">
-        <v>1.95</v>
-      </c>
       <c r="W214">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19562,16 +19562,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
         <v>0.825</v>
-      </c>
-      <c r="AA214">
-        <v>-1</v>
-      </c>
-      <c r="AB214">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC214">
-        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7773507</v>
+        <v>7773506</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45401.77083333334</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H215">
+        <v>3</v>
+      </c>
+      <c r="I215">
         <v>1</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>47</v>
       </c>
       <c r="K215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N215">
+        <v>1.8</v>
+      </c>
+      <c r="O215">
         <v>3.4</v>
       </c>
-      <c r="O215">
-        <v>3</v>
-      </c>
       <c r="P215">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T215">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482832</v>
+        <v>7482867</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,73 +12471,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
+        <v>5.25</v>
+      </c>
+      <c r="L135">
+        <v>3.75</v>
+      </c>
+      <c r="M135">
+        <v>1.65</v>
+      </c>
+      <c r="N135">
+        <v>9</v>
+      </c>
+      <c r="O135">
+        <v>4.5</v>
+      </c>
+      <c r="P135">
         <v>1.363</v>
       </c>
-      <c r="L135">
-        <v>5</v>
-      </c>
-      <c r="M135">
-        <v>7.5</v>
-      </c>
-      <c r="N135">
-        <v>1.444</v>
-      </c>
-      <c r="O135">
-        <v>4</v>
-      </c>
-      <c r="P135">
-        <v>8</v>
-      </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R135">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z135">
+        <v>0.4875</v>
+      </c>
+      <c r="AA135">
         <v>-0.5</v>
       </c>
-      <c r="AA135">
-        <v>0.375</v>
-      </c>
       <c r="AB135">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
         <v>-1</v>
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482867</v>
+        <v>7482832</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,73 +12560,73 @@
         <v>45256.83333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
         <v>1</v>
       </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>5.25</v>
+        <v>1.363</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>1.65</v>
+        <v>7.5</v>
       </c>
       <c r="N136">
-        <v>9</v>
+        <v>1.444</v>
       </c>
       <c r="O136">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P136">
-        <v>1.363</v>
+        <v>8</v>
       </c>
       <c r="Q136">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
         <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB136">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L139">
         <v>3.5</v>
       </c>
       <c r="M139">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.5</v>
       </c>
       <c r="U139">
+        <v>1.85</v>
+      </c>
+      <c r="V139">
         <v>1.95</v>
       </c>
-      <c r="V139">
-        <v>1.85</v>
-      </c>
       <c r="W139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.95</v>
-      </c>
-      <c r="AC139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45262.70833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T140">
         <v>2.5</v>
       </c>
       <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
         <v>1.85</v>
       </c>
-      <c r="V140">
-        <v>1.95</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13094,40 +13094,40 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G142" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K142">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N142">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R142">
         <v>1.8</v>
@@ -13136,34 +13136,34 @@
         <v>2</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,73 +13183,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="O143">
+        <v>3.4</v>
+      </c>
+      <c r="P143">
         <v>3.1</v>
-      </c>
-      <c r="P143">
-        <v>2.75</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,73 +13272,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144">
         <v>1</v>
       </c>
-      <c r="I144">
-        <v>2</v>
-      </c>
       <c r="J144" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13349,7 +13349,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528857</v>
+        <v>7528858</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13361,55 +13361,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>48</v>
       </c>
       <c r="K145">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N145">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O145">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P145">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13418,19 +13418,19 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7773507</v>
+        <v>7773506</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,58 +19502,58 @@
         <v>45401.77083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G214" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H214">
+        <v>3</v>
+      </c>
+      <c r="I214">
         <v>1</v>
-      </c>
-      <c r="I214">
-        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>47</v>
       </c>
       <c r="K214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L214">
         <v>3.25</v>
       </c>
       <c r="M214">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N214">
+        <v>1.8</v>
+      </c>
+      <c r="O214">
         <v>3.4</v>
       </c>
-      <c r="O214">
-        <v>3</v>
-      </c>
       <c r="P214">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W214">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19562,16 +19562,16 @@
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA214">
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7773506</v>
+        <v>7773507</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,58 +19591,58 @@
         <v>45401.77083333334</v>
       </c>
       <c r="F215" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>47</v>
       </c>
       <c r="K215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L215">
         <v>3.25</v>
       </c>
       <c r="M215">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N215">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q215">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
+        <v>1.9</v>
+      </c>
+      <c r="S215">
+        <v>1.9</v>
+      </c>
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>1.975</v>
+      </c>
+      <c r="V215">
         <v>1.825</v>
       </c>
-      <c r="S215">
-        <v>1.975</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.85</v>
-      </c>
-      <c r="V215">
-        <v>1.95</v>
-      </c>
       <c r="W215">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,16 +19651,16 @@
         <v>-1</v>
       </c>
       <c r="Z215">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
         <v>0.825</v>
-      </c>
-      <c r="AA215">
-        <v>-1</v>
-      </c>
-      <c r="AB215">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC215">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7773516</t>
+  </si>
+  <si>
+    <t>7773514</t>
+  </si>
+  <si>
+    <t>7773518</t>
+  </si>
+  <si>
+    <t>7773515</t>
   </si>
   <si>
     <t>Ecuador LigaPro Serie A</t>
@@ -522,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB215"/>
+  <dimension ref="A1:AB219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,16 +631,16 @@
         <v>6215239</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45079.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -637,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <v>1.4</v>
@@ -685,10 +697,10 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
         <v>-1</v>
@@ -705,16 +717,16 @@
         <v>6215580</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45079.89583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -723,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -771,10 +783,10 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
         <v>0.7749999999999999</v>
@@ -791,16 +803,16 @@
         <v>6215695</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -809,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -857,10 +869,10 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <v>0.8999999999999999</v>
@@ -877,16 +889,16 @@
         <v>6215690</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -895,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J5">
         <v>1.727</v>
@@ -943,10 +955,10 @@
         <v>3</v>
       </c>
       <c r="Y5">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>0.8500000000000001</v>
@@ -963,16 +975,16 @@
         <v>6215692</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45081.625</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -981,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1029,10 +1041,10 @@
         <v>0.7</v>
       </c>
       <c r="Y6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA6">
         <v>-1</v>
@@ -1049,16 +1061,16 @@
         <v>6215691</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45081.72916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1067,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1115,10 +1127,10 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <v>0.8500000000000001</v>
@@ -1135,16 +1147,16 @@
         <v>6215693</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45081.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1153,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J8">
         <v>3.1</v>
@@ -1201,10 +1213,10 @@
         <v>1.3</v>
       </c>
       <c r="Y8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA8">
         <v>0.825</v>
@@ -1221,16 +1233,16 @@
         <v>6215694</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45082.875</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1239,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1287,10 +1299,10 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
         <v>0.8999999999999999</v>
@@ -1307,16 +1319,16 @@
         <v>6215699</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45086.875</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1325,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>1.533</v>
@@ -1373,10 +1385,10 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0.825</v>
@@ -1393,16 +1405,16 @@
         <v>6215698</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45087.625</v>
       </c>
       <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1411,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>2.625</v>
@@ -1459,10 +1471,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z11">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>-1</v>
@@ -1479,16 +1491,16 @@
         <v>6215241</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45087.72916666666</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1497,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>1.25</v>
@@ -1565,16 +1577,16 @@
         <v>6215700</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1583,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1631,10 +1643,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>0.925</v>
@@ -1651,16 +1663,16 @@
         <v>6215240</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45088.625</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1669,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -1717,10 +1729,10 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z14">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
         <v>-0.5</v>
@@ -1737,16 +1749,16 @@
         <v>6751437</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45088.72916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1755,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>4.75</v>
@@ -1803,10 +1815,10 @@
         <v>0.8</v>
       </c>
       <c r="Y15">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA15">
         <v>0.8</v>
@@ -1823,16 +1835,16 @@
         <v>6215697</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45088.83333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1841,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J16">
         <v>3.8</v>
@@ -1889,10 +1901,10 @@
         <v>2.1</v>
       </c>
       <c r="Y16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA16">
         <v>-1</v>
@@ -1909,16 +1921,16 @@
         <v>6215701</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45089.875</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1927,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -1995,16 +2007,16 @@
         <v>6774494</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45093.875</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2013,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>1.533</v>
@@ -2061,10 +2073,10 @@
         <v>4</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA18">
         <v>0.9750000000000001</v>
@@ -2081,16 +2093,16 @@
         <v>6774496</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45094.625</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2099,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>2.5</v>
@@ -2147,10 +2159,10 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z19">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
         <v>0.7749999999999999</v>
@@ -2167,16 +2179,16 @@
         <v>6774497</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45094.72916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2185,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>2.15</v>
@@ -2233,10 +2245,10 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
         <v>0.8999999999999999</v>
@@ -2253,16 +2265,16 @@
         <v>6215242</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45094.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2271,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2339,16 +2351,16 @@
         <v>6215702</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45095.72916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2357,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>2.6</v>
@@ -2405,10 +2417,10 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>0.825</v>
@@ -2425,16 +2437,16 @@
         <v>6774495</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45095.83333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2443,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J23">
         <v>1.85</v>
@@ -2491,10 +2503,10 @@
         <v>3.75</v>
       </c>
       <c r="Y23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>0.45</v>
@@ -2511,16 +2523,16 @@
         <v>6774499</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45096.875</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2529,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>1.909</v>
@@ -2577,10 +2589,10 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z24">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
         <v>0.8500000000000001</v>
@@ -2597,16 +2609,16 @@
         <v>6778185</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45100.875</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2615,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>1.833</v>
@@ -2663,10 +2675,10 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
         <v>-1</v>
@@ -2683,16 +2695,16 @@
         <v>6215710</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45142.875</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2701,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J26">
         <v>2.875</v>
@@ -2769,16 +2781,16 @@
         <v>6215713</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45143.625</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2787,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J27">
         <v>1.571</v>
@@ -2855,16 +2867,16 @@
         <v>6215712</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45143.72916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2873,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2941,16 +2953,16 @@
         <v>6215244</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2959,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J29">
         <v>1.75</v>
@@ -3027,16 +3039,16 @@
         <v>6215711</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45144.625</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3045,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>3.8</v>
@@ -3093,10 +3105,10 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
@@ -3113,16 +3125,16 @@
         <v>6215709</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45144.72916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3131,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J31">
         <v>1.833</v>
@@ -3199,16 +3211,16 @@
         <v>6215708</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3217,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <v>1.333</v>
@@ -3265,10 +3277,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3285,16 +3297,16 @@
         <v>6215245</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45145.875</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3303,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>1.4</v>
@@ -3351,10 +3363,10 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
@@ -3371,17 +3383,17 @@
         <v>6215718</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45149.8125</v>
       </c>
       <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
         <v>40</v>
       </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
       <c r="G34">
         <v>0</v>
       </c>
@@ -3389,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J34">
         <v>3.5</v>
@@ -3457,17 +3469,17 @@
         <v>6215717</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45149.91666666666</v>
       </c>
       <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
         <v>34</v>
       </c>
-      <c r="F35" t="s">
-        <v>30</v>
-      </c>
       <c r="G35">
         <v>0</v>
       </c>
@@ -3475,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>2.3</v>
@@ -3543,16 +3555,16 @@
         <v>6215715</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45150.625</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3561,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>1.8</v>
@@ -3609,10 +3621,10 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z36">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
         <v>0.875</v>
@@ -3629,16 +3641,16 @@
         <v>6215720</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45150.72916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3647,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J37">
         <v>2.5</v>
@@ -3715,16 +3727,16 @@
         <v>6215714</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3733,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3801,16 +3813,16 @@
         <v>6215719</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45151.625</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3819,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>1.25</v>
@@ -3867,10 +3879,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
         <v>-1</v>
@@ -3887,16 +3899,16 @@
         <v>6215716</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3905,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3973,16 +3985,16 @@
         <v>6215246</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45151.83333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3991,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4059,16 +4071,16 @@
         <v>6215724</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45154.77083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4077,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <v>1.666</v>
@@ -4125,10 +4137,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>0.8</v>
@@ -4145,16 +4157,16 @@
         <v>6215725</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45154.875</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4163,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4211,10 +4223,10 @@
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z43">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
         <v>-0.5</v>
@@ -4231,16 +4243,16 @@
         <v>6215723</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45155.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4249,7 +4261,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <v>2.75</v>
@@ -4297,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="Y44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA44">
         <v>0.875</v>
@@ -4317,16 +4329,16 @@
         <v>6215248</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45155.77083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4335,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -4403,16 +4415,16 @@
         <v>6215726</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45155.875</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4421,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4489,16 +4501,16 @@
         <v>6215722</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45156.70833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4507,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J47">
         <v>2.55</v>
@@ -4575,16 +4587,16 @@
         <v>6215247</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45156.8125</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4593,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>1.615</v>
@@ -4661,16 +4673,16 @@
         <v>6215721</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45156.91666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4679,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J49">
         <v>2.75</v>
@@ -4747,16 +4759,16 @@
         <v>6215728</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45163.875</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4765,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>1.45</v>
@@ -4833,16 +4845,16 @@
         <v>6215731</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45164.625</v>
       </c>
       <c r="E51" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4851,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J51">
         <v>1.533</v>
@@ -4899,10 +4911,10 @@
         <v>3.75</v>
       </c>
       <c r="Y51">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA51">
         <v>-1</v>
@@ -4919,16 +4931,16 @@
         <v>7096686</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45164.72916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4937,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -4985,10 +4997,10 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z52">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
         <v>-1</v>
@@ -5005,16 +5017,16 @@
         <v>7096687</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5023,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>2.8</v>
@@ -5091,16 +5103,16 @@
         <v>6215579</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45165.625</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5109,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J54">
         <v>1.615</v>
@@ -5157,10 +5169,10 @@
         <v>3.75</v>
       </c>
       <c r="Y54">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
         <v>0.925</v>
@@ -5177,16 +5189,16 @@
         <v>6215729</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45165.72916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5195,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J55">
         <v>1.666</v>
@@ -5243,10 +5255,10 @@
         <v>3.2</v>
       </c>
       <c r="Y55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA55">
         <v>-1</v>
@@ -5263,16 +5275,16 @@
         <v>6215260</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45165.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5281,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J56">
         <v>3.75</v>
@@ -5329,10 +5341,10 @@
         <v>0.6659999999999999</v>
       </c>
       <c r="Y56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA56">
         <v>0.825</v>
@@ -5349,16 +5361,16 @@
         <v>6215727</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45166.875</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5367,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -5435,16 +5447,16 @@
         <v>6215734</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45170.875</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5453,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J58">
         <v>3.2</v>
@@ -5501,10 +5513,10 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5521,16 +5533,16 @@
         <v>6215736</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45171.625</v>
       </c>
       <c r="E59" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5539,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5587,10 +5599,10 @@
         <v>2.5</v>
       </c>
       <c r="Y59">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -5607,16 +5619,16 @@
         <v>6215738</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45171.72916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5625,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5693,16 +5705,16 @@
         <v>6215261</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5711,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5779,16 +5791,16 @@
         <v>6215735</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45172.625</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5797,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J62">
         <v>2.5</v>
@@ -5845,10 +5857,10 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
         <v>-1</v>
@@ -5865,16 +5877,16 @@
         <v>7137552</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45172.72916666666</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -5883,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5931,10 +5943,10 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
         <v>0.9750000000000001</v>
@@ -5951,16 +5963,16 @@
         <v>6215733</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5969,7 +5981,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6037,16 +6049,16 @@
         <v>6215262</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45173.875</v>
       </c>
       <c r="E65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6055,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>1.444</v>
@@ -6103,10 +6115,10 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6123,16 +6135,16 @@
         <v>6215744</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45184.875</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6141,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J66">
         <v>2.625</v>
@@ -6189,10 +6201,10 @@
         <v>2.1</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA66">
         <v>0.8999999999999999</v>
@@ -6209,16 +6221,16 @@
         <v>6215743</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45185.625</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6227,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J67">
         <v>2.375</v>
@@ -6275,10 +6287,10 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
         <v>-0.5</v>
@@ -6295,16 +6307,16 @@
         <v>6215741</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45185.72916666666</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6313,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J68">
         <v>2.9</v>
@@ -6381,16 +6393,16 @@
         <v>6215739</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45185.83333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6399,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <v>2.3</v>
@@ -6467,16 +6479,16 @@
         <v>6215263</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45186.60416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6485,7 +6497,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>1.8</v>
@@ -6533,10 +6545,10 @@
         <v>2.4</v>
       </c>
       <c r="Y70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
         <v>0.925</v>
@@ -6553,16 +6565,16 @@
         <v>6215742</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45186.70833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6571,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J71">
         <v>1.25</v>
@@ -6619,10 +6631,10 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
         <v>-1</v>
@@ -6639,16 +6651,16 @@
         <v>6215264</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45186.83333333334</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6657,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6705,10 +6717,10 @@
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
         <v>-1</v>
@@ -6725,16 +6737,16 @@
         <v>6215740</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45187.875</v>
       </c>
       <c r="E73" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6743,7 +6755,7 @@
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J73">
         <v>2.2</v>
@@ -6791,10 +6803,10 @@
         <v>2.6</v>
       </c>
       <c r="Y73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA73">
         <v>1.025</v>
@@ -6811,16 +6823,16 @@
         <v>6215266</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45191.875</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6829,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6897,16 +6909,16 @@
         <v>6215750</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45192.625</v>
       </c>
       <c r="E75" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6915,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>1.444</v>
@@ -6983,16 +6995,16 @@
         <v>6215747</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45192.72916666666</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7001,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J76">
         <v>1.666</v>
@@ -7049,10 +7061,10 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z76">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
         <v>0.8999999999999999</v>
@@ -7069,16 +7081,16 @@
         <v>6215749</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7087,7 +7099,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>3.1</v>
@@ -7155,16 +7167,16 @@
         <v>6215265</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45193.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7173,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J78">
         <v>2.8</v>
@@ -7241,16 +7253,16 @@
         <v>7236128</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45193.77083333334</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7259,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J79">
         <v>1.65</v>
@@ -7307,10 +7319,10 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z79">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7327,16 +7339,16 @@
         <v>6215746</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45193.875</v>
       </c>
       <c r="E80" t="s">
+        <v>39</v>
+      </c>
+      <c r="F80" t="s">
         <v>35</v>
-      </c>
-      <c r="F80" t="s">
-        <v>31</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7345,7 +7357,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J80">
         <v>2.625</v>
@@ -7393,10 +7405,10 @@
         <v>1.875</v>
       </c>
       <c r="Y80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA80">
         <v>1</v>
@@ -7413,16 +7425,16 @@
         <v>6215748</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45194.875</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7431,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J81">
         <v>2.6</v>
@@ -7479,10 +7491,10 @@
         <v>1.25</v>
       </c>
       <c r="Y81">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA81">
         <v>-1</v>
@@ -7499,16 +7511,16 @@
         <v>6215753</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45198.875</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7517,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7585,16 +7597,16 @@
         <v>6215755</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45199.625</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7603,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>1.666</v>
@@ -7671,16 +7683,16 @@
         <v>6215752</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45199.72916666666</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7689,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <v>2.4</v>
@@ -7757,16 +7769,16 @@
         <v>6215754</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45199.83333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7775,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7823,10 +7835,10 @@
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z85">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA85">
         <v>0.825</v>
@@ -7843,16 +7855,16 @@
         <v>6215267</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45200.625</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7861,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J86">
         <v>2.8</v>
@@ -7909,10 +7921,10 @@
         <v>1.4</v>
       </c>
       <c r="Y86">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA86">
         <v>-1</v>
@@ -7929,16 +7941,16 @@
         <v>6215756</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45200.72916666666</v>
       </c>
       <c r="E87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" t="s">
         <v>41</v>
-      </c>
-      <c r="F87" t="s">
-        <v>37</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7947,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -7995,10 +8007,10 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z87">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
         <v>1.05</v>
@@ -8015,16 +8027,16 @@
         <v>6215751</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45200.83333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8033,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J88">
         <v>1.6</v>
@@ -8081,10 +8093,10 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z88">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
         <v>-1</v>
@@ -8101,16 +8113,16 @@
         <v>6215757</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45205.875</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8119,7 +8131,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J89">
         <v>2.375</v>
@@ -8167,10 +8179,10 @@
         <v>1.15</v>
       </c>
       <c r="Y89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
         <v>0.825</v>
@@ -8187,16 +8199,16 @@
         <v>6215762</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45206.625</v>
       </c>
       <c r="E90" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8205,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>1.666</v>
@@ -8253,10 +8265,10 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z90">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA90">
         <v>0.8999999999999999</v>
@@ -8273,16 +8285,16 @@
         <v>6215759</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45206.72916666666</v>
       </c>
       <c r="E91" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8291,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J91">
         <v>1.444</v>
@@ -8339,10 +8351,10 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
         <v>0.8500000000000001</v>
@@ -8359,16 +8371,16 @@
         <v>6215269</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45206.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8377,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8425,10 +8437,10 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z92">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
         <v>1</v>
@@ -8445,16 +8457,16 @@
         <v>6215758</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45207.625</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8463,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8511,10 +8523,10 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>-1</v>
@@ -8531,16 +8543,16 @@
         <v>6215760</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45207.72916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8549,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J94">
         <v>1.166</v>
@@ -8597,10 +8609,10 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z94">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
         <v>-1</v>
@@ -8617,16 +8629,16 @@
         <v>6215270</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45207.83333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8635,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8703,16 +8715,16 @@
         <v>6215761</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45208.875</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8721,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J96">
         <v>1.8</v>
@@ -8769,10 +8781,10 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z96">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
         <v>-1</v>
@@ -8789,16 +8801,16 @@
         <v>6215765</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45219.875</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8807,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>2.8</v>
@@ -8875,16 +8887,16 @@
         <v>6215768</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45220.625</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8893,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J98">
         <v>2.55</v>
@@ -8941,10 +8953,10 @@
         <v>0.909</v>
       </c>
       <c r="Y98">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA98">
         <v>-1</v>
@@ -8961,16 +8973,16 @@
         <v>6215764</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45220.72916666666</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8979,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <v>1.909</v>
@@ -9047,16 +9059,16 @@
         <v>6215767</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9065,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J100">
         <v>1.285</v>
@@ -9113,10 +9125,10 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z100">
-        <v>0.7749999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AA100">
         <v>-1</v>
@@ -9133,16 +9145,16 @@
         <v>6215271</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45221.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9151,7 +9163,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J101">
         <v>3.2</v>
@@ -9199,10 +9211,10 @@
         <v>1.25</v>
       </c>
       <c r="Y101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA101">
         <v>0.7749999999999999</v>
@@ -9219,16 +9231,16 @@
         <v>6215763</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9237,7 +9249,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J102">
         <v>4.5</v>
@@ -9285,10 +9297,10 @@
         <v>0.55</v>
       </c>
       <c r="Y102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA102">
         <v>-1</v>
@@ -9305,16 +9317,16 @@
         <v>6215272</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9323,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9371,10 +9383,10 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z103">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA103">
         <v>-1</v>
@@ -9391,16 +9403,16 @@
         <v>6215766</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45222.875</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9409,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>1.7</v>
@@ -9477,16 +9489,16 @@
         <v>6215773</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45226.875</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9495,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9543,10 +9555,10 @@
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
         <v>0.875</v>
@@ -9563,16 +9575,16 @@
         <v>6215772</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45227.625</v>
       </c>
       <c r="E106" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9581,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9629,10 +9641,10 @@
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
         <v>-1</v>
@@ -9649,16 +9661,16 @@
         <v>6215771</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45227.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9667,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>2.2</v>
@@ -9715,10 +9727,10 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
         <v>0.8500000000000001</v>
@@ -9735,16 +9747,16 @@
         <v>6215769</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45228.625</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>4</v>
@@ -9753,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J108">
         <v>1.6</v>
@@ -9801,10 +9813,10 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
         <v>0.8500000000000001</v>
@@ -9821,16 +9833,16 @@
         <v>6215273</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45228.72916666666</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -9839,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J109">
         <v>1.75</v>
@@ -9887,10 +9899,10 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z109">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
         <v>0.925</v>
@@ -9907,16 +9919,16 @@
         <v>6215774</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9925,7 +9937,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J110">
         <v>3.1</v>
@@ -9973,10 +9985,10 @@
         <v>1.7</v>
       </c>
       <c r="Y110">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA110">
         <v>0.875</v>
@@ -9993,16 +10005,16 @@
         <v>6215770</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45229.875</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10011,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J111">
         <v>1.4</v>
@@ -10059,10 +10071,10 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
         <v>-1</v>
@@ -10079,16 +10091,16 @@
         <v>7335615</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45231.875</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10097,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J112">
         <v>1.615</v>
@@ -10145,10 +10157,10 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10165,16 +10177,16 @@
         <v>6215275</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45233.875</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10183,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10251,16 +10263,16 @@
         <v>6215777</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45234.625</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10269,7 +10281,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10337,16 +10349,16 @@
         <v>6215778</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45234.72916666666</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10355,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J115">
         <v>3.6</v>
@@ -10423,16 +10435,16 @@
         <v>6215276</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10441,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10489,10 +10501,10 @@
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z116">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
         <v>-1</v>
@@ -10509,16 +10521,16 @@
         <v>6215779</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10527,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J117">
         <v>2.8</v>
@@ -10575,10 +10587,10 @@
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z117">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
         <v>-1</v>
@@ -10595,16 +10607,16 @@
         <v>6215776</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10613,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J118">
         <v>2.75</v>
@@ -10661,10 +10673,10 @@
         <v>1.45</v>
       </c>
       <c r="Y118">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA118">
         <v>-1</v>
@@ -10681,16 +10693,16 @@
         <v>6215775</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10699,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J119">
         <v>1.75</v>
@@ -10747,10 +10759,10 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
         <v>0.8</v>
@@ -10767,16 +10779,16 @@
         <v>7420901</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45236.875</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10785,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J120">
         <v>1.5</v>
@@ -10853,17 +10865,17 @@
         <v>6215274</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45238.875</v>
       </c>
       <c r="E121" t="s">
+        <v>37</v>
+      </c>
+      <c r="F121" t="s">
         <v>33</v>
       </c>
-      <c r="F121" t="s">
-        <v>29</v>
-      </c>
       <c r="G121">
         <v>0</v>
       </c>
@@ -10871,7 +10883,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10919,10 +10931,10 @@
         <v>1.3</v>
       </c>
       <c r="Y121">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA121">
         <v>-1</v>
@@ -10939,16 +10951,16 @@
         <v>6215785</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45240.875</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10957,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J122">
         <v>1.727</v>
@@ -11005,10 +11017,10 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z122">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11025,16 +11037,16 @@
         <v>6215786</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45241.625</v>
       </c>
       <c r="E123" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" t="s">
         <v>36</v>
-      </c>
-      <c r="F123" t="s">
-        <v>32</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11043,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J123">
         <v>1.333</v>
@@ -11091,10 +11103,10 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z123">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11111,16 +11123,16 @@
         <v>6215784</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45241.72916666666</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11129,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11177,10 +11189,10 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11197,16 +11209,16 @@
         <v>6215277</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45241.83333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11215,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J125">
         <v>3.2</v>
@@ -11263,10 +11275,10 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
@@ -11283,16 +11295,16 @@
         <v>6215782</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E126" t="s">
+        <v>42</v>
+      </c>
+      <c r="F126" t="s">
         <v>38</v>
-      </c>
-      <c r="F126" t="s">
-        <v>34</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11301,7 +11313,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>1.4</v>
@@ -11349,10 +11361,10 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z126">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
         <v>0.9750000000000001</v>
@@ -11369,16 +11381,16 @@
         <v>6215578</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45242.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11387,7 +11399,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J127">
         <v>4</v>
@@ -11435,10 +11447,10 @@
         <v>0.75</v>
       </c>
       <c r="Y127">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA127">
         <v>-0.5</v>
@@ -11455,16 +11467,16 @@
         <v>6215783</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45242.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11473,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>2.15</v>
@@ -11541,17 +11553,17 @@
         <v>6215781</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45243.875</v>
       </c>
       <c r="E129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s">
         <v>39</v>
       </c>
-      <c r="F129" t="s">
-        <v>35</v>
-      </c>
       <c r="G129">
         <v>0</v>
       </c>
@@ -11559,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J129">
         <v>1.727</v>
@@ -11627,17 +11639,17 @@
         <v>7483281</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E130" t="s">
+        <v>47</v>
+      </c>
+      <c r="F130" t="s">
         <v>43</v>
       </c>
-      <c r="F130" t="s">
-        <v>39</v>
-      </c>
       <c r="G130">
         <v>0</v>
       </c>
@@ -11645,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J130">
         <v>1.909</v>
@@ -11710,85 +11722,85 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J131">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="K131">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="L131">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="M131">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="P131">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11796,70 +11808,70 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J132">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="K132">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L132">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N132">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O132">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="P132">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -11868,13 +11880,13 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11885,16 +11897,16 @@
         <v>7483247</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11903,7 +11915,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J133">
         <v>3.25</v>
@@ -11951,10 +11963,10 @@
         <v>1.1</v>
       </c>
       <c r="Y133">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA133">
         <v>-1</v>
@@ -11968,85 +11980,85 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483188</v>
+        <v>7483306</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J134">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="K134">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L134">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="M134">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="N134">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="O134">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="P134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q134">
+        <v>1.925</v>
+      </c>
+      <c r="R134">
+        <v>1.875</v>
+      </c>
+      <c r="S134">
+        <v>2.25</v>
+      </c>
+      <c r="T134">
         <v>1.8</v>
       </c>
-      <c r="R134">
-        <v>2</v>
-      </c>
-      <c r="S134">
-        <v>2.5</v>
-      </c>
-      <c r="T134">
-        <v>1.975</v>
-      </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V134">
         <v>-1</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X134">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12054,65 +12066,65 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7482867</v>
+        <v>7483188</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J135">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="K135">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L135">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="M135">
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="N135">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O135">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="P135">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S135">
         <v>2.5</v>
       </c>
       <c r="T135">
+        <v>1.975</v>
+      </c>
+      <c r="U135">
         <v>1.825</v>
       </c>
-      <c r="U135">
-        <v>1.975</v>
-      </c>
       <c r="V135">
         <v>-1</v>
       </c>
@@ -12120,19 +12132,19 @@
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>0.363</v>
+        <v>1.75</v>
       </c>
       <c r="Y135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA135">
+        <v>-1</v>
+      </c>
+      <c r="AB135">
         <v>0.825</v>
-      </c>
-      <c r="AB135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12140,82 +12152,82 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482832</v>
+        <v>7482867</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J136">
+        <v>5.25</v>
+      </c>
+      <c r="K136">
+        <v>3.75</v>
+      </c>
+      <c r="L136">
+        <v>1.65</v>
+      </c>
+      <c r="M136">
+        <v>9</v>
+      </c>
+      <c r="N136">
+        <v>4.5</v>
+      </c>
+      <c r="O136">
         <v>1.363</v>
       </c>
-      <c r="K136">
-        <v>5</v>
-      </c>
-      <c r="L136">
-        <v>7.5</v>
-      </c>
-      <c r="M136">
-        <v>1.444</v>
-      </c>
-      <c r="N136">
-        <v>4</v>
-      </c>
-      <c r="O136">
-        <v>8</v>
-      </c>
       <c r="P136">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q136">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R136">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
         <v>2.5</v>
       </c>
       <c r="T136">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U136">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W136">
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z136">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB136">
         <v>-1</v>
@@ -12226,85 +12238,85 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J137">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="K137">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="L137">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="M137">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="N137">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O137">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="P137">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q137">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T137">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W137">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z137">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AA137">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12315,16 +12327,16 @@
         <v>7528851</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45262.60416666666</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12333,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J138">
         <v>2.5</v>
@@ -12381,10 +12393,10 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z138">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
         <v>0.825</v>
@@ -12401,16 +12413,16 @@
         <v>7528859</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45262.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12419,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J139">
         <v>1.727</v>
@@ -12467,10 +12479,10 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z139">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
         <v>0.95</v>
@@ -12487,16 +12499,16 @@
         <v>7528849</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45262.70833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12505,7 +12517,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J140">
         <v>1.833</v>
@@ -12553,10 +12565,10 @@
         <v>2</v>
       </c>
       <c r="Y140">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
         <v>-1</v>
@@ -12573,16 +12585,16 @@
         <v>7528850</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45262.83333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>3</v>
@@ -12591,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J141">
         <v>1.25</v>
@@ -12639,10 +12651,10 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
         <v>0.8</v>
@@ -12659,16 +12671,16 @@
         <v>7528857</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12677,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J142">
         <v>1.533</v>
@@ -12725,10 +12737,10 @@
         <v>4.25</v>
       </c>
       <c r="Y142">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
@@ -12745,16 +12757,16 @@
         <v>7528852</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12763,7 +12775,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>2.1</v>
@@ -12831,16 +12843,16 @@
         <v>7528848</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12849,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J144">
         <v>1.75</v>
@@ -12897,10 +12909,10 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z144">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
         <v>0.8</v>
@@ -12917,16 +12929,16 @@
         <v>7528858</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12935,7 +12947,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J145">
         <v>2.2</v>
@@ -12983,10 +12995,10 @@
         <v>2.8</v>
       </c>
       <c r="Y145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
         <v>0.8500000000000001</v>
@@ -13003,16 +13015,16 @@
         <v>7557483</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45270.77083333334</v>
       </c>
       <c r="E146" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13021,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13089,16 +13101,16 @@
         <v>7557484</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45277.77083333334</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G147">
         <v>4</v>
@@ -13107,7 +13119,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13155,10 +13167,10 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z147">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
         <v>0.8</v>
@@ -13175,16 +13187,16 @@
         <v>7773060</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45352.875</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13193,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J148">
         <v>3.1</v>
@@ -13241,10 +13253,10 @@
         <v>1</v>
       </c>
       <c r="Y148">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
@@ -13261,16 +13273,16 @@
         <v>7773462</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45353.625</v>
       </c>
       <c r="E149" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13279,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J149">
         <v>1.9</v>
@@ -13327,10 +13339,10 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
         <v>0.95</v>
@@ -13347,16 +13359,16 @@
         <v>7773461</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45353.72916666666</v>
       </c>
       <c r="E150" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13365,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J150">
         <v>1.7</v>
@@ -13413,10 +13425,10 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z150">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
         <v>-1</v>
@@ -13433,16 +13445,16 @@
         <v>7773458</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13451,7 +13463,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13499,10 +13511,10 @@
         <v>1.55</v>
       </c>
       <c r="Y151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA151">
         <v>0.8999999999999999</v>
@@ -13519,16 +13531,16 @@
         <v>7798121</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45354.625</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13537,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J152">
         <v>1.75</v>
@@ -13585,10 +13597,10 @@
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
         <v>0.45</v>
@@ -13605,16 +13617,16 @@
         <v>7773460</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45354.72916666666</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13623,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>1.533</v>
@@ -13671,10 +13683,10 @@
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z153">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA153">
         <v>-1</v>
@@ -13691,16 +13703,16 @@
         <v>7773780</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13709,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J154">
         <v>1.2</v>
@@ -13757,10 +13769,10 @@
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z154">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
         <v>-1</v>
@@ -13777,16 +13789,16 @@
         <v>7798120</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45355.875</v>
       </c>
       <c r="E155" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13795,7 +13807,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J155">
         <v>1.166</v>
@@ -13843,10 +13855,10 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z155">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA155">
         <v>0</v>
@@ -13863,16 +13875,16 @@
         <v>7773468</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>45359.875</v>
       </c>
       <c r="E156" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13881,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J156">
         <v>1.533</v>
@@ -13949,16 +13961,16 @@
         <v>7773466</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45360.625</v>
       </c>
       <c r="E157" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13967,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>2.6</v>
@@ -14035,16 +14047,16 @@
         <v>7773779</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45360.72916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14053,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J158">
         <v>2.5</v>
@@ -14101,10 +14113,10 @@
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
         <v>0.8500000000000001</v>
@@ -14121,16 +14133,16 @@
         <v>7773061</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>45360.83333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14139,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14187,10 +14199,10 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
         <v>0.8</v>
@@ -14207,16 +14219,16 @@
         <v>7773467</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>45361.625</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14225,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J160">
         <v>2</v>
@@ -14273,10 +14285,10 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z160">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
         <v>0.8999999999999999</v>
@@ -14293,16 +14305,16 @@
         <v>7773469</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>45361.72916666666</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14311,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>1.833</v>
@@ -14379,16 +14391,16 @@
         <v>7773464</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45361.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14397,7 +14409,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J162">
         <v>5</v>
@@ -14445,10 +14457,10 @@
         <v>0.363</v>
       </c>
       <c r="Y162">
+        <v>-1</v>
+      </c>
+      <c r="Z162">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z162">
-        <v>-1</v>
       </c>
       <c r="AA162">
         <v>0.7749999999999999</v>
@@ -14465,16 +14477,16 @@
         <v>7773465</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45362.875</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14483,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14531,10 +14543,10 @@
         <v>0.833</v>
       </c>
       <c r="Y163">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -14551,16 +14563,16 @@
         <v>7773475</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>45366.77083333334</v>
       </c>
       <c r="E164" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G164">
         <v>3</v>
@@ -14569,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>2</v>
@@ -14617,10 +14629,10 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
         <v>0.7749999999999999</v>
@@ -14637,16 +14649,16 @@
         <v>7773062</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>45366.875</v>
       </c>
       <c r="E165" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14655,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>1.2</v>
@@ -14703,10 +14715,10 @@
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z165">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
         <v>0.3875</v>
@@ -14723,16 +14735,16 @@
         <v>7773778</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>45367.625</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14741,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>1.727</v>
@@ -14789,10 +14801,10 @@
         <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z166">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
         <v>0.9750000000000001</v>
@@ -14809,16 +14821,16 @@
         <v>7773471</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45367.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14827,7 +14839,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>1.533</v>
@@ -14875,10 +14887,10 @@
         <v>3.5</v>
       </c>
       <c r="Y167">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA167">
         <v>0.5</v>
@@ -14895,16 +14907,16 @@
         <v>7773473</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45367.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14913,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>1.615</v>
@@ -14981,16 +14993,16 @@
         <v>7773474</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>45368.625</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G169">
         <v>3</v>
@@ -14999,7 +15011,7 @@
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J169">
         <v>1.533</v>
@@ -15067,16 +15079,16 @@
         <v>7773472</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>45368.72916666666</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15085,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J170">
         <v>2.05</v>
@@ -15133,10 +15145,10 @@
         <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
         <v>-0.5</v>
@@ -15153,16 +15165,16 @@
         <v>7773470</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2">
         <v>45368.83333333334</v>
       </c>
       <c r="E171" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15171,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J171">
         <v>2.2</v>
@@ -15219,10 +15231,10 @@
         <v>0.8</v>
       </c>
       <c r="Y171">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA171">
         <v>-1</v>
@@ -15239,16 +15251,16 @@
         <v>7773480</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D172" s="2">
         <v>45370.77083333334</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15257,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15305,10 +15317,10 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z172">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
         <v>0.95</v>
@@ -15325,16 +15337,16 @@
         <v>7773777</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2">
         <v>45370.875</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15343,7 +15355,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15391,10 +15403,10 @@
         <v>4.75</v>
       </c>
       <c r="Y173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA173">
         <v>0.8</v>
@@ -15411,16 +15423,16 @@
         <v>7977166</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D174" s="2">
         <v>45371.77083333334</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15429,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J174">
         <v>2.15</v>
@@ -15497,16 +15509,16 @@
         <v>7773478</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <v>45371.875</v>
       </c>
       <c r="E175" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15515,7 +15527,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J175">
         <v>1.5</v>
@@ -15563,10 +15575,10 @@
         <v>2.6</v>
       </c>
       <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z175">
-        <v>-1</v>
       </c>
       <c r="AA175">
         <v>0.8500000000000001</v>
@@ -15583,16 +15595,16 @@
         <v>7773063</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D176" s="2">
         <v>45372.77083333334</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15601,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J176">
         <v>3.25</v>
@@ -15669,16 +15681,16 @@
         <v>7773481</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D177" s="2">
         <v>45372.875</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15687,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>1.666</v>
@@ -15735,10 +15747,10 @@
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
         <v>-0.5</v>
@@ -15755,16 +15767,16 @@
         <v>7773776</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
         <v>45374.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15773,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15841,16 +15853,16 @@
         <v>7773486</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D179" s="2">
         <v>45375.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15859,7 +15871,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J179">
         <v>2.1</v>
@@ -15907,10 +15919,10 @@
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
         <v>0</v>
@@ -15927,16 +15939,16 @@
         <v>7773485</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D180" s="2">
         <v>45375.72916666666</v>
       </c>
       <c r="E180" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F180" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15945,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J180">
         <v>2.25</v>
@@ -16013,16 +16025,16 @@
         <v>7773064</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D181" s="2">
         <v>45375.83333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16031,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J181">
         <v>1.615</v>
@@ -16099,16 +16111,16 @@
         <v>7773487</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D182" s="2">
         <v>45376.77083333334</v>
       </c>
       <c r="E182" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F182" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16117,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J182">
         <v>1.5</v>
@@ -16185,16 +16197,16 @@
         <v>7773482</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D183" s="2">
         <v>45376.875</v>
       </c>
       <c r="E183" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16203,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J183">
         <v>3</v>
@@ -16271,16 +16283,16 @@
         <v>7773775</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D184" s="2">
         <v>45379.875</v>
       </c>
       <c r="E184" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G184">
         <v>5</v>
@@ -16289,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J184">
         <v>1.2</v>
@@ -16337,10 +16349,10 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z184">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
         <v>0.8</v>
@@ -16357,16 +16369,16 @@
         <v>7773488</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D185" s="2">
         <v>45380.875</v>
       </c>
       <c r="E185" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16375,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J185">
         <v>3.1</v>
@@ -16443,16 +16455,16 @@
         <v>8016804</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D186" s="2">
         <v>45381.625</v>
       </c>
       <c r="E186" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F186" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16461,7 +16473,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J186">
         <v>2.55</v>
@@ -16509,10 +16521,10 @@
         <v>1.4</v>
       </c>
       <c r="Y186">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA186">
         <v>-0.5</v>
@@ -16529,16 +16541,16 @@
         <v>8018935</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D187" s="2">
         <v>45381.72916666666</v>
       </c>
       <c r="E187" t="s">
+        <v>41</v>
+      </c>
+      <c r="F187" t="s">
         <v>37</v>
-      </c>
-      <c r="F187" t="s">
-        <v>33</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16547,7 +16559,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J187">
         <v>2.7</v>
@@ -16595,10 +16607,10 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z187">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
         <v>-1</v>
@@ -16615,16 +16627,16 @@
         <v>7773490</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D188" s="2">
         <v>45381.83333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16633,7 +16645,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J188">
         <v>3.1</v>
@@ -16681,10 +16693,10 @@
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z188">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
         <v>-1</v>
@@ -16701,16 +16713,16 @@
         <v>7773493</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2">
         <v>45382.625</v>
       </c>
       <c r="E189" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G189">
         <v>5</v>
@@ -16719,7 +16731,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>1.4</v>
@@ -16767,10 +16779,10 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
         <v>0.8999999999999999</v>
@@ -16787,16 +16799,16 @@
         <v>7773492</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D190" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E190" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16805,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J190">
         <v>2.1</v>
@@ -16873,16 +16885,16 @@
         <v>8018936</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D191" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16891,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J191">
         <v>2.375</v>
@@ -16959,16 +16971,16 @@
         <v>8040559</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D192" s="2">
         <v>45387.875</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16977,7 +16989,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J192">
         <v>1.85</v>
@@ -17045,16 +17057,16 @@
         <v>7773497</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D193" s="2">
         <v>45388.625</v>
       </c>
       <c r="E193" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F193" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17063,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J193">
         <v>1.363</v>
@@ -17111,10 +17123,10 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z193">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
         <v>0.4125</v>
@@ -17131,16 +17143,16 @@
         <v>7773495</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D194" s="2">
         <v>45388.72916666666</v>
       </c>
       <c r="E194" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17149,7 +17161,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J194">
         <v>4</v>
@@ -17197,10 +17209,10 @@
         <v>0.95</v>
       </c>
       <c r="Y194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA194">
         <v>0.425</v>
@@ -17217,16 +17229,16 @@
         <v>8040560</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D195" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17235,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J195">
         <v>1.6</v>
@@ -17283,10 +17295,10 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z195">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
         <v>0.825</v>
@@ -17303,16 +17315,16 @@
         <v>7773066</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D196" s="2">
         <v>45389.625</v>
       </c>
       <c r="E196" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17321,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J196">
         <v>1.3</v>
@@ -17369,10 +17381,10 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
         <v>0.45</v>
@@ -17389,16 +17401,16 @@
         <v>8040561</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2">
         <v>45389.72916666666</v>
       </c>
       <c r="E197" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F197" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17407,7 +17419,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J197">
         <v>2.8</v>
@@ -17455,10 +17467,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z197">
-        <v>-1</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -17475,16 +17487,16 @@
         <v>8040562</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D198" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F198" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17493,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J198">
         <v>2.7</v>
@@ -17561,16 +17573,16 @@
         <v>7773774</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2">
         <v>45390.875</v>
       </c>
       <c r="E199" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F199" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17579,7 +17591,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17627,10 +17639,10 @@
         <v>1.3</v>
       </c>
       <c r="Y199">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA199">
         <v>-1</v>
@@ -17647,16 +17659,16 @@
         <v>7773501</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D200" s="2">
         <v>45394.875</v>
       </c>
       <c r="E200" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F200" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -17665,7 +17677,7 @@
         <v>3</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J200">
         <v>3</v>
@@ -17733,16 +17745,16 @@
         <v>7773503</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D201" s="2">
         <v>45395.625</v>
       </c>
       <c r="E201" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17751,7 +17763,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17799,10 +17811,10 @@
         <v>2.1</v>
       </c>
       <c r="Y201">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA201">
         <v>0.925</v>
@@ -17819,16 +17831,16 @@
         <v>8069719</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D202" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17837,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J202">
         <v>1.95</v>
@@ -17905,16 +17917,16 @@
         <v>8069537</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D203" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17923,7 +17935,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J203">
         <v>1.28</v>
@@ -17971,10 +17983,10 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z203">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
         <v>-1</v>
@@ -17991,16 +18003,16 @@
         <v>7773067</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D204" s="2">
         <v>45396.625</v>
       </c>
       <c r="E204" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F204" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18009,7 +18021,7 @@
         <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J204">
         <v>2.3</v>
@@ -18077,16 +18089,16 @@
         <v>8069720</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D205" s="2">
         <v>45396.72916666666</v>
       </c>
       <c r="E205" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F205" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18095,7 +18107,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J205">
         <v>1.7</v>
@@ -18143,10 +18155,10 @@
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
         <v>-1</v>
@@ -18163,16 +18175,16 @@
         <v>8069721</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D206" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18181,7 +18193,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J206">
         <v>4</v>
@@ -18229,10 +18241,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="Y206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA206">
         <v>0.9750000000000001</v>
@@ -18249,16 +18261,16 @@
         <v>7773504</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D207" s="2">
         <v>45397.875</v>
       </c>
       <c r="E207" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18267,7 +18279,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J207">
         <v>1.363</v>
@@ -18315,10 +18327,10 @@
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z207">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AA207">
         <v>0.4375</v>
@@ -18335,16 +18347,16 @@
         <v>7773511</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D208" s="2">
         <v>45399.77083333334</v>
       </c>
       <c r="E208" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18353,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J208">
         <v>2.4</v>
@@ -18421,16 +18433,16 @@
         <v>7773510</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D209" s="2">
         <v>45399.875</v>
       </c>
       <c r="E209" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F209" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -18439,7 +18451,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J209">
         <v>1.95</v>
@@ -18487,10 +18499,10 @@
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z209">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
         <v>0.8999999999999999</v>
@@ -18507,16 +18519,16 @@
         <v>7773772</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D210" s="2">
         <v>45400.66666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18525,7 +18537,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J210">
         <v>4.5</v>
@@ -18593,16 +18605,16 @@
         <v>7773068</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D211" s="2">
         <v>45400.77083333334</v>
       </c>
       <c r="E211" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18611,7 +18623,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J211">
         <v>1.333</v>
@@ -18659,10 +18671,10 @@
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z211">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA211">
         <v>0</v>
@@ -18679,16 +18691,16 @@
         <v>7773508</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D212" s="2">
         <v>45400.875</v>
       </c>
       <c r="E212" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -18697,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J212">
         <v>1.45</v>
@@ -18745,10 +18757,10 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z212">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AA212">
         <v>-1</v>
@@ -18765,16 +18777,16 @@
         <v>7773509</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D213" s="2">
         <v>45401.66666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F213" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18783,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J213">
         <v>2</v>
@@ -18851,16 +18863,16 @@
         <v>7773506</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D214" s="2">
         <v>45401.77083333334</v>
       </c>
       <c r="E214" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -18869,7 +18881,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J214">
         <v>2</v>
@@ -18917,10 +18929,10 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z214">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
         <v>0.8500000000000001</v>
@@ -18937,16 +18949,16 @@
         <v>7773507</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D215" s="2">
         <v>45401.77083333334</v>
       </c>
       <c r="E215" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -18955,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J215">
         <v>4</v>
@@ -19003,16 +19015,276 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z215">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
         <v>-1</v>
       </c>
       <c r="AB215">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="216" spans="1:28">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>27</v>
+      </c>
+      <c r="C216" t="s">
+        <v>31</v>
+      </c>
+      <c r="D216" s="2">
+        <v>45408.875</v>
+      </c>
+      <c r="E216" t="s">
+        <v>39</v>
+      </c>
+      <c r="F216" t="s">
+        <v>34</v>
+      </c>
+      <c r="J216">
+        <v>1.909</v>
+      </c>
+      <c r="K216">
+        <v>3.5</v>
+      </c>
+      <c r="L216">
+        <v>3.75</v>
+      </c>
+      <c r="M216">
+        <v>1.909</v>
+      </c>
+      <c r="N216">
+        <v>3.5</v>
+      </c>
+      <c r="O216">
+        <v>3.75</v>
+      </c>
+      <c r="P216">
+        <v>-0.5</v>
+      </c>
+      <c r="Q216">
+        <v>1.975</v>
+      </c>
+      <c r="R216">
+        <v>1.825</v>
+      </c>
+      <c r="S216">
+        <v>2.5</v>
+      </c>
+      <c r="T216">
+        <v>1.85</v>
+      </c>
+      <c r="U216">
+        <v>1.95</v>
+      </c>
+      <c r="V216">
+        <v>0</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:28">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217" t="s">
+        <v>31</v>
+      </c>
+      <c r="D217" s="2">
+        <v>45409.625</v>
+      </c>
+      <c r="E217" t="s">
+        <v>40</v>
+      </c>
+      <c r="F217" t="s">
+        <v>36</v>
+      </c>
+      <c r="J217">
+        <v>1.222</v>
+      </c>
+      <c r="K217">
+        <v>6.5</v>
+      </c>
+      <c r="L217">
+        <v>10</v>
+      </c>
+      <c r="M217">
+        <v>1.222</v>
+      </c>
+      <c r="N217">
+        <v>6.5</v>
+      </c>
+      <c r="O217">
+        <v>9.5</v>
+      </c>
+      <c r="P217">
+        <v>-1.75</v>
+      </c>
+      <c r="Q217">
+        <v>1.875</v>
+      </c>
+      <c r="R217">
+        <v>1.925</v>
+      </c>
+      <c r="S217">
+        <v>3</v>
+      </c>
+      <c r="T217">
+        <v>1.8</v>
+      </c>
+      <c r="U217">
+        <v>2</v>
+      </c>
+      <c r="V217">
+        <v>0</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:28">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>29</v>
+      </c>
+      <c r="C218" t="s">
+        <v>31</v>
+      </c>
+      <c r="D218" s="2">
+        <v>45409.72916666666</v>
+      </c>
+      <c r="E218" t="s">
+        <v>41</v>
+      </c>
+      <c r="F218" t="s">
+        <v>45</v>
+      </c>
+      <c r="J218">
+        <v>2.5</v>
+      </c>
+      <c r="K218">
+        <v>3</v>
+      </c>
+      <c r="L218">
+        <v>2.9</v>
+      </c>
+      <c r="M218">
+        <v>2.375</v>
+      </c>
+      <c r="N218">
+        <v>3</v>
+      </c>
+      <c r="O218">
+        <v>3.1</v>
+      </c>
+      <c r="P218">
+        <v>-0.25</v>
+      </c>
+      <c r="Q218">
+        <v>2.025</v>
+      </c>
+      <c r="R218">
+        <v>1.775</v>
+      </c>
+      <c r="S218">
+        <v>2.25</v>
+      </c>
+      <c r="T218">
+        <v>1.975</v>
+      </c>
+      <c r="U218">
+        <v>1.825</v>
+      </c>
+      <c r="V218">
+        <v>0</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219" t="s">
+        <v>31</v>
+      </c>
+      <c r="D219" s="2">
+        <v>45409.83333333334</v>
+      </c>
+      <c r="E219" t="s">
+        <v>33</v>
+      </c>
+      <c r="F219" t="s">
+        <v>37</v>
+      </c>
+      <c r="J219">
+        <v>1.4</v>
+      </c>
+      <c r="K219">
+        <v>4.5</v>
+      </c>
+      <c r="L219">
+        <v>7</v>
+      </c>
+      <c r="M219">
+        <v>1.4</v>
+      </c>
+      <c r="N219">
+        <v>4.5</v>
+      </c>
+      <c r="O219">
+        <v>7</v>
+      </c>
+      <c r="P219">
+        <v>-1.25</v>
+      </c>
+      <c r="Q219">
+        <v>1.9</v>
+      </c>
+      <c r="R219">
+        <v>1.9</v>
+      </c>
+      <c r="S219">
+        <v>2.75</v>
+      </c>
+      <c r="T219">
+        <v>1.95</v>
+      </c>
+      <c r="U219">
+        <v>1.85</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>7773515</t>
+  </si>
+  <si>
+    <t>7773512</t>
+  </si>
+  <si>
+    <t>7773517</t>
   </si>
   <si>
     <t>Ecuador LigaPro Serie A</t>
@@ -534,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB219"/>
+  <dimension ref="A1:AB221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,16 +637,16 @@
         <v>6215239</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45079.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -649,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J2">
         <v>1.4</v>
@@ -717,16 +723,16 @@
         <v>6215580</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45079.89583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -735,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -803,16 +809,16 @@
         <v>6215695</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -821,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -889,16 +895,16 @@
         <v>6215690</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -907,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J5">
         <v>1.727</v>
@@ -975,16 +981,16 @@
         <v>6215692</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45081.625</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -993,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1061,16 +1067,16 @@
         <v>6215691</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45081.72916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1079,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1147,16 +1153,16 @@
         <v>6215693</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45081.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1165,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>3.1</v>
@@ -1233,16 +1239,16 @@
         <v>6215694</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45082.875</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1251,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1319,16 +1325,16 @@
         <v>6215699</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45086.875</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1337,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J10">
         <v>1.533</v>
@@ -1405,16 +1411,16 @@
         <v>6215698</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45087.625</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1423,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J11">
         <v>2.625</v>
@@ -1491,16 +1497,16 @@
         <v>6215241</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45087.72916666666</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1509,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J12">
         <v>1.25</v>
@@ -1577,16 +1583,16 @@
         <v>6215700</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1595,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1663,16 +1669,16 @@
         <v>6215240</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45088.625</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1681,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -1749,16 +1755,16 @@
         <v>6751437</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45088.72916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1767,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J15">
         <v>4.75</v>
@@ -1835,16 +1841,16 @@
         <v>6215697</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45088.83333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1853,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J16">
         <v>3.8</v>
@@ -1921,16 +1927,16 @@
         <v>6215701</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45089.875</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1939,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -2007,16 +2013,16 @@
         <v>6774494</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45093.875</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2025,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J18">
         <v>1.533</v>
@@ -2093,16 +2099,16 @@
         <v>6774496</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45094.625</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2111,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J19">
         <v>2.5</v>
@@ -2179,16 +2185,16 @@
         <v>6774497</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45094.72916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2197,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J20">
         <v>2.15</v>
@@ -2265,16 +2271,16 @@
         <v>6215242</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45094.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2283,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2351,16 +2357,16 @@
         <v>6215702</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45095.72916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2369,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J22">
         <v>2.6</v>
@@ -2437,16 +2443,16 @@
         <v>6774495</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45095.83333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2455,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>1.85</v>
@@ -2523,16 +2529,16 @@
         <v>6774499</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45096.875</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2541,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <v>1.909</v>
@@ -2609,17 +2615,17 @@
         <v>6778185</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45100.875</v>
       </c>
       <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
       </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
       <c r="G25">
         <v>2</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J25">
         <v>1.833</v>
@@ -2695,16 +2701,16 @@
         <v>6215710</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45142.875</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2713,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J26">
         <v>2.875</v>
@@ -2781,16 +2787,16 @@
         <v>6215713</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45143.625</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2799,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J27">
         <v>1.571</v>
@@ -2867,17 +2873,17 @@
         <v>6215712</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45143.72916666666</v>
       </c>
       <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
         <v>45</v>
       </c>
-      <c r="F28" t="s">
-        <v>43</v>
-      </c>
       <c r="G28">
         <v>0</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2953,16 +2959,16 @@
         <v>6215244</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2971,7 +2977,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J29">
         <v>1.75</v>
@@ -3039,16 +3045,16 @@
         <v>6215711</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45144.625</v>
       </c>
       <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
         <v>34</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3057,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J30">
         <v>3.8</v>
@@ -3125,16 +3131,16 @@
         <v>6215709</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45144.72916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3143,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J31">
         <v>1.833</v>
@@ -3211,16 +3217,16 @@
         <v>6215708</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3229,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J32">
         <v>1.333</v>
@@ -3297,16 +3303,16 @@
         <v>6215245</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45145.875</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3315,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J33">
         <v>1.4</v>
@@ -3383,16 +3389,16 @@
         <v>6215718</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45149.8125</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3401,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J34">
         <v>3.5</v>
@@ -3469,16 +3475,16 @@
         <v>6215717</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45149.91666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3487,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J35">
         <v>2.3</v>
@@ -3555,16 +3561,16 @@
         <v>6215715</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45150.625</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3573,7 +3579,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J36">
         <v>1.8</v>
@@ -3641,16 +3647,16 @@
         <v>6215720</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45150.72916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3659,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J37">
         <v>2.5</v>
@@ -3727,16 +3733,16 @@
         <v>6215714</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3745,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3813,16 +3819,16 @@
         <v>6215719</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45151.625</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3831,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J39">
         <v>1.25</v>
@@ -3899,16 +3905,16 @@
         <v>6215716</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3917,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3985,16 +3991,16 @@
         <v>6215246</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45151.83333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4003,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4071,16 +4077,16 @@
         <v>6215724</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45154.77083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4089,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J42">
         <v>1.666</v>
@@ -4157,16 +4163,16 @@
         <v>6215725</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45154.875</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4175,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4243,16 +4249,16 @@
         <v>6215723</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45155.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4261,7 +4267,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J44">
         <v>2.75</v>
@@ -4329,16 +4335,16 @@
         <v>6215248</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45155.77083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4347,7 +4353,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -4415,16 +4421,16 @@
         <v>6215726</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45155.875</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4433,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4501,16 +4507,16 @@
         <v>6215722</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45156.70833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4519,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J47">
         <v>2.55</v>
@@ -4587,16 +4593,16 @@
         <v>6215247</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45156.8125</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4605,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J48">
         <v>1.615</v>
@@ -4673,16 +4679,16 @@
         <v>6215721</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45156.91666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4691,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J49">
         <v>2.75</v>
@@ -4759,16 +4765,16 @@
         <v>6215728</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45163.875</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4777,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J50">
         <v>1.45</v>
@@ -4845,16 +4851,16 @@
         <v>6215731</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45164.625</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4863,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J51">
         <v>1.533</v>
@@ -4931,16 +4937,16 @@
         <v>7096686</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45164.72916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4949,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -5017,16 +5023,16 @@
         <v>7096687</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5035,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J53">
         <v>2.8</v>
@@ -5103,16 +5109,16 @@
         <v>6215579</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45165.625</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5121,7 +5127,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J54">
         <v>1.615</v>
@@ -5189,16 +5195,16 @@
         <v>6215729</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45165.72916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5207,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J55">
         <v>1.666</v>
@@ -5275,16 +5281,16 @@
         <v>6215260</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45165.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5293,7 +5299,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J56">
         <v>3.75</v>
@@ -5361,16 +5367,16 @@
         <v>6215727</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45166.875</v>
       </c>
       <c r="E57" t="s">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s">
         <v>39</v>
-      </c>
-      <c r="F57" t="s">
-        <v>37</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5379,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -5447,16 +5453,16 @@
         <v>6215734</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45170.875</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5465,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J58">
         <v>3.2</v>
@@ -5533,16 +5539,16 @@
         <v>6215736</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45171.625</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5551,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5619,16 +5625,16 @@
         <v>6215738</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45171.72916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5637,7 +5643,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5705,16 +5711,16 @@
         <v>6215261</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5723,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5791,16 +5797,16 @@
         <v>6215735</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45172.625</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5809,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J62">
         <v>2.5</v>
@@ -5877,16 +5883,16 @@
         <v>7137552</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45172.72916666666</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -5895,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5963,16 +5969,16 @@
         <v>6215733</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5981,7 +5987,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6049,16 +6055,16 @@
         <v>6215262</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45173.875</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6067,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J65">
         <v>1.444</v>
@@ -6135,16 +6141,16 @@
         <v>6215744</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45184.875</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6153,7 +6159,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J66">
         <v>2.625</v>
@@ -6221,16 +6227,16 @@
         <v>6215743</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45185.625</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6239,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J67">
         <v>2.375</v>
@@ -6307,16 +6313,16 @@
         <v>6215741</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45185.72916666666</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6325,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J68">
         <v>2.9</v>
@@ -6393,16 +6399,16 @@
         <v>6215739</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45185.83333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6411,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J69">
         <v>2.3</v>
@@ -6479,16 +6485,16 @@
         <v>6215263</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45186.60416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6497,7 +6503,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J70">
         <v>1.8</v>
@@ -6565,16 +6571,16 @@
         <v>6215742</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45186.70833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6583,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J71">
         <v>1.25</v>
@@ -6651,16 +6657,16 @@
         <v>6215264</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45186.83333333334</v>
       </c>
       <c r="E72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" t="s">
         <v>35</v>
-      </c>
-      <c r="F72" t="s">
-        <v>33</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6669,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6737,16 +6743,16 @@
         <v>6215740</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45187.875</v>
       </c>
       <c r="E73" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" t="s">
         <v>38</v>
-      </c>
-      <c r="F73" t="s">
-        <v>36</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6755,7 +6761,7 @@
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>2.2</v>
@@ -6823,16 +6829,16 @@
         <v>6215266</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45191.875</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6841,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6909,17 +6915,17 @@
         <v>6215750</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45192.625</v>
       </c>
       <c r="E75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s">
         <v>40</v>
       </c>
-      <c r="F75" t="s">
-        <v>38</v>
-      </c>
       <c r="G75">
         <v>0</v>
       </c>
@@ -6927,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J75">
         <v>1.444</v>
@@ -6995,16 +7001,16 @@
         <v>6215747</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45192.72916666666</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F76" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7013,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J76">
         <v>1.666</v>
@@ -7081,16 +7087,16 @@
         <v>6215749</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7099,7 +7105,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J77">
         <v>3.1</v>
@@ -7167,16 +7173,16 @@
         <v>6215265</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45193.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7185,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J78">
         <v>2.8</v>
@@ -7253,16 +7259,16 @@
         <v>7236128</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45193.77083333334</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7271,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J79">
         <v>1.65</v>
@@ -7339,16 +7345,16 @@
         <v>6215746</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45193.875</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7357,7 +7363,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J80">
         <v>2.625</v>
@@ -7425,16 +7431,16 @@
         <v>6215748</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45194.875</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7443,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J81">
         <v>2.6</v>
@@ -7511,16 +7517,16 @@
         <v>6215753</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45198.875</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7529,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7597,16 +7603,16 @@
         <v>6215755</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45199.625</v>
       </c>
       <c r="E83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7615,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J83">
         <v>1.666</v>
@@ -7683,16 +7689,16 @@
         <v>6215752</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45199.72916666666</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7701,7 +7707,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J84">
         <v>2.4</v>
@@ -7769,16 +7775,16 @@
         <v>6215754</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45199.83333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7787,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7855,16 +7861,16 @@
         <v>6215267</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45200.625</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7873,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J86">
         <v>2.8</v>
@@ -7941,16 +7947,16 @@
         <v>6215756</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45200.72916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7959,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8027,16 +8033,16 @@
         <v>6215751</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45200.83333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8045,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J88">
         <v>1.6</v>
@@ -8113,16 +8119,16 @@
         <v>6215757</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45205.875</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8131,7 +8137,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J89">
         <v>2.375</v>
@@ -8199,16 +8205,16 @@
         <v>6215762</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45206.625</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8217,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J90">
         <v>1.666</v>
@@ -8285,16 +8291,16 @@
         <v>6215759</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45206.72916666666</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8303,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J91">
         <v>1.444</v>
@@ -8371,16 +8377,16 @@
         <v>6215269</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45206.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8389,7 +8395,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8457,16 +8463,16 @@
         <v>6215758</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45207.625</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8475,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8543,16 +8549,16 @@
         <v>6215760</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45207.72916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8561,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J94">
         <v>1.166</v>
@@ -8629,16 +8635,16 @@
         <v>6215270</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45207.83333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8647,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8715,16 +8721,16 @@
         <v>6215761</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45208.875</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8733,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J96">
         <v>1.8</v>
@@ -8801,16 +8807,16 @@
         <v>6215765</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45219.875</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8819,7 +8825,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J97">
         <v>2.8</v>
@@ -8887,16 +8893,16 @@
         <v>6215768</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45220.625</v>
       </c>
       <c r="E98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8905,7 +8911,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J98">
         <v>2.55</v>
@@ -8973,16 +8979,16 @@
         <v>6215764</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45220.72916666666</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8991,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J99">
         <v>1.909</v>
@@ -9059,16 +9065,16 @@
         <v>6215767</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9077,7 +9083,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J100">
         <v>1.285</v>
@@ -9145,16 +9151,16 @@
         <v>6215271</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45221.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9163,7 +9169,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J101">
         <v>3.2</v>
@@ -9231,16 +9237,16 @@
         <v>6215763</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9249,7 +9255,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J102">
         <v>4.5</v>
@@ -9317,16 +9323,16 @@
         <v>6215272</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9335,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9403,16 +9409,16 @@
         <v>6215766</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45222.875</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9421,7 +9427,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J104">
         <v>1.7</v>
@@ -9489,16 +9495,16 @@
         <v>6215773</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45226.875</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9507,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9575,16 +9581,16 @@
         <v>6215772</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45227.625</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9593,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9661,16 +9667,16 @@
         <v>6215771</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45227.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9679,7 +9685,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J107">
         <v>2.2</v>
@@ -9747,16 +9753,16 @@
         <v>6215769</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45228.625</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G108">
         <v>4</v>
@@ -9765,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J108">
         <v>1.6</v>
@@ -9833,16 +9839,16 @@
         <v>6215273</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45228.72916666666</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -9851,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J109">
         <v>1.75</v>
@@ -9919,16 +9925,16 @@
         <v>6215774</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9937,7 +9943,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J110">
         <v>3.1</v>
@@ -10005,16 +10011,16 @@
         <v>6215770</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45229.875</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10023,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J111">
         <v>1.4</v>
@@ -10091,16 +10097,16 @@
         <v>7335615</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45231.875</v>
       </c>
       <c r="E112" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10109,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J112">
         <v>1.615</v>
@@ -10177,16 +10183,16 @@
         <v>6215275</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45233.875</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10195,7 +10201,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10263,16 +10269,16 @@
         <v>6215777</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45234.625</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10281,7 +10287,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10349,16 +10355,16 @@
         <v>6215778</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45234.72916666666</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F115" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10367,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J115">
         <v>3.6</v>
@@ -10435,16 +10441,16 @@
         <v>6215276</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10453,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10521,16 +10527,16 @@
         <v>6215779</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10539,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J117">
         <v>2.8</v>
@@ -10607,16 +10613,16 @@
         <v>6215776</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10625,7 +10631,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J118">
         <v>2.75</v>
@@ -10693,16 +10699,16 @@
         <v>6215775</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10711,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J119">
         <v>1.75</v>
@@ -10779,16 +10785,16 @@
         <v>7420901</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45236.875</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10797,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J120">
         <v>1.5</v>
@@ -10865,16 +10871,16 @@
         <v>6215274</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45238.875</v>
       </c>
       <c r="E121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10883,7 +10889,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10951,16 +10957,16 @@
         <v>6215785</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45240.875</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10969,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J122">
         <v>1.727</v>
@@ -11037,16 +11043,16 @@
         <v>6215786</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45241.625</v>
       </c>
       <c r="E123" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11055,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J123">
         <v>1.333</v>
@@ -11123,16 +11129,16 @@
         <v>6215784</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45241.72916666666</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11141,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11209,16 +11215,16 @@
         <v>6215277</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45241.83333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11227,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J125">
         <v>3.2</v>
@@ -11295,16 +11301,16 @@
         <v>6215782</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11313,7 +11319,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J126">
         <v>1.4</v>
@@ -11381,16 +11387,16 @@
         <v>6215578</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45242.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11399,7 +11405,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J127">
         <v>4</v>
@@ -11467,16 +11473,16 @@
         <v>6215783</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45242.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11485,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J128">
         <v>2.15</v>
@@ -11553,16 +11559,16 @@
         <v>6215781</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45243.875</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11571,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J129">
         <v>1.727</v>
@@ -11636,85 +11642,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J130">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="K130">
+        <v>3.2</v>
+      </c>
+      <c r="L130">
+        <v>2.25</v>
+      </c>
+      <c r="M130">
+        <v>3.5</v>
+      </c>
+      <c r="N130">
         <v>3.25</v>
       </c>
-      <c r="L130">
-        <v>4.2</v>
-      </c>
-      <c r="M130">
-        <v>1.909</v>
-      </c>
-      <c r="N130">
-        <v>3.5</v>
-      </c>
       <c r="O130">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P130">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q130">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
         <v>2.5</v>
       </c>
       <c r="T130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
         <v>-1</v>
       </c>
       <c r="W130">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
+        <v>1.025</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11722,85 +11728,85 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J131">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="K131">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L131">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="P131">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11808,85 +11814,85 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="s">
         <v>52</v>
       </c>
       <c r="J132">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="K132">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="L132">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="M132">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O132">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="P132">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11894,85 +11900,85 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J133">
+        <v>1.909</v>
+      </c>
+      <c r="K133">
         <v>3.25</v>
       </c>
-      <c r="K133">
-        <v>3.2</v>
-      </c>
       <c r="L133">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="M133">
+        <v>1.909</v>
+      </c>
+      <c r="N133">
         <v>3.5</v>
       </c>
-      <c r="N133">
-        <v>3.25</v>
-      </c>
       <c r="O133">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q133">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
         <v>2.5</v>
       </c>
       <c r="T133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
         <v>-1</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X133">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11980,85 +11986,85 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483306</v>
+        <v>7483188</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134" t="s">
+        <v>53</v>
+      </c>
+      <c r="J134">
+        <v>3.6</v>
+      </c>
+      <c r="K134">
+        <v>3.3</v>
+      </c>
+      <c r="L134">
+        <v>2.05</v>
+      </c>
+      <c r="M134">
+        <v>2.6</v>
+      </c>
+      <c r="N134">
+        <v>3.25</v>
+      </c>
+      <c r="O134">
+        <v>2.75</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>1.8</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>2.5</v>
+      </c>
+      <c r="T134">
+        <v>1.975</v>
+      </c>
+      <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
+        <v>-1</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>1.75</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
         <v>1</v>
       </c>
-      <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134" t="s">
-        <v>52</v>
-      </c>
-      <c r="J134">
-        <v>1.5</v>
-      </c>
-      <c r="K134">
-        <v>4.333</v>
-      </c>
-      <c r="L134">
-        <v>5.75</v>
-      </c>
-      <c r="M134">
-        <v>1.533</v>
-      </c>
-      <c r="N134">
-        <v>4.2</v>
-      </c>
-      <c r="O134">
-        <v>5.5</v>
-      </c>
-      <c r="P134">
-        <v>-1</v>
-      </c>
-      <c r="Q134">
-        <v>1.925</v>
-      </c>
-      <c r="R134">
-        <v>1.875</v>
-      </c>
-      <c r="S134">
-        <v>2.25</v>
-      </c>
-      <c r="T134">
-        <v>1.8</v>
-      </c>
-      <c r="U134">
-        <v>2</v>
-      </c>
-      <c r="V134">
-        <v>-1</v>
-      </c>
-      <c r="W134">
-        <v>3.2</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
-      <c r="Y134">
-        <v>-1</v>
-      </c>
-      <c r="Z134">
-        <v>0.875</v>
-      </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12066,85 +12072,85 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483188</v>
+        <v>7483306</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J135">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="K135">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L135">
-        <v>2.05</v>
+        <v>5.75</v>
       </c>
       <c r="M135">
-        <v>2.6</v>
+        <v>1.533</v>
       </c>
       <c r="N135">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="O135">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="P135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q135">
+        <v>1.925</v>
+      </c>
+      <c r="R135">
+        <v>1.875</v>
+      </c>
+      <c r="S135">
+        <v>2.25</v>
+      </c>
+      <c r="T135">
         <v>1.8</v>
       </c>
-      <c r="R135">
-        <v>2</v>
-      </c>
-      <c r="S135">
-        <v>2.5</v>
-      </c>
-      <c r="T135">
-        <v>1.975</v>
-      </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V135">
         <v>-1</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X135">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12155,16 +12161,16 @@
         <v>7482867</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12173,7 +12179,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>5.25</v>
@@ -12241,16 +12247,16 @@
         <v>7482832</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12259,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J137">
         <v>1.363</v>
@@ -12327,16 +12333,16 @@
         <v>7528851</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45262.60416666666</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12345,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J138">
         <v>2.5</v>
@@ -12410,85 +12416,85 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45262.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J139">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="K139">
         <v>3.5</v>
       </c>
       <c r="L139">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M139">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="N139">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O139">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
         <v>2.5</v>
       </c>
       <c r="T139">
+        <v>1.85</v>
+      </c>
+      <c r="U139">
         <v>1.95</v>
       </c>
-      <c r="U139">
-        <v>1.85</v>
-      </c>
       <c r="V139">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
         <v>0.95</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12496,85 +12502,85 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45262.70833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
         <v>38</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J140">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="K140">
         <v>3.5</v>
       </c>
       <c r="L140">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M140">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="N140">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P140">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
         <v>2.5</v>
       </c>
       <c r="T140">
+        <v>1.95</v>
+      </c>
+      <c r="U140">
         <v>1.85</v>
       </c>
-      <c r="U140">
-        <v>1.95</v>
-      </c>
       <c r="V140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z140">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12585,16 +12591,16 @@
         <v>7528850</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45262.83333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G141">
         <v>3</v>
@@ -12603,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J141">
         <v>1.25</v>
@@ -12668,64 +12674,64 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528857</v>
+        <v>7528858</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J142">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="K142">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L142">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M142">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N142">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O142">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q142">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S142">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T142">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U142">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
         <v>-1</v>
@@ -12734,19 +12740,19 @@
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12754,49 +12760,49 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528852</v>
+        <v>7528857</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
         <v>37</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J143">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M143">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="N143">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q143">
         <v>1.8</v>
@@ -12805,34 +12811,34 @@
         <v>2</v>
       </c>
       <c r="S143">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T143">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V143">
         <v>-1</v>
       </c>
       <c r="W143">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AA143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12840,16 +12846,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F144" t="s">
         <v>39</v>
@@ -12858,64 +12864,64 @@
         <v>2</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J144">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="K144">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M144">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N144">
+        <v>3.4</v>
+      </c>
+      <c r="O144">
         <v>3.1</v>
-      </c>
-      <c r="O144">
-        <v>2.75</v>
       </c>
       <c r="P144">
         <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R144">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S144">
         <v>2.25</v>
       </c>
       <c r="T144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -12926,82 +12932,82 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F145" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="H145">
         <v>1</v>
       </c>
-      <c r="H145">
-        <v>2</v>
-      </c>
       <c r="I145" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J145">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="K145">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M145">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O145">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P145">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q145">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R145">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S145">
         <v>2.25</v>
       </c>
       <c r="T145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
         <v>-1</v>
@@ -13015,16 +13021,16 @@
         <v>7557483</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45270.77083333334</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13033,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13101,16 +13107,16 @@
         <v>7557484</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45277.77083333334</v>
       </c>
       <c r="E147" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G147">
         <v>4</v>
@@ -13119,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13187,16 +13193,16 @@
         <v>7773060</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45352.875</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13205,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J148">
         <v>3.1</v>
@@ -13273,16 +13279,16 @@
         <v>7773462</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45353.625</v>
       </c>
       <c r="E149" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13291,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J149">
         <v>1.9</v>
@@ -13359,17 +13365,17 @@
         <v>7773461</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45353.72916666666</v>
       </c>
       <c r="E150" t="s">
+        <v>49</v>
+      </c>
+      <c r="F150" t="s">
         <v>47</v>
       </c>
-      <c r="F150" t="s">
-        <v>45</v>
-      </c>
       <c r="G150">
         <v>2</v>
       </c>
@@ -13377,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J150">
         <v>1.7</v>
@@ -13445,16 +13451,16 @@
         <v>7773458</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13463,7 +13469,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13531,16 +13537,16 @@
         <v>7798121</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45354.625</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13549,7 +13555,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J152">
         <v>1.75</v>
@@ -13617,16 +13623,16 @@
         <v>7773460</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45354.72916666666</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13635,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J153">
         <v>1.533</v>
@@ -13703,16 +13709,16 @@
         <v>7773780</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E154" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13721,7 +13727,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J154">
         <v>1.2</v>
@@ -13789,16 +13795,16 @@
         <v>7798120</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45355.875</v>
       </c>
       <c r="E155" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F155" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13807,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J155">
         <v>1.166</v>
@@ -13875,16 +13881,16 @@
         <v>7773468</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45359.875</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13893,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J156">
         <v>1.533</v>
@@ -13961,16 +13967,16 @@
         <v>7773466</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45360.625</v>
       </c>
       <c r="E157" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F157" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13979,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J157">
         <v>2.6</v>
@@ -14047,16 +14053,16 @@
         <v>7773779</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45360.72916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14065,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J158">
         <v>2.5</v>
@@ -14133,16 +14139,16 @@
         <v>7773061</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45360.83333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14151,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14219,16 +14225,16 @@
         <v>7773467</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45361.625</v>
       </c>
       <c r="E160" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14237,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J160">
         <v>2</v>
@@ -14305,16 +14311,16 @@
         <v>7773469</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45361.72916666666</v>
       </c>
       <c r="E161" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14323,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J161">
         <v>1.833</v>
@@ -14391,16 +14397,16 @@
         <v>7773464</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45361.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14409,7 +14415,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J162">
         <v>5</v>
@@ -14477,16 +14483,16 @@
         <v>7773465</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45362.875</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14495,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14563,16 +14569,16 @@
         <v>7773475</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45366.77083333334</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G164">
         <v>3</v>
@@ -14581,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J164">
         <v>2</v>
@@ -14649,16 +14655,16 @@
         <v>7773062</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45366.875</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14667,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J165">
         <v>1.2</v>
@@ -14735,16 +14741,16 @@
         <v>7773778</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45367.625</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14753,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J166">
         <v>1.727</v>
@@ -14821,16 +14827,16 @@
         <v>7773471</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45367.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F167" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14839,7 +14845,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J167">
         <v>1.533</v>
@@ -14907,16 +14913,16 @@
         <v>7773473</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45367.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14925,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J168">
         <v>1.615</v>
@@ -14993,16 +14999,16 @@
         <v>7773474</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45368.625</v>
       </c>
       <c r="E169" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G169">
         <v>3</v>
@@ -15011,7 +15017,7 @@
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J169">
         <v>1.533</v>
@@ -15079,16 +15085,16 @@
         <v>7773472</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45368.72916666666</v>
       </c>
       <c r="E170" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F170" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15097,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J170">
         <v>2.05</v>
@@ -15165,16 +15171,16 @@
         <v>7773470</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45368.83333333334</v>
       </c>
       <c r="E171" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15183,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J171">
         <v>2.2</v>
@@ -15251,16 +15257,16 @@
         <v>7773480</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45370.77083333334</v>
       </c>
       <c r="E172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" t="s">
         <v>36</v>
-      </c>
-      <c r="F172" t="s">
-        <v>34</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15269,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15337,16 +15343,16 @@
         <v>7773777</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45370.875</v>
       </c>
       <c r="E173" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F173" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15355,7 +15361,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15423,16 +15429,16 @@
         <v>7977166</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>45371.77083333334</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F174" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15441,7 +15447,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J174">
         <v>2.15</v>
@@ -15509,16 +15515,16 @@
         <v>7773478</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>45371.875</v>
       </c>
       <c r="E175" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15527,7 +15533,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J175">
         <v>1.5</v>
@@ -15595,16 +15601,16 @@
         <v>7773063</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>45372.77083333334</v>
       </c>
       <c r="E176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15613,7 +15619,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J176">
         <v>3.25</v>
@@ -15681,16 +15687,16 @@
         <v>7773481</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>45372.875</v>
       </c>
       <c r="E177" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15699,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J177">
         <v>1.666</v>
@@ -15767,16 +15773,16 @@
         <v>7773776</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>45374.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15785,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15853,16 +15859,16 @@
         <v>7773486</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D179" s="2">
         <v>45375.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15871,7 +15877,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J179">
         <v>2.1</v>
@@ -15939,16 +15945,16 @@
         <v>7773485</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
         <v>45375.72916666666</v>
       </c>
       <c r="E180" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F180" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15957,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J180">
         <v>2.25</v>
@@ -16025,16 +16031,16 @@
         <v>7773064</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2">
         <v>45375.83333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F181" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16043,7 +16049,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J181">
         <v>1.615</v>
@@ -16111,16 +16117,16 @@
         <v>7773487</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D182" s="2">
         <v>45376.77083333334</v>
       </c>
       <c r="E182" t="s">
+        <v>45</v>
+      </c>
+      <c r="F182" t="s">
         <v>43</v>
-      </c>
-      <c r="F182" t="s">
-        <v>41</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16129,7 +16135,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J182">
         <v>1.5</v>
@@ -16197,16 +16203,16 @@
         <v>7773482</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2">
         <v>45376.875</v>
       </c>
       <c r="E183" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F183" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16215,7 +16221,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J183">
         <v>3</v>
@@ -16283,16 +16289,16 @@
         <v>7773775</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
         <v>45379.875</v>
       </c>
       <c r="E184" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F184" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G184">
         <v>5</v>
@@ -16301,7 +16307,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J184">
         <v>1.2</v>
@@ -16369,16 +16375,16 @@
         <v>7773488</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2">
         <v>45380.875</v>
       </c>
       <c r="E185" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16387,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J185">
         <v>3.1</v>
@@ -16455,16 +16461,16 @@
         <v>8016804</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
         <v>45381.625</v>
       </c>
       <c r="E186" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16473,7 +16479,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J186">
         <v>2.55</v>
@@ -16541,16 +16547,16 @@
         <v>8018935</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D187" s="2">
         <v>45381.72916666666</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16559,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J187">
         <v>2.7</v>
@@ -16627,16 +16633,16 @@
         <v>7773490</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D188" s="2">
         <v>45381.83333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F188" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16645,7 +16651,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J188">
         <v>3.1</v>
@@ -16713,16 +16719,16 @@
         <v>7773493</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D189" s="2">
         <v>45382.625</v>
       </c>
       <c r="E189" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G189">
         <v>5</v>
@@ -16731,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J189">
         <v>1.4</v>
@@ -16799,16 +16805,16 @@
         <v>7773492</v>
       </c>
       <c r="C190" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D190" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E190" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16817,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J190">
         <v>2.1</v>
@@ -16885,16 +16891,16 @@
         <v>8018936</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D191" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16903,7 +16909,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J191">
         <v>2.375</v>
@@ -16971,16 +16977,16 @@
         <v>8040559</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D192" s="2">
         <v>45387.875</v>
       </c>
       <c r="E192" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16989,7 +16995,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J192">
         <v>1.85</v>
@@ -17057,16 +17063,16 @@
         <v>7773497</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D193" s="2">
         <v>45388.625</v>
       </c>
       <c r="E193" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17075,7 +17081,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J193">
         <v>1.363</v>
@@ -17143,16 +17149,16 @@
         <v>7773495</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D194" s="2">
         <v>45388.72916666666</v>
       </c>
       <c r="E194" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17161,7 +17167,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J194">
         <v>4</v>
@@ -17229,16 +17235,16 @@
         <v>8040560</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D195" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17247,7 +17253,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J195">
         <v>1.6</v>
@@ -17315,16 +17321,16 @@
         <v>7773066</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D196" s="2">
         <v>45389.625</v>
       </c>
       <c r="E196" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17333,7 +17339,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J196">
         <v>1.3</v>
@@ -17401,16 +17407,16 @@
         <v>8040561</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D197" s="2">
         <v>45389.72916666666</v>
       </c>
       <c r="E197" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17419,7 +17425,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J197">
         <v>2.8</v>
@@ -17487,16 +17493,16 @@
         <v>8040562</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D198" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17505,7 +17511,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J198">
         <v>2.7</v>
@@ -17573,16 +17579,16 @@
         <v>7773774</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D199" s="2">
         <v>45390.875</v>
       </c>
       <c r="E199" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17591,7 +17597,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17659,16 +17665,16 @@
         <v>7773501</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D200" s="2">
         <v>45394.875</v>
       </c>
       <c r="E200" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F200" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -17677,7 +17683,7 @@
         <v>3</v>
       </c>
       <c r="I200" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J200">
         <v>3</v>
@@ -17745,16 +17751,16 @@
         <v>7773503</v>
       </c>
       <c r="C201" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D201" s="2">
         <v>45395.625</v>
       </c>
       <c r="E201" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F201" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17763,7 +17769,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17831,16 +17837,16 @@
         <v>8069719</v>
       </c>
       <c r="C202" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D202" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F202" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17849,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J202">
         <v>1.95</v>
@@ -17917,16 +17923,16 @@
         <v>8069537</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D203" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17935,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J203">
         <v>1.28</v>
@@ -18003,16 +18009,16 @@
         <v>7773067</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D204" s="2">
         <v>45396.625</v>
       </c>
       <c r="E204" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18021,7 +18027,7 @@
         <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J204">
         <v>2.3</v>
@@ -18089,16 +18095,16 @@
         <v>8069720</v>
       </c>
       <c r="C205" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D205" s="2">
         <v>45396.72916666666</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F205" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18107,7 +18113,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J205">
         <v>1.7</v>
@@ -18175,16 +18181,16 @@
         <v>8069721</v>
       </c>
       <c r="C206" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D206" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F206" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18193,7 +18199,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J206">
         <v>4</v>
@@ -18261,16 +18267,16 @@
         <v>7773504</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D207" s="2">
         <v>45397.875</v>
       </c>
       <c r="E207" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18279,7 +18285,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J207">
         <v>1.363</v>
@@ -18347,16 +18353,16 @@
         <v>7773511</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D208" s="2">
         <v>45399.77083333334</v>
       </c>
       <c r="E208" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18365,7 +18371,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J208">
         <v>2.4</v>
@@ -18433,16 +18439,16 @@
         <v>7773510</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D209" s="2">
         <v>45399.875</v>
       </c>
       <c r="E209" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -18451,7 +18457,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J209">
         <v>1.95</v>
@@ -18519,16 +18525,16 @@
         <v>7773772</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D210" s="2">
         <v>45400.66666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18537,7 +18543,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J210">
         <v>4.5</v>
@@ -18605,16 +18611,16 @@
         <v>7773068</v>
       </c>
       <c r="C211" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D211" s="2">
         <v>45400.77083333334</v>
       </c>
       <c r="E211" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F211" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18623,7 +18629,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J211">
         <v>1.333</v>
@@ -18691,16 +18697,16 @@
         <v>7773508</v>
       </c>
       <c r="C212" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D212" s="2">
         <v>45400.875</v>
       </c>
       <c r="E212" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -18709,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J212">
         <v>1.45</v>
@@ -18777,16 +18783,16 @@
         <v>7773509</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D213" s="2">
         <v>45401.66666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F213" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18795,7 +18801,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J213">
         <v>2</v>
@@ -18860,10 +18866,10 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7773506</v>
+        <v>7773507</v>
       </c>
       <c r="C214" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D214" s="2">
         <v>45401.77083333334</v>
@@ -18872,55 +18878,55 @@
         <v>47</v>
       </c>
       <c r="F214" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J214">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K214">
         <v>3.25</v>
       </c>
       <c r="L214">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="M214">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="N214">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O214">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="P214">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q214">
+        <v>1.9</v>
+      </c>
+      <c r="R214">
+        <v>1.9</v>
+      </c>
+      <c r="S214">
+        <v>2.5</v>
+      </c>
+      <c r="T214">
+        <v>1.975</v>
+      </c>
+      <c r="U214">
         <v>1.825</v>
       </c>
-      <c r="R214">
-        <v>1.975</v>
-      </c>
-      <c r="S214">
-        <v>2.25</v>
-      </c>
-      <c r="T214">
-        <v>1.85</v>
-      </c>
-      <c r="U214">
-        <v>1.95</v>
-      </c>
       <c r="V214">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18929,16 +18935,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>-1</v>
+      </c>
+      <c r="AB214">
         <v>0.825</v>
-      </c>
-      <c r="Z214">
-        <v>-1</v>
-      </c>
-      <c r="AA214">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB214">
-        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18946,67 +18952,67 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7773507</v>
+        <v>7773506</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D215" s="2">
         <v>45401.77083333334</v>
       </c>
       <c r="E215" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G215">
+        <v>3</v>
+      </c>
+      <c r="H215">
         <v>1</v>
       </c>
-      <c r="H215">
-        <v>0</v>
-      </c>
       <c r="I215" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K215">
         <v>3.25</v>
       </c>
       <c r="L215">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="M215">
+        <v>1.8</v>
+      </c>
+      <c r="N215">
         <v>3.4</v>
       </c>
-      <c r="N215">
-        <v>3</v>
-      </c>
       <c r="O215">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="P215">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T215">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V215">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19015,16 +19021,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z215">
         <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB215">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19035,16 +19041,16 @@
         <v>27</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D216" s="2">
         <v>45408.875</v>
       </c>
       <c r="E216" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F216" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J216">
         <v>1.909</v>
@@ -19056,13 +19062,13 @@
         <v>3.75</v>
       </c>
       <c r="M216">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="N216">
+        <v>3.4</v>
+      </c>
+      <c r="O216">
         <v>3.5</v>
-      </c>
-      <c r="O216">
-        <v>3.75</v>
       </c>
       <c r="P216">
         <v>-0.5</v>
@@ -19100,16 +19106,16 @@
         <v>28</v>
       </c>
       <c r="C217" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D217" s="2">
         <v>45409.625</v>
       </c>
       <c r="E217" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J217">
         <v>1.222</v>
@@ -19121,7 +19127,7 @@
         <v>10</v>
       </c>
       <c r="M217">
-        <v>1.222</v>
+        <v>1.25</v>
       </c>
       <c r="N217">
         <v>6.5</v>
@@ -19133,19 +19139,19 @@
         <v>-1.75</v>
       </c>
       <c r="Q217">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R217">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T217">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V217">
         <v>0</v>
@@ -19165,16 +19171,16 @@
         <v>29</v>
       </c>
       <c r="C218" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D218" s="2">
         <v>45409.72916666666</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F218" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J218">
         <v>2.5</v>
@@ -19198,19 +19204,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q218">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="R218">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S218">
         <v>2.25</v>
       </c>
       <c r="T218">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V218">
         <v>0</v>
@@ -19230,16 +19236,16 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D219" s="2">
         <v>45409.83333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J219">
         <v>1.4</v>
@@ -19251,39 +19257,169 @@
         <v>7</v>
       </c>
       <c r="M219">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="N219">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O219">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="P219">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q219">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S219">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T219">
+        <v>1.825</v>
+      </c>
+      <c r="U219">
+        <v>1.975</v>
+      </c>
+      <c r="V219">
+        <v>0</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:28">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>31</v>
+      </c>
+      <c r="C220" t="s">
+        <v>33</v>
+      </c>
+      <c r="D220" s="2">
+        <v>45410.83333333334</v>
+      </c>
+      <c r="E220" t="s">
+        <v>48</v>
+      </c>
+      <c r="F220" t="s">
+        <v>37</v>
+      </c>
+      <c r="J220">
+        <v>2.25</v>
+      </c>
+      <c r="K220">
+        <v>3.1</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="M220">
+        <v>2.2</v>
+      </c>
+      <c r="N220">
+        <v>3.1</v>
+      </c>
+      <c r="O220">
+        <v>3.1</v>
+      </c>
+      <c r="P220">
+        <v>-0.25</v>
+      </c>
+      <c r="Q220">
         <v>1.95</v>
       </c>
-      <c r="U219">
+      <c r="R220">
         <v>1.85</v>
       </c>
-      <c r="V219">
-        <v>0</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
+      <c r="S220">
+        <v>2.25</v>
+      </c>
+      <c r="T220">
+        <v>1.825</v>
+      </c>
+      <c r="U220">
+        <v>1.975</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:28">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>32</v>
+      </c>
+      <c r="C221" t="s">
+        <v>33</v>
+      </c>
+      <c r="D221" s="2">
+        <v>45411.875</v>
+      </c>
+      <c r="E221" t="s">
+        <v>44</v>
+      </c>
+      <c r="F221" t="s">
+        <v>45</v>
+      </c>
+      <c r="J221">
+        <v>1.8</v>
+      </c>
+      <c r="K221">
+        <v>3.4</v>
+      </c>
+      <c r="L221">
+        <v>4</v>
+      </c>
+      <c r="M221">
+        <v>1.615</v>
+      </c>
+      <c r="N221">
+        <v>3.6</v>
+      </c>
+      <c r="O221">
+        <v>5</v>
+      </c>
+      <c r="P221">
+        <v>-0.75</v>
+      </c>
+      <c r="Q221">
+        <v>1.85</v>
+      </c>
+      <c r="R221">
+        <v>1.95</v>
+      </c>
+      <c r="S221">
+        <v>2.5</v>
+      </c>
+      <c r="T221">
+        <v>1.875</v>
+      </c>
+      <c r="U221">
+        <v>1.925</v>
+      </c>
+      <c r="V221">
+        <v>0</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7773516</t>
-  </si>
-  <si>
     <t>7773514</t>
   </si>
   <si>
@@ -107,6 +104,12 @@
   </si>
   <si>
     <t>7773515</t>
+  </si>
+  <si>
+    <t>7773771</t>
+  </si>
+  <si>
+    <t>7773513</t>
   </si>
   <si>
     <t>7773512</t>
@@ -540,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB221"/>
+  <dimension ref="A1:AB222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +640,16 @@
         <v>6215239</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45079.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -655,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>1.4</v>
@@ -723,16 +726,16 @@
         <v>6215580</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45079.89583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -741,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -809,16 +812,16 @@
         <v>6215695</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -827,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -895,16 +898,16 @@
         <v>6215690</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>1.727</v>
@@ -981,16 +984,16 @@
         <v>6215692</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45081.625</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -999,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1067,16 +1070,16 @@
         <v>6215691</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45081.72916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1153,16 +1156,16 @@
         <v>6215693</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45081.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1171,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>3.1</v>
@@ -1239,16 +1242,16 @@
         <v>6215694</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45082.875</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1257,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1325,16 +1328,16 @@
         <v>6215699</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45086.875</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1343,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <v>1.533</v>
@@ -1411,16 +1414,16 @@
         <v>6215698</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45087.625</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1429,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>2.625</v>
@@ -1497,16 +1500,16 @@
         <v>6215241</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45087.72916666666</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>1.25</v>
@@ -1583,16 +1586,16 @@
         <v>6215700</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1601,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1669,16 +1672,16 @@
         <v>6215240</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45088.625</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1687,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -1755,16 +1758,16 @@
         <v>6751437</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45088.72916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1773,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>4.75</v>
@@ -1841,16 +1844,16 @@
         <v>6215697</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45088.83333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1859,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>3.8</v>
@@ -1927,16 +1930,16 @@
         <v>6215701</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45089.875</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1945,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -2013,16 +2016,16 @@
         <v>6774494</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45093.875</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2031,7 +2034,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>1.533</v>
@@ -2099,16 +2102,16 @@
         <v>6774496</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45094.625</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2117,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>2.5</v>
@@ -2185,16 +2188,16 @@
         <v>6774497</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45094.72916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2203,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>2.15</v>
@@ -2271,17 +2274,17 @@
         <v>6215242</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45094.83333333334</v>
       </c>
       <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
       <c r="G21">
         <v>2</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2357,16 +2360,16 @@
         <v>6215702</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45095.72916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2375,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>2.6</v>
@@ -2443,16 +2446,16 @@
         <v>6774495</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45095.83333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2461,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23">
         <v>1.85</v>
@@ -2529,16 +2532,16 @@
         <v>6774499</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45096.875</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2547,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>1.909</v>
@@ -2615,16 +2618,16 @@
         <v>6778185</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45100.875</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2633,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>1.833</v>
@@ -2701,16 +2704,16 @@
         <v>6215710</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45142.875</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2719,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J26">
         <v>2.875</v>
@@ -2787,16 +2790,16 @@
         <v>6215713</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45143.625</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2805,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J27">
         <v>1.571</v>
@@ -2873,16 +2876,16 @@
         <v>6215712</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45143.72916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2891,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2959,16 +2962,16 @@
         <v>6215244</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2977,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J29">
         <v>1.75</v>
@@ -3045,16 +3048,16 @@
         <v>6215711</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45144.625</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3063,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>3.8</v>
@@ -3131,16 +3134,16 @@
         <v>6215709</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45144.72916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3149,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J31">
         <v>1.833</v>
@@ -3217,16 +3220,16 @@
         <v>6215708</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3235,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J32">
         <v>1.333</v>
@@ -3303,16 +3306,16 @@
         <v>6215245</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45145.875</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3321,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>1.4</v>
@@ -3389,16 +3392,16 @@
         <v>6215718</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45149.8125</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3407,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J34">
         <v>3.5</v>
@@ -3475,16 +3478,16 @@
         <v>6215717</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45149.91666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3493,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J35">
         <v>2.3</v>
@@ -3561,16 +3564,16 @@
         <v>6215715</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45150.625</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3579,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J36">
         <v>1.8</v>
@@ -3647,16 +3650,16 @@
         <v>6215720</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45150.72916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3665,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J37">
         <v>2.5</v>
@@ -3733,16 +3736,16 @@
         <v>6215714</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3751,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3819,16 +3822,16 @@
         <v>6215719</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45151.625</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3837,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J39">
         <v>1.25</v>
@@ -3905,17 +3908,17 @@
         <v>6215716</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
         <v>48</v>
       </c>
-      <c r="F40" t="s">
-        <v>47</v>
-      </c>
       <c r="G40">
         <v>0</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3991,16 +3994,16 @@
         <v>6215246</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45151.83333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4009,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4077,16 +4080,16 @@
         <v>6215724</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45154.77083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4095,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>1.666</v>
@@ -4163,16 +4166,16 @@
         <v>6215725</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45154.875</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4181,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4249,16 +4252,16 @@
         <v>6215723</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45155.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4267,7 +4270,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J44">
         <v>2.75</v>
@@ -4335,16 +4338,16 @@
         <v>6215248</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45155.77083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4353,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -4421,16 +4424,16 @@
         <v>6215726</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45155.875</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4439,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4507,16 +4510,16 @@
         <v>6215722</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45156.70833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4525,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J47">
         <v>2.55</v>
@@ -4593,16 +4596,16 @@
         <v>6215247</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45156.8125</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4611,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J48">
         <v>1.615</v>
@@ -4679,16 +4682,16 @@
         <v>6215721</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45156.91666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4697,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <v>2.75</v>
@@ -4765,16 +4768,16 @@
         <v>6215728</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45163.875</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4783,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J50">
         <v>1.45</v>
@@ -4851,16 +4854,16 @@
         <v>6215731</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45164.625</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4869,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J51">
         <v>1.533</v>
@@ -4937,16 +4940,16 @@
         <v>7096686</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45164.72916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4955,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -5023,16 +5026,16 @@
         <v>7096687</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5041,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J53">
         <v>2.8</v>
@@ -5109,16 +5112,16 @@
         <v>6215579</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45165.625</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5127,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J54">
         <v>1.615</v>
@@ -5195,16 +5198,16 @@
         <v>6215729</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45165.72916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5213,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J55">
         <v>1.666</v>
@@ -5281,16 +5284,16 @@
         <v>6215260</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45165.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5299,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J56">
         <v>3.75</v>
@@ -5367,16 +5370,16 @@
         <v>6215727</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45166.875</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5385,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -5453,16 +5456,16 @@
         <v>6215734</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45170.875</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5471,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J58">
         <v>3.2</v>
@@ -5539,16 +5542,16 @@
         <v>6215736</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45171.625</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5557,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5625,16 +5628,16 @@
         <v>6215738</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45171.72916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5643,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5711,16 +5714,16 @@
         <v>6215261</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5729,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5797,16 +5800,16 @@
         <v>6215735</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45172.625</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5815,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J62">
         <v>2.5</v>
@@ -5883,16 +5886,16 @@
         <v>7137552</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45172.72916666666</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -5901,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5969,17 +5972,17 @@
         <v>6215733</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s">
         <v>38</v>
       </c>
-      <c r="F64" t="s">
-        <v>37</v>
-      </c>
       <c r="G64">
         <v>2</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6055,16 +6058,16 @@
         <v>6215262</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45173.875</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6073,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J65">
         <v>1.444</v>
@@ -6141,16 +6144,16 @@
         <v>6215744</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45184.875</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6159,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J66">
         <v>2.625</v>
@@ -6227,16 +6230,16 @@
         <v>6215743</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45185.625</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6245,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>2.375</v>
@@ -6313,16 +6316,16 @@
         <v>6215741</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45185.72916666666</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6331,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J68">
         <v>2.9</v>
@@ -6399,16 +6402,16 @@
         <v>6215739</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45185.83333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6417,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J69">
         <v>2.3</v>
@@ -6485,16 +6488,16 @@
         <v>6215263</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45186.60416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6503,7 +6506,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J70">
         <v>1.8</v>
@@ -6571,16 +6574,16 @@
         <v>6215742</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45186.70833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6589,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>1.25</v>
@@ -6657,16 +6660,16 @@
         <v>6215264</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45186.83333333334</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6675,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6743,16 +6746,16 @@
         <v>6215740</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45187.875</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6761,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J73">
         <v>2.2</v>
@@ -6829,16 +6832,16 @@
         <v>6215266</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45191.875</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6847,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6915,16 +6918,16 @@
         <v>6215750</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45192.625</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6933,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J75">
         <v>1.444</v>
@@ -7001,16 +7004,16 @@
         <v>6215747</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45192.72916666666</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7019,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>1.666</v>
@@ -7087,16 +7090,16 @@
         <v>6215749</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7105,7 +7108,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J77">
         <v>3.1</v>
@@ -7173,16 +7176,16 @@
         <v>6215265</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45193.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7191,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J78">
         <v>2.8</v>
@@ -7259,16 +7262,16 @@
         <v>7236128</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45193.77083333334</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7277,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J79">
         <v>1.65</v>
@@ -7345,16 +7348,16 @@
         <v>6215746</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45193.875</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7363,7 +7366,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>2.625</v>
@@ -7431,16 +7434,16 @@
         <v>6215748</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45194.875</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7449,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J81">
         <v>2.6</v>
@@ -7517,16 +7520,16 @@
         <v>6215753</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45198.875</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7535,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7603,16 +7606,16 @@
         <v>6215755</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45199.625</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7621,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J83">
         <v>1.666</v>
@@ -7689,16 +7692,16 @@
         <v>6215752</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45199.72916666666</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7707,7 +7710,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J84">
         <v>2.4</v>
@@ -7775,16 +7778,16 @@
         <v>6215754</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45199.83333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7793,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7861,16 +7864,16 @@
         <v>6215267</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45200.625</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7879,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J86">
         <v>2.8</v>
@@ -7947,16 +7950,16 @@
         <v>6215756</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45200.72916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7965,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8033,16 +8036,16 @@
         <v>6215751</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45200.83333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8051,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J88">
         <v>1.6</v>
@@ -8119,16 +8122,16 @@
         <v>6215757</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45205.875</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8137,7 +8140,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J89">
         <v>2.375</v>
@@ -8205,16 +8208,16 @@
         <v>6215762</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45206.625</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8223,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J90">
         <v>1.666</v>
@@ -8291,16 +8294,16 @@
         <v>6215759</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45206.72916666666</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8309,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <v>1.444</v>
@@ -8377,16 +8380,16 @@
         <v>6215269</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45206.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8395,7 +8398,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8463,16 +8466,16 @@
         <v>6215758</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45207.625</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8481,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8549,16 +8552,16 @@
         <v>6215760</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45207.72916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8567,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>1.166</v>
@@ -8635,16 +8638,16 @@
         <v>6215270</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45207.83333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8653,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8721,16 +8724,16 @@
         <v>6215761</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45208.875</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8739,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J96">
         <v>1.8</v>
@@ -8807,16 +8810,16 @@
         <v>6215765</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45219.875</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8825,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J97">
         <v>2.8</v>
@@ -8893,16 +8896,16 @@
         <v>6215768</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45220.625</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8911,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J98">
         <v>2.55</v>
@@ -8979,16 +8982,16 @@
         <v>6215764</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45220.72916666666</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8997,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J99">
         <v>1.909</v>
@@ -9065,16 +9068,16 @@
         <v>6215767</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9083,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>1.285</v>
@@ -9151,16 +9154,16 @@
         <v>6215271</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45221.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9169,7 +9172,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J101">
         <v>3.2</v>
@@ -9237,16 +9240,16 @@
         <v>6215763</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9255,7 +9258,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J102">
         <v>4.5</v>
@@ -9323,16 +9326,16 @@
         <v>6215272</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9341,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9409,16 +9412,16 @@
         <v>6215766</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45222.875</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9427,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J104">
         <v>1.7</v>
@@ -9495,16 +9498,16 @@
         <v>6215773</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45226.875</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9513,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9581,16 +9584,16 @@
         <v>6215772</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45227.625</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9599,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9667,16 +9670,16 @@
         <v>6215771</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45227.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9685,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>2.2</v>
@@ -9753,16 +9756,16 @@
         <v>6215769</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45228.625</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>4</v>
@@ -9771,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>1.6</v>
@@ -9839,16 +9842,16 @@
         <v>6215273</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45228.72916666666</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -9857,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>1.75</v>
@@ -9925,16 +9928,16 @@
         <v>6215774</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9943,7 +9946,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J110">
         <v>3.1</v>
@@ -10011,16 +10014,16 @@
         <v>6215770</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45229.875</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10029,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>1.4</v>
@@ -10097,16 +10100,16 @@
         <v>7335615</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45231.875</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10115,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J112">
         <v>1.615</v>
@@ -10183,16 +10186,16 @@
         <v>6215275</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45233.875</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10201,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10269,16 +10272,16 @@
         <v>6215777</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45234.625</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10287,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10355,16 +10358,16 @@
         <v>6215778</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45234.72916666666</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10373,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J115">
         <v>3.6</v>
@@ -10441,17 +10444,17 @@
         <v>6215276</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E116" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" t="s">
         <v>35</v>
       </c>
-      <c r="F116" t="s">
-        <v>34</v>
-      </c>
       <c r="G116">
         <v>2</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10527,16 +10530,16 @@
         <v>6215779</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10545,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J117">
         <v>2.8</v>
@@ -10613,16 +10616,16 @@
         <v>6215776</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10631,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>2.75</v>
@@ -10699,16 +10702,16 @@
         <v>6215775</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10717,7 +10720,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>1.75</v>
@@ -10785,16 +10788,16 @@
         <v>7420901</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45236.875</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10803,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J120">
         <v>1.5</v>
@@ -10871,16 +10874,16 @@
         <v>6215274</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45238.875</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10889,7 +10892,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10957,16 +10960,16 @@
         <v>6215785</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45240.875</v>
       </c>
       <c r="E122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10975,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J122">
         <v>1.727</v>
@@ -11043,16 +11046,16 @@
         <v>6215786</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45241.625</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11061,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>1.333</v>
@@ -11129,16 +11132,16 @@
         <v>6215784</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45241.72916666666</v>
       </c>
       <c r="E124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11147,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11215,16 +11218,16 @@
         <v>6215277</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45241.83333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11233,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>3.2</v>
@@ -11301,16 +11304,16 @@
         <v>6215782</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11319,7 +11322,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <v>1.4</v>
@@ -11387,16 +11390,16 @@
         <v>6215578</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45242.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11405,7 +11408,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J127">
         <v>4</v>
@@ -11473,16 +11476,16 @@
         <v>6215783</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45242.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11491,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J128">
         <v>2.15</v>
@@ -11559,16 +11562,16 @@
         <v>6215781</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45243.875</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11577,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J129">
         <v>1.727</v>
@@ -11642,85 +11645,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J130">
+        <v>1.909</v>
+      </c>
+      <c r="K130">
         <v>3.25</v>
       </c>
-      <c r="K130">
-        <v>3.2</v>
-      </c>
       <c r="L130">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
+        <v>1.909</v>
+      </c>
+      <c r="N130">
         <v>3.5</v>
       </c>
-      <c r="N130">
-        <v>3.25</v>
-      </c>
       <c r="O130">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="P130">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
         <v>2.5</v>
       </c>
       <c r="T130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V130">
         <v>-1</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X130">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11728,85 +11731,85 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J131">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="K131">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="L131">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="M131">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="P131">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11814,85 +11817,85 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483081</v>
+        <v>7483247</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J132">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="K132">
+        <v>3.2</v>
+      </c>
+      <c r="L132">
+        <v>2.25</v>
+      </c>
+      <c r="M132">
+        <v>3.5</v>
+      </c>
+      <c r="N132">
         <v>3.25</v>
       </c>
-      <c r="L132">
-        <v>2.55</v>
-      </c>
-      <c r="M132">
-        <v>3</v>
-      </c>
-      <c r="N132">
-        <v>3.3</v>
-      </c>
       <c r="O132">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P132">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q132">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11900,70 +11903,70 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="K133">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L133">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N133">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P133">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
         <v>2.5</v>
       </c>
       <c r="T133">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
         <v>-1</v>
       </c>
       <c r="W133">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -11972,13 +11975,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11989,16 +11992,16 @@
         <v>7483188</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -12007,7 +12010,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J134">
         <v>3.6</v>
@@ -12075,16 +12078,16 @@
         <v>7483306</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -12093,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J135">
         <v>1.5</v>
@@ -12161,16 +12164,16 @@
         <v>7482867</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12179,7 +12182,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J136">
         <v>5.25</v>
@@ -12247,16 +12250,16 @@
         <v>7482832</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12265,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J137">
         <v>1.363</v>
@@ -12333,16 +12336,16 @@
         <v>7528851</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45262.60416666666</v>
       </c>
       <c r="E138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12351,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>2.5</v>
@@ -12419,16 +12422,16 @@
         <v>7528849</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45262.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12437,7 +12440,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J139">
         <v>1.833</v>
@@ -12505,16 +12508,16 @@
         <v>7528859</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45262.70833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12523,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>1.727</v>
@@ -12591,16 +12594,16 @@
         <v>7528850</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45262.83333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>3</v>
@@ -12609,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J141">
         <v>1.25</v>
@@ -12674,82 +12677,82 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F142" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G142">
+        <v>2</v>
+      </c>
+      <c r="H142">
         <v>1</v>
-      </c>
-      <c r="H142">
-        <v>2</v>
       </c>
       <c r="I142" t="s">
         <v>53</v>
       </c>
       <c r="J142">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="K142">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M142">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N142">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O142">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q142">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S142">
         <v>2.25</v>
       </c>
       <c r="T142">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U142">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
         <v>-1</v>
@@ -12760,64 +12763,64 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528857</v>
+        <v>7528858</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J143">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="K143">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L143">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N143">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S143">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T143">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U143">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
         <v>-1</v>
@@ -12826,19 +12829,19 @@
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -12849,16 +12852,16 @@
         <v>7528852</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12867,7 +12870,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J144">
         <v>2.1</v>
@@ -12932,85 +12935,85 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H145">
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J145">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="K145">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L145">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M145">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N145">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O145">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="P145">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q145">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T145">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V145">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y145">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -13021,16 +13024,16 @@
         <v>7557483</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45270.77083333334</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13039,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13107,16 +13110,16 @@
         <v>7557484</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45277.77083333334</v>
       </c>
       <c r="E147" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" t="s">
         <v>35</v>
-      </c>
-      <c r="F147" t="s">
-        <v>34</v>
       </c>
       <c r="G147">
         <v>4</v>
@@ -13125,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13193,16 +13196,16 @@
         <v>7773060</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45352.875</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13211,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>3.1</v>
@@ -13279,16 +13282,16 @@
         <v>7773462</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45353.625</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13297,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J149">
         <v>1.9</v>
@@ -13365,16 +13368,16 @@
         <v>7773461</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45353.72916666666</v>
       </c>
       <c r="E150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13383,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J150">
         <v>1.7</v>
@@ -13451,16 +13454,16 @@
         <v>7773458</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13469,7 +13472,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13537,16 +13540,16 @@
         <v>7798121</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45354.625</v>
       </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13555,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J152">
         <v>1.75</v>
@@ -13623,16 +13626,16 @@
         <v>7773460</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45354.72916666666</v>
       </c>
       <c r="E153" t="s">
+        <v>40</v>
+      </c>
+      <c r="F153" t="s">
         <v>39</v>
-      </c>
-      <c r="F153" t="s">
-        <v>38</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13641,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J153">
         <v>1.533</v>
@@ -13709,16 +13712,16 @@
         <v>7773780</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13727,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J154">
         <v>1.2</v>
@@ -13795,16 +13798,16 @@
         <v>7798120</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45355.875</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13813,7 +13816,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J155">
         <v>1.166</v>
@@ -13881,16 +13884,16 @@
         <v>7773468</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45359.875</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13899,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J156">
         <v>1.533</v>
@@ -13967,16 +13970,16 @@
         <v>7773466</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45360.625</v>
       </c>
       <c r="E157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13985,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J157">
         <v>2.6</v>
@@ -14053,16 +14056,16 @@
         <v>7773779</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45360.72916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14071,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J158">
         <v>2.5</v>
@@ -14139,16 +14142,16 @@
         <v>7773061</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45360.83333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14157,7 +14160,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14225,16 +14228,16 @@
         <v>7773467</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45361.625</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14243,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>2</v>
@@ -14311,16 +14314,16 @@
         <v>7773469</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45361.72916666666</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14329,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J161">
         <v>1.833</v>
@@ -14397,16 +14400,16 @@
         <v>7773464</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45361.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14415,7 +14418,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J162">
         <v>5</v>
@@ -14483,16 +14486,16 @@
         <v>7773465</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45362.875</v>
       </c>
       <c r="E163" t="s">
+        <v>44</v>
+      </c>
+      <c r="F163" t="s">
         <v>43</v>
-      </c>
-      <c r="F163" t="s">
-        <v>42</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14501,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14569,16 +14572,16 @@
         <v>7773475</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45366.77083333334</v>
       </c>
       <c r="E164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G164">
         <v>3</v>
@@ -14587,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J164">
         <v>2</v>
@@ -14655,16 +14658,16 @@
         <v>7773062</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45366.875</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14673,7 +14676,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J165">
         <v>1.2</v>
@@ -14741,16 +14744,16 @@
         <v>7773778</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45367.625</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14759,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J166">
         <v>1.727</v>
@@ -14827,16 +14830,16 @@
         <v>7773471</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45367.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14845,7 +14848,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J167">
         <v>1.533</v>
@@ -14913,16 +14916,16 @@
         <v>7773473</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45367.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14931,7 +14934,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J168">
         <v>1.615</v>
@@ -14999,16 +15002,16 @@
         <v>7773474</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45368.625</v>
       </c>
       <c r="E169" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" t="s">
         <v>42</v>
-      </c>
-      <c r="F169" t="s">
-        <v>41</v>
       </c>
       <c r="G169">
         <v>3</v>
@@ -15017,7 +15020,7 @@
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J169">
         <v>1.533</v>
@@ -15085,16 +15088,16 @@
         <v>7773472</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45368.72916666666</v>
       </c>
       <c r="E170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15103,7 +15106,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J170">
         <v>2.05</v>
@@ -15171,16 +15174,16 @@
         <v>7773470</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45368.83333333334</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15189,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>2.2</v>
@@ -15257,16 +15260,16 @@
         <v>7773480</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45370.77083333334</v>
       </c>
       <c r="E172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15275,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15343,16 +15346,16 @@
         <v>7773777</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45370.875</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15361,7 +15364,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15429,16 +15432,16 @@
         <v>7977166</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45371.77083333334</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15447,7 +15450,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J174">
         <v>2.15</v>
@@ -15515,16 +15518,16 @@
         <v>7773478</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45371.875</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15533,7 +15536,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J175">
         <v>1.5</v>
@@ -15601,16 +15604,16 @@
         <v>7773063</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45372.77083333334</v>
       </c>
       <c r="E176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15619,7 +15622,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J176">
         <v>3.25</v>
@@ -15687,16 +15690,16 @@
         <v>7773481</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45372.875</v>
       </c>
       <c r="E177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15705,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J177">
         <v>1.666</v>
@@ -15773,16 +15776,16 @@
         <v>7773776</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45374.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15791,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15859,16 +15862,16 @@
         <v>7773486</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45375.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15877,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J179">
         <v>2.1</v>
@@ -15945,16 +15948,16 @@
         <v>7773485</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45375.72916666666</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15963,7 +15966,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J180">
         <v>2.25</v>
@@ -16031,16 +16034,16 @@
         <v>7773064</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45375.83333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16049,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J181">
         <v>1.615</v>
@@ -16117,16 +16120,16 @@
         <v>7773487</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45376.77083333334</v>
       </c>
       <c r="E182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16135,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J182">
         <v>1.5</v>
@@ -16203,16 +16206,16 @@
         <v>7773482</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45376.875</v>
       </c>
       <c r="E183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16221,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J183">
         <v>3</v>
@@ -16289,16 +16292,16 @@
         <v>7773775</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45379.875</v>
       </c>
       <c r="E184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G184">
         <v>5</v>
@@ -16307,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J184">
         <v>1.2</v>
@@ -16375,16 +16378,16 @@
         <v>7773488</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45380.875</v>
       </c>
       <c r="E185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16393,7 +16396,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J185">
         <v>3.1</v>
@@ -16461,16 +16464,16 @@
         <v>8016804</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45381.625</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16479,7 +16482,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>2.55</v>
@@ -16547,16 +16550,16 @@
         <v>8018935</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45381.72916666666</v>
       </c>
       <c r="E187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16565,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J187">
         <v>2.7</v>
@@ -16633,16 +16636,16 @@
         <v>7773490</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45381.83333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16651,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J188">
         <v>3.1</v>
@@ -16719,16 +16722,16 @@
         <v>7773493</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45382.625</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G189">
         <v>5</v>
@@ -16737,7 +16740,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J189">
         <v>1.4</v>
@@ -16805,16 +16808,16 @@
         <v>7773492</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16823,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J190">
         <v>2.1</v>
@@ -16891,16 +16894,16 @@
         <v>8018936</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16909,7 +16912,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J191">
         <v>2.375</v>
@@ -16977,16 +16980,16 @@
         <v>8040559</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45387.875</v>
       </c>
       <c r="E192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16995,7 +16998,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J192">
         <v>1.85</v>
@@ -17063,16 +17066,16 @@
         <v>7773497</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45388.625</v>
       </c>
       <c r="E193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17081,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J193">
         <v>1.363</v>
@@ -17149,16 +17152,16 @@
         <v>7773495</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45388.72916666666</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17167,7 +17170,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J194">
         <v>4</v>
@@ -17235,16 +17238,16 @@
         <v>8040560</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17253,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J195">
         <v>1.6</v>
@@ -17321,16 +17324,16 @@
         <v>7773066</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45389.625</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17339,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J196">
         <v>1.3</v>
@@ -17407,16 +17410,16 @@
         <v>8040561</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45389.72916666666</v>
       </c>
       <c r="E197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17425,7 +17428,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J197">
         <v>2.8</v>
@@ -17493,16 +17496,16 @@
         <v>8040562</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17511,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J198">
         <v>2.7</v>
@@ -17579,16 +17582,16 @@
         <v>7773774</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45390.875</v>
       </c>
       <c r="E199" t="s">
+        <v>52</v>
+      </c>
+      <c r="F199" t="s">
         <v>51</v>
-      </c>
-      <c r="F199" t="s">
-        <v>50</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17597,7 +17600,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17665,16 +17668,16 @@
         <v>7773501</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45394.875</v>
       </c>
       <c r="E200" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F200" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -17683,7 +17686,7 @@
         <v>3</v>
       </c>
       <c r="I200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J200">
         <v>3</v>
@@ -17751,16 +17754,16 @@
         <v>7773503</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45395.625</v>
       </c>
       <c r="E201" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17769,7 +17772,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17837,16 +17840,16 @@
         <v>8069719</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17855,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J202">
         <v>1.95</v>
@@ -17923,16 +17926,16 @@
         <v>8069537</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17941,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J203">
         <v>1.28</v>
@@ -18009,16 +18012,16 @@
         <v>7773067</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45396.625</v>
       </c>
       <c r="E204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18027,7 +18030,7 @@
         <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J204">
         <v>2.3</v>
@@ -18095,16 +18098,16 @@
         <v>8069720</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45396.72916666666</v>
       </c>
       <c r="E205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F205" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18113,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J205">
         <v>1.7</v>
@@ -18181,16 +18184,16 @@
         <v>8069721</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18199,7 +18202,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J206">
         <v>4</v>
@@ -18267,16 +18270,16 @@
         <v>7773504</v>
       </c>
       <c r="C207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45397.875</v>
       </c>
       <c r="E207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18285,7 +18288,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J207">
         <v>1.363</v>
@@ -18353,16 +18356,16 @@
         <v>7773511</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D208" s="2">
         <v>45399.77083333334</v>
       </c>
       <c r="E208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18371,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J208">
         <v>2.4</v>
@@ -18439,16 +18442,16 @@
         <v>7773510</v>
       </c>
       <c r="C209" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D209" s="2">
         <v>45399.875</v>
       </c>
       <c r="E209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -18457,7 +18460,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J209">
         <v>1.95</v>
@@ -18525,16 +18528,16 @@
         <v>7773772</v>
       </c>
       <c r="C210" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
         <v>45400.66666666666</v>
       </c>
       <c r="E210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G210">
         <v>2</v>
@@ -18543,7 +18546,7 @@
         <v>2</v>
       </c>
       <c r="I210" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J210">
         <v>4.5</v>
@@ -18611,16 +18614,16 @@
         <v>7773068</v>
       </c>
       <c r="C211" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D211" s="2">
         <v>45400.77083333334</v>
       </c>
       <c r="E211" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18629,7 +18632,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J211">
         <v>1.333</v>
@@ -18697,16 +18700,16 @@
         <v>7773508</v>
       </c>
       <c r="C212" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D212" s="2">
         <v>45400.875</v>
       </c>
       <c r="E212" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -18715,7 +18718,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J212">
         <v>1.45</v>
@@ -18783,16 +18786,16 @@
         <v>7773509</v>
       </c>
       <c r="C213" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D213" s="2">
         <v>45401.66666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18801,7 +18804,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J213">
         <v>2</v>
@@ -18866,67 +18869,67 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7773507</v>
+        <v>7773506</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D214" s="2">
         <v>45401.77083333334</v>
       </c>
       <c r="E214" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F214" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G214">
+        <v>3</v>
+      </c>
+      <c r="H214">
         <v>1</v>
       </c>
-      <c r="H214">
-        <v>0</v>
-      </c>
       <c r="I214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K214">
         <v>3.25</v>
       </c>
       <c r="L214">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="M214">
+        <v>1.8</v>
+      </c>
+      <c r="N214">
         <v>3.4</v>
       </c>
-      <c r="N214">
-        <v>3</v>
-      </c>
       <c r="O214">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="P214">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T214">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U214">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V214">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
@@ -18935,16 +18938,16 @@
         <v>-1</v>
       </c>
       <c r="Y214">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB214">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -18952,67 +18955,67 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7773506</v>
+        <v>7773507</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D215" s="2">
         <v>45401.77083333334</v>
       </c>
       <c r="E215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F215" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J215">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K215">
         <v>3.25</v>
       </c>
       <c r="L215">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="M215">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="N215">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O215">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="P215">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q215">
+        <v>1.9</v>
+      </c>
+      <c r="R215">
+        <v>1.9</v>
+      </c>
+      <c r="S215">
+        <v>2.5</v>
+      </c>
+      <c r="T215">
+        <v>1.975</v>
+      </c>
+      <c r="U215">
         <v>1.825</v>
       </c>
-      <c r="R215">
-        <v>1.975</v>
-      </c>
-      <c r="S215">
-        <v>2.25</v>
-      </c>
-      <c r="T215">
-        <v>1.85</v>
-      </c>
-      <c r="U215">
-        <v>1.95</v>
-      </c>
       <c r="V215">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="W215">
         <v>-1</v>
@@ -19021,16 +19024,16 @@
         <v>-1</v>
       </c>
       <c r="Y215">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z215">
+        <v>-1</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
         <v>0.825</v>
-      </c>
-      <c r="Z215">
-        <v>-1</v>
-      </c>
-      <c r="AA215">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB215">
-        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:28">
@@ -19041,52 +19044,52 @@
         <v>27</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D216" s="2">
-        <v>45408.875</v>
+        <v>45409.625</v>
       </c>
       <c r="E216" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J216">
-        <v>1.909</v>
+        <v>1.222</v>
       </c>
       <c r="K216">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="L216">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="M216">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="N216">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O216">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="P216">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q216">
+        <v>1.95</v>
+      </c>
+      <c r="R216">
+        <v>1.85</v>
+      </c>
+      <c r="S216">
+        <v>3.25</v>
+      </c>
+      <c r="T216">
         <v>1.975</v>
       </c>
-      <c r="R216">
+      <c r="U216">
         <v>1.825</v>
-      </c>
-      <c r="S216">
-        <v>2.5</v>
-      </c>
-      <c r="T216">
-        <v>1.85</v>
-      </c>
-      <c r="U216">
-        <v>1.95</v>
       </c>
       <c r="V216">
         <v>0</v>
@@ -19106,52 +19109,52 @@
         <v>28</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D217" s="2">
-        <v>45409.625</v>
+        <v>45409.72916666666</v>
       </c>
       <c r="E217" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J217">
-        <v>1.222</v>
+        <v>2.5</v>
       </c>
       <c r="K217">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="L217">
-        <v>10</v>
+        <v>2.9</v>
       </c>
       <c r="M217">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="N217">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="O217">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="P217">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q217">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="R217">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S217">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="T217">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U217">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V217">
         <v>0</v>
@@ -19171,52 +19174,52 @@
         <v>29</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D218" s="2">
-        <v>45409.72916666666</v>
+        <v>45409.83333333334</v>
       </c>
       <c r="E218" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F218" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J218">
+        <v>1.4</v>
+      </c>
+      <c r="K218">
+        <v>4.5</v>
+      </c>
+      <c r="L218">
+        <v>7</v>
+      </c>
+      <c r="M218">
+        <v>1.45</v>
+      </c>
+      <c r="N218">
+        <v>4.2</v>
+      </c>
+      <c r="O218">
+        <v>6.5</v>
+      </c>
+      <c r="P218">
+        <v>-1</v>
+      </c>
+      <c r="Q218">
+        <v>1.8</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
         <v>2.5</v>
       </c>
-      <c r="K218">
-        <v>3</v>
-      </c>
-      <c r="L218">
-        <v>2.9</v>
-      </c>
-      <c r="M218">
-        <v>2.375</v>
-      </c>
-      <c r="N218">
-        <v>3</v>
-      </c>
-      <c r="O218">
-        <v>3.1</v>
-      </c>
-      <c r="P218">
-        <v>-0.25</v>
-      </c>
-      <c r="Q218">
-        <v>2</v>
-      </c>
-      <c r="R218">
-        <v>1.8</v>
-      </c>
-      <c r="S218">
-        <v>2.25</v>
-      </c>
       <c r="T218">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U218">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V218">
         <v>0</v>
@@ -19236,52 +19239,52 @@
         <v>30</v>
       </c>
       <c r="C219" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D219" s="2">
-        <v>45409.83333333334</v>
+        <v>45410.60416666666</v>
       </c>
       <c r="E219" t="s">
+        <v>52</v>
+      </c>
+      <c r="F219" t="s">
         <v>35</v>
       </c>
-      <c r="F219" t="s">
-        <v>39</v>
-      </c>
       <c r="J219">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="K219">
+        <v>3.75</v>
+      </c>
+      <c r="L219">
+        <v>1.571</v>
+      </c>
+      <c r="M219">
         <v>4.5</v>
       </c>
-      <c r="L219">
-        <v>7</v>
-      </c>
-      <c r="M219">
-        <v>1.45</v>
-      </c>
       <c r="N219">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O219">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="P219">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Q219">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S219">
         <v>2.5</v>
       </c>
       <c r="T219">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
         <v>0</v>
@@ -19301,52 +19304,52 @@
         <v>31</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D220" s="2">
-        <v>45410.83333333334</v>
+        <v>45410.70833333334</v>
       </c>
       <c r="E220" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F220" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J220">
+        <v>2.875</v>
+      </c>
+      <c r="K220">
+        <v>3.25</v>
+      </c>
+      <c r="L220">
         <v>2.25</v>
       </c>
-      <c r="K220">
-        <v>3.1</v>
-      </c>
-      <c r="L220">
-        <v>3</v>
-      </c>
       <c r="M220">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N220">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O220">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="P220">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q220">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S220">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T220">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
         <v>0</v>
@@ -19366,60 +19369,125 @@
         <v>32</v>
       </c>
       <c r="C221" t="s">
+        <v>34</v>
+      </c>
+      <c r="D221" s="2">
+        <v>45410.83333333334</v>
+      </c>
+      <c r="E221" t="s">
+        <v>49</v>
+      </c>
+      <c r="F221" t="s">
+        <v>38</v>
+      </c>
+      <c r="J221">
+        <v>2.25</v>
+      </c>
+      <c r="K221">
+        <v>3.1</v>
+      </c>
+      <c r="L221">
+        <v>3</v>
+      </c>
+      <c r="M221">
+        <v>2.2</v>
+      </c>
+      <c r="N221">
+        <v>3.1</v>
+      </c>
+      <c r="O221">
+        <v>3.1</v>
+      </c>
+      <c r="P221">
+        <v>-0.25</v>
+      </c>
+      <c r="Q221">
+        <v>1.95</v>
+      </c>
+      <c r="R221">
+        <v>1.85</v>
+      </c>
+      <c r="S221">
+        <v>2.25</v>
+      </c>
+      <c r="T221">
+        <v>1.825</v>
+      </c>
+      <c r="U221">
+        <v>1.975</v>
+      </c>
+      <c r="V221">
+        <v>0</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:28">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
         <v>33</v>
       </c>
-      <c r="D221" s="2">
+      <c r="C222" t="s">
+        <v>34</v>
+      </c>
+      <c r="D222" s="2">
         <v>45411.875</v>
       </c>
-      <c r="E221" t="s">
-        <v>44</v>
-      </c>
-      <c r="F221" t="s">
+      <c r="E222" t="s">
         <v>45</v>
       </c>
-      <c r="J221">
+      <c r="F222" t="s">
+        <v>46</v>
+      </c>
+      <c r="J222">
         <v>1.8</v>
       </c>
-      <c r="K221">
+      <c r="K222">
         <v>3.4</v>
       </c>
-      <c r="L221">
+      <c r="L222">
         <v>4</v>
       </c>
-      <c r="M221">
+      <c r="M222">
         <v>1.615</v>
       </c>
-      <c r="N221">
+      <c r="N222">
         <v>3.6</v>
       </c>
-      <c r="O221">
+      <c r="O222">
         <v>5</v>
       </c>
-      <c r="P221">
+      <c r="P222">
         <v>-0.75</v>
       </c>
-      <c r="Q221">
+      <c r="Q222">
         <v>1.85</v>
       </c>
-      <c r="R221">
+      <c r="R222">
         <v>1.95</v>
       </c>
-      <c r="S221">
+      <c r="S222">
         <v>2.5</v>
       </c>
-      <c r="T221">
+      <c r="T222">
         <v>1.875</v>
       </c>
-      <c r="U221">
+      <c r="U222">
         <v>1.925</v>
       </c>
-      <c r="V221">
-        <v>0</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -11645,7 +11645,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
@@ -11654,61 +11654,61 @@
         <v>45255.83333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="s">
         <v>55</v>
       </c>
       <c r="J130">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="K130">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L130">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O130">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P130">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
         <v>2.5</v>
       </c>
       <c r="T130">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U130">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
         <v>-1</v>
       </c>
       <c r="W130">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -11717,13 +11717,13 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11731,7 +11731,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483081</v>
+        <v>7483281</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
@@ -11740,76 +11740,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J131">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="K131">
         <v>3.25</v>
       </c>
       <c r="L131">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11817,7 +11817,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483247</v>
+        <v>7483081</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
@@ -11826,76 +11826,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J132">
+        <v>2.75</v>
+      </c>
+      <c r="K132">
         <v>3.25</v>
       </c>
-      <c r="K132">
-        <v>3.2</v>
-      </c>
       <c r="L132">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="M132">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N132">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O132">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P132">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q132">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V132">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11903,7 +11903,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C133" t="s">
         <v>34</v>
@@ -11912,76 +11912,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J133">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="K133">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L133">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="M133">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="N133">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O133">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="P133">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q133">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
         <v>2.5</v>
       </c>
       <c r="T133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
         <v>-1</v>
       </c>
       <c r="W133">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11989,7 +11989,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C134" t="s">
         <v>34</v>
@@ -11998,76 +11998,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J134">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="K134">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L134">
+        <v>7.5</v>
+      </c>
+      <c r="M134">
+        <v>1.444</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134">
+        <v>8</v>
+      </c>
+      <c r="P134">
+        <v>-1.25</v>
+      </c>
+      <c r="Q134">
         <v>2.05</v>
       </c>
-      <c r="M134">
-        <v>2.6</v>
-      </c>
-      <c r="N134">
-        <v>3.25</v>
-      </c>
-      <c r="O134">
-        <v>2.75</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>1.8</v>
-      </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S134">
         <v>2.5</v>
       </c>
       <c r="T134">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12247,7 +12247,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C137" t="s">
         <v>34</v>
@@ -12256,76 +12256,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J137">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="K137">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L137">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="M137">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N137">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O137">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="P137">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S137">
         <v>2.5</v>
       </c>
       <c r="T137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AA137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12677,7 +12677,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7528848</v>
+        <v>7528857</v>
       </c>
       <c r="C142" t="s">
         <v>34</v>
@@ -12686,76 +12686,76 @@
         <v>45263.83333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J142">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="K142">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L142">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="M142">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="N142">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="O142">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="P142">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q142">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R142">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T142">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V142">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y142">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12763,7 +12763,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528858</v>
+        <v>7528848</v>
       </c>
       <c r="C143" t="s">
         <v>34</v>
@@ -12772,73 +12772,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F143" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143">
         <v>1</v>
       </c>
-      <c r="H143">
-        <v>2</v>
-      </c>
       <c r="I143" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J143">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="K143">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M143">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O143">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P143">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R143">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
         <v>2.25</v>
       </c>
       <c r="T143">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB143">
         <v>-1</v>
@@ -12935,7 +12935,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7528857</v>
+        <v>7528858</v>
       </c>
       <c r="C145" t="s">
         <v>34</v>
@@ -12944,55 +12944,55 @@
         <v>45263.83333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F145" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="s">
         <v>54</v>
       </c>
       <c r="J145">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="K145">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L145">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="N145">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="O145">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T145">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U145">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V145">
         <v>-1</v>
@@ -13001,19 +13001,19 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>4.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:28">
@@ -19065,31 +19065,31 @@
         <v>10</v>
       </c>
       <c r="M216">
-        <v>1.25</v>
+        <v>1.285</v>
       </c>
       <c r="N216">
         <v>6</v>
       </c>
       <c r="O216">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="P216">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q216">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R216">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T216">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
         <v>0</v>
@@ -19130,13 +19130,13 @@
         <v>2.9</v>
       </c>
       <c r="M217">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N217">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O217">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P217">
         <v>-0.25</v>
@@ -19148,13 +19148,13 @@
         <v>1.75</v>
       </c>
       <c r="S217">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T217">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U217">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
         <v>0</v>
@@ -19195,13 +19195,13 @@
         <v>7</v>
       </c>
       <c r="M218">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N218">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O218">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P218">
         <v>-1</v>
@@ -19216,10 +19216,10 @@
         <v>2.5</v>
       </c>
       <c r="T218">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U218">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
         <v>0</v>
@@ -19260,22 +19260,22 @@
         <v>1.571</v>
       </c>
       <c r="M219">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N219">
         <v>3.6</v>
       </c>
       <c r="O219">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="P219">
         <v>0.75</v>
       </c>
       <c r="Q219">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R219">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S219">
         <v>2.5</v>
@@ -19325,31 +19325,31 @@
         <v>2.25</v>
       </c>
       <c r="M220">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="N220">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O220">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="P220">
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R220">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T220">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U220">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V220">
         <v>0</v>
@@ -19390,13 +19390,13 @@
         <v>3</v>
       </c>
       <c r="M221">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N221">
         <v>3.1</v>
       </c>
       <c r="O221">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P221">
         <v>-0.25</v>
@@ -19411,10 +19411,10 @@
         <v>2.25</v>
       </c>
       <c r="T221">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
         <v>0</v>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -543,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB222"/>
+  <dimension ref="A1:AB223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11645,7 +11645,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483189</v>
+        <v>7483081</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
@@ -11654,76 +11654,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J130">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="K130">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="L130">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="M130">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="N130">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="O130">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="P130">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q130">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T130">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11731,7 +11731,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483281</v>
+        <v>7483247</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
@@ -11740,76 +11740,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J131">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="K131">
+        <v>3.2</v>
+      </c>
+      <c r="L131">
+        <v>2.25</v>
+      </c>
+      <c r="M131">
+        <v>3.5</v>
+      </c>
+      <c r="N131">
         <v>3.25</v>
       </c>
-      <c r="L131">
-        <v>4.2</v>
-      </c>
-      <c r="M131">
-        <v>1.909</v>
-      </c>
-      <c r="N131">
-        <v>3.5</v>
-      </c>
       <c r="O131">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="P131">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
         <v>2.5</v>
       </c>
       <c r="T131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
         <v>-1</v>
       </c>
       <c r="W131">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
+        <v>1.025</v>
+      </c>
+      <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
-      <c r="AB131">
-        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11817,7 +11817,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483081</v>
+        <v>7483189</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
@@ -11826,76 +11826,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J132">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="K132">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L132">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="M132">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="N132">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O132">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="P132">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U132">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11903,7 +11903,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483247</v>
+        <v>7483281</v>
       </c>
       <c r="C133" t="s">
         <v>34</v>
@@ -11912,76 +11912,76 @@
         <v>45255.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J133">
+        <v>1.909</v>
+      </c>
+      <c r="K133">
         <v>3.25</v>
       </c>
-      <c r="K133">
-        <v>3.2</v>
-      </c>
       <c r="L133">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="M133">
+        <v>1.909</v>
+      </c>
+      <c r="N133">
         <v>3.5</v>
       </c>
-      <c r="N133">
-        <v>3.25</v>
-      </c>
       <c r="O133">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q133">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
         <v>2.5</v>
       </c>
       <c r="T133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
         <v>-1</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X133">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11989,7 +11989,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C134" t="s">
         <v>34</v>
@@ -11998,76 +11998,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J134">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="K134">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L134">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="M134">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N134">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O134">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="P134">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R134">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S134">
         <v>2.5</v>
       </c>
       <c r="T134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AA134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12247,7 +12247,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7483188</v>
+        <v>7482832</v>
       </c>
       <c r="C137" t="s">
         <v>34</v>
@@ -12256,76 +12256,76 @@
         <v>45256.83333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J137">
-        <v>3.6</v>
+        <v>1.363</v>
       </c>
       <c r="K137">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L137">
+        <v>7.5</v>
+      </c>
+      <c r="M137">
+        <v>1.444</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137">
+        <v>8</v>
+      </c>
+      <c r="P137">
+        <v>-1.25</v>
+      </c>
+      <c r="Q137">
         <v>2.05</v>
       </c>
-      <c r="M137">
-        <v>2.6</v>
-      </c>
-      <c r="N137">
-        <v>3.25</v>
-      </c>
-      <c r="O137">
-        <v>2.75</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-      <c r="Q137">
-        <v>1.8</v>
-      </c>
       <c r="R137">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
         <v>2.5</v>
       </c>
       <c r="T137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z137">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12763,7 +12763,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7528848</v>
+        <v>7528852</v>
       </c>
       <c r="C143" t="s">
         <v>34</v>
@@ -12772,73 +12772,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G143">
         <v>2</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J143">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="K143">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="M143">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="N143">
+        <v>3.4</v>
+      </c>
+      <c r="O143">
         <v>3.1</v>
-      </c>
-      <c r="O143">
-        <v>2.75</v>
       </c>
       <c r="P143">
         <v>-0.25</v>
       </c>
       <c r="Q143">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S143">
         <v>2.25</v>
       </c>
       <c r="T143">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA143">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB143">
         <v>-1</v>
@@ -12849,7 +12849,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7528852</v>
+        <v>7528848</v>
       </c>
       <c r="C144" t="s">
         <v>34</v>
@@ -12858,73 +12858,73 @@
         <v>45263.83333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G144">
         <v>2</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J144">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L144">
+        <v>4.2</v>
+      </c>
+      <c r="M144">
+        <v>2.4</v>
+      </c>
+      <c r="N144">
         <v>3.1</v>
       </c>
-      <c r="M144">
-        <v>2.1</v>
-      </c>
-      <c r="N144">
-        <v>3.4</v>
-      </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P144">
         <v>-0.25</v>
       </c>
       <c r="Q144">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
         <v>2.25</v>
       </c>
       <c r="T144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W144">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z144">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -19040,65 +19040,86 @@
       <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="s">
-        <v>27</v>
+      <c r="B216">
+        <v>7773516</v>
       </c>
       <c r="C216" t="s">
         <v>34</v>
       </c>
       <c r="D216" s="2">
-        <v>45409.625</v>
+        <v>45408.875</v>
       </c>
       <c r="E216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="G216">
+        <v>5</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216" t="s">
+        <v>53</v>
       </c>
       <c r="J216">
-        <v>1.222</v>
+        <v>1.909</v>
       </c>
       <c r="K216">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="L216">
-        <v>10</v>
+        <v>3.75</v>
       </c>
       <c r="M216">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="N216">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="O216">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="P216">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q216">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R216">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T216">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X216">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z216">
+        <v>-1</v>
+      </c>
+      <c r="AA216">
+        <v>0.825</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:28">
@@ -19106,55 +19127,55 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C217" t="s">
         <v>34</v>
       </c>
       <c r="D217" s="2">
-        <v>45409.72916666666</v>
+        <v>45409.625</v>
       </c>
       <c r="E217" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F217" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J217">
-        <v>2.5</v>
+        <v>1.222</v>
       </c>
       <c r="K217">
+        <v>6.5</v>
+      </c>
+      <c r="L217">
+        <v>10</v>
+      </c>
+      <c r="M217">
+        <v>1.285</v>
+      </c>
+      <c r="N217">
+        <v>5.75</v>
+      </c>
+      <c r="O217">
+        <v>7.5</v>
+      </c>
+      <c r="P217">
+        <v>-1.5</v>
+      </c>
+      <c r="Q217">
+        <v>1.8</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
         <v>3</v>
       </c>
-      <c r="L217">
-        <v>2.9</v>
-      </c>
-      <c r="M217">
-        <v>2.45</v>
-      </c>
-      <c r="N217">
-        <v>2.875</v>
-      </c>
-      <c r="O217">
-        <v>3.2</v>
-      </c>
-      <c r="P217">
-        <v>-0.25</v>
-      </c>
-      <c r="Q217">
-        <v>2.05</v>
-      </c>
-      <c r="R217">
-        <v>1.75</v>
-      </c>
-      <c r="S217">
-        <v>2</v>
-      </c>
       <c r="T217">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U217">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V217">
         <v>0</v>
@@ -19171,55 +19192,55 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C218" t="s">
         <v>34</v>
       </c>
       <c r="D218" s="2">
-        <v>45409.83333333334</v>
+        <v>45409.72916666666</v>
       </c>
       <c r="E218" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J218">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K218">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="L218">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="M218">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="N218">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O218">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q218">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R218">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S218">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T218">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U218">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
         <v>0</v>
@@ -19236,55 +19257,55 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C219" t="s">
         <v>34</v>
       </c>
       <c r="D219" s="2">
-        <v>45410.60416666666</v>
+        <v>45409.83333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J219">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="K219">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L219">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="M219">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N219">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O219">
-        <v>1.65</v>
+        <v>6</v>
       </c>
       <c r="P219">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q219">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R219">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S219">
         <v>2.5</v>
       </c>
       <c r="T219">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V219">
         <v>0</v>
@@ -19301,55 +19322,55 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C220" t="s">
         <v>34</v>
       </c>
       <c r="D220" s="2">
-        <v>45410.70833333334</v>
+        <v>45410.60416666666</v>
       </c>
       <c r="E220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F220" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J220">
-        <v>2.875</v>
+        <v>5</v>
       </c>
       <c r="K220">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L220">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="M220">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="N220">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O220">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="P220">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q220">
+        <v>1.95</v>
+      </c>
+      <c r="R220">
+        <v>1.85</v>
+      </c>
+      <c r="S220">
+        <v>2.5</v>
+      </c>
+      <c r="T220">
         <v>1.9</v>
       </c>
-      <c r="R220">
+      <c r="U220">
         <v>1.9</v>
-      </c>
-      <c r="S220">
-        <v>2.25</v>
-      </c>
-      <c r="T220">
-        <v>1.775</v>
-      </c>
-      <c r="U220">
-        <v>2.025</v>
       </c>
       <c r="V220">
         <v>0</v>
@@ -19366,55 +19387,55 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C221" t="s">
         <v>34</v>
       </c>
       <c r="D221" s="2">
-        <v>45410.83333333334</v>
+        <v>45410.70833333334</v>
       </c>
       <c r="E221" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J221">
+        <v>2.875</v>
+      </c>
+      <c r="K221">
+        <v>3.25</v>
+      </c>
+      <c r="L221">
         <v>2.25</v>
       </c>
-      <c r="K221">
-        <v>3.1</v>
-      </c>
-      <c r="L221">
-        <v>3</v>
-      </c>
       <c r="M221">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="N221">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="P221">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q221">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S221">
         <v>2.25</v>
       </c>
       <c r="T221">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V221">
         <v>0</v>
@@ -19431,63 +19452,128 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
+        <v>32</v>
+      </c>
+      <c r="C222" t="s">
+        <v>34</v>
+      </c>
+      <c r="D222" s="2">
+        <v>45410.83333333334</v>
+      </c>
+      <c r="E222" t="s">
+        <v>49</v>
+      </c>
+      <c r="F222" t="s">
+        <v>38</v>
+      </c>
+      <c r="J222">
+        <v>2.25</v>
+      </c>
+      <c r="K222">
+        <v>3.1</v>
+      </c>
+      <c r="L222">
+        <v>3</v>
+      </c>
+      <c r="M222">
+        <v>2.25</v>
+      </c>
+      <c r="N222">
+        <v>3.1</v>
+      </c>
+      <c r="O222">
+        <v>3.2</v>
+      </c>
+      <c r="P222">
+        <v>-0.25</v>
+      </c>
+      <c r="Q222">
+        <v>1.95</v>
+      </c>
+      <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>2.25</v>
+      </c>
+      <c r="T222">
+        <v>1.85</v>
+      </c>
+      <c r="U222">
+        <v>1.95</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:28">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
         <v>33</v>
       </c>
-      <c r="C222" t="s">
-        <v>34</v>
-      </c>
-      <c r="D222" s="2">
+      <c r="C223" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223" s="2">
         <v>45411.875</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E223" t="s">
         <v>45</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F223" t="s">
         <v>46</v>
       </c>
-      <c r="J222">
+      <c r="J223">
         <v>1.8</v>
       </c>
-      <c r="K222">
+      <c r="K223">
         <v>3.4</v>
       </c>
-      <c r="L222">
+      <c r="L223">
         <v>4</v>
       </c>
-      <c r="M222">
-        <v>1.615</v>
-      </c>
-      <c r="N222">
-        <v>3.6</v>
-      </c>
-      <c r="O222">
-        <v>5</v>
-      </c>
-      <c r="P222">
+      <c r="M223">
+        <v>1.727</v>
+      </c>
+      <c r="N223">
+        <v>3.5</v>
+      </c>
+      <c r="O223">
+        <v>4.333</v>
+      </c>
+      <c r="P223">
         <v>-0.75</v>
       </c>
-      <c r="Q222">
-        <v>1.85</v>
-      </c>
-      <c r="R222">
-        <v>1.95</v>
-      </c>
-      <c r="S222">
+      <c r="Q223">
+        <v>2</v>
+      </c>
+      <c r="R223">
+        <v>1.8</v>
+      </c>
+      <c r="S223">
         <v>2.5</v>
       </c>
-      <c r="T222">
+      <c r="T223">
+        <v>1.925</v>
+      </c>
+      <c r="U223">
         <v>1.875</v>
       </c>
-      <c r="U222">
-        <v>1.925</v>
-      </c>
-      <c r="V222">
-        <v>0</v>
-      </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-      <c r="X222">
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -95,15 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7773514</t>
-  </si>
-  <si>
-    <t>7773518</t>
-  </si>
-  <si>
-    <t>7773515</t>
   </si>
   <si>
     <t>7773771</t>
@@ -543,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB223"/>
+  <dimension ref="A1:AB220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,25 +631,25 @@
         <v>6215239</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45079.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>50</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
       </c>
       <c r="J2">
         <v>1.4</v>
@@ -726,16 +717,16 @@
         <v>6215580</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45079.89583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -744,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -812,16 +803,16 @@
         <v>6215695</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -830,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -898,16 +889,16 @@
         <v>6215690</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -916,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J5">
         <v>1.727</v>
@@ -984,16 +975,16 @@
         <v>6215692</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45081.625</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1002,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1070,16 +1061,16 @@
         <v>6215691</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45081.72916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1088,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1156,16 +1147,16 @@
         <v>6215693</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45081.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1174,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J8">
         <v>3.1</v>
@@ -1242,16 +1233,16 @@
         <v>6215694</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45082.875</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1260,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1328,16 +1319,16 @@
         <v>6215699</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45086.875</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1346,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>1.533</v>
@@ -1414,16 +1405,16 @@
         <v>6215698</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45087.625</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1432,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>2.625</v>
@@ -1500,17 +1491,17 @@
         <v>6215241</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45087.72916666666</v>
       </c>
       <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -1518,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12">
         <v>1.25</v>
@@ -1586,16 +1577,16 @@
         <v>6215700</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1604,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1672,25 +1663,25 @@
         <v>6215240</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45088.625</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
         <v>50</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>53</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -1758,16 +1749,16 @@
         <v>6751437</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45088.72916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1776,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J15">
         <v>4.75</v>
@@ -1844,16 +1835,16 @@
         <v>6215697</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45088.83333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1862,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J16">
         <v>3.8</v>
@@ -1930,16 +1921,16 @@
         <v>6215701</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45089.875</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1948,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -2016,16 +2007,16 @@
         <v>6774494</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45093.875</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2034,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J18">
         <v>1.533</v>
@@ -2102,16 +2093,16 @@
         <v>6774496</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45094.625</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2120,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>2.5</v>
@@ -2188,16 +2179,16 @@
         <v>6774497</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45094.72916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2206,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>2.15</v>
@@ -2274,16 +2265,16 @@
         <v>6215242</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45094.83333333334</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2292,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2360,16 +2351,16 @@
         <v>6215702</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45095.72916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2378,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>2.6</v>
@@ -2446,16 +2437,16 @@
         <v>6774495</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45095.83333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2464,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J23">
         <v>1.85</v>
@@ -2532,16 +2523,16 @@
         <v>6774499</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45096.875</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2550,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>1.909</v>
@@ -2618,25 +2609,25 @@
         <v>6778185</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45100.875</v>
       </c>
       <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
         <v>50</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>53</v>
       </c>
       <c r="J25">
         <v>1.833</v>
@@ -2704,16 +2695,16 @@
         <v>6215710</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45142.875</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2722,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J26">
         <v>2.875</v>
@@ -2790,16 +2781,16 @@
         <v>6215713</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45143.625</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2808,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J27">
         <v>1.571</v>
@@ -2876,16 +2867,16 @@
         <v>6215712</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45143.72916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2894,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2962,16 +2953,16 @@
         <v>6215244</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2980,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J29">
         <v>1.75</v>
@@ -3048,16 +3039,16 @@
         <v>6215711</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45144.625</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3066,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J30">
         <v>3.8</v>
@@ -3134,16 +3125,16 @@
         <v>6215709</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45144.72916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3152,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J31">
         <v>1.833</v>
@@ -3220,17 +3211,17 @@
         <v>6215708</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
         <v>38</v>
       </c>
-      <c r="F32" t="s">
-        <v>41</v>
-      </c>
       <c r="G32">
         <v>2</v>
       </c>
@@ -3238,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J32">
         <v>1.333</v>
@@ -3306,16 +3297,16 @@
         <v>6215245</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45145.875</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3324,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>1.4</v>
@@ -3392,16 +3383,16 @@
         <v>6215718</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45149.8125</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3410,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J34">
         <v>3.5</v>
@@ -3478,16 +3469,16 @@
         <v>6215717</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45149.91666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3496,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J35">
         <v>2.3</v>
@@ -3564,16 +3555,16 @@
         <v>6215715</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45150.625</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3582,7 +3573,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J36">
         <v>1.8</v>
@@ -3650,16 +3641,16 @@
         <v>6215720</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45150.72916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3668,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J37">
         <v>2.5</v>
@@ -3736,16 +3727,16 @@
         <v>6215714</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3754,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3822,16 +3813,16 @@
         <v>6215719</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45151.625</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3840,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J39">
         <v>1.25</v>
@@ -3908,16 +3899,16 @@
         <v>6215716</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -3926,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3994,16 +3985,16 @@
         <v>6215246</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45151.83333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4012,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4080,16 +4071,16 @@
         <v>6215724</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45154.77083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4098,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J42">
         <v>1.666</v>
@@ -4166,16 +4157,16 @@
         <v>6215725</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45154.875</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4184,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4252,16 +4243,16 @@
         <v>6215723</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45155.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4270,7 +4261,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J44">
         <v>2.75</v>
@@ -4338,16 +4329,16 @@
         <v>6215248</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45155.77083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4356,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -4424,16 +4415,16 @@
         <v>6215726</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45155.875</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4442,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4510,16 +4501,16 @@
         <v>6215722</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45156.70833333334</v>
       </c>
       <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" t="s">
         <v>39</v>
-      </c>
-      <c r="F47" t="s">
-        <v>42</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4528,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J47">
         <v>2.55</v>
@@ -4596,16 +4587,16 @@
         <v>6215247</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45156.8125</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4614,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J48">
         <v>1.615</v>
@@ -4682,16 +4673,16 @@
         <v>6215721</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45156.91666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4700,7 +4691,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J49">
         <v>2.75</v>
@@ -4768,16 +4759,16 @@
         <v>6215728</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45163.875</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4786,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J50">
         <v>1.45</v>
@@ -4854,16 +4845,16 @@
         <v>6215731</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45164.625</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4872,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J51">
         <v>1.533</v>
@@ -4940,16 +4931,16 @@
         <v>7096686</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45164.72916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4958,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -5026,16 +5017,16 @@
         <v>7096687</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5044,7 +5035,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J53">
         <v>2.8</v>
@@ -5112,16 +5103,16 @@
         <v>6215579</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45165.625</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5130,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J54">
         <v>1.615</v>
@@ -5198,16 +5189,16 @@
         <v>6215729</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45165.72916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5216,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J55">
         <v>1.666</v>
@@ -5284,16 +5275,16 @@
         <v>6215260</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45165.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5302,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J56">
         <v>3.75</v>
@@ -5370,16 +5361,16 @@
         <v>6215727</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45166.875</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5388,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -5456,16 +5447,16 @@
         <v>6215734</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45170.875</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5474,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J58">
         <v>3.2</v>
@@ -5542,16 +5533,16 @@
         <v>6215736</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45171.625</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5560,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5628,16 +5619,16 @@
         <v>6215738</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45171.72916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5646,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5714,16 +5705,16 @@
         <v>6215261</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5732,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5800,16 +5791,16 @@
         <v>6215735</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45172.625</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5818,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J62">
         <v>2.5</v>
@@ -5886,16 +5877,16 @@
         <v>7137552</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45172.72916666666</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -5904,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5972,16 +5963,16 @@
         <v>6215733</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5990,7 +5981,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6058,16 +6049,16 @@
         <v>6215262</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45173.875</v>
       </c>
       <c r="E65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6076,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J65">
         <v>1.444</v>
@@ -6144,16 +6135,16 @@
         <v>6215744</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45184.875</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6162,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J66">
         <v>2.625</v>
@@ -6230,16 +6221,16 @@
         <v>6215743</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45185.625</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6248,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J67">
         <v>2.375</v>
@@ -6316,16 +6307,16 @@
         <v>6215741</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45185.72916666666</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6334,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J68">
         <v>2.9</v>
@@ -6402,16 +6393,16 @@
         <v>6215739</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45185.83333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6420,7 +6411,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J69">
         <v>2.3</v>
@@ -6488,16 +6479,16 @@
         <v>6215263</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45186.60416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6506,7 +6497,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J70">
         <v>1.8</v>
@@ -6574,16 +6565,16 @@
         <v>6215742</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45186.70833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6592,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J71">
         <v>1.25</v>
@@ -6660,16 +6651,16 @@
         <v>6215264</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45186.83333333334</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6678,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6746,16 +6737,16 @@
         <v>6215740</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45187.875</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6764,7 +6755,7 @@
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J73">
         <v>2.2</v>
@@ -6832,16 +6823,16 @@
         <v>6215266</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45191.875</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6850,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6918,16 +6909,16 @@
         <v>6215750</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45192.625</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6936,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J75">
         <v>1.444</v>
@@ -7004,16 +6995,16 @@
         <v>6215747</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45192.72916666666</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7022,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J76">
         <v>1.666</v>
@@ -7090,16 +7081,16 @@
         <v>6215749</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7108,7 +7099,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J77">
         <v>3.1</v>
@@ -7176,16 +7167,16 @@
         <v>6215265</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45193.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7194,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J78">
         <v>2.8</v>
@@ -7262,16 +7253,16 @@
         <v>7236128</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45193.77083333334</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7280,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J79">
         <v>1.65</v>
@@ -7348,16 +7339,16 @@
         <v>6215746</v>
       </c>
       <c r="C80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45193.875</v>
       </c>
       <c r="E80" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7366,7 +7357,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J80">
         <v>2.625</v>
@@ -7434,16 +7425,16 @@
         <v>6215748</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45194.875</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7452,7 +7443,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J81">
         <v>2.6</v>
@@ -7520,16 +7511,16 @@
         <v>6215753</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45198.875</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7538,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7606,16 +7597,16 @@
         <v>6215755</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45199.625</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7624,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J83">
         <v>1.666</v>
@@ -7692,16 +7683,16 @@
         <v>6215752</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45199.72916666666</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7710,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J84">
         <v>2.4</v>
@@ -7778,16 +7769,16 @@
         <v>6215754</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45199.83333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7796,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7864,16 +7855,16 @@
         <v>6215267</v>
       </c>
       <c r="C86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45200.625</v>
       </c>
       <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
         <v>47</v>
-      </c>
-      <c r="F86" t="s">
-        <v>50</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7882,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J86">
         <v>2.8</v>
@@ -7950,16 +7941,16 @@
         <v>6215756</v>
       </c>
       <c r="C87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45200.72916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7968,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8036,16 +8027,16 @@
         <v>6215751</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45200.83333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8054,7 +8045,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J88">
         <v>1.6</v>
@@ -8122,16 +8113,16 @@
         <v>6215757</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45205.875</v>
       </c>
       <c r="E89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8140,7 +8131,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J89">
         <v>2.375</v>
@@ -8208,16 +8199,16 @@
         <v>6215762</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45206.625</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8226,7 +8217,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J90">
         <v>1.666</v>
@@ -8294,16 +8285,16 @@
         <v>6215759</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45206.72916666666</v>
       </c>
       <c r="E91" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8312,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J91">
         <v>1.444</v>
@@ -8380,16 +8371,16 @@
         <v>6215269</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45206.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8398,7 +8389,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8466,16 +8457,16 @@
         <v>6215758</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45207.625</v>
       </c>
       <c r="E93" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8484,7 +8475,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8552,16 +8543,16 @@
         <v>6215760</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45207.72916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8570,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J94">
         <v>1.166</v>
@@ -8638,16 +8629,16 @@
         <v>6215270</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45207.83333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8656,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8724,16 +8715,16 @@
         <v>6215761</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45208.875</v>
       </c>
       <c r="E96" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" t="s">
         <v>44</v>
-      </c>
-      <c r="F96" t="s">
-        <v>47</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8742,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J96">
         <v>1.8</v>
@@ -8810,16 +8801,16 @@
         <v>6215765</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45219.875</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8828,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J97">
         <v>2.8</v>
@@ -8896,16 +8887,16 @@
         <v>6215768</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45220.625</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8914,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J98">
         <v>2.55</v>
@@ -8982,16 +8973,16 @@
         <v>6215764</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45220.72916666666</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -9000,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J99">
         <v>1.909</v>
@@ -9068,16 +9059,16 @@
         <v>6215767</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9086,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J100">
         <v>1.285</v>
@@ -9154,16 +9145,16 @@
         <v>6215271</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45221.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9172,7 +9163,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J101">
         <v>3.2</v>
@@ -9240,16 +9231,16 @@
         <v>6215763</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9258,7 +9249,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J102">
         <v>4.5</v>
@@ -9326,16 +9317,16 @@
         <v>6215272</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9344,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9412,17 +9403,17 @@
         <v>6215766</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45222.875</v>
       </c>
       <c r="E104" t="s">
+        <v>40</v>
+      </c>
+      <c r="F104" t="s">
         <v>43</v>
       </c>
-      <c r="F104" t="s">
-        <v>46</v>
-      </c>
       <c r="G104">
         <v>2</v>
       </c>
@@ -9430,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J104">
         <v>1.7</v>
@@ -9498,16 +9489,16 @@
         <v>6215773</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45226.875</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9516,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9584,16 +9575,16 @@
         <v>6215772</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45227.625</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9602,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9670,16 +9661,16 @@
         <v>6215771</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45227.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F107" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9688,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J107">
         <v>2.2</v>
@@ -9756,16 +9747,16 @@
         <v>6215769</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45228.625</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G108">
         <v>4</v>
@@ -9774,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J108">
         <v>1.6</v>
@@ -9842,16 +9833,16 @@
         <v>6215273</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45228.72916666666</v>
       </c>
       <c r="E109" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -9860,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J109">
         <v>1.75</v>
@@ -9928,16 +9919,16 @@
         <v>6215774</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9946,7 +9937,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J110">
         <v>3.1</v>
@@ -10014,16 +10005,16 @@
         <v>6215770</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45229.875</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10032,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J111">
         <v>1.4</v>
@@ -10100,16 +10091,16 @@
         <v>7335615</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45231.875</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10118,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J112">
         <v>1.615</v>
@@ -10186,16 +10177,16 @@
         <v>6215275</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45233.875</v>
       </c>
       <c r="E113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10204,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10272,16 +10263,16 @@
         <v>6215777</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45234.625</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10290,7 +10281,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10358,16 +10349,16 @@
         <v>6215778</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45234.72916666666</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F115" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10376,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J115">
         <v>3.6</v>
@@ -10444,16 +10435,16 @@
         <v>6215276</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10462,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10530,16 +10521,16 @@
         <v>6215779</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E117" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" t="s">
         <v>37</v>
-      </c>
-      <c r="F117" t="s">
-        <v>40</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10548,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J117">
         <v>2.8</v>
@@ -10616,16 +10607,16 @@
         <v>6215776</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10634,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J118">
         <v>2.75</v>
@@ -10702,16 +10693,16 @@
         <v>6215775</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10720,7 +10711,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J119">
         <v>1.75</v>
@@ -10788,16 +10779,16 @@
         <v>7420901</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45236.875</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10806,7 +10797,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J120">
         <v>1.5</v>
@@ -10874,16 +10865,16 @@
         <v>6215274</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45238.875</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10892,7 +10883,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10960,16 +10951,16 @@
         <v>6215785</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45240.875</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10978,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J122">
         <v>1.727</v>
@@ -11046,16 +11037,16 @@
         <v>6215786</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45241.625</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11064,7 +11055,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J123">
         <v>1.333</v>
@@ -11132,16 +11123,16 @@
         <v>6215784</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45241.72916666666</v>
       </c>
       <c r="E124" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11150,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11218,25 +11209,25 @@
         <v>6215277</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45241.83333333334</v>
       </c>
       <c r="E125" t="s">
+        <v>47</v>
+      </c>
+      <c r="F125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
         <v>50</v>
-      </c>
-      <c r="F125" t="s">
-        <v>35</v>
-      </c>
-      <c r="G125">
-        <v>2</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125" t="s">
-        <v>53</v>
       </c>
       <c r="J125">
         <v>3.2</v>
@@ -11304,16 +11295,16 @@
         <v>6215782</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11322,7 +11313,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J126">
         <v>1.4</v>
@@ -11390,16 +11381,16 @@
         <v>6215578</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45242.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11408,7 +11399,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J127">
         <v>4</v>
@@ -11476,16 +11467,16 @@
         <v>6215783</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45242.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11494,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J128">
         <v>2.15</v>
@@ -11562,16 +11553,16 @@
         <v>6215781</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45243.875</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11580,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J129">
         <v>1.727</v>
@@ -11645,85 +11636,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7483081</v>
+        <v>7483281</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J130">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="K130">
         <v>3.25</v>
       </c>
       <c r="L130">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="M130">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N130">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="P130">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11731,85 +11722,85 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7483247</v>
+        <v>7483081</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J131">
+        <v>2.75</v>
+      </c>
+      <c r="K131">
         <v>3.25</v>
       </c>
-      <c r="K131">
-        <v>3.2</v>
-      </c>
       <c r="L131">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="M131">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N131">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="P131">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q131">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11817,85 +11808,85 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7483189</v>
+        <v>7483247</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132">
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J132">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="K132">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="L132">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="M132">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O132">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="P132">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q132">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
         <v>2.5</v>
       </c>
       <c r="T132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
         <v>-1</v>
       </c>
       <c r="W132">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11903,70 +11894,70 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7483281</v>
+        <v>7483189</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="K133">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="L133">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="N133">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P133">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
         <v>2.5</v>
       </c>
       <c r="T133">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
         <v>-1</v>
       </c>
       <c r="W133">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="X133">
         <v>-1</v>
@@ -11975,13 +11966,13 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11989,65 +11980,65 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7483188</v>
+        <v>7482867</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J134">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="K134">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L134">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="M134">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="N134">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O134">
-        <v>2.75</v>
+        <v>1.363</v>
       </c>
       <c r="P134">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
         <v>2.5</v>
       </c>
       <c r="T134">
+        <v>1.825</v>
+      </c>
+      <c r="U134">
         <v>1.975</v>
       </c>
-      <c r="U134">
-        <v>1.825</v>
-      </c>
       <c r="V134">
         <v>-1</v>
       </c>
@@ -12055,19 +12046,19 @@
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>1.75</v>
+        <v>0.363</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z134">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12075,85 +12066,85 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7483306</v>
+        <v>7482832</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F135" t="s">
         <v>44</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J135">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="K135">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="L135">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="M135">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="N135">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="O135">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="P135">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q135">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="R135">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T135">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W135">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z135">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB135">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12161,85 +12152,85 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7482867</v>
+        <v>7483306</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G136">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J136">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="K136">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="L136">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="M136">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="N136">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O136">
-        <v>1.363</v>
+        <v>5.5</v>
       </c>
       <c r="P136">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q136">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X136">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
+        <v>0.875</v>
+      </c>
+      <c r="AA136">
         <v>-0.5</v>
       </c>
-      <c r="AA136">
-        <v>0.825</v>
-      </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12247,10 +12238,10 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7482832</v>
+        <v>7483188</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45256.83333333334</v>
@@ -12259,73 +12250,73 @@
         <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J137">
-        <v>1.363</v>
+        <v>3.6</v>
       </c>
       <c r="K137">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="L137">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="M137">
-        <v>1.444</v>
+        <v>2.6</v>
       </c>
       <c r="N137">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O137">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="P137">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S137">
         <v>2.5</v>
       </c>
       <c r="T137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W137">
         <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AA137">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12336,16 +12327,16 @@
         <v>7528851</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45262.60416666666</v>
       </c>
       <c r="E138" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12354,7 +12345,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J138">
         <v>2.5</v>
@@ -12419,85 +12410,85 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7528849</v>
+        <v>7528859</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45262.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J139">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="K139">
         <v>3.5</v>
       </c>
       <c r="L139">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M139">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="N139">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O139">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P139">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
         <v>2.5</v>
       </c>
       <c r="T139">
+        <v>1.95</v>
+      </c>
+      <c r="U139">
         <v>1.85</v>
       </c>
-      <c r="U139">
-        <v>1.95</v>
-      </c>
       <c r="V139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12505,10 +12496,10 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7528859</v>
+        <v>7528849</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45262.70833333334</v>
@@ -12517,73 +12508,73 @@
         <v>44</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J140">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="K140">
         <v>3.5</v>
       </c>
       <c r="L140">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="N140">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O140">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S140">
         <v>2.5</v>
       </c>
       <c r="T140">
+        <v>1.85</v>
+      </c>
+      <c r="U140">
         <v>1.95</v>
       </c>
-      <c r="U140">
-        <v>1.85</v>
-      </c>
       <c r="V140">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W140">
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>0.95</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12594,16 +12585,16 @@
         <v>7528850</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45262.83333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G141">
         <v>3</v>
@@ -12612,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J141">
         <v>1.25</v>
@@ -12680,16 +12671,16 @@
         <v>7528857</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12698,7 +12689,7 @@
         <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J142">
         <v>1.533</v>
@@ -12766,16 +12757,16 @@
         <v>7528852</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12784,7 +12775,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J143">
         <v>2.1</v>
@@ -12852,16 +12843,16 @@
         <v>7528848</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12870,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J144">
         <v>1.75</v>
@@ -12938,16 +12929,16 @@
         <v>7528858</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F145" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12956,7 +12947,7 @@
         <v>2</v>
       </c>
       <c r="I145" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J145">
         <v>2.2</v>
@@ -13024,16 +13015,16 @@
         <v>7557483</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45270.77083333334</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13042,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13110,16 +13101,16 @@
         <v>7557484</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45277.77083333334</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G147">
         <v>4</v>
@@ -13128,7 +13119,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13196,16 +13187,16 @@
         <v>7773060</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45352.875</v>
       </c>
       <c r="E148" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13214,7 +13205,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J148">
         <v>3.1</v>
@@ -13282,16 +13273,16 @@
         <v>7773462</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45353.625</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13300,7 +13291,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J149">
         <v>1.9</v>
@@ -13368,25 +13359,25 @@
         <v>7773461</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45353.72916666666</v>
       </c>
       <c r="E150" t="s">
+        <v>47</v>
+      </c>
+      <c r="F150" t="s">
+        <v>45</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
         <v>50</v>
-      </c>
-      <c r="F150" t="s">
-        <v>48</v>
-      </c>
-      <c r="G150">
-        <v>2</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150" t="s">
-        <v>53</v>
       </c>
       <c r="J150">
         <v>1.7</v>
@@ -13454,16 +13445,16 @@
         <v>7773458</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13472,7 +13463,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13540,16 +13531,16 @@
         <v>7798121</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45354.625</v>
       </c>
       <c r="E152" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13558,7 +13549,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J152">
         <v>1.75</v>
@@ -13626,16 +13617,16 @@
         <v>7773460</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45354.72916666666</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13644,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J153">
         <v>1.533</v>
@@ -13712,16 +13703,16 @@
         <v>7773780</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13730,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J154">
         <v>1.2</v>
@@ -13798,16 +13789,16 @@
         <v>7798120</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45355.875</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F155" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13816,7 +13807,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J155">
         <v>1.166</v>
@@ -13884,16 +13875,16 @@
         <v>7773468</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>45359.875</v>
       </c>
       <c r="E156" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13902,7 +13893,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J156">
         <v>1.533</v>
@@ -13970,16 +13961,16 @@
         <v>7773466</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45360.625</v>
       </c>
       <c r="E157" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13988,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J157">
         <v>2.6</v>
@@ -14056,16 +14047,16 @@
         <v>7773779</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45360.72916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F158" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14074,7 +14065,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J158">
         <v>2.5</v>
@@ -14142,16 +14133,16 @@
         <v>7773061</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>45360.83333333334</v>
       </c>
       <c r="E159" t="s">
+        <v>32</v>
+      </c>
+      <c r="F159" t="s">
         <v>35</v>
-      </c>
-      <c r="F159" t="s">
-        <v>38</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14160,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14228,16 +14219,16 @@
         <v>7773467</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>45361.625</v>
       </c>
       <c r="E160" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14246,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J160">
         <v>2</v>
@@ -14314,16 +14305,16 @@
         <v>7773469</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>45361.72916666666</v>
       </c>
       <c r="E161" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14332,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J161">
         <v>1.833</v>
@@ -14400,16 +14391,16 @@
         <v>7773464</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45361.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14418,7 +14409,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J162">
         <v>5</v>
@@ -14486,16 +14477,16 @@
         <v>7773465</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45362.875</v>
       </c>
       <c r="E163" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14504,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14572,16 +14563,16 @@
         <v>7773475</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>45366.77083333334</v>
       </c>
       <c r="E164" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F164" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G164">
         <v>3</v>
@@ -14590,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J164">
         <v>2</v>
@@ -14658,16 +14649,16 @@
         <v>7773062</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>45366.875</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14676,7 +14667,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J165">
         <v>1.2</v>
@@ -14744,16 +14735,16 @@
         <v>7773778</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>45367.625</v>
       </c>
       <c r="E166" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14762,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J166">
         <v>1.727</v>
@@ -14830,16 +14821,16 @@
         <v>7773471</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45367.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F167" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14848,7 +14839,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J167">
         <v>1.533</v>
@@ -14916,16 +14907,16 @@
         <v>7773473</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45367.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14934,7 +14925,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J168">
         <v>1.615</v>
@@ -15002,16 +14993,16 @@
         <v>7773474</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>45368.625</v>
       </c>
       <c r="E169" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G169">
         <v>3</v>
@@ -15020,7 +15011,7 @@
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J169">
         <v>1.533</v>
@@ -15088,16 +15079,16 @@
         <v>7773472</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>45368.72916666666</v>
       </c>
       <c r="E170" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15106,7 +15097,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J170">
         <v>2.05</v>
@@ -15174,16 +15165,16 @@
         <v>7773470</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2">
         <v>45368.83333333334</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15192,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J171">
         <v>2.2</v>
@@ -15260,16 +15251,16 @@
         <v>7773480</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D172" s="2">
         <v>45370.77083333334</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15278,7 +15269,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15346,16 +15337,16 @@
         <v>7773777</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2">
         <v>45370.875</v>
       </c>
       <c r="E173" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15364,7 +15355,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15432,16 +15423,16 @@
         <v>7977166</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D174" s="2">
         <v>45371.77083333334</v>
       </c>
       <c r="E174" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15450,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J174">
         <v>2.15</v>
@@ -15518,16 +15509,16 @@
         <v>7773478</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <v>45371.875</v>
       </c>
       <c r="E175" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15536,7 +15527,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J175">
         <v>1.5</v>
@@ -15604,16 +15595,16 @@
         <v>7773063</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D176" s="2">
         <v>45372.77083333334</v>
       </c>
       <c r="E176" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15622,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J176">
         <v>3.25</v>
@@ -15690,16 +15681,16 @@
         <v>7773481</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D177" s="2">
         <v>45372.875</v>
       </c>
       <c r="E177" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15708,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J177">
         <v>1.666</v>
@@ -15776,25 +15767,25 @@
         <v>7773776</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
         <v>45374.72916666666</v>
       </c>
       <c r="E178" t="s">
+        <v>49</v>
+      </c>
+      <c r="F178" t="s">
+        <v>36</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
         <v>52</v>
-      </c>
-      <c r="F178" t="s">
-        <v>39</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178" t="s">
-        <v>55</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15862,16 +15853,16 @@
         <v>7773486</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D179" s="2">
         <v>45375.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15880,7 +15871,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J179">
         <v>2.1</v>
@@ -15948,16 +15939,16 @@
         <v>7773485</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D180" s="2">
         <v>45375.72916666666</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F180" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15966,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J180">
         <v>2.25</v>
@@ -16034,16 +16025,16 @@
         <v>7773064</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D181" s="2">
         <v>45375.83333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16052,7 +16043,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J181">
         <v>1.615</v>
@@ -16120,16 +16111,16 @@
         <v>7773487</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D182" s="2">
         <v>45376.77083333334</v>
       </c>
       <c r="E182" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F182" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16138,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J182">
         <v>1.5</v>
@@ -16206,16 +16197,16 @@
         <v>7773482</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D183" s="2">
         <v>45376.875</v>
       </c>
       <c r="E183" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F183" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16224,7 +16215,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J183">
         <v>3</v>
@@ -16292,16 +16283,16 @@
         <v>7773775</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D184" s="2">
         <v>45379.875</v>
       </c>
       <c r="E184" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F184" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G184">
         <v>5</v>
@@ -16310,7 +16301,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J184">
         <v>1.2</v>
@@ -16378,16 +16369,16 @@
         <v>7773488</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D185" s="2">
         <v>45380.875</v>
       </c>
       <c r="E185" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16396,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J185">
         <v>3.1</v>
@@ -16464,16 +16455,16 @@
         <v>8016804</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D186" s="2">
         <v>45381.625</v>
       </c>
       <c r="E186" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F186" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16482,7 +16473,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J186">
         <v>2.55</v>
@@ -16550,16 +16541,16 @@
         <v>8018935</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D187" s="2">
         <v>45381.72916666666</v>
       </c>
       <c r="E187" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16568,7 +16559,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J187">
         <v>2.7</v>
@@ -16636,16 +16627,16 @@
         <v>7773490</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D188" s="2">
         <v>45381.83333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16654,7 +16645,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J188">
         <v>3.1</v>
@@ -16722,16 +16713,16 @@
         <v>7773493</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2">
         <v>45382.625</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F189" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G189">
         <v>5</v>
@@ -16740,7 +16731,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J189">
         <v>1.4</v>
@@ -16808,16 +16799,16 @@
         <v>7773492</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D190" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E190" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16826,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J190">
         <v>2.1</v>
@@ -16894,16 +16885,16 @@
         <v>8018936</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D191" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16912,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J191">
         <v>2.375</v>
@@ -16980,16 +16971,16 @@
         <v>8040559</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D192" s="2">
         <v>45387.875</v>
       </c>
       <c r="E192" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F192" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16998,7 +16989,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J192">
         <v>1.85</v>
@@ -17066,16 +17057,16 @@
         <v>7773497</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D193" s="2">
         <v>45388.625</v>
       </c>
       <c r="E193" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17084,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J193">
         <v>1.363</v>
@@ -17152,16 +17143,16 @@
         <v>7773495</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D194" s="2">
         <v>45388.72916666666</v>
       </c>
       <c r="E194" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17170,7 +17161,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J194">
         <v>4</v>
@@ -17238,16 +17229,16 @@
         <v>8040560</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D195" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F195" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17256,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J195">
         <v>1.6</v>
@@ -17324,16 +17315,16 @@
         <v>7773066</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D196" s="2">
         <v>45389.625</v>
       </c>
       <c r="E196" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F196" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17342,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J196">
         <v>1.3</v>
@@ -17410,16 +17401,16 @@
         <v>8040561</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2">
         <v>45389.72916666666</v>
       </c>
       <c r="E197" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17428,7 +17419,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J197">
         <v>2.8</v>
@@ -17496,16 +17487,16 @@
         <v>8040562</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D198" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F198" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17514,7 +17505,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J198">
         <v>2.7</v>
@@ -17582,16 +17573,16 @@
         <v>7773774</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2">
         <v>45390.875</v>
       </c>
       <c r="E199" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F199" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17600,7 +17591,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17668,16 +17659,16 @@
         <v>7773501</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D200" s="2">
         <v>45394.875</v>
       </c>
       <c r="E200" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F200" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -17686,7 +17677,7 @@
         <v>3</v>
       </c>
       <c r="I200" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J200">
         <v>3</v>
@@ -17754,16 +17745,16 @@
         <v>7773503</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D201" s="2">
         <v>45395.625</v>
       </c>
       <c r="E201" t="s">
+        <v>34</v>
+      </c>
+      <c r="F201" t="s">
         <v>37</v>
-      </c>
-      <c r="F201" t="s">
-        <v>40</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17772,7 +17763,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17840,16 +17831,16 @@
         <v>8069719</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D202" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F202" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17858,7 +17849,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J202">
         <v>1.95</v>
@@ -17926,16 +17917,16 @@
         <v>8069537</v>
       </c>
       <c r="C203" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D203" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17944,7 +17935,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J203">
         <v>1.28</v>
@@ -18012,16 +18003,16 @@
         <v>7773067</v>
       </c>
       <c r="C204" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D204" s="2">
         <v>45396.625</v>
       </c>
       <c r="E204" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18030,7 +18021,7 @@
         <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J204">
         <v>2.3</v>
@@ -18098,16 +18089,16 @@
         <v>8069720</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D205" s="2">
         <v>45396.72916666666</v>
       </c>
       <c r="E205" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F205" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18116,7 +18107,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J205">
         <v>1.7</v>
@@ -18184,16 +18175,16 @@
         <v>8069721</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D206" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18202,7 +18193,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J206">
         <v>4</v>
@@ -18270,16 +18261,16 @@
         <v>7773504</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D207" s="2">
         <v>45397.875</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F207" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18288,7 +18279,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J207">
         <v>1.363</v>
@@ -18356,16 +18347,16 @@
         <v>7773511</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D208" s="2">
         <v>45399.77083333334</v>
       </c>
       <c r="E208" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18374,7 +18365,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J208">
         <v>2.4</v>
@@ -18442,16 +18433,16 @@
         <v>7773510</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D209" s="2">
         <v>45399.875</v>
       </c>
       <c r="E209" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G209">
         <v>2</v>
@@ -18460,7 +18451,7 @@
         <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J209">
         <v>1.95</v>
@@ -18528,25 +18519,25 @@
         <v>7773772</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D210" s="2">
         <v>45400.66666666666</v>
       </c>
       <c r="E210" t="s">
+        <v>49</v>
+      </c>
+      <c r="F210" t="s">
+        <v>40</v>
+      </c>
+      <c r="G210">
+        <v>2</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+      <c r="I210" t="s">
         <v>52</v>
-      </c>
-      <c r="F210" t="s">
-        <v>43</v>
-      </c>
-      <c r="G210">
-        <v>2</v>
-      </c>
-      <c r="H210">
-        <v>2</v>
-      </c>
-      <c r="I210" t="s">
-        <v>55</v>
       </c>
       <c r="J210">
         <v>4.5</v>
@@ -18614,16 +18605,16 @@
         <v>7773068</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D211" s="2">
         <v>45400.77083333334</v>
       </c>
       <c r="E211" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G211">
         <v>2</v>
@@ -18632,7 +18623,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J211">
         <v>1.333</v>
@@ -18700,16 +18691,16 @@
         <v>7773508</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D212" s="2">
         <v>45400.875</v>
       </c>
       <c r="E212" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F212" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -18718,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J212">
         <v>1.45</v>
@@ -18786,16 +18777,16 @@
         <v>7773509</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D213" s="2">
         <v>45401.66666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F213" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -18804,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J213">
         <v>2</v>
@@ -18872,16 +18863,16 @@
         <v>7773506</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D214" s="2">
         <v>45401.77083333334</v>
       </c>
       <c r="E214" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F214" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G214">
         <v>3</v>
@@ -18890,7 +18881,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J214">
         <v>2</v>
@@ -18958,16 +18949,16 @@
         <v>7773507</v>
       </c>
       <c r="C215" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D215" s="2">
         <v>45401.77083333334</v>
       </c>
       <c r="E215" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -18976,7 +18967,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J215">
         <v>4</v>
@@ -19044,16 +19035,16 @@
         <v>7773516</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D216" s="2">
         <v>45408.875</v>
       </c>
       <c r="E216" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G216">
         <v>5</v>
@@ -19062,7 +19053,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J216">
         <v>1.909</v>
@@ -19130,52 +19121,52 @@
         <v>27</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D217" s="2">
-        <v>45409.625</v>
+        <v>45410.60416666666</v>
       </c>
       <c r="E217" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F217" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J217">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="K217">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="L217">
-        <v>10</v>
+        <v>1.571</v>
       </c>
       <c r="M217">
-        <v>1.285</v>
+        <v>5.5</v>
       </c>
       <c r="N217">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="O217">
-        <v>7.5</v>
+        <v>1.55</v>
       </c>
       <c r="P217">
-        <v>-1.5</v>
+        <v>1</v>
       </c>
       <c r="Q217">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S217">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T217">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U217">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V217">
         <v>0</v>
@@ -19195,52 +19186,52 @@
         <v>28</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D218" s="2">
-        <v>45409.72916666666</v>
+        <v>45410.70833333334</v>
       </c>
       <c r="E218" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J218">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="K218">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L218">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="M218">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="N218">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="O218">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P218">
         <v>-0.25</v>
       </c>
       <c r="Q218">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R218">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S218">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T218">
+        <v>1.825</v>
+      </c>
+      <c r="U218">
         <v>1.975</v>
-      </c>
-      <c r="U218">
-        <v>1.825</v>
       </c>
       <c r="V218">
         <v>0</v>
@@ -19260,52 +19251,52 @@
         <v>29</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D219" s="2">
-        <v>45409.83333333334</v>
+        <v>45410.83333333334</v>
       </c>
       <c r="E219" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J219">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="K219">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="L219">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M219">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="N219">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O219">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="P219">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q219">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R219">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S219">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T219">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U219">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V219">
         <v>0</v>
@@ -19325,52 +19316,52 @@
         <v>30</v>
       </c>
       <c r="C220" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D220" s="2">
-        <v>45410.60416666666</v>
+        <v>45411.875</v>
       </c>
       <c r="E220" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J220">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="K220">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L220">
-        <v>1.571</v>
+        <v>4</v>
       </c>
       <c r="M220">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="N220">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O220">
-        <v>1.65</v>
+        <v>4.5</v>
       </c>
       <c r="P220">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q220">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
         <v>2.5</v>
       </c>
       <c r="T220">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
         <v>0</v>
@@ -19379,201 +19370,6 @@
         <v>0</v>
       </c>
       <c r="X220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:28">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221" t="s">
-        <v>31</v>
-      </c>
-      <c r="C221" t="s">
-        <v>34</v>
-      </c>
-      <c r="D221" s="2">
-        <v>45410.70833333334</v>
-      </c>
-      <c r="E221" t="s">
-        <v>51</v>
-      </c>
-      <c r="F221" t="s">
-        <v>50</v>
-      </c>
-      <c r="J221">
-        <v>2.875</v>
-      </c>
-      <c r="K221">
-        <v>3.25</v>
-      </c>
-      <c r="L221">
-        <v>2.25</v>
-      </c>
-      <c r="M221">
-        <v>2.6</v>
-      </c>
-      <c r="N221">
-        <v>3.2</v>
-      </c>
-      <c r="O221">
-        <v>2.6</v>
-      </c>
-      <c r="P221">
-        <v>0</v>
-      </c>
-      <c r="Q221">
-        <v>1.9</v>
-      </c>
-      <c r="R221">
-        <v>1.9</v>
-      </c>
-      <c r="S221">
-        <v>2.25</v>
-      </c>
-      <c r="T221">
-        <v>1.775</v>
-      </c>
-      <c r="U221">
-        <v>2.025</v>
-      </c>
-      <c r="V221">
-        <v>0</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:28">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222" t="s">
-        <v>32</v>
-      </c>
-      <c r="C222" t="s">
-        <v>34</v>
-      </c>
-      <c r="D222" s="2">
-        <v>45410.83333333334</v>
-      </c>
-      <c r="E222" t="s">
-        <v>49</v>
-      </c>
-      <c r="F222" t="s">
-        <v>38</v>
-      </c>
-      <c r="J222">
-        <v>2.25</v>
-      </c>
-      <c r="K222">
-        <v>3.1</v>
-      </c>
-      <c r="L222">
-        <v>3</v>
-      </c>
-      <c r="M222">
-        <v>2.25</v>
-      </c>
-      <c r="N222">
-        <v>3.1</v>
-      </c>
-      <c r="O222">
-        <v>3.2</v>
-      </c>
-      <c r="P222">
-        <v>-0.25</v>
-      </c>
-      <c r="Q222">
-        <v>1.95</v>
-      </c>
-      <c r="R222">
-        <v>1.85</v>
-      </c>
-      <c r="S222">
-        <v>2.25</v>
-      </c>
-      <c r="T222">
-        <v>1.85</v>
-      </c>
-      <c r="U222">
-        <v>1.95</v>
-      </c>
-      <c r="V222">
-        <v>0</v>
-      </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-      <c r="X222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:28">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223" t="s">
-        <v>33</v>
-      </c>
-      <c r="C223" t="s">
-        <v>34</v>
-      </c>
-      <c r="D223" s="2">
-        <v>45411.875</v>
-      </c>
-      <c r="E223" t="s">
-        <v>45</v>
-      </c>
-      <c r="F223" t="s">
-        <v>46</v>
-      </c>
-      <c r="J223">
-        <v>1.8</v>
-      </c>
-      <c r="K223">
-        <v>3.4</v>
-      </c>
-      <c r="L223">
-        <v>4</v>
-      </c>
-      <c r="M223">
-        <v>1.727</v>
-      </c>
-      <c r="N223">
-        <v>3.5</v>
-      </c>
-      <c r="O223">
-        <v>4.333</v>
-      </c>
-      <c r="P223">
-        <v>-0.75</v>
-      </c>
-      <c r="Q223">
-        <v>2</v>
-      </c>
-      <c r="R223">
-        <v>1.8</v>
-      </c>
-      <c r="S223">
-        <v>2.5</v>
-      </c>
-      <c r="T223">
-        <v>1.925</v>
-      </c>
-      <c r="U223">
-        <v>1.875</v>
-      </c>
-      <c r="V223">
-        <v>0</v>
-      </c>
-      <c r="W223">
-        <v>0</v>
-      </c>
-      <c r="X223">
         <v>0</v>
       </c>
     </row>

--- a/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
+++ b/Ecuador LigaPro Serie A/Ecuador LigaPro Serie A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8085504</t>
-  </si>
-  <si>
     <t>7773522</t>
   </si>
   <si>
@@ -109,10 +106,16 @@
     <t>7773520</t>
   </si>
   <si>
+    <t>7773519</t>
+  </si>
+  <si>
     <t>7773524</t>
   </si>
   <si>
     <t>7773069</t>
+  </si>
+  <si>
+    <t>7773521</t>
   </si>
   <si>
     <t>Ecuador LigaPro Serie A</t>
@@ -540,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB228"/>
+  <dimension ref="A1:AB229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,16 +640,16 @@
         <v>6215239</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
         <v>45079.79166666666</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -655,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>1.4</v>
@@ -723,16 +726,16 @@
         <v>6215580</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>45079.89583333334</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -741,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3">
         <v>1.333</v>
@@ -809,16 +812,16 @@
         <v>6215695</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
         <v>45080.70833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -827,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4">
         <v>2.375</v>
@@ -895,16 +898,16 @@
         <v>6215690</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -913,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <v>1.727</v>
@@ -981,16 +984,16 @@
         <v>6215692</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
         <v>45081.625</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -999,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -1067,16 +1070,16 @@
         <v>6215691</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
         <v>45081.72916666666</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1153,16 +1156,16 @@
         <v>6215693</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2">
         <v>45081.83333333334</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1171,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8">
         <v>3.1</v>
@@ -1239,16 +1242,16 @@
         <v>6215694</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2">
         <v>45082.875</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1257,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>1.909</v>
@@ -1325,16 +1328,16 @@
         <v>6215699</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>45086.875</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -1343,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <v>1.533</v>
@@ -1411,16 +1414,16 @@
         <v>6215698</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>45087.625</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1429,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J11">
         <v>2.625</v>
@@ -1497,16 +1500,16 @@
         <v>6215241</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2">
         <v>45087.72916666666</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12">
         <v>1.25</v>
@@ -1583,16 +1586,16 @@
         <v>6215700</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
         <v>45087.83333333334</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1601,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13">
         <v>1.666</v>
@@ -1669,16 +1672,16 @@
         <v>6215240</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2">
         <v>45088.625</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1687,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>2.2</v>
@@ -1755,16 +1758,16 @@
         <v>6751437</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>45088.72916666666</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1773,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>4.75</v>
@@ -1841,16 +1844,16 @@
         <v>6215697</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2">
         <v>45088.83333333334</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1859,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <v>3.8</v>
@@ -1927,16 +1930,16 @@
         <v>6215701</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45089.875</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1945,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J17">
         <v>1.363</v>
@@ -2013,16 +2016,16 @@
         <v>6774494</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>45093.875</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -2031,7 +2034,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J18">
         <v>1.533</v>
@@ -2099,16 +2102,16 @@
         <v>6774496</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2">
         <v>45094.625</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2117,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J19">
         <v>2.5</v>
@@ -2185,16 +2188,16 @@
         <v>6774497</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45094.72916666666</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2203,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J20">
         <v>2.15</v>
@@ -2271,17 +2274,17 @@
         <v>6215242</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>45094.83333333334</v>
       </c>
       <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
       <c r="G21">
         <v>2</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J21">
         <v>3.5</v>
@@ -2357,16 +2360,16 @@
         <v>6215702</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2">
         <v>45095.72916666666</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2375,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22">
         <v>2.6</v>
@@ -2443,16 +2446,16 @@
         <v>6774495</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2">
         <v>45095.83333333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2461,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23">
         <v>1.85</v>
@@ -2529,16 +2532,16 @@
         <v>6774499</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>45096.875</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2547,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>1.909</v>
@@ -2615,16 +2618,16 @@
         <v>6778185</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
         <v>45100.875</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2633,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>1.833</v>
@@ -2701,16 +2704,16 @@
         <v>6215710</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2">
         <v>45142.875</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2719,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J26">
         <v>2.875</v>
@@ -2787,16 +2790,16 @@
         <v>6215713</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>45143.625</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2805,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J27">
         <v>1.571</v>
@@ -2873,16 +2876,16 @@
         <v>6215712</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2">
         <v>45143.72916666666</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2891,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2959,16 +2962,16 @@
         <v>6215244</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2977,7 +2980,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J29">
         <v>1.75</v>
@@ -3045,16 +3048,16 @@
         <v>6215711</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2">
         <v>45144.625</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3063,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J30">
         <v>3.8</v>
@@ -3131,16 +3134,16 @@
         <v>6215709</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>45144.72916666666</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -3149,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J31">
         <v>1.833</v>
@@ -3217,16 +3220,16 @@
         <v>6215708</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3235,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J32">
         <v>1.333</v>
@@ -3303,16 +3306,16 @@
         <v>6215245</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
         <v>45145.875</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3321,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J33">
         <v>1.4</v>
@@ -3389,16 +3392,16 @@
         <v>6215718</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="2">
         <v>45149.8125</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -3407,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J34">
         <v>3.5</v>
@@ -3475,16 +3478,16 @@
         <v>6215717</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
         <v>45149.91666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3493,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J35">
         <v>2.3</v>
@@ -3561,16 +3564,16 @@
         <v>6215715</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2">
         <v>45150.625</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3579,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J36">
         <v>1.8</v>
@@ -3647,16 +3650,16 @@
         <v>6215720</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="2">
         <v>45150.72916666666</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -3665,7 +3668,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J37">
         <v>2.5</v>
@@ -3733,16 +3736,16 @@
         <v>6215714</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>45150.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3751,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3819,16 +3822,16 @@
         <v>6215719</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" s="2">
         <v>45151.625</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -3837,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J39">
         <v>1.25</v>
@@ -3905,17 +3908,17 @@
         <v>6215716</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
         <v>48</v>
       </c>
-      <c r="F40" t="s">
-        <v>47</v>
-      </c>
       <c r="G40">
         <v>0</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J40">
         <v>1.727</v>
@@ -3991,16 +3994,16 @@
         <v>6215246</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" s="2">
         <v>45151.83333333334</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -4009,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J41">
         <v>3.1</v>
@@ -4077,16 +4080,16 @@
         <v>6215724</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" s="2">
         <v>45154.77083333334</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4095,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J42">
         <v>1.666</v>
@@ -4163,16 +4166,16 @@
         <v>6215725</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2">
         <v>45154.875</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4181,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4249,16 +4252,16 @@
         <v>6215723</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2">
         <v>45155.66666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4267,7 +4270,7 @@
         <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J44">
         <v>2.75</v>
@@ -4335,16 +4338,16 @@
         <v>6215248</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2">
         <v>45155.77083333334</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4353,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -4421,16 +4424,16 @@
         <v>6215726</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" s="2">
         <v>45155.875</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4439,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J46">
         <v>2.5</v>
@@ -4507,16 +4510,16 @@
         <v>6215722</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" s="2">
         <v>45156.70833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4525,7 +4528,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J47">
         <v>2.55</v>
@@ -4593,16 +4596,16 @@
         <v>6215247</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" s="2">
         <v>45156.8125</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4611,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J48">
         <v>1.615</v>
@@ -4679,16 +4682,16 @@
         <v>6215721</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D49" s="2">
         <v>45156.91666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4697,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J49">
         <v>2.75</v>
@@ -4765,16 +4768,16 @@
         <v>6215728</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>45163.875</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -4783,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J50">
         <v>1.45</v>
@@ -4851,16 +4854,16 @@
         <v>6215731</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
         <v>45164.625</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4869,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J51">
         <v>1.533</v>
@@ -4937,16 +4940,16 @@
         <v>7096686</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" s="2">
         <v>45164.72916666666</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4955,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>2.8</v>
@@ -5023,16 +5026,16 @@
         <v>7096687</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" s="2">
         <v>45164.83333333334</v>
       </c>
       <c r="E53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5041,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J53">
         <v>2.8</v>
@@ -5109,16 +5112,16 @@
         <v>6215579</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" s="2">
         <v>45165.625</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5127,7 +5130,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J54">
         <v>1.615</v>
@@ -5195,16 +5198,16 @@
         <v>6215729</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2">
         <v>45165.72916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5213,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J55">
         <v>1.666</v>
@@ -5281,16 +5284,16 @@
         <v>6215260</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" s="2">
         <v>45165.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5299,7 +5302,7 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J56">
         <v>3.75</v>
@@ -5367,16 +5370,16 @@
         <v>6215727</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" s="2">
         <v>45166.875</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5385,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -5453,16 +5456,16 @@
         <v>6215734</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" s="2">
         <v>45170.875</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5471,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J58">
         <v>3.2</v>
@@ -5539,16 +5542,16 @@
         <v>6215736</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" s="2">
         <v>45171.625</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5557,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J59">
         <v>2.5</v>
@@ -5625,16 +5628,16 @@
         <v>6215738</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" s="2">
         <v>45171.72916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5643,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J60">
         <v>1.8</v>
@@ -5711,16 +5714,16 @@
         <v>6215261</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" s="2">
         <v>45171.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5729,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J61">
         <v>2.1</v>
@@ -5797,16 +5800,16 @@
         <v>6215735</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" s="2">
         <v>45172.625</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5815,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J62">
         <v>2.5</v>
@@ -5883,16 +5886,16 @@
         <v>7137552</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2">
         <v>45172.72916666666</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -5901,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J63">
         <v>1.8</v>
@@ -5969,17 +5972,17 @@
         <v>6215733</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" t="s">
         <v>38</v>
       </c>
-      <c r="F64" t="s">
-        <v>37</v>
-      </c>
       <c r="G64">
         <v>2</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>2</v>
       </c>
       <c r="I64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -6055,16 +6058,16 @@
         <v>6215262</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" s="2">
         <v>45173.875</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6073,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J65">
         <v>1.444</v>
@@ -6141,16 +6144,16 @@
         <v>6215744</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" s="2">
         <v>45184.875</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6159,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J66">
         <v>2.625</v>
@@ -6227,16 +6230,16 @@
         <v>6215743</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" s="2">
         <v>45185.625</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6245,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>2.375</v>
@@ -6313,16 +6316,16 @@
         <v>6215741</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
         <v>45185.72916666666</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6331,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J68">
         <v>2.9</v>
@@ -6399,16 +6402,16 @@
         <v>6215739</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D69" s="2">
         <v>45185.83333333334</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6417,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J69">
         <v>2.3</v>
@@ -6485,16 +6488,16 @@
         <v>6215263</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D70" s="2">
         <v>45186.60416666666</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G70">
         <v>2</v>
@@ -6503,7 +6506,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J70">
         <v>1.8</v>
@@ -6571,16 +6574,16 @@
         <v>6215742</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2">
         <v>45186.70833333334</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6589,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>1.25</v>
@@ -6657,16 +6660,16 @@
         <v>6215264</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" s="2">
         <v>45186.83333333334</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6675,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J72">
         <v>2.1</v>
@@ -6743,16 +6746,16 @@
         <v>6215740</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D73" s="2">
         <v>45187.875</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6761,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J73">
         <v>2.2</v>
@@ -6829,16 +6832,16 @@
         <v>6215266</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74" s="2">
         <v>45191.875</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6847,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J74">
         <v>1.333</v>
@@ -6915,16 +6918,16 @@
         <v>6215750</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" s="2">
         <v>45192.625</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6933,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J75">
         <v>1.444</v>
@@ -7001,16 +7004,16 @@
         <v>6215747</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>45192.72916666666</v>
       </c>
       <c r="E76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -7019,7 +7022,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J76">
         <v>1.666</v>
@@ -7087,16 +7090,16 @@
         <v>6215749</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77" s="2">
         <v>45192.83333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7105,7 +7108,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J77">
         <v>3.1</v>
@@ -7173,16 +7176,16 @@
         <v>6215265</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
         <v>45193.66666666666</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7191,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J78">
         <v>2.8</v>
@@ -7259,16 +7262,16 @@
         <v>7236128</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D79" s="2">
         <v>45193.77083333334</v>
       </c>
       <c r="E79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7277,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J79">
         <v>1.65</v>
@@ -7345,16 +7348,16 @@
         <v>6215746</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D80" s="2">
         <v>45193.875</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7363,7 +7366,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J80">
         <v>2.625</v>
@@ -7431,16 +7434,16 @@
         <v>6215748</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D81" s="2">
         <v>45194.875</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7449,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J81">
         <v>2.6</v>
@@ -7517,16 +7520,16 @@
         <v>6215753</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D82" s="2">
         <v>45198.875</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7535,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J82">
         <v>2.625</v>
@@ -7603,16 +7606,16 @@
         <v>6215755</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D83" s="2">
         <v>45199.625</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -7621,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J83">
         <v>1.666</v>
@@ -7689,16 +7692,16 @@
         <v>6215752</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D84" s="2">
         <v>45199.72916666666</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>2</v>
@@ -7707,7 +7710,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J84">
         <v>2.4</v>
@@ -7775,16 +7778,16 @@
         <v>6215754</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2">
         <v>45199.83333333334</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -7793,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J85">
         <v>1.6</v>
@@ -7861,16 +7864,16 @@
         <v>6215267</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D86" s="2">
         <v>45200.625</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7879,7 +7882,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J86">
         <v>2.8</v>
@@ -7947,16 +7950,16 @@
         <v>6215756</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D87" s="2">
         <v>45200.72916666666</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -7965,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J87">
         <v>1.909</v>
@@ -8033,16 +8036,16 @@
         <v>6215751</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D88" s="2">
         <v>45200.83333333334</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8051,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J88">
         <v>1.6</v>
@@ -8119,16 +8122,16 @@
         <v>6215757</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2">
         <v>45205.875</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8137,7 +8140,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J89">
         <v>2.375</v>
@@ -8205,16 +8208,16 @@
         <v>6215762</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D90" s="2">
         <v>45206.625</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8223,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J90">
         <v>1.666</v>
@@ -8291,16 +8294,16 @@
         <v>6215759</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91" s="2">
         <v>45206.72916666666</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -8309,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J91">
         <v>1.444</v>
@@ -8377,16 +8380,16 @@
         <v>6215269</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" s="2">
         <v>45206.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8395,7 +8398,7 @@
         <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J92">
         <v>2.25</v>
@@ -8463,16 +8466,16 @@
         <v>6215758</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" s="2">
         <v>45207.625</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8481,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J93">
         <v>1.833</v>
@@ -8549,16 +8552,16 @@
         <v>6215760</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94" s="2">
         <v>45207.72916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8567,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J94">
         <v>1.166</v>
@@ -8635,16 +8638,16 @@
         <v>6215270</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95" s="2">
         <v>45207.83333333334</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -8653,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -8721,16 +8724,16 @@
         <v>6215761</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2">
         <v>45208.875</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8739,7 +8742,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J96">
         <v>1.8</v>
@@ -8807,16 +8810,16 @@
         <v>6215765</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" s="2">
         <v>45219.875</v>
       </c>
       <c r="E97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8825,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J97">
         <v>2.8</v>
@@ -8893,16 +8896,16 @@
         <v>6215768</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98" s="2">
         <v>45220.625</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8911,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J98">
         <v>2.55</v>
@@ -8979,16 +8982,16 @@
         <v>6215764</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" s="2">
         <v>45220.72916666666</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8997,7 +9000,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J99">
         <v>1.909</v>
@@ -9065,16 +9068,16 @@
         <v>6215767</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D100" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9083,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J100">
         <v>1.285</v>
@@ -9151,16 +9154,16 @@
         <v>6215271</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" s="2">
         <v>45221.60416666666</v>
       </c>
       <c r="E101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9169,7 +9172,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J101">
         <v>3.2</v>
@@ -9237,16 +9240,16 @@
         <v>6215763</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>45221.70833333334</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9255,7 +9258,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J102">
         <v>4.5</v>
@@ -9323,16 +9326,16 @@
         <v>6215272</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" s="2">
         <v>45222.58333333334</v>
       </c>
       <c r="E103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9341,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9409,16 +9412,16 @@
         <v>6215766</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" s="2">
         <v>45222.875</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -9427,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J104">
         <v>1.7</v>
@@ -9495,16 +9498,16 @@
         <v>6215773</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D105" s="2">
         <v>45226.875</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9513,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J105">
         <v>1.8</v>
@@ -9581,16 +9584,16 @@
         <v>6215772</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2">
         <v>45227.625</v>
       </c>
       <c r="E106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9599,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J106">
         <v>1.4</v>
@@ -9667,16 +9670,16 @@
         <v>6215771</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107" s="2">
         <v>45227.83333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9685,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="I107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J107">
         <v>2.2</v>
@@ -9753,16 +9756,16 @@
         <v>6215769</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D108" s="2">
         <v>45228.625</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>4</v>
@@ -9771,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J108">
         <v>1.6</v>
@@ -9839,16 +9842,16 @@
         <v>6215273</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D109" s="2">
         <v>45228.72916666666</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>4</v>
@@ -9857,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J109">
         <v>1.75</v>
@@ -9925,16 +9928,16 @@
         <v>6215774</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
         <v>45228.83333333334</v>
       </c>
       <c r="E110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9943,7 +9946,7 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J110">
         <v>3.1</v>
@@ -10011,16 +10014,16 @@
         <v>6215770</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D111" s="2">
         <v>45229.875</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10029,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J111">
         <v>1.4</v>
@@ -10097,16 +10100,16 @@
         <v>7335615</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D112" s="2">
         <v>45231.875</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -10115,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J112">
         <v>1.615</v>
@@ -10183,16 +10186,16 @@
         <v>6215275</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D113" s="2">
         <v>45233.875</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10201,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J113">
         <v>2.3</v>
@@ -10269,16 +10272,16 @@
         <v>6215777</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D114" s="2">
         <v>45234.625</v>
       </c>
       <c r="E114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -10287,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J114">
         <v>2.75</v>
@@ -10355,16 +10358,16 @@
         <v>6215778</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115" s="2">
         <v>45234.72916666666</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10373,7 +10376,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J115">
         <v>3.6</v>
@@ -10441,17 +10444,17 @@
         <v>6215276</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D116" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E116" t="s">
+        <v>36</v>
+      </c>
+      <c r="F116" t="s">
         <v>35</v>
       </c>
-      <c r="F116" t="s">
-        <v>34</v>
-      </c>
       <c r="G116">
         <v>2</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J116">
         <v>2.3</v>
@@ -10527,16 +10530,16 @@
         <v>6215779</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D117" s="2">
         <v>45235.60416666666</v>
       </c>
       <c r="E117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10545,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J117">
         <v>2.8</v>
@@ -10613,16 +10616,16 @@
         <v>6215776</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118" s="2">
         <v>45235.70833333334</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -10631,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J118">
         <v>2.75</v>
@@ -10699,16 +10702,16 @@
         <v>6215775</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D119" s="2">
         <v>45235.83333333334</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10717,7 +10720,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>1.75</v>
@@ -10785,16 +10788,16 @@
         <v>7420901</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2">
         <v>45236.875</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -10803,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J120">
         <v>1.5</v>
@@ -10871,16 +10874,16 @@
         <v>6215274</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D121" s="2">
         <v>45238.875</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10889,7 +10892,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J121">
         <v>2.75</v>
@@ -10957,16 +10960,16 @@
         <v>6215785</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D122" s="2">
         <v>45240.875</v>
       </c>
       <c r="E122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10975,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J122">
         <v>1.727</v>
@@ -11043,16 +11046,16 @@
         <v>6215786</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
         <v>45241.625</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -11061,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J123">
         <v>1.333</v>
@@ -11129,16 +11132,16 @@
         <v>6215784</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
         <v>45241.72916666666</v>
       </c>
       <c r="E124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11147,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J124">
         <v>3.2</v>
@@ -11215,16 +11218,16 @@
         <v>6215277</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
         <v>45241.83333333334</v>
       </c>
       <c r="E125" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11233,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J125">
         <v>3.2</v>
@@ -11301,16 +11304,16 @@
         <v>6215782</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
         <v>45242.60416666666</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -11319,7 +11322,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J126">
         <v>1.4</v>
@@ -11387,16 +11390,16 @@
         <v>6215578</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>45242.70833333334</v>
       </c>
       <c r="E127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11405,7 +11408,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J127">
         <v>4</v>
@@ -11473,16 +11476,16 @@
         <v>6215783</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
         <v>45242.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -11491,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J128">
         <v>2.15</v>
@@ -11559,16 +11562,16 @@
         <v>6215781</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
         <v>45243.875</v>
       </c>
       <c r="E129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11577,7 +11580,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J129">
         <v>1.727</v>
@@ -11645,16 +11648,16 @@
         <v>7483247</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D130" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11663,7 +11666,7 @@
         <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J130">
         <v>3.25</v>
@@ -11731,16 +11734,16 @@
         <v>7483081</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D131" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11749,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J131">
         <v>2.75</v>
@@ -11817,16 +11820,16 @@
         <v>7483189</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D132" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11835,7 +11838,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J132">
         <v>1.4</v>
@@ -11903,16 +11906,16 @@
         <v>7483281</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11921,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J133">
         <v>1.909</v>
@@ -11989,16 +11992,16 @@
         <v>7483306</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12007,7 +12010,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J134">
         <v>1.5</v>
@@ -12075,16 +12078,16 @@
         <v>7483188</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D135" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12093,7 +12096,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J135">
         <v>3.6</v>
@@ -12161,16 +12164,16 @@
         <v>7482832</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E136" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12179,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J136">
         <v>1.363</v>
@@ -12247,16 +12250,16 @@
         <v>7482867</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D137" s="2">
         <v>45256.83333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12265,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J137">
         <v>5.25</v>
@@ -12333,16 +12336,16 @@
         <v>7528851</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2">
         <v>45262.60416666666</v>
       </c>
       <c r="E138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12351,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J138">
         <v>2.5</v>
@@ -12419,16 +12422,16 @@
         <v>7528849</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D139" s="2">
         <v>45262.70833333334</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12437,7 +12440,7 @@
         <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J139">
         <v>1.833</v>
@@ -12505,16 +12508,16 @@
         <v>7528859</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D140" s="2">
         <v>45262.70833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -12523,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J140">
         <v>1.727</v>
@@ -12591,16 +12594,16 @@
         <v>7528850</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2">
         <v>45262.83333333334</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G141">
         <v>3</v>
@@ -12609,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J141">
         <v>1.25</v>
@@ -12677,16 +12680,16 @@
         <v>7528858</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D142" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E142" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F142" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12695,7 +12698,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J142">
         <v>2.2</v>
@@ -12763,16 +12766,16 @@
         <v>7528848</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D143" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12781,7 +12784,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J143">
         <v>1.75</v>
@@ -12849,16 +12852,16 @@
         <v>7528852</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12867,7 +12870,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J144">
         <v>2.1</v>
@@ -12935,16 +12938,16 @@
         <v>7528857</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D145" s="2">
         <v>45263.83333333334</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -12953,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J145">
         <v>1.533</v>
@@ -13021,16 +13024,16 @@
         <v>7557483</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D146" s="2">
         <v>45270.77083333334</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -13039,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J146">
         <v>1.909</v>
@@ -13107,16 +13110,16 @@
         <v>7557484</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D147" s="2">
         <v>45277.77083333334</v>
       </c>
       <c r="E147" t="s">
+        <v>36</v>
+      </c>
+      <c r="F147" t="s">
         <v>35</v>
-      </c>
-      <c r="F147" t="s">
-        <v>34</v>
       </c>
       <c r="G147">
         <v>4</v>
@@ -13125,7 +13128,7 @@
         <v>1</v>
       </c>
       <c r="I147" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J147">
         <v>2.2</v>
@@ -13193,16 +13196,16 @@
         <v>7773060</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D148" s="2">
         <v>45352.875</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -13211,7 +13214,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J148">
         <v>3.1</v>
@@ -13279,16 +13282,16 @@
         <v>7773462</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D149" s="2">
         <v>45353.625</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -13297,7 +13300,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J149">
         <v>1.9</v>
@@ -13365,16 +13368,16 @@
         <v>7773461</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D150" s="2">
         <v>45353.72916666666</v>
       </c>
       <c r="E150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -13383,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J150">
         <v>1.7</v>
@@ -13451,16 +13454,16 @@
         <v>7773458</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D151" s="2">
         <v>45353.83333333334</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13469,7 +13472,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J151">
         <v>2.375</v>
@@ -13537,16 +13540,16 @@
         <v>7798121</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D152" s="2">
         <v>45354.625</v>
       </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13555,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J152">
         <v>1.75</v>
@@ -13623,16 +13626,16 @@
         <v>7773460</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D153" s="2">
         <v>45354.72916666666</v>
       </c>
       <c r="E153" t="s">
+        <v>40</v>
+      </c>
+      <c r="F153" t="s">
         <v>39</v>
-      </c>
-      <c r="F153" t="s">
-        <v>38</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -13641,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J153">
         <v>1.533</v>
@@ -13709,16 +13712,16 @@
         <v>7773780</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D154" s="2">
         <v>45354.83333333334</v>
       </c>
       <c r="E154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G154">
         <v>2</v>
@@ -13727,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J154">
         <v>1.2</v>
@@ -13795,16 +13798,16 @@
         <v>7798120</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D155" s="2">
         <v>45355.875</v>
       </c>
       <c r="E155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G155">
         <v>2</v>
@@ -13813,7 +13816,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J155">
         <v>1.166</v>
@@ -13881,16 +13884,16 @@
         <v>7773468</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D156" s="2">
         <v>45359.875</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>0</v>
@@ -13899,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J156">
         <v>1.533</v>
@@ -13967,16 +13970,16 @@
         <v>7773466</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D157" s="2">
         <v>45360.625</v>
       </c>
       <c r="E157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13985,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J157">
         <v>2.6</v>
@@ -14053,16 +14056,16 @@
         <v>7773779</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D158" s="2">
         <v>45360.72916666666</v>
       </c>
       <c r="E158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14071,7 +14074,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J158">
         <v>2.5</v>
@@ -14139,16 +14142,16 @@
         <v>7773061</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D159" s="2">
         <v>45360.83333333334</v>
       </c>
       <c r="E159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F159" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -14157,7 +14160,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J159">
         <v>1.666</v>
@@ -14225,16 +14228,16 @@
         <v>7773467</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D160" s="2">
         <v>45361.625</v>
       </c>
       <c r="E160" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14243,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J160">
         <v>2</v>
@@ -14311,16 +14314,16 @@
         <v>7773469</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D161" s="2">
         <v>45361.72916666666</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14329,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J161">
         <v>1.833</v>
@@ -14397,16 +14400,16 @@
         <v>7773464</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D162" s="2">
         <v>45361.83333333334</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -14415,7 +14418,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J162">
         <v>5</v>
@@ -14483,16 +14486,16 @@
         <v>7773465</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D163" s="2">
         <v>45362.875</v>
       </c>
       <c r="E163" t="s">
+        <v>44</v>
+      </c>
+      <c r="F163" t="s">
         <v>43</v>
-      </c>
-      <c r="F163" t="s">
-        <v>42</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14501,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J163">
         <v>2.75</v>
@@ -14569,16 +14572,16 @@
         <v>7773475</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D164" s="2">
         <v>45366.77083333334</v>
       </c>
       <c r="E164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G164">
         <v>3</v>
@@ -14587,7 +14590,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J164">
         <v>2</v>
@@ -14655,16 +14658,16 @@
         <v>7773062</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D165" s="2">
         <v>45366.875</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -14673,7 +14676,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J165">
         <v>1.2</v>
@@ -14741,16 +14744,16 @@
         <v>7773778</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>45367.625</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14759,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J166">
         <v>1.727</v>
@@ -14827,16 +14830,16 @@
         <v>7773471</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D167" s="2">
         <v>45367.72916666666</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14845,7 +14848,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J167">
         <v>1.533</v>
@@ -14913,16 +14916,16 @@
         <v>7773473</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2">
         <v>45367.83333333334</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14931,7 +14934,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J168">
         <v>1.615</v>
@@ -14999,16 +15002,16 @@
         <v>7773474</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D169" s="2">
         <v>45368.625</v>
       </c>
       <c r="E169" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" t="s">
         <v>42</v>
-      </c>
-      <c r="F169" t="s">
-        <v>41</v>
       </c>
       <c r="G169">
         <v>3</v>
@@ -15017,7 +15020,7 @@
         <v>3</v>
       </c>
       <c r="I169" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J169">
         <v>1.533</v>
@@ -15085,16 +15088,16 @@
         <v>7773472</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D170" s="2">
         <v>45368.72916666666</v>
       </c>
       <c r="E170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F170" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -15103,7 +15106,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J170">
         <v>2.05</v>
@@ -15171,16 +15174,16 @@
         <v>7773470</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D171" s="2">
         <v>45368.83333333334</v>
       </c>
       <c r="E171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15189,7 +15192,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J171">
         <v>2.2</v>
@@ -15257,16 +15260,16 @@
         <v>7773480</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
         <v>45370.77083333334</v>
       </c>
       <c r="E172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15275,7 +15278,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15343,16 +15346,16 @@
         <v>7773777</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D173" s="2">
         <v>45370.875</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15361,7 +15364,7 @@
         <v>2</v>
       </c>
       <c r="I173" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J173">
         <v>1.727</v>
@@ -15429,16 +15432,16 @@
         <v>7977166</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2">
         <v>45371.77083333334</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15447,7 +15450,7 @@
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J174">
         <v>2.15</v>
@@ -15515,16 +15518,16 @@
         <v>7773478</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D175" s="2">
         <v>45371.875</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -15533,7 +15536,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J175">
         <v>1.5</v>
@@ -15601,16 +15604,16 @@
         <v>7773063</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D176" s="2">
         <v>45372.77083333334</v>
       </c>
       <c r="E176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15619,7 +15622,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J176">
         <v>3.25</v>
@@ -15687,16 +15690,16 @@
         <v>7773481</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2">
         <v>45372.875</v>
       </c>
       <c r="E177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15705,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J177">
         <v>1.666</v>
@@ -15773,16 +15776,16 @@
         <v>7773776</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D178" s="2">
         <v>45374.72916666666</v>
       </c>
       <c r="E178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F178" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15791,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J178">
         <v>1.571</v>
@@ -15859,16 +15862,16 @@
         <v>7773486</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D179" s="2">
         <v>45375.58333333334</v>
       </c>
       <c r="E179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15877,7 +15880,7 @@
         <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J179">
         <v>2.1</v>
@@ -15945,16 +15948,16 @@
         <v>7773485</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D180" s="2">
         <v>45375.72916666666</v>
       </c>
       <c r="E180" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -15963,7 +15966,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J180">
         <v>2.25</v>
@@ -16031,16 +16034,16 @@
         <v>7773064</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D181" s="2">
         <v>45375.83333333334</v>
       </c>
       <c r="E181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F181" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16049,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J181">
         <v>1.615</v>
@@ -16117,16 +16120,16 @@
         <v>7773487</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2">
         <v>45376.77083333334</v>
       </c>
       <c r="E182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F182" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -16135,7 +16138,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J182">
         <v>1.5</v>
@@ -16203,16 +16206,16 @@
         <v>7773482</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2">
         <v>45376.875</v>
       </c>
       <c r="E183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F183" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16221,7 +16224,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J183">
         <v>3</v>
@@ -16289,16 +16292,16 @@
         <v>7773775</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D184" s="2">
         <v>45379.875</v>
       </c>
       <c r="E184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G184">
         <v>5</v>
@@ -16307,7 +16310,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J184">
         <v>1.2</v>
@@ -16375,16 +16378,16 @@
         <v>7773488</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D185" s="2">
         <v>45380.875</v>
       </c>
       <c r="E185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -16393,7 +16396,7 @@
         <v>1</v>
       </c>
       <c r="I185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J185">
         <v>3.1</v>
@@ -16461,16 +16464,16 @@
         <v>8016804</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2">
         <v>45381.625</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F186" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -16479,7 +16482,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J186">
         <v>2.55</v>
@@ -16547,16 +16550,16 @@
         <v>8018935</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D187" s="2">
         <v>45381.72916666666</v>
       </c>
       <c r="E187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16565,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J187">
         <v>2.7</v>
@@ -16633,16 +16636,16 @@
         <v>7773490</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>45381.83333333334</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -16651,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J188">
         <v>3.1</v>
@@ -16719,16 +16722,16 @@
         <v>7773493</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>45382.625</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G189">
         <v>5</v>
@@ -16737,7 +16740,7 @@
         <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J189">
         <v>1.4</v>
@@ -16805,16 +16808,16 @@
         <v>7773492</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>45382.72916666666</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16823,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J190">
         <v>2.1</v>
@@ -16891,16 +16894,16 @@
         <v>8018936</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>45382.83333333334</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -16909,7 +16912,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J191">
         <v>2.375</v>
@@ -16977,16 +16980,16 @@
         <v>8040559</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>45387.875</v>
       </c>
       <c r="E192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -16995,7 +16998,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J192">
         <v>1.85</v>
@@ -17063,16 +17066,16 @@
         <v>7773497</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>45388.625</v>
       </c>
       <c r="E193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G193">
         <v>3</v>
@@ -17081,7 +17084,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J193">
         <v>1.363</v>
@@ -17149,16 +17152,16 @@
         <v>7773495</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>45388.72916666666</v>
       </c>
       <c r="E194" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17167,7 +17170,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J194">
         <v>4</v>
@@ -17235,16 +17238,16 @@
         <v>8040560</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17253,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J195">
         <v>1.6</v>
@@ -17321,16 +17324,16 @@
         <v>7773066</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D196" s="2">
         <v>45389.625</v>
       </c>
       <c r="E196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G196">
         <v>3</v>
@@ -17339,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J196">
         <v>1.3</v>
@@ -17407,16 +17410,16 @@
         <v>8040561</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D197" s="2">
         <v>45389.72916666666</v>
       </c>
       <c r="E197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -17425,7 +17428,7 @@
         <v>2</v>
       </c>
       <c r="I197" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J197">
         <v>2.8</v>
@@ -17493,16 +17496,16 @@
         <v>8040562</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E198" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -17511,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J198">
         <v>2.7</v>
@@ -17579,16 +17582,16 @@
         <v>7773774</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D199" s="2">
         <v>45390.875</v>
       </c>
       <c r="E199" t="s">
+        <v>52</v>
+      </c>
+      <c r="F199" t="s">
         <v>51</v>
-      </c>
-      <c r="F199" t="s">
-        <v>50</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -17597,7 +17600,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J199">
         <v>2.25</v>
@@ -17665,16 +17668,16 @@
         <v>7773501</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2">
         <v>45394.875</v>
       </c>
       <c r="E200" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F200" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G200">
         <v>3</v>
@@ -17683,7 +17686,7 @@
         <v>3</v>
       </c>
       <c r="I200" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J200">
         <v>3</v>
@@ -17751,16 +17754,16 @@
         <v>7773503</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D201" s="2">
         <v>45395.625</v>
       </c>
       <c r="E201" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17769,7 +17772,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J201">
         <v>2.1</v>
@@ -17837,16 +17840,16 @@
         <v>8069719</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D202" s="2">
         <v>45395.72916666666</v>
       </c>
       <c r="E202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17855,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J202">
         <v>1.95</v>
@@ -17923,16 +17926,16 @@
         <v>8069537</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D203" s="2">
         <v>45395.83333333334</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17941,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J203">
         <v>1.28</v>
@@ -18009,16 +18012,16 @@
         <v>7773067</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D204" s="2">
         <v>45396.625</v>
       </c>
       <c r="E204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18027,7 +18030,7 @@
         <v>2</v>
       </c>
       <c r="I204" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J204">
         <v>2.3</v>
@@ -18095,16 +18098,16 @@
         <v>8069720</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D205" s="2">
         <v>45396.72916666666</v>
       </c>
       <c r="E205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F205" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G205">
         <v>2</v>
@@ -18113,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J205">
         <v>1.7</v>
@@ -18181,16 +18184,16 @@
         <v>8069721</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D206" s="2">
         <v>45396.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18199,7 +18202,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J206">
         <v>4</v>
@@ -18267,16 +18270,16 @@
         <v>7773504</v>
       </c>
       <c r="C207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D207" s="2">
         <v>45397.875</v>
       </c>
       <c r="E207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18285,7 +18288,7 @@
         <v>1</v>
       </c>
       <c r="I207" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J207">
         <v>1.363</v>
@@ -18353,16 +18356,16 @@
         <v>7773511</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D208" s="2">
         <v>45399.77083333334</v>
       </c>
       <c r="E208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -18371,7 +18374,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J208">
         <v>2.4</v>
@@ -18439,16 +18442,16 @@
         <v>7773510</v>
